--- a/output7/【河洛白話注音-閩拼調號】《None》.xlsx
+++ b/output7/【河洛白話注音-閩拼調號】《None》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{010D7D59-4685-45DF-9B14-57F105842DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A12CB45-0E95-44B1-BDB1-B122F3A5A3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2845" uniqueCount="1482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="1597">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4004,6 +4004,351 @@
   <si>
     <t>output7</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kin1</t>
+  </si>
+  <si>
+    <t>Zu7</t>
+  </si>
+  <si>
+    <t>u5</t>
+  </si>
+  <si>
+    <t>ui7</t>
+  </si>
+  <si>
+    <t>lang5</t>
+  </si>
+  <si>
+    <t>ziu1</t>
+  </si>
+  <si>
+    <t>lak8</t>
+  </si>
+  <si>
+    <t>Ki5</t>
+  </si>
+  <si>
+    <t>kiann5</t>
+  </si>
+  <si>
+    <t>Jit8</t>
+  </si>
+  <si>
+    <t>too5</t>
+  </si>
+  <si>
+    <t>suann1</t>
+  </si>
+  <si>
+    <t>jip8</t>
+  </si>
+  <si>
+    <t>cim1</t>
+  </si>
+  <si>
+    <t>king5</t>
+  </si>
+  <si>
+    <t>hue5</t>
+  </si>
+  <si>
+    <t>zuann5</t>
+  </si>
+  <si>
+    <t>kuai3</t>
+  </si>
+  <si>
+    <t>zioh8</t>
+  </si>
+  <si>
+    <t>bo5</t>
+  </si>
+  <si>
+    <t>hng7</t>
+  </si>
+  <si>
+    <t>kau3</t>
+  </si>
+  <si>
+    <t>Kau3</t>
+  </si>
+  <si>
+    <t>phi1</t>
+  </si>
+  <si>
+    <t>cau2</t>
+  </si>
+  <si>
+    <t>ze7</t>
+  </si>
+  <si>
+    <t>zui3</t>
+  </si>
+  <si>
+    <t>kenn1</t>
+  </si>
+  <si>
+    <t>sio1</t>
+  </si>
+  <si>
+    <t>zim2</t>
+  </si>
+  <si>
+    <t>ngoo7</t>
+  </si>
+  <si>
+    <t>Ngoo7</t>
+  </si>
+  <si>
+    <t>bang7</t>
+  </si>
+  <si>
+    <t>i3</t>
+  </si>
+  <si>
+    <t>u7</t>
+  </si>
+  <si>
+    <t>soo2</t>
+  </si>
+  <si>
+    <t>cu3</t>
+  </si>
+  <si>
+    <t>Kak4</t>
+  </si>
+  <si>
+    <t>khi2</t>
+  </si>
+  <si>
+    <t>huan5</t>
+  </si>
+  <si>
+    <t>sui2</t>
+  </si>
+  <si>
+    <t>thai3</t>
+  </si>
+  <si>
+    <t>gua2</t>
+  </si>
+  <si>
+    <t>bi7</t>
+  </si>
+  <si>
+    <t>si2</t>
+  </si>
+  <si>
+    <t>sai1</t>
+  </si>
+  <si>
+    <t>tik8</t>
+  </si>
+  <si>
+    <t>huat4</t>
+  </si>
+  <si>
+    <t>hua1</t>
+  </si>
+  <si>
+    <t>zainn2</t>
+  </si>
+  <si>
+    <t>mia7</t>
+  </si>
+  <si>
+    <t>siong1</t>
+  </si>
+  <si>
+    <t>ian5</t>
+  </si>
+  <si>
+    <t>khe1</t>
+  </si>
+  <si>
+    <t>zin1</t>
+  </si>
+  <si>
+    <t>bong2</t>
+  </si>
+  <si>
+    <t>hun5</t>
+  </si>
+  <si>
+    <t>Phan1</t>
+  </si>
+  <si>
+    <t>uan7</t>
+  </si>
+  <si>
+    <t>go5</t>
+  </si>
+  <si>
+    <t>thoo2</t>
+  </si>
+  <si>
+    <t>he7</t>
+  </si>
+  <si>
+    <t>se3</t>
+  </si>
+  <si>
+    <t>na7</t>
+  </si>
+  <si>
+    <t>hiat8</t>
+  </si>
+  <si>
+    <t>cioh4</t>
+  </si>
+  <si>
+    <t>cun3</t>
+  </si>
+  <si>
+    <t>cing1</t>
+  </si>
+  <si>
+    <t>Cuan5</t>
+  </si>
+  <si>
+    <t>lui2</t>
+  </si>
+  <si>
+    <t>mai3</t>
+  </si>
+  <si>
+    <t>tit4</t>
+  </si>
+  <si>
+    <t>Cenn1</t>
+  </si>
+  <si>
+    <t>liau7</t>
+  </si>
+  <si>
+    <t>peh8</t>
+  </si>
+  <si>
+    <t>gua7</t>
+  </si>
+  <si>
+    <t>si3</t>
+  </si>
+  <si>
+    <t>ju5</t>
+  </si>
+  <si>
+    <t>zit8</t>
+  </si>
+  <si>
+    <t>Jian5</t>
+  </si>
+  <si>
+    <t>au7</t>
+  </si>
+  <si>
+    <t>lip8</t>
+  </si>
+  <si>
+    <t>pue7</t>
+  </si>
+  <si>
+    <t>lui7</t>
+  </si>
+  <si>
+    <t>Iu1</t>
+  </si>
+  <si>
+    <t>hoonnh4</t>
+  </si>
+  <si>
+    <t>zo7</t>
+  </si>
+  <si>
+    <t>mih8</t>
+  </si>
+  <si>
+    <t>In2</t>
+  </si>
+  <si>
+    <t>ziok4</t>
+  </si>
+  <si>
+    <t>tue5</t>
+  </si>
+  <si>
+    <t>to7</t>
+  </si>
+  <si>
+    <t>Cong1</t>
+  </si>
+  <si>
+    <t>zu7</t>
+  </si>
+  <si>
+    <t>kian3</t>
+  </si>
+  <si>
+    <t>iau2</t>
+  </si>
+  <si>
+    <t>beh4</t>
+  </si>
+  <si>
+    <t>Sim1</t>
+  </si>
+  <si>
+    <t>ging5</t>
+  </si>
+  <si>
+    <t>hua3</t>
+  </si>
+  <si>
+    <t>hiong3</t>
+  </si>
+  <si>
+    <t>Koo3</t>
+  </si>
+  <si>
+    <t>Si7</t>
+  </si>
+  <si>
+    <t>guan5</t>
+  </si>
+  <si>
+    <t>ni5</t>
+  </si>
+  <si>
+    <t>kau2</t>
+  </si>
+  <si>
+    <t>zap8</t>
+  </si>
+  <si>
+    <t>peh4</t>
+  </si>
+  <si>
+    <t>in1</t>
+  </si>
+  <si>
+    <t>Sui7</t>
+  </si>
+  <si>
+    <t>kue3</t>
+  </si>
+  <si>
+    <t>ni2</t>
+  </si>
+  <si>
+    <t>hm5</t>
+  </si>
+  <si>
+    <t>sik4</t>
+  </si>
+  <si>
+    <t>hah8</t>
   </si>
   <si>
     <t>白話音</t>
@@ -8381,7 +8726,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>1167</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="30">
@@ -8470,8 +8815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A95" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="M104" sqref="M104"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A86" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="L103" sqref="L103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -8587,40 +8932,60 @@
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="D3" s="54" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>1170</v>
+      </c>
       <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
+      <c r="H3" s="54" t="s">
+        <v>1171</v>
+      </c>
       <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
+      <c r="J3" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>1172</v>
+      </c>
       <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
+      <c r="N3" s="54" t="s">
+        <v>353</v>
+      </c>
       <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
+      <c r="P3" s="54" t="s">
+        <v>1173</v>
+      </c>
       <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
+      <c r="R3" s="54" t="s">
+        <v>1174</v>
+      </c>
       <c r="T3" s="16"/>
       <c r="V3" s="55" t="s">
-        <v>1437</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
       <c r="D4" s="60" t="s">
-        <v>1431</v>
+        <v>1546</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>1362</v>
+        <v>1477</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>1363</v>
+        <v>1478</v>
       </c>
       <c r="G4" s="60"/>
       <c r="H4" s="60" t="s">
-        <v>1364</v>
+        <v>1479</v>
       </c>
       <c r="I4" s="60"/>
       <c r="J4" s="60" t="s">
@@ -8630,7 +8995,7 @@
         <v>896</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>1365</v>
+        <v>1480</v>
       </c>
       <c r="M4" s="60"/>
       <c r="N4" s="60" t="s">
@@ -8638,7 +9003,7 @@
       </c>
       <c r="O4" s="60"/>
       <c r="P4" s="60" t="s">
-        <v>1366</v>
+        <v>1481</v>
       </c>
       <c r="Q4" s="60"/>
       <c r="R4" s="60" t="s">
@@ -8652,49 +9017,49 @@
         <v>1</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>1168</v>
+        <v>1283</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>1169</v>
+        <v>1284</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>1170</v>
+        <v>1285</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>1171</v>
+        <v>1286</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>1172</v>
+        <v>1287</v>
       </c>
       <c r="I5" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>1174</v>
+        <v>1289</v>
       </c>
       <c r="K5" s="61" t="s">
-        <v>1175</v>
+        <v>1290</v>
       </c>
       <c r="L5" s="61" t="s">
-        <v>1176</v>
+        <v>1291</v>
       </c>
       <c r="M5" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="N5" s="61" t="s">
-        <v>1177</v>
+        <v>1292</v>
       </c>
       <c r="O5" s="61" t="s">
-        <v>1178</v>
+        <v>1293</v>
       </c>
       <c r="P5" s="61" t="s">
-        <v>1179</v>
+        <v>1294</v>
       </c>
       <c r="Q5" s="61" t="s">
-        <v>1180</v>
+        <v>1295</v>
       </c>
       <c r="R5" s="61" t="s">
-        <v>1181</v>
+        <v>1296</v>
       </c>
       <c r="S5" s="20" t="str">
         <f>CHAR(10)</f>
@@ -8728,20 +9093,42 @@
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
       <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
+      <c r="E7" s="54" t="s">
+        <v>364</v>
+      </c>
       <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
+      <c r="G7" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>1175</v>
+      </c>
       <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
+      <c r="M7" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="N7" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="O7" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="P7" s="54" t="s">
+        <v>437</v>
+      </c>
       <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
+      <c r="R7" s="54" t="s">
+        <v>1176</v>
+      </c>
       <c r="S7" s="27"/>
       <c r="V7" s="56"/>
     </row>
@@ -8749,7 +9136,7 @@
       <c r="B8" s="17"/>
       <c r="D8" s="60"/>
       <c r="E8" s="60" t="s">
-        <v>1438</v>
+        <v>1553</v>
       </c>
       <c r="F8" s="60"/>
       <c r="G8" s="60" t="s">
@@ -8762,10 +9149,10 @@
         <v>581</v>
       </c>
       <c r="J8" s="60" t="s">
-        <v>1439</v>
+        <v>1554</v>
       </c>
       <c r="K8" s="60" t="s">
-        <v>1367</v>
+        <v>1482</v>
       </c>
       <c r="L8" s="60"/>
       <c r="M8" s="60" t="s">
@@ -8775,14 +9162,14 @@
         <v>647</v>
       </c>
       <c r="O8" s="60" t="s">
-        <v>1439</v>
+        <v>1554</v>
       </c>
       <c r="P8" s="60" t="s">
         <v>814</v>
       </c>
       <c r="Q8" s="60"/>
       <c r="R8" s="60" t="s">
-        <v>1440</v>
+        <v>1555</v>
       </c>
       <c r="S8" s="18"/>
       <c r="V8" s="56"/>
@@ -8793,49 +9180,49 @@
         <v>2</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>1182</v>
+        <v>1297</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>1183</v>
+        <v>1298</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="G9" s="61" t="s">
-        <v>1184</v>
+        <v>1299</v>
       </c>
       <c r="H9" s="61" t="s">
-        <v>1185</v>
+        <v>1300</v>
       </c>
       <c r="I9" s="61" t="s">
-        <v>1185</v>
+        <v>1300</v>
       </c>
       <c r="J9" s="61" t="s">
-        <v>1186</v>
+        <v>1301</v>
       </c>
       <c r="K9" s="61" t="s">
-        <v>1187</v>
+        <v>1302</v>
       </c>
       <c r="L9" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="M9" s="61" t="s">
-        <v>1188</v>
+        <v>1303</v>
       </c>
       <c r="N9" s="61" t="s">
-        <v>1188</v>
+        <v>1303</v>
       </c>
       <c r="O9" s="61" t="s">
-        <v>1186</v>
+        <v>1301</v>
       </c>
       <c r="P9" s="61" t="s">
-        <v>1189</v>
+        <v>1304</v>
       </c>
       <c r="Q9" s="61" t="s">
-        <v>1180</v>
+        <v>1295</v>
       </c>
       <c r="R9" s="61" t="s">
-        <v>1190</v>
+        <v>1305</v>
       </c>
       <c r="S9" s="20" t="str">
         <f>CHAR(10)</f>
@@ -8868,19 +9255,41 @@
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
+      <c r="D11" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>1178</v>
+      </c>
       <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
+      <c r="K11" s="54" t="s">
+        <v>1179</v>
+      </c>
+      <c r="L11" s="54" t="s">
+        <v>1180</v>
+      </c>
+      <c r="M11" s="54" t="s">
+        <v>461</v>
+      </c>
       <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
+      <c r="O11" s="54" t="s">
+        <v>1181</v>
+      </c>
+      <c r="P11" s="54" t="s">
+        <v>1182</v>
+      </c>
       <c r="Q11" s="54"/>
       <c r="R11" s="54"/>
       <c r="V11" s="56"/>
@@ -8888,39 +9297,39 @@
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
       <c r="D12" s="60" t="s">
-        <v>1441</v>
+        <v>1556</v>
       </c>
       <c r="E12" s="60" t="s">
         <v>567</v>
       </c>
       <c r="F12" s="60" t="s">
-        <v>1368</v>
+        <v>1483</v>
       </c>
       <c r="G12" s="60" t="s">
-        <v>1442</v>
+        <v>1557</v>
       </c>
       <c r="H12" s="60" t="s">
         <v>890</v>
       </c>
       <c r="I12" s="60" t="s">
-        <v>1369</v>
+        <v>1484</v>
       </c>
       <c r="J12" s="60"/>
       <c r="K12" s="60" t="s">
-        <v>1370</v>
+        <v>1485</v>
       </c>
       <c r="L12" s="60" t="s">
-        <v>1371</v>
+        <v>1486</v>
       </c>
       <c r="M12" s="60" t="s">
-        <v>1443</v>
+        <v>1558</v>
       </c>
       <c r="N12" s="60"/>
       <c r="O12" s="60" t="s">
-        <v>1372</v>
+        <v>1487</v>
       </c>
       <c r="P12" s="60" t="s">
-        <v>1373</v>
+        <v>1488</v>
       </c>
       <c r="Q12" s="60"/>
       <c r="R12" s="60"/>
@@ -8933,49 +9342,49 @@
         <v>3</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>1191</v>
+        <v>1306</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>1181</v>
+        <v>1296</v>
       </c>
       <c r="F13" s="61" t="s">
-        <v>1192</v>
+        <v>1307</v>
       </c>
       <c r="G13" s="61" t="s">
-        <v>1193</v>
+        <v>1308</v>
       </c>
       <c r="H13" s="61" t="s">
-        <v>1194</v>
+        <v>1309</v>
       </c>
       <c r="I13" s="61" t="s">
-        <v>1195</v>
+        <v>1310</v>
       </c>
       <c r="J13" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="K13" s="61" t="s">
-        <v>1196</v>
+        <v>1311</v>
       </c>
       <c r="L13" s="61" t="s">
-        <v>1197</v>
+        <v>1312</v>
       </c>
       <c r="M13" s="61" t="s">
-        <v>1198</v>
+        <v>1313</v>
       </c>
       <c r="N13" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="O13" s="61" t="s">
-        <v>1199</v>
+        <v>1314</v>
       </c>
       <c r="P13" s="61" t="s">
-        <v>1200</v>
+        <v>1315</v>
       </c>
       <c r="Q13" s="61" t="s">
-        <v>1201</v>
+        <v>1316</v>
       </c>
       <c r="R13" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="S13" s="20" t="str">
         <f>CHAR(10)</f>
@@ -9007,21 +9416,47 @@
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
+      <c r="D15" s="54" t="s">
+        <v>416</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>1185</v>
+      </c>
       <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
+      <c r="I15" s="54" t="s">
+        <v>1186</v>
+      </c>
+      <c r="J15" s="54" t="s">
+        <v>1187</v>
+      </c>
+      <c r="K15" s="54" t="s">
+        <v>387</v>
+      </c>
+      <c r="L15" s="54" t="s">
+        <v>1188</v>
+      </c>
       <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
+      <c r="N15" s="54" t="s">
+        <v>1189</v>
+      </c>
+      <c r="O15" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="P15" s="54" t="s">
+        <v>1190</v>
+      </c>
+      <c r="Q15" s="54" t="s">
+        <v>1191</v>
+      </c>
+      <c r="R15" s="54" t="s">
+        <v>421</v>
+      </c>
       <c r="V15" s="56"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -9030,42 +9465,42 @@
         <v>766</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>1444</v>
+        <v>1559</v>
       </c>
       <c r="F16" s="60" t="s">
-        <v>1374</v>
+        <v>1489</v>
       </c>
       <c r="G16" s="60" t="s">
         <v>641</v>
       </c>
       <c r="H16" s="60"/>
       <c r="I16" s="60" t="s">
-        <v>1375</v>
+        <v>1490</v>
       </c>
       <c r="J16" s="60" t="s">
-        <v>1376</v>
+        <v>1491</v>
       </c>
       <c r="K16" s="60" t="s">
-        <v>1445</v>
+        <v>1560</v>
       </c>
       <c r="L16" s="60" t="s">
-        <v>1377</v>
+        <v>1492</v>
       </c>
       <c r="M16" s="60"/>
       <c r="N16" s="60" t="s">
-        <v>1377</v>
+        <v>1492</v>
       </c>
       <c r="O16" s="60" t="s">
         <v>653</v>
       </c>
       <c r="P16" s="60" t="s">
-        <v>1378</v>
+        <v>1493</v>
       </c>
       <c r="Q16" s="60" t="s">
-        <v>1379</v>
+        <v>1494</v>
       </c>
       <c r="R16" s="60" t="s">
-        <v>1439</v>
+        <v>1554</v>
       </c>
       <c r="S16" s="18"/>
       <c r="V16" s="56"/>
@@ -9076,49 +9511,49 @@
         <v>4</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>1202</v>
+        <v>1317</v>
       </c>
       <c r="E17" s="61" t="s">
-        <v>1203</v>
+        <v>1318</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>1204</v>
+        <v>1319</v>
       </c>
       <c r="G17" s="61" t="s">
-        <v>1205</v>
+        <v>1320</v>
       </c>
       <c r="H17" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="I17" s="61" t="s">
-        <v>1206</v>
+        <v>1321</v>
       </c>
       <c r="J17" s="61" t="s">
-        <v>1207</v>
+        <v>1322</v>
       </c>
       <c r="K17" s="61" t="s">
-        <v>1208</v>
+        <v>1323</v>
       </c>
       <c r="L17" s="61" t="s">
-        <v>1209</v>
+        <v>1324</v>
       </c>
       <c r="M17" s="61" t="s">
-        <v>1180</v>
+        <v>1295</v>
       </c>
       <c r="N17" s="61" t="s">
-        <v>1209</v>
+        <v>1324</v>
       </c>
       <c r="O17" s="61" t="s">
-        <v>1184</v>
+        <v>1299</v>
       </c>
       <c r="P17" s="61" t="s">
-        <v>1210</v>
+        <v>1325</v>
       </c>
       <c r="Q17" s="61" t="s">
-        <v>1211</v>
+        <v>1326</v>
       </c>
       <c r="R17" s="61" t="s">
-        <v>1186</v>
+        <v>1301</v>
       </c>
       <c r="S17" s="20" t="str">
         <f>CHAR(10)</f>
@@ -9150,27 +9585,51 @@
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="54"/>
+      <c r="D19" s="54" t="s">
+        <v>1192</v>
+      </c>
       <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
+      <c r="F19" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>382</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="I19" s="54" t="s">
+        <v>1193</v>
+      </c>
       <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
+      <c r="K19" s="54" t="s">
+        <v>1193</v>
+      </c>
+      <c r="L19" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="M19" s="54" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N19" s="54" t="s">
+        <v>1195</v>
+      </c>
+      <c r="O19" s="54" t="s">
+        <v>1196</v>
+      </c>
+      <c r="P19" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q19" s="54" t="s">
+        <v>1197</v>
+      </c>
       <c r="R19" s="54"/>
       <c r="V19" s="56"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
       <c r="D20" s="60" t="s">
-        <v>1380</v>
+        <v>1495</v>
       </c>
       <c r="E20" s="60"/>
       <c r="F20" s="60" t="s">
@@ -9180,32 +9639,32 @@
         <v>619</v>
       </c>
       <c r="H20" s="60" t="s">
-        <v>1439</v>
+        <v>1554</v>
       </c>
       <c r="I20" s="60" t="s">
-        <v>1381</v>
+        <v>1496</v>
       </c>
       <c r="J20" s="60"/>
       <c r="K20" s="60" t="s">
-        <v>1381</v>
+        <v>1496</v>
       </c>
       <c r="L20" s="60" t="s">
         <v>653</v>
       </c>
       <c r="M20" s="60" t="s">
-        <v>1446</v>
+        <v>1561</v>
       </c>
       <c r="N20" s="60" t="s">
-        <v>1447</v>
+        <v>1562</v>
       </c>
       <c r="O20" s="60" t="s">
-        <v>1382</v>
+        <v>1497</v>
       </c>
       <c r="P20" s="60" t="s">
         <v>597</v>
       </c>
       <c r="Q20" s="60" t="s">
-        <v>1448</v>
+        <v>1563</v>
       </c>
       <c r="R20" s="60"/>
       <c r="S20" s="18"/>
@@ -9217,49 +9676,49 @@
         <v>5</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>1212</v>
+        <v>1327</v>
       </c>
       <c r="E21" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>1213</v>
+        <v>1328</v>
       </c>
       <c r="G21" s="61" t="s">
-        <v>1214</v>
+        <v>1329</v>
       </c>
       <c r="H21" s="61" t="s">
-        <v>1186</v>
+        <v>1301</v>
       </c>
       <c r="I21" s="61" t="s">
-        <v>1215</v>
+        <v>1330</v>
       </c>
       <c r="J21" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="K21" s="61" t="s">
-        <v>1215</v>
+        <v>1330</v>
       </c>
       <c r="L21" s="61" t="s">
-        <v>1184</v>
+        <v>1299</v>
       </c>
       <c r="M21" s="61" t="s">
-        <v>1216</v>
+        <v>1331</v>
       </c>
       <c r="N21" s="61" t="s">
-        <v>1217</v>
+        <v>1332</v>
       </c>
       <c r="O21" s="61" t="s">
-        <v>1218</v>
+        <v>1333</v>
       </c>
       <c r="P21" s="61" t="s">
-        <v>1219</v>
+        <v>1334</v>
       </c>
       <c r="Q21" s="61" t="s">
-        <v>1220</v>
+        <v>1335</v>
       </c>
       <c r="R21" s="61" t="s">
-        <v>1180</v>
+        <v>1295</v>
       </c>
       <c r="S21" s="20" t="str">
         <f>CHAR(10)</f>
@@ -9291,63 +9750,87 @@
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
+      <c r="D23" s="54" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>1199</v>
+      </c>
       <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
+      <c r="H23" s="54" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I23" s="54" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J23" s="54" t="s">
+        <v>1202</v>
+      </c>
+      <c r="K23" s="54" t="s">
+        <v>54</v>
+      </c>
       <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
+      <c r="M23" s="54" t="s">
+        <v>1199</v>
+      </c>
+      <c r="N23" s="54" t="s">
+        <v>475</v>
+      </c>
+      <c r="O23" s="54" t="s">
+        <v>472</v>
+      </c>
+      <c r="P23" s="54" t="s">
+        <v>1203</v>
+      </c>
       <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
+      <c r="R23" s="54" t="s">
+        <v>1204</v>
+      </c>
       <c r="V23" s="56"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
       <c r="D24" s="60" t="s">
-        <v>1448</v>
+        <v>1563</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>1439</v>
+        <v>1554</v>
       </c>
       <c r="F24" s="60" t="s">
-        <v>1383</v>
+        <v>1498</v>
       </c>
       <c r="G24" s="60"/>
       <c r="H24" s="60" t="s">
-        <v>1384</v>
+        <v>1499</v>
       </c>
       <c r="I24" s="60" t="s">
-        <v>1385</v>
+        <v>1500</v>
       </c>
       <c r="J24" s="60" t="s">
-        <v>1386</v>
+        <v>1501</v>
       </c>
       <c r="K24" s="60" t="s">
         <v>673</v>
       </c>
       <c r="L24" s="60"/>
       <c r="M24" s="60" t="s">
-        <v>1383</v>
+        <v>1498</v>
       </c>
       <c r="N24" s="60" t="s">
         <v>657</v>
       </c>
       <c r="O24" s="60" t="s">
-        <v>1449</v>
+        <v>1564</v>
       </c>
       <c r="P24" s="60" t="s">
-        <v>1387</v>
+        <v>1502</v>
       </c>
       <c r="Q24" s="60"/>
       <c r="R24" s="60" t="s">
-        <v>1450</v>
+        <v>1565</v>
       </c>
       <c r="S24" s="18"/>
       <c r="V24" s="56"/>
@@ -9358,49 +9841,49 @@
         <v>6</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>1220</v>
+        <v>1335</v>
       </c>
       <c r="E25" s="61" t="s">
-        <v>1186</v>
+        <v>1301</v>
       </c>
       <c r="F25" s="61" t="s">
-        <v>1221</v>
+        <v>1336</v>
       </c>
       <c r="G25" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="H25" s="61" t="s">
-        <v>1222</v>
+        <v>1337</v>
       </c>
       <c r="I25" s="61" t="s">
-        <v>1223</v>
+        <v>1338</v>
       </c>
       <c r="J25" s="61" t="s">
-        <v>1224</v>
+        <v>1339</v>
       </c>
       <c r="K25" s="61" t="s">
-        <v>1225</v>
+        <v>1340</v>
       </c>
       <c r="L25" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="M25" s="61" t="s">
-        <v>1221</v>
+        <v>1336</v>
       </c>
       <c r="N25" s="61" t="s">
-        <v>1226</v>
+        <v>1341</v>
       </c>
       <c r="O25" s="61" t="s">
-        <v>1227</v>
+        <v>1342</v>
       </c>
       <c r="P25" s="61" t="s">
-        <v>1228</v>
+        <v>1343</v>
       </c>
       <c r="Q25" s="61" t="s">
-        <v>1180</v>
+        <v>1295</v>
       </c>
       <c r="R25" s="61" t="s">
-        <v>1229</v>
+        <v>1344</v>
       </c>
       <c r="S25" s="20" t="str">
         <f>CHAR(10)</f>
@@ -9432,21 +9915,47 @@
     <row r="27" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
+      <c r="D27" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>1205</v>
+      </c>
       <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
+      <c r="G27" s="54" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H27" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="I27" s="54" t="s">
+        <v>483</v>
+      </c>
       <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
+      <c r="K27" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="L27" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" s="54" t="s">
+        <v>1206</v>
+      </c>
+      <c r="N27" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="O27" s="54" t="s">
+        <v>1172</v>
+      </c>
+      <c r="P27" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q27" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="R27" s="54" t="s">
+        <v>1207</v>
+      </c>
       <c r="U27" s="33" t="str">
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
         <v/>
@@ -9456,17 +9965,17 @@
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
       <c r="D28" s="60" t="s">
-        <v>1439</v>
+        <v>1554</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>1388</v>
+        <v>1503</v>
       </c>
       <c r="F28" s="60"/>
       <c r="G28" s="60" t="s">
-        <v>1388</v>
+        <v>1503</v>
       </c>
       <c r="H28" s="60" t="s">
-        <v>1439</v>
+        <v>1554</v>
       </c>
       <c r="I28" s="60" t="s">
         <v>916</v>
@@ -9476,25 +9985,25 @@
         <v>597</v>
       </c>
       <c r="L28" s="60" t="s">
-        <v>1363</v>
+        <v>1478</v>
       </c>
       <c r="M28" s="60" t="s">
-        <v>1389</v>
+        <v>1504</v>
       </c>
       <c r="N28" s="60" t="s">
         <v>896</v>
       </c>
       <c r="O28" s="60" t="s">
-        <v>1365</v>
+        <v>1480</v>
       </c>
       <c r="P28" s="60" t="s">
         <v>601</v>
       </c>
       <c r="Q28" s="60" t="s">
-        <v>1369</v>
+        <v>1484</v>
       </c>
       <c r="R28" s="60" t="s">
-        <v>1451</v>
+        <v>1566</v>
       </c>
       <c r="S28" s="18"/>
       <c r="U28" s="33" t="str">
@@ -9509,49 +10018,49 @@
         <v>7</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>1186</v>
+        <v>1301</v>
       </c>
       <c r="E29" s="61" t="s">
-        <v>1230</v>
+        <v>1345</v>
       </c>
       <c r="F29" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="G29" s="61" t="s">
-        <v>1230</v>
+        <v>1345</v>
       </c>
       <c r="H29" s="61" t="s">
-        <v>1186</v>
+        <v>1301</v>
       </c>
       <c r="I29" s="61" t="s">
-        <v>1231</v>
+        <v>1346</v>
       </c>
       <c r="J29" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="K29" s="61" t="s">
-        <v>1219</v>
+        <v>1334</v>
       </c>
       <c r="L29" s="61" t="s">
-        <v>1170</v>
+        <v>1285</v>
       </c>
       <c r="M29" s="61" t="s">
-        <v>1232</v>
+        <v>1347</v>
       </c>
       <c r="N29" s="61" t="s">
-        <v>1175</v>
+        <v>1290</v>
       </c>
       <c r="O29" s="61" t="s">
-        <v>1176</v>
+        <v>1291</v>
       </c>
       <c r="P29" s="61" t="s">
-        <v>1233</v>
+        <v>1348</v>
       </c>
       <c r="Q29" s="61" t="s">
-        <v>1195</v>
+        <v>1310</v>
       </c>
       <c r="R29" s="61" t="s">
-        <v>1234</v>
+        <v>1349</v>
       </c>
       <c r="S29" s="20" t="str">
         <f>CHAR(10)</f>
@@ -9591,21 +10100,47 @@
     <row r="31" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="12"/>
       <c r="C31" s="32"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
+      <c r="D31" s="54" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>381</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G31" s="54" t="s">
+        <v>422</v>
+      </c>
       <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
+      <c r="I31" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="J31" s="54" t="s">
+        <v>1209</v>
+      </c>
+      <c r="K31" s="54" t="s">
+        <v>1201</v>
+      </c>
+      <c r="L31" s="54" t="s">
+        <v>364</v>
+      </c>
       <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
+      <c r="N31" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="O31" s="54" t="s">
+        <v>1210</v>
+      </c>
+      <c r="P31" s="54" t="s">
+        <v>1211</v>
+      </c>
+      <c r="Q31" s="54" t="s">
+        <v>469</v>
+      </c>
+      <c r="R31" s="54" t="s">
+        <v>1212</v>
+      </c>
       <c r="U31" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -9615,13 +10150,13 @@
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
       <c r="D32" s="60" t="s">
-        <v>1385</v>
+        <v>1500</v>
       </c>
       <c r="E32" s="60" t="s">
         <v>693</v>
       </c>
       <c r="F32" s="60" t="s">
-        <v>1390</v>
+        <v>1505</v>
       </c>
       <c r="G32" s="60" t="s">
         <v>782</v>
@@ -9631,29 +10166,29 @@
         <v>856</v>
       </c>
       <c r="J32" s="60" t="s">
-        <v>1391</v>
+        <v>1506</v>
       </c>
       <c r="K32" s="60" t="s">
-        <v>1385</v>
+        <v>1500</v>
       </c>
       <c r="L32" s="60" t="s">
-        <v>1438</v>
+        <v>1553</v>
       </c>
       <c r="M32" s="60"/>
       <c r="N32" s="60" t="s">
-        <v>1439</v>
+        <v>1554</v>
       </c>
       <c r="O32" s="60" t="s">
-        <v>1392</v>
+        <v>1507</v>
       </c>
       <c r="P32" s="60" t="s">
-        <v>1452</v>
+        <v>1567</v>
       </c>
       <c r="Q32" s="60" t="s">
         <v>882</v>
       </c>
       <c r="R32" s="60" t="s">
-        <v>1393</v>
+        <v>1508</v>
       </c>
       <c r="S32" s="18"/>
       <c r="U32" s="33" t="str">
@@ -9668,49 +10203,49 @@
         <v>8</v>
       </c>
       <c r="D33" s="61" t="s">
-        <v>1223</v>
+        <v>1338</v>
       </c>
       <c r="E33" s="61" t="s">
-        <v>1235</v>
+        <v>1350</v>
       </c>
       <c r="F33" s="61" t="s">
-        <v>1236</v>
+        <v>1351</v>
       </c>
       <c r="G33" s="61" t="s">
-        <v>1237</v>
+        <v>1352</v>
       </c>
       <c r="H33" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="I33" s="61" t="s">
-        <v>1238</v>
+        <v>1353</v>
       </c>
       <c r="J33" s="61" t="s">
-        <v>1239</v>
+        <v>1354</v>
       </c>
       <c r="K33" s="61" t="s">
-        <v>1223</v>
+        <v>1338</v>
       </c>
       <c r="L33" s="61" t="s">
-        <v>1183</v>
+        <v>1298</v>
       </c>
       <c r="M33" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="N33" s="61" t="s">
-        <v>1186</v>
+        <v>1301</v>
       </c>
       <c r="O33" s="61" t="s">
-        <v>1240</v>
+        <v>1355</v>
       </c>
       <c r="P33" s="61" t="s">
-        <v>1241</v>
+        <v>1356</v>
       </c>
       <c r="Q33" s="61" t="s">
-        <v>1242</v>
+        <v>1357</v>
       </c>
       <c r="R33" s="61" t="s">
-        <v>1243</v>
+        <v>1358</v>
       </c>
       <c r="S33" s="20" t="str">
         <f>CHAR(10)</f>
@@ -9742,10 +10277,18 @@
     <row r="35" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="12"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
+      <c r="D35" s="54" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="F35" s="54" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G35" s="54" t="s">
+        <v>1213</v>
+      </c>
       <c r="H35" s="54"/>
       <c r="I35" s="54"/>
       <c r="J35" s="54"/>
@@ -9762,16 +10305,16 @@
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
       <c r="D36" s="60" t="s">
-        <v>1369</v>
+        <v>1484</v>
       </c>
       <c r="E36" s="60" t="s">
         <v>601</v>
       </c>
       <c r="F36" s="60" t="s">
-        <v>1374</v>
+        <v>1489</v>
       </c>
       <c r="G36" s="60" t="s">
-        <v>1394</v>
+        <v>1509</v>
       </c>
       <c r="H36" s="60"/>
       <c r="I36" s="60"/>
@@ -9793,19 +10336,19 @@
         <v>9</v>
       </c>
       <c r="D37" s="61" t="s">
-        <v>1195</v>
+        <v>1310</v>
       </c>
       <c r="E37" s="61" t="s">
-        <v>1233</v>
+        <v>1348</v>
       </c>
       <c r="F37" s="61" t="s">
-        <v>1204</v>
+        <v>1319</v>
       </c>
       <c r="G37" s="61" t="s">
-        <v>1244</v>
+        <v>1359</v>
       </c>
       <c r="H37" s="61" t="s">
-        <v>1180</v>
+        <v>1295</v>
       </c>
       <c r="I37" s="61" t="str">
         <f>CHAR(10)</f>
@@ -9851,64 +10394,92 @@
     <row r="39" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="12"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
+      <c r="D39" s="54" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E39" s="54" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F39" s="54" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G39" s="54" t="s">
+        <v>386</v>
+      </c>
+      <c r="H39" s="54" t="s">
+        <v>468</v>
+      </c>
+      <c r="I39" s="54" t="s">
+        <v>1273</v>
+      </c>
+      <c r="J39" s="54" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K39" s="54" t="s">
+        <v>395</v>
+      </c>
       <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
+      <c r="M39" s="54" t="s">
+        <v>1275</v>
+      </c>
+      <c r="N39" s="54" t="s">
+        <v>1192</v>
+      </c>
+      <c r="O39" s="54" t="s">
+        <v>1214</v>
+      </c>
+      <c r="P39" s="54" t="s">
+        <v>1215</v>
+      </c>
+      <c r="Q39" s="54" t="s">
+        <v>1212</v>
+      </c>
+      <c r="R39" s="54" t="s">
+        <v>304</v>
+      </c>
       <c r="V39" s="56"/>
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
       <c r="D40" s="64" t="s">
-        <v>1453</v>
+        <v>1568</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>1395</v>
+        <v>1510</v>
       </c>
       <c r="F40" s="60" t="s">
-        <v>1396</v>
+        <v>1511</v>
       </c>
       <c r="G40" s="60" t="s">
-        <v>1454</v>
+        <v>1569</v>
       </c>
       <c r="H40" s="60" t="s">
         <v>878</v>
       </c>
       <c r="I40" s="60" t="s">
-        <v>1397</v>
+        <v>1512</v>
       </c>
       <c r="J40" s="60" t="s">
-        <v>1398</v>
+        <v>1513</v>
       </c>
       <c r="K40" s="60" t="s">
-        <v>1440</v>
+        <v>1555</v>
       </c>
       <c r="L40" s="60"/>
       <c r="M40" s="60" t="s">
-        <v>1399</v>
+        <v>1514</v>
       </c>
       <c r="N40" s="60" t="s">
-        <v>1380</v>
+        <v>1495</v>
       </c>
       <c r="O40" s="60" t="s">
-        <v>1400</v>
+        <v>1515</v>
       </c>
       <c r="P40" s="60" t="s">
-        <v>1455</v>
+        <v>1570</v>
       </c>
       <c r="Q40" s="60" t="s">
-        <v>1393</v>
+        <v>1508</v>
       </c>
       <c r="R40" s="60" t="s">
         <v>517</v>
@@ -9922,49 +10493,49 @@
         <v>10</v>
       </c>
       <c r="D41" s="61" t="s">
-        <v>1245</v>
+        <v>1360</v>
       </c>
       <c r="E41" s="61" t="s">
-        <v>1246</v>
+        <v>1361</v>
       </c>
       <c r="F41" s="61" t="s">
-        <v>1247</v>
+        <v>1362</v>
       </c>
       <c r="G41" s="61" t="s">
-        <v>1248</v>
+        <v>1363</v>
       </c>
       <c r="H41" s="61" t="s">
-        <v>1249</v>
+        <v>1364</v>
       </c>
       <c r="I41" s="61" t="s">
-        <v>1250</v>
+        <v>1365</v>
       </c>
       <c r="J41" s="61" t="s">
-        <v>1251</v>
+        <v>1366</v>
       </c>
       <c r="K41" s="61" t="s">
-        <v>1190</v>
+        <v>1305</v>
       </c>
       <c r="L41" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="M41" s="61" t="s">
-        <v>1252</v>
+        <v>1367</v>
       </c>
       <c r="N41" s="61" t="s">
-        <v>1212</v>
+        <v>1327</v>
       </c>
       <c r="O41" s="61" t="s">
-        <v>1253</v>
+        <v>1368</v>
       </c>
       <c r="P41" s="61" t="s">
-        <v>1254</v>
+        <v>1369</v>
       </c>
       <c r="Q41" s="61" t="s">
-        <v>1243</v>
+        <v>1358</v>
       </c>
       <c r="R41" s="61" t="s">
-        <v>1255</v>
+        <v>1370</v>
       </c>
       <c r="S41" s="20" t="str">
         <f>CHAR(10)</f>
@@ -9997,37 +10568,61 @@
       <c r="B43" s="12"/>
       <c r="C43" s="32"/>
       <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
+      <c r="E43" s="54" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F43" s="54" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G43" s="54" t="s">
+        <v>1178</v>
+      </c>
       <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
+      <c r="I43" s="54" t="s">
+        <v>1211</v>
+      </c>
+      <c r="J43" s="54" t="s">
+        <v>1216</v>
+      </c>
+      <c r="K43" s="54" t="s">
+        <v>381</v>
+      </c>
+      <c r="L43" s="54" t="s">
+        <v>338</v>
+      </c>
       <c r="M43" s="54"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="54"/>
+      <c r="N43" s="54" t="s">
+        <v>1276</v>
+      </c>
+      <c r="O43" s="54" t="s">
+        <v>1217</v>
+      </c>
+      <c r="P43" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q43" s="54" t="s">
+        <v>1171</v>
+      </c>
+      <c r="R43" s="54" t="s">
+        <v>1277</v>
+      </c>
       <c r="V43" s="56"/>
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
       <c r="D44" s="60"/>
       <c r="E44" s="60" t="s">
-        <v>1383</v>
+        <v>1498</v>
       </c>
       <c r="F44" s="60" t="s">
-        <v>1393</v>
+        <v>1508</v>
       </c>
       <c r="G44" s="60" t="s">
-        <v>1369</v>
+        <v>1484</v>
       </c>
       <c r="H44" s="60"/>
       <c r="I44" s="60" t="s">
-        <v>1452</v>
+        <v>1567</v>
       </c>
       <c r="J44" s="60" t="s">
         <v>884</v>
@@ -10040,19 +10635,19 @@
       </c>
       <c r="M44" s="60"/>
       <c r="N44" s="60" t="s">
-        <v>1456</v>
+        <v>1571</v>
       </c>
       <c r="O44" s="60" t="s">
-        <v>1401</v>
+        <v>1516</v>
       </c>
       <c r="P44" s="60" t="s">
         <v>740</v>
       </c>
       <c r="Q44" s="60" t="s">
-        <v>1364</v>
+        <v>1479</v>
       </c>
       <c r="R44" s="60" t="s">
-        <v>1457</v>
+        <v>1572</v>
       </c>
       <c r="S44" s="18"/>
       <c r="V44" s="56"/>
@@ -10063,49 +10658,49 @@
         <v>11</v>
       </c>
       <c r="D45" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="E45" s="61" t="s">
-        <v>1256</v>
+        <v>1371</v>
       </c>
       <c r="F45" s="61" t="s">
-        <v>1243</v>
+        <v>1358</v>
       </c>
       <c r="G45" s="61" t="s">
-        <v>1195</v>
+        <v>1310</v>
       </c>
       <c r="H45" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="I45" s="61" t="s">
-        <v>1241</v>
+        <v>1356</v>
       </c>
       <c r="J45" s="61" t="s">
-        <v>1257</v>
+        <v>1372</v>
       </c>
       <c r="K45" s="61" t="s">
-        <v>1235</v>
+        <v>1350</v>
       </c>
       <c r="L45" s="61" t="s">
-        <v>1233</v>
+        <v>1348</v>
       </c>
       <c r="M45" s="61" t="s">
-        <v>1180</v>
+        <v>1295</v>
       </c>
       <c r="N45" s="61" t="s">
-        <v>1258</v>
+        <v>1373</v>
       </c>
       <c r="O45" s="61" t="s">
-        <v>1259</v>
+        <v>1374</v>
       </c>
       <c r="P45" s="61" t="s">
-        <v>1260</v>
+        <v>1375</v>
       </c>
       <c r="Q45" s="61" t="s">
-        <v>1172</v>
+        <v>1287</v>
       </c>
       <c r="R45" s="61" t="s">
-        <v>1261</v>
+        <v>1376</v>
       </c>
       <c r="S45" s="20" t="str">
         <f>CHAR(10)</f>
@@ -10137,19 +10732,37 @@
     <row r="47" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="12"/>
       <c r="C47" s="32"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
+      <c r="D47" s="54" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E47" s="54" t="s">
+        <v>351</v>
+      </c>
       <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
+      <c r="G47" s="54" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H47" s="54" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I47" s="54" t="s">
+        <v>1220</v>
+      </c>
       <c r="J47" s="54"/>
       <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
+      <c r="L47" s="54" t="s">
+        <v>1221</v>
+      </c>
+      <c r="M47" s="54" t="s">
+        <v>1222</v>
+      </c>
       <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
+      <c r="O47" s="54" t="s">
+        <v>1223</v>
+      </c>
+      <c r="P47" s="54" t="s">
+        <v>1279</v>
+      </c>
       <c r="Q47" s="54"/>
       <c r="R47" s="54"/>
       <c r="V47" s="56"/>
@@ -10157,35 +10770,35 @@
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
       <c r="D48" s="60" t="s">
-        <v>1402</v>
+        <v>1517</v>
       </c>
       <c r="E48" s="60" t="s">
         <v>629</v>
       </c>
       <c r="F48" s="60"/>
       <c r="G48" s="60" t="s">
-        <v>1403</v>
+        <v>1518</v>
       </c>
       <c r="H48" s="60" t="s">
-        <v>1458</v>
+        <v>1573</v>
       </c>
       <c r="I48" s="60" t="s">
-        <v>1404</v>
+        <v>1519</v>
       </c>
       <c r="J48" s="60"/>
       <c r="K48" s="60"/>
       <c r="L48" s="60" t="s">
-        <v>1405</v>
+        <v>1520</v>
       </c>
       <c r="M48" s="60" t="s">
-        <v>1406</v>
+        <v>1521</v>
       </c>
       <c r="N48" s="60"/>
       <c r="O48" s="60" t="s">
-        <v>1407</v>
+        <v>1522</v>
       </c>
       <c r="P48" s="60" t="s">
-        <v>1459</v>
+        <v>1574</v>
       </c>
       <c r="Q48" s="60"/>
       <c r="R48" s="60"/>
@@ -10198,49 +10811,49 @@
         <v>12</v>
       </c>
       <c r="D49" s="61" t="s">
-        <v>1262</v>
+        <v>1377</v>
       </c>
       <c r="E49" s="61" t="s">
-        <v>1263</v>
+        <v>1378</v>
       </c>
       <c r="F49" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="G49" s="61" t="s">
-        <v>1264</v>
+        <v>1379</v>
       </c>
       <c r="H49" s="61" t="s">
-        <v>1265</v>
+        <v>1380</v>
       </c>
       <c r="I49" s="61" t="s">
-        <v>1266</v>
+        <v>1381</v>
       </c>
       <c r="J49" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="K49" s="61" t="s">
-        <v>1267</v>
+        <v>1382</v>
       </c>
       <c r="L49" s="61" t="s">
-        <v>1268</v>
+        <v>1383</v>
       </c>
       <c r="M49" s="61" t="s">
-        <v>1269</v>
+        <v>1384</v>
       </c>
       <c r="N49" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="O49" s="61" t="s">
-        <v>1270</v>
+        <v>1385</v>
       </c>
       <c r="P49" s="61" t="s">
-        <v>1271</v>
+        <v>1386</v>
       </c>
       <c r="Q49" s="61" t="s">
-        <v>1272</v>
+        <v>1387</v>
       </c>
       <c r="R49" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="S49" s="20" t="str">
         <f>CHAR(10)</f>
@@ -10272,30 +10885,54 @@
     <row r="51" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
       <c r="C51" s="32"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
+      <c r="D51" s="54" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E51" s="54" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F51" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="G51" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="H51" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="I51" s="54" t="s">
+        <v>440</v>
+      </c>
       <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="54"/>
+      <c r="K51" s="54" t="s">
+        <v>1224</v>
+      </c>
+      <c r="L51" s="54" t="s">
+        <v>1225</v>
+      </c>
+      <c r="M51" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="N51" s="54" t="s">
+        <v>410</v>
+      </c>
       <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
+      <c r="P51" s="54" t="s">
+        <v>418</v>
+      </c>
       <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
+      <c r="R51" s="54" t="s">
+        <v>421</v>
+      </c>
       <c r="V51" s="56"/>
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
       <c r="D52" s="60" t="s">
-        <v>1372</v>
+        <v>1487</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>1369</v>
+        <v>1484</v>
       </c>
       <c r="F52" s="60" t="s">
         <v>601</v>
@@ -10304,20 +10941,20 @@
         <v>890</v>
       </c>
       <c r="H52" s="60" t="s">
-        <v>1439</v>
+        <v>1554</v>
       </c>
       <c r="I52" s="60" t="s">
         <v>820</v>
       </c>
       <c r="J52" s="60"/>
       <c r="K52" s="60" t="s">
-        <v>1460</v>
+        <v>1575</v>
       </c>
       <c r="L52" s="60" t="s">
-        <v>1408</v>
+        <v>1523</v>
       </c>
       <c r="M52" s="60" t="s">
-        <v>1439</v>
+        <v>1554</v>
       </c>
       <c r="N52" s="60" t="s">
         <v>752</v>
@@ -10330,7 +10967,7 @@
         <v>599</v>
       </c>
       <c r="R52" s="60" t="s">
-        <v>1439</v>
+        <v>1554</v>
       </c>
       <c r="S52" s="18"/>
       <c r="V52" s="56"/>
@@ -10341,49 +10978,49 @@
         <v>13</v>
       </c>
       <c r="D53" s="61" t="s">
-        <v>1199</v>
+        <v>1314</v>
       </c>
       <c r="E53" s="61" t="s">
-        <v>1195</v>
+        <v>1310</v>
       </c>
       <c r="F53" s="61" t="s">
-        <v>1233</v>
+        <v>1348</v>
       </c>
       <c r="G53" s="61" t="s">
-        <v>1194</v>
+        <v>1309</v>
       </c>
       <c r="H53" s="61" t="s">
-        <v>1186</v>
+        <v>1301</v>
       </c>
       <c r="I53" s="61" t="s">
-        <v>1273</v>
+        <v>1388</v>
       </c>
       <c r="J53" s="61" t="s">
-        <v>1180</v>
+        <v>1295</v>
       </c>
       <c r="K53" s="61" t="s">
-        <v>1274</v>
+        <v>1389</v>
       </c>
       <c r="L53" s="61" t="s">
-        <v>1275</v>
+        <v>1390</v>
       </c>
       <c r="M53" s="61" t="s">
-        <v>1186</v>
+        <v>1301</v>
       </c>
       <c r="N53" s="61" t="s">
-        <v>1276</v>
+        <v>1391</v>
       </c>
       <c r="O53" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="P53" s="61" t="s">
-        <v>1277</v>
+        <v>1392</v>
       </c>
       <c r="Q53" s="61" t="s">
-        <v>1278</v>
+        <v>1393</v>
       </c>
       <c r="R53" s="61" t="s">
-        <v>1186</v>
+        <v>1301</v>
       </c>
       <c r="S53" s="20" t="str">
         <f>CHAR(10)</f>
@@ -10415,56 +11052,78 @@
     <row r="55" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="12"/>
       <c r="C55" s="32"/>
-      <c r="D55" s="54"/>
+      <c r="D55" s="54" t="s">
+        <v>1226</v>
+      </c>
       <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="54"/>
+      <c r="F55" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="G55" s="54" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H55" s="54" t="s">
+        <v>407</v>
+      </c>
+      <c r="I55" s="54" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J55" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="K55" s="54" t="s">
+        <v>1227</v>
+      </c>
       <c r="L55" s="54"/>
       <c r="M55" s="54"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
+      <c r="N55" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="O55" s="54" t="s">
+        <v>342</v>
+      </c>
       <c r="P55" s="54"/>
-      <c r="Q55" s="54"/>
-      <c r="R55" s="54"/>
+      <c r="Q55" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="R55" s="54" t="s">
+        <v>338</v>
+      </c>
       <c r="V55" s="56"/>
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
       <c r="D56" s="60" t="s">
-        <v>1409</v>
+        <v>1524</v>
       </c>
       <c r="E56" s="60"/>
       <c r="F56" s="60" t="s">
         <v>653</v>
       </c>
       <c r="G56" s="60" t="s">
-        <v>1389</v>
+        <v>1504</v>
       </c>
       <c r="H56" s="60" t="s">
-        <v>1461</v>
+        <v>1576</v>
       </c>
       <c r="I56" s="60" t="s">
-        <v>1365</v>
+        <v>1480</v>
       </c>
       <c r="J56" s="60" t="s">
         <v>601</v>
       </c>
       <c r="K56" s="60" t="s">
-        <v>1462</v>
+        <v>1577</v>
       </c>
       <c r="L56" s="60" t="s">
-        <v>1480</v>
+        <v>1595</v>
       </c>
       <c r="M56" s="60"/>
       <c r="N56" s="60" t="s">
         <v>856</v>
       </c>
       <c r="O56" s="60" t="s">
-        <v>1463</v>
+        <v>1578</v>
       </c>
       <c r="P56" s="60"/>
       <c r="Q56" s="60" t="s">
@@ -10482,49 +11141,49 @@
         <v>14</v>
       </c>
       <c r="D57" s="61" t="s">
-        <v>1279</v>
+        <v>1394</v>
       </c>
       <c r="E57" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="F57" s="61" t="s">
-        <v>1184</v>
+        <v>1299</v>
       </c>
       <c r="G57" s="61" t="s">
-        <v>1232</v>
+        <v>1347</v>
       </c>
       <c r="H57" s="61" t="s">
-        <v>1280</v>
+        <v>1395</v>
       </c>
       <c r="I57" s="61" t="s">
-        <v>1176</v>
+        <v>1291</v>
       </c>
       <c r="J57" s="61" t="s">
-        <v>1233</v>
+        <v>1348</v>
       </c>
       <c r="K57" s="61" t="s">
-        <v>1281</v>
+        <v>1396</v>
       </c>
       <c r="L57" s="61" t="s">
-        <v>1282</v>
+        <v>1397</v>
       </c>
       <c r="M57" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="N57" s="61" t="s">
-        <v>1238</v>
+        <v>1353</v>
       </c>
       <c r="O57" s="61" t="s">
-        <v>1283</v>
+        <v>1398</v>
       </c>
       <c r="P57" s="61" t="s">
-        <v>1284</v>
+        <v>1399</v>
       </c>
       <c r="Q57" s="61" t="s">
-        <v>1285</v>
+        <v>1400</v>
       </c>
       <c r="R57" s="61" t="s">
-        <v>1233</v>
+        <v>1348</v>
       </c>
       <c r="S57" s="20" t="str">
         <f>CHAR(10)</f>
@@ -10556,20 +11215,38 @@
     <row r="59" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="12"/>
       <c r="C59" s="32"/>
-      <c r="D59" s="54"/>
+      <c r="D59" s="54" t="s">
+        <v>1228</v>
+      </c>
       <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
+      <c r="F59" s="54" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G59" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="H59" s="54" t="s">
+        <v>1228</v>
+      </c>
+      <c r="I59" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="J59" s="54" t="s">
+        <v>1229</v>
+      </c>
       <c r="K59" s="54"/>
       <c r="L59" s="54"/>
-      <c r="M59" s="54"/>
+      <c r="M59" s="54" t="s">
+        <v>368</v>
+      </c>
       <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
+      <c r="O59" s="54" t="s">
+        <v>368</v>
+      </c>
       <c r="P59" s="54"/>
-      <c r="Q59" s="54"/>
+      <c r="Q59" s="54" t="s">
+        <v>1230</v>
+      </c>
       <c r="R59" s="54"/>
       <c r="V59" s="56"/>
     </row>
@@ -10592,7 +11269,7 @@
         <v>601</v>
       </c>
       <c r="J60" s="60" t="s">
-        <v>1410</v>
+        <v>1525</v>
       </c>
       <c r="K60" s="60"/>
       <c r="L60" s="60"/>
@@ -10605,7 +11282,7 @@
       </c>
       <c r="P60" s="60"/>
       <c r="Q60" s="60" t="s">
-        <v>1411</v>
+        <v>1526</v>
       </c>
       <c r="R60" s="60"/>
       <c r="S60" s="18"/>
@@ -10617,49 +11294,49 @@
         <v>15</v>
       </c>
       <c r="D61" s="61" t="s">
-        <v>1286</v>
+        <v>1401</v>
       </c>
       <c r="E61" s="61" t="s">
-        <v>1180</v>
+        <v>1295</v>
       </c>
       <c r="F61" s="61" t="s">
-        <v>1181</v>
+        <v>1296</v>
       </c>
       <c r="G61" s="61" t="s">
-        <v>1194</v>
+        <v>1309</v>
       </c>
       <c r="H61" s="61" t="s">
-        <v>1286</v>
+        <v>1401</v>
       </c>
       <c r="I61" s="61" t="s">
-        <v>1233</v>
+        <v>1348</v>
       </c>
       <c r="J61" s="61" t="s">
-        <v>1287</v>
+        <v>1402</v>
       </c>
       <c r="K61" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="L61" s="61" t="s">
+        <v>1403</v>
+      </c>
+      <c r="M61" s="61" t="s">
+        <v>1404</v>
+      </c>
+      <c r="N61" s="61" t="s">
+        <v>1405</v>
+      </c>
+      <c r="O61" s="61" t="s">
+        <v>1404</v>
+      </c>
+      <c r="P61" s="61" t="s">
         <v>1288</v>
       </c>
-      <c r="M61" s="61" t="s">
-        <v>1289</v>
-      </c>
-      <c r="N61" s="61" t="s">
-        <v>1290</v>
-      </c>
-      <c r="O61" s="61" t="s">
-        <v>1289</v>
-      </c>
-      <c r="P61" s="61" t="s">
-        <v>1173</v>
-      </c>
       <c r="Q61" s="61" t="s">
-        <v>1291</v>
+        <v>1406</v>
       </c>
       <c r="R61" s="61" t="s">
-        <v>1292</v>
+        <v>1407</v>
       </c>
       <c r="S61" s="20" t="str">
         <f>CHAR(10)</f>
@@ -10691,37 +11368,59 @@
     <row r="63" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="12"/>
       <c r="C63" s="32"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
+      <c r="D63" s="54" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E63" s="54" t="s">
+        <v>1231</v>
+      </c>
       <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
+      <c r="G63" s="54" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H63" s="54" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I63" s="54" t="s">
+        <v>1234</v>
+      </c>
+      <c r="J63" s="54" t="s">
+        <v>399</v>
+      </c>
       <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
+      <c r="L63" s="54" t="s">
+        <v>1235</v>
+      </c>
       <c r="M63" s="54"/>
-      <c r="N63" s="54"/>
-      <c r="O63" s="54"/>
+      <c r="N63" s="54" t="s">
+        <v>1236</v>
+      </c>
+      <c r="O63" s="54" t="s">
+        <v>363</v>
+      </c>
       <c r="P63" s="54"/>
-      <c r="Q63" s="54"/>
-      <c r="R63" s="54"/>
+      <c r="Q63" s="54" t="s">
+        <v>1237</v>
+      </c>
+      <c r="R63" s="54" t="s">
+        <v>1238</v>
+      </c>
       <c r="V63" s="56"/>
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
       <c r="D64" s="60" t="s">
-        <v>1411</v>
+        <v>1526</v>
       </c>
       <c r="E64" s="60" t="s">
-        <v>1412</v>
+        <v>1527</v>
       </c>
       <c r="F64" s="60"/>
       <c r="G64" s="60" t="s">
-        <v>1413</v>
+        <v>1528</v>
       </c>
       <c r="H64" s="60" t="s">
-        <v>1414</v>
+        <v>1529</v>
       </c>
       <c r="I64" s="60" t="s">
         <v>649</v>
@@ -10731,21 +11430,21 @@
       </c>
       <c r="K64" s="60"/>
       <c r="L64" s="60" t="s">
-        <v>1464</v>
+        <v>1579</v>
       </c>
       <c r="M64" s="60"/>
       <c r="N64" s="60" t="s">
-        <v>1416</v>
+        <v>1531</v>
       </c>
       <c r="O64" s="60" t="s">
         <v>653</v>
       </c>
       <c r="P64" s="60"/>
       <c r="Q64" s="60" t="s">
-        <v>1465</v>
+        <v>1580</v>
       </c>
       <c r="R64" s="60" t="s">
-        <v>1417</v>
+        <v>1532</v>
       </c>
       <c r="S64" s="18"/>
       <c r="V64" s="56"/>
@@ -10756,49 +11455,49 @@
         <v>16</v>
       </c>
       <c r="D65" s="61" t="s">
-        <v>1291</v>
+        <v>1406</v>
       </c>
       <c r="E65" s="61" t="s">
-        <v>1293</v>
+        <v>1408</v>
       </c>
       <c r="F65" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="G65" s="61" t="s">
-        <v>1294</v>
+        <v>1409</v>
       </c>
       <c r="H65" s="61" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I65" s="61" t="s">
+        <v>1411</v>
+      </c>
+      <c r="J65" s="61" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K65" s="61" t="s">
         <v>1295</v>
       </c>
-      <c r="I65" s="61" t="s">
-        <v>1296</v>
-      </c>
-      <c r="J65" s="61" t="s">
-        <v>1297</v>
-      </c>
-      <c r="K65" s="61" t="s">
-        <v>1180</v>
-      </c>
       <c r="L65" s="61" t="s">
-        <v>1298</v>
+        <v>1413</v>
       </c>
       <c r="M65" s="61" t="s">
-        <v>1299</v>
+        <v>1414</v>
       </c>
       <c r="N65" s="61" t="s">
-        <v>1300</v>
+        <v>1415</v>
       </c>
       <c r="O65" s="61" t="s">
-        <v>1301</v>
+        <v>1416</v>
       </c>
       <c r="P65" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="Q65" s="61" t="s">
-        <v>1302</v>
+        <v>1417</v>
       </c>
       <c r="R65" s="61" t="s">
-        <v>1303</v>
+        <v>1418</v>
       </c>
       <c r="S65" s="20" t="str">
         <f>CHAR(10)</f>
@@ -10831,20 +11530,40 @@
       <c r="B67" s="12"/>
       <c r="C67" s="32"/>
       <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
+      <c r="E67" s="54" t="s">
+        <v>396</v>
+      </c>
       <c r="F67" s="54"/>
       <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
+      <c r="H67" s="54" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I67" s="54" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J67" s="54" t="s">
+        <v>1241</v>
+      </c>
       <c r="K67" s="54"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="54"/>
+      <c r="L67" s="54" t="s">
+        <v>1242</v>
+      </c>
+      <c r="M67" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="N67" s="54" t="s">
+        <v>428</v>
+      </c>
+      <c r="O67" s="54" t="s">
+        <v>326</v>
+      </c>
       <c r="P67" s="54"/>
-      <c r="Q67" s="54"/>
-      <c r="R67" s="54"/>
+      <c r="Q67" s="54" t="s">
+        <v>1243</v>
+      </c>
+      <c r="R67" s="54" t="s">
+        <v>1199</v>
+      </c>
       <c r="V67" s="56"/>
     </row>
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -10855,36 +11574,36 @@
       </c>
       <c r="F68" s="60"/>
       <c r="G68" s="60" t="s">
-        <v>1466</v>
+        <v>1581</v>
       </c>
       <c r="H68" s="60" t="s">
-        <v>1415</v>
+        <v>1530</v>
       </c>
       <c r="I68" s="60" t="s">
-        <v>1418</v>
+        <v>1533</v>
       </c>
       <c r="J68" s="60" t="s">
-        <v>1419</v>
+        <v>1534</v>
       </c>
       <c r="K68" s="60"/>
       <c r="L68" s="60" t="s">
-        <v>1467</v>
+        <v>1582</v>
       </c>
       <c r="M68" s="60" t="s">
-        <v>1441</v>
+        <v>1556</v>
       </c>
       <c r="N68" s="60" t="s">
-        <v>1468</v>
+        <v>1583</v>
       </c>
       <c r="O68" s="60" t="s">
         <v>571</v>
       </c>
       <c r="P68" s="60"/>
       <c r="Q68" s="60" t="s">
-        <v>1420</v>
+        <v>1535</v>
       </c>
       <c r="R68" s="60" t="s">
-        <v>1383</v>
+        <v>1498</v>
       </c>
       <c r="S68" s="18"/>
       <c r="V68" s="56"/>
@@ -10895,49 +11614,49 @@
         <v>17</v>
       </c>
       <c r="D69" s="61" t="s">
-        <v>1304</v>
+        <v>1419</v>
       </c>
       <c r="E69" s="61" t="s">
-        <v>1305</v>
+        <v>1420</v>
       </c>
       <c r="F69" s="61" t="s">
-        <v>1180</v>
+        <v>1295</v>
       </c>
       <c r="G69" s="61" t="s">
+        <v>1421</v>
+      </c>
+      <c r="H69" s="61" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I69" s="61" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J69" s="61" t="s">
+        <v>1424</v>
+      </c>
+      <c r="K69" s="61" t="s">
+        <v>1288</v>
+      </c>
+      <c r="L69" s="61" t="s">
+        <v>1425</v>
+      </c>
+      <c r="M69" s="61" t="s">
         <v>1306</v>
       </c>
-      <c r="H69" s="61" t="s">
-        <v>1307</v>
-      </c>
-      <c r="I69" s="61" t="s">
-        <v>1308</v>
-      </c>
-      <c r="J69" s="61" t="s">
-        <v>1309</v>
-      </c>
-      <c r="K69" s="61" t="s">
-        <v>1173</v>
-      </c>
-      <c r="L69" s="61" t="s">
-        <v>1310</v>
-      </c>
-      <c r="M69" s="61" t="s">
-        <v>1191</v>
-      </c>
       <c r="N69" s="61" t="s">
-        <v>1311</v>
+        <v>1426</v>
       </c>
       <c r="O69" s="61" t="s">
-        <v>1312</v>
+        <v>1427</v>
       </c>
       <c r="P69" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="Q69" s="61" t="s">
-        <v>1313</v>
+        <v>1428</v>
       </c>
       <c r="R69" s="61" t="s">
-        <v>1256</v>
+        <v>1371</v>
       </c>
       <c r="S69" s="20"/>
       <c r="V69" s="56"/>
@@ -10965,37 +11684,63 @@
     <row r="71" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="12"/>
       <c r="C71" s="32"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54"/>
+      <c r="D71" s="54" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E71" s="54" t="s">
+        <v>1245</v>
+      </c>
       <c r="F71" s="54"/>
-      <c r="G71" s="54"/>
-      <c r="H71" s="54"/>
-      <c r="I71" s="54"/>
-      <c r="J71" s="54"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="54"/>
-      <c r="M71" s="54"/>
-      <c r="N71" s="54"/>
+      <c r="G71" s="54" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H71" s="54" t="s">
+        <v>1247</v>
+      </c>
+      <c r="I71" s="54" t="s">
+        <v>469</v>
+      </c>
+      <c r="J71" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="K71" s="54" t="s">
+        <v>1178</v>
+      </c>
+      <c r="L71" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="M71" s="54" t="s">
+        <v>1213</v>
+      </c>
+      <c r="N71" s="54" t="s">
+        <v>1248</v>
+      </c>
       <c r="O71" s="54"/>
-      <c r="P71" s="54"/>
-      <c r="Q71" s="54"/>
-      <c r="R71" s="54"/>
+      <c r="P71" s="54" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q71" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="R71" s="54" t="s">
+        <v>1249</v>
+      </c>
       <c r="V71" s="56"/>
     </row>
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
       <c r="D72" s="60" t="s">
-        <v>1421</v>
+        <v>1536</v>
       </c>
       <c r="E72" s="60" t="s">
-        <v>1422</v>
+        <v>1537</v>
       </c>
       <c r="F72" s="60"/>
       <c r="G72" s="60" t="s">
         <v>44</v>
       </c>
       <c r="H72" s="60" t="s">
-        <v>1423</v>
+        <v>1538</v>
       </c>
       <c r="I72" s="60" t="s">
         <v>882</v>
@@ -11004,26 +11749,26 @@
         <v>896</v>
       </c>
       <c r="K72" s="60" t="s">
-        <v>1369</v>
+        <v>1484</v>
       </c>
       <c r="L72" s="60" t="s">
         <v>601</v>
       </c>
       <c r="M72" s="60" t="s">
-        <v>1394</v>
+        <v>1509</v>
       </c>
       <c r="N72" s="60" t="s">
-        <v>1424</v>
+        <v>1539</v>
       </c>
       <c r="O72" s="60"/>
       <c r="P72" s="60" t="s">
-        <v>1445</v>
+        <v>1560</v>
       </c>
       <c r="Q72" s="60" t="s">
-        <v>1441</v>
+        <v>1556</v>
       </c>
       <c r="R72" s="60" t="s">
-        <v>1469</v>
+        <v>1584</v>
       </c>
       <c r="S72" s="18"/>
       <c r="V72" s="56"/>
@@ -11034,49 +11779,49 @@
         <v>18</v>
       </c>
       <c r="D73" s="61" t="s">
-        <v>1314</v>
+        <v>1429</v>
       </c>
       <c r="E73" s="61" t="s">
-        <v>1315</v>
+        <v>1430</v>
       </c>
       <c r="F73" s="61" t="s">
-        <v>1180</v>
+        <v>1295</v>
       </c>
       <c r="G73" s="61" t="s">
-        <v>1289</v>
+        <v>1404</v>
       </c>
       <c r="H73" s="61" t="s">
-        <v>1316</v>
+        <v>1431</v>
       </c>
       <c r="I73" s="61" t="s">
-        <v>1242</v>
+        <v>1357</v>
       </c>
       <c r="J73" s="61" t="s">
-        <v>1175</v>
+        <v>1290</v>
       </c>
       <c r="K73" s="61" t="s">
-        <v>1195</v>
+        <v>1310</v>
       </c>
       <c r="L73" s="61" t="s">
-        <v>1233</v>
+        <v>1348</v>
       </c>
       <c r="M73" s="61" t="s">
-        <v>1244</v>
+        <v>1359</v>
       </c>
       <c r="N73" s="61" t="s">
-        <v>1317</v>
+        <v>1432</v>
       </c>
       <c r="O73" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="P73" s="61" t="s">
-        <v>1208</v>
+        <v>1323</v>
       </c>
       <c r="Q73" s="61" t="s">
-        <v>1191</v>
+        <v>1306</v>
       </c>
       <c r="R73" s="61" t="s">
-        <v>1318</v>
+        <v>1433</v>
       </c>
       <c r="S73" s="20"/>
       <c r="V73" s="56"/>
@@ -11105,30 +11850,52 @@
       <c r="B75" s="12"/>
       <c r="C75" s="32"/>
       <c r="D75" s="54"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="54"/>
+      <c r="E75" s="54" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F75" s="54" t="s">
+        <v>1250</v>
+      </c>
       <c r="G75" s="54"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="54"/>
-      <c r="J75" s="54"/>
-      <c r="K75" s="54"/>
+      <c r="H75" s="54" t="s">
+        <v>1251</v>
+      </c>
+      <c r="I75" s="54" t="s">
+        <v>416</v>
+      </c>
+      <c r="J75" s="54" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K75" s="54" t="s">
+        <v>336</v>
+      </c>
       <c r="L75" s="54"/>
-      <c r="M75" s="54"/>
-      <c r="N75" s="54"/>
+      <c r="M75" s="54" t="s">
+        <v>359</v>
+      </c>
+      <c r="N75" s="54" t="s">
+        <v>316</v>
+      </c>
       <c r="O75" s="54"/>
-      <c r="P75" s="54"/>
-      <c r="Q75" s="54"/>
-      <c r="R75" s="54"/>
+      <c r="P75" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q75" s="54" t="s">
+        <v>1237</v>
+      </c>
+      <c r="R75" s="54" t="s">
+        <v>1238</v>
+      </c>
       <c r="V75" s="56"/>
     </row>
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
       <c r="D76" s="60"/>
       <c r="E76" s="60" t="s">
-        <v>1363</v>
+        <v>1478</v>
       </c>
       <c r="F76" s="60" t="s">
-        <v>1425</v>
+        <v>1540</v>
       </c>
       <c r="G76" s="60"/>
       <c r="H76" s="60" t="s">
@@ -11138,10 +11905,10 @@
         <v>766</v>
       </c>
       <c r="J76" s="60" t="s">
-        <v>1470</v>
+        <v>1585</v>
       </c>
       <c r="K76" s="60" t="s">
-        <v>1441</v>
+        <v>1556</v>
       </c>
       <c r="L76" s="60" t="s">
         <v>631</v>
@@ -11154,13 +11921,13 @@
       </c>
       <c r="O76" s="60"/>
       <c r="P76" s="60" t="s">
-        <v>1439</v>
+        <v>1554</v>
       </c>
       <c r="Q76" s="60" t="s">
-        <v>1465</v>
+        <v>1580</v>
       </c>
       <c r="R76" s="60" t="s">
-        <v>1417</v>
+        <v>1532</v>
       </c>
       <c r="S76" s="18"/>
       <c r="V76" s="56"/>
@@ -11171,49 +11938,49 @@
         <v>19</v>
       </c>
       <c r="D77" s="61" t="s">
-        <v>1319</v>
+        <v>1434</v>
       </c>
       <c r="E77" s="61" t="s">
-        <v>1170</v>
+        <v>1285</v>
       </c>
       <c r="F77" s="61" t="s">
-        <v>1320</v>
+        <v>1435</v>
       </c>
       <c r="G77" s="61" t="s">
-        <v>1180</v>
+        <v>1295</v>
       </c>
       <c r="H77" s="61" t="s">
-        <v>1321</v>
+        <v>1436</v>
       </c>
       <c r="I77" s="61" t="s">
-        <v>1321</v>
+        <v>1436</v>
       </c>
       <c r="J77" s="61" t="s">
-        <v>1322</v>
+        <v>1437</v>
       </c>
       <c r="K77" s="61" t="s">
-        <v>1191</v>
+        <v>1306</v>
       </c>
       <c r="L77" s="61" t="s">
-        <v>1323</v>
+        <v>1438</v>
       </c>
       <c r="M77" s="61" t="s">
-        <v>1324</v>
+        <v>1439</v>
       </c>
       <c r="N77" s="61" t="s">
-        <v>1325</v>
+        <v>1440</v>
       </c>
       <c r="O77" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="P77" s="61" t="s">
-        <v>1186</v>
+        <v>1301</v>
       </c>
       <c r="Q77" s="61" t="s">
-        <v>1302</v>
+        <v>1417</v>
       </c>
       <c r="R77" s="61" t="s">
-        <v>1303</v>
+        <v>1418</v>
       </c>
       <c r="S77" s="20"/>
       <c r="V77" s="56"/>
@@ -11241,21 +12008,47 @@
     <row r="79" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="12"/>
       <c r="C79" s="32"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
+      <c r="D79" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E79" s="54" t="s">
+        <v>355</v>
+      </c>
       <c r="F79" s="54"/>
-      <c r="G79" s="54"/>
-      <c r="H79" s="54"/>
-      <c r="I79" s="54"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="54"/>
-      <c r="L79" s="54"/>
-      <c r="M79" s="54"/>
-      <c r="N79" s="54"/>
+      <c r="G79" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="H79" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="I79" s="54" t="s">
+        <v>1252</v>
+      </c>
+      <c r="J79" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="K79" s="54" t="s">
+        <v>1253</v>
+      </c>
+      <c r="L79" s="54" t="s">
+        <v>1254</v>
+      </c>
+      <c r="M79" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="N79" s="54" t="s">
+        <v>437</v>
+      </c>
       <c r="O79" s="54"/>
-      <c r="P79" s="54"/>
-      <c r="Q79" s="54"/>
-      <c r="R79" s="54"/>
+      <c r="P79" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q79" s="54" t="s">
+        <v>387</v>
+      </c>
+      <c r="R79" s="54" t="s">
+        <v>469</v>
+      </c>
       <c r="V79" s="56"/>
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -11268,22 +12061,22 @@
       </c>
       <c r="F80" s="60"/>
       <c r="G80" s="60" t="s">
-        <v>1471</v>
+        <v>1586</v>
       </c>
       <c r="H80" s="60" t="s">
-        <v>1471</v>
+        <v>1586</v>
       </c>
       <c r="I80" s="60" t="s">
-        <v>1470</v>
+        <v>1585</v>
       </c>
       <c r="J80" s="60" t="s">
-        <v>1441</v>
+        <v>1556</v>
       </c>
       <c r="K80" s="60" t="s">
-        <v>1426</v>
+        <v>1541</v>
       </c>
       <c r="L80" s="60" t="s">
-        <v>1427</v>
+        <v>1542</v>
       </c>
       <c r="M80" s="60" t="s">
         <v>782</v>
@@ -11293,10 +12086,10 @@
       </c>
       <c r="O80" s="60"/>
       <c r="P80" s="60" t="s">
-        <v>1439</v>
+        <v>1554</v>
       </c>
       <c r="Q80" s="60" t="s">
-        <v>1445</v>
+        <v>1560</v>
       </c>
       <c r="R80" s="60" t="s">
         <v>882</v>
@@ -11310,49 +12103,49 @@
         <v>20</v>
       </c>
       <c r="D81" s="61" t="s">
-        <v>1181</v>
+        <v>1296</v>
       </c>
       <c r="E81" s="61" t="s">
-        <v>1326</v>
+        <v>1441</v>
       </c>
       <c r="F81" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="G81" s="61" t="s">
-        <v>1327</v>
+        <v>1442</v>
       </c>
       <c r="H81" s="61" t="s">
-        <v>1327</v>
+        <v>1442</v>
       </c>
       <c r="I81" s="61" t="s">
-        <v>1322</v>
+        <v>1437</v>
       </c>
       <c r="J81" s="61" t="s">
-        <v>1191</v>
+        <v>1306</v>
       </c>
       <c r="K81" s="61" t="s">
-        <v>1328</v>
+        <v>1443</v>
       </c>
       <c r="L81" s="61" t="s">
-        <v>1329</v>
+        <v>1444</v>
       </c>
       <c r="M81" s="61" t="s">
-        <v>1237</v>
+        <v>1352</v>
       </c>
       <c r="N81" s="61" t="s">
-        <v>1330</v>
+        <v>1445</v>
       </c>
       <c r="O81" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="P81" s="61" t="s">
-        <v>1186</v>
+        <v>1301</v>
       </c>
       <c r="Q81" s="61" t="s">
-        <v>1208</v>
+        <v>1323</v>
       </c>
       <c r="R81" s="61" t="s">
-        <v>1242</v>
+        <v>1357</v>
       </c>
       <c r="S81" s="20"/>
       <c r="V81" s="56"/>
@@ -11380,21 +12173,43 @@
     <row r="83" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="12"/>
       <c r="C83" s="32"/>
-      <c r="D83" s="54"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="54"/>
+      <c r="D83" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E83" s="54" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F83" s="54" t="s">
+        <v>1181</v>
+      </c>
       <c r="G83" s="54"/>
-      <c r="H83" s="54"/>
+      <c r="H83" s="54" t="s">
+        <v>1255</v>
+      </c>
       <c r="I83" s="54"/>
-      <c r="J83" s="54"/>
-      <c r="K83" s="54"/>
+      <c r="J83" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="K83" s="54" t="s">
+        <v>1256</v>
+      </c>
       <c r="L83" s="54"/>
-      <c r="M83" s="54"/>
-      <c r="N83" s="54"/>
-      <c r="O83" s="54"/>
-      <c r="P83" s="54"/>
+      <c r="M83" s="54" t="s">
+        <v>1257</v>
+      </c>
+      <c r="N83" s="54" t="s">
+        <v>368</v>
+      </c>
+      <c r="O83" s="54" t="s">
+        <v>1258</v>
+      </c>
+      <c r="P83" s="54" t="s">
+        <v>1193</v>
+      </c>
       <c r="Q83" s="54"/>
-      <c r="R83" s="54"/>
+      <c r="R83" s="54" t="s">
+        <v>387</v>
+      </c>
       <c r="V83" s="34"/>
     </row>
     <row r="84" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -11403,40 +12218,40 @@
         <v>567</v>
       </c>
       <c r="E84" s="60" t="s">
-        <v>1386</v>
+        <v>1501</v>
       </c>
       <c r="F84" s="60" t="s">
-        <v>1372</v>
+        <v>1487</v>
       </c>
       <c r="G84" s="60"/>
       <c r="H84" s="60" t="s">
-        <v>1472</v>
+        <v>1587</v>
       </c>
       <c r="I84" s="60" t="s">
-        <v>1402</v>
+        <v>1517</v>
       </c>
       <c r="J84" s="60" t="s">
-        <v>1473</v>
+        <v>1588</v>
       </c>
       <c r="K84" s="60" t="s">
-        <v>1428</v>
+        <v>1543</v>
       </c>
       <c r="L84" s="60"/>
       <c r="M84" s="60" t="s">
-        <v>1429</v>
+        <v>1544</v>
       </c>
       <c r="N84" s="60" t="s">
         <v>44</v>
       </c>
       <c r="O84" s="60" t="s">
-        <v>1474</v>
+        <v>1589</v>
       </c>
       <c r="P84" s="60" t="s">
-        <v>1381</v>
+        <v>1496</v>
       </c>
       <c r="Q84" s="60"/>
       <c r="R84" s="60" t="s">
-        <v>1445</v>
+        <v>1560</v>
       </c>
       <c r="S84" s="18"/>
       <c r="V84" s="7"/>
@@ -11447,49 +12262,49 @@
         <v>21</v>
       </c>
       <c r="D85" s="61" t="s">
-        <v>1181</v>
+        <v>1296</v>
       </c>
       <c r="E85" s="61" t="s">
-        <v>1224</v>
+        <v>1339</v>
       </c>
       <c r="F85" s="61" t="s">
-        <v>1199</v>
+        <v>1314</v>
       </c>
       <c r="G85" s="61" t="s">
-        <v>1180</v>
+        <v>1295</v>
       </c>
       <c r="H85" s="61" t="s">
-        <v>1331</v>
+        <v>1446</v>
       </c>
       <c r="I85" s="61" t="s">
-        <v>1332</v>
+        <v>1447</v>
       </c>
       <c r="J85" s="61" t="s">
-        <v>1333</v>
+        <v>1448</v>
       </c>
       <c r="K85" s="61" t="s">
-        <v>1334</v>
+        <v>1449</v>
       </c>
       <c r="L85" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="M85" s="61" t="s">
-        <v>1335</v>
+        <v>1450</v>
       </c>
       <c r="N85" s="61" t="s">
-        <v>1289</v>
+        <v>1404</v>
       </c>
       <c r="O85" s="61" t="s">
-        <v>1336</v>
+        <v>1451</v>
       </c>
       <c r="P85" s="61" t="s">
-        <v>1215</v>
+        <v>1330</v>
       </c>
       <c r="Q85" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="R85" s="61" t="s">
-        <v>1208</v>
+        <v>1323</v>
       </c>
       <c r="S85" s="20"/>
       <c r="V85" s="7"/>
@@ -11517,20 +12332,44 @@
     <row r="87" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B87" s="12"/>
       <c r="C87" s="32"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="54"/>
-      <c r="G87" s="54"/>
+      <c r="D87" s="54" t="s">
+        <v>469</v>
+      </c>
+      <c r="E87" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="F87" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="G87" s="54" t="s">
+        <v>1179</v>
+      </c>
       <c r="H87" s="54"/>
-      <c r="I87" s="54"/>
-      <c r="J87" s="54"/>
-      <c r="K87" s="54"/>
-      <c r="L87" s="54"/>
+      <c r="I87" s="54" t="s">
+        <v>1259</v>
+      </c>
+      <c r="J87" s="54" t="s">
+        <v>368</v>
+      </c>
+      <c r="K87" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="L87" s="54" t="s">
+        <v>1280</v>
+      </c>
       <c r="M87" s="54"/>
-      <c r="N87" s="54"/>
-      <c r="O87" s="54"/>
-      <c r="P87" s="54"/>
-      <c r="Q87" s="54"/>
+      <c r="N87" s="54" t="s">
+        <v>1260</v>
+      </c>
+      <c r="O87" s="54" t="s">
+        <v>1187</v>
+      </c>
+      <c r="P87" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q87" s="54" t="s">
+        <v>49</v>
+      </c>
       <c r="R87" s="54"/>
       <c r="V87" s="34"/>
     </row>
@@ -11540,17 +12379,17 @@
         <v>882</v>
       </c>
       <c r="E88" s="60" t="s">
-        <v>1440</v>
+        <v>1555</v>
       </c>
       <c r="F88" s="60" t="s">
         <v>601</v>
       </c>
       <c r="G88" s="60" t="s">
-        <v>1370</v>
+        <v>1485</v>
       </c>
       <c r="H88" s="60"/>
       <c r="I88" s="60" t="s">
-        <v>1475</v>
+        <v>1590</v>
       </c>
       <c r="J88" s="60" t="s">
         <v>44</v>
@@ -11559,17 +12398,17 @@
         <v>742</v>
       </c>
       <c r="L88" s="60" t="s">
-        <v>1430</v>
+        <v>1545</v>
       </c>
       <c r="M88" s="60"/>
       <c r="N88" s="60" t="s">
-        <v>1431</v>
+        <v>1546</v>
       </c>
       <c r="O88" s="60" t="s">
-        <v>1376</v>
+        <v>1491</v>
       </c>
       <c r="P88" s="60" t="s">
-        <v>1439</v>
+        <v>1554</v>
       </c>
       <c r="Q88" s="60" t="s">
         <v>784</v>
@@ -11584,49 +12423,49 @@
         <v>22</v>
       </c>
       <c r="D89" s="61" t="s">
-        <v>1242</v>
+        <v>1357</v>
       </c>
       <c r="E89" s="61" t="s">
-        <v>1190</v>
+        <v>1305</v>
       </c>
       <c r="F89" s="61" t="s">
-        <v>1233</v>
+        <v>1348</v>
       </c>
       <c r="G89" s="61" t="s">
-        <v>1196</v>
+        <v>1311</v>
       </c>
       <c r="H89" s="61" t="s">
-        <v>1180</v>
+        <v>1295</v>
       </c>
       <c r="I89" s="61" t="s">
-        <v>1337</v>
+        <v>1452</v>
       </c>
       <c r="J89" s="61" t="s">
-        <v>1289</v>
+        <v>1404</v>
       </c>
       <c r="K89" s="61" t="s">
-        <v>1338</v>
+        <v>1453</v>
       </c>
       <c r="L89" s="61" t="s">
-        <v>1339</v>
+        <v>1454</v>
       </c>
       <c r="M89" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="N89" s="61" t="s">
-        <v>1168</v>
+        <v>1283</v>
       </c>
       <c r="O89" s="61" t="s">
-        <v>1207</v>
+        <v>1322</v>
       </c>
       <c r="P89" s="61" t="s">
-        <v>1186</v>
+        <v>1301</v>
       </c>
       <c r="Q89" s="61" t="s">
-        <v>1340</v>
+        <v>1455</v>
       </c>
       <c r="R89" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="S89" s="20"/>
       <c r="V89" s="7"/>
@@ -11654,21 +12493,47 @@
     <row r="91" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B91" s="12"/>
       <c r="C91" s="32"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="54"/>
-      <c r="F91" s="54"/>
-      <c r="G91" s="54"/>
+      <c r="D91" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E91" s="54" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F91" s="54" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G91" s="54" t="s">
+        <v>1261</v>
+      </c>
       <c r="H91" s="54"/>
-      <c r="I91" s="54"/>
-      <c r="J91" s="54"/>
-      <c r="K91" s="54"/>
-      <c r="L91" s="54"/>
-      <c r="M91" s="54"/>
+      <c r="I91" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="J91" s="54" t="s">
+        <v>1262</v>
+      </c>
+      <c r="K91" s="54" t="s">
+        <v>387</v>
+      </c>
+      <c r="L91" s="54" t="s">
+        <v>1263</v>
+      </c>
+      <c r="M91" s="54" t="s">
+        <v>483</v>
+      </c>
       <c r="N91" s="54"/>
-      <c r="O91" s="54"/>
-      <c r="P91" s="54"/>
-      <c r="Q91" s="54"/>
-      <c r="R91" s="54"/>
+      <c r="O91" s="54" t="s">
+        <v>1264</v>
+      </c>
+      <c r="P91" s="54" t="s">
+        <v>1265</v>
+      </c>
+      <c r="Q91" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="R91" s="54" t="s">
+        <v>1280</v>
+      </c>
       <c r="V91" s="34"/>
     </row>
     <row r="92" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -11677,26 +12542,26 @@
         <v>784</v>
       </c>
       <c r="E92" s="60" t="s">
-        <v>1375</v>
+        <v>1490</v>
       </c>
       <c r="F92" s="60" t="s">
-        <v>1386</v>
+        <v>1501</v>
       </c>
       <c r="G92" s="60" t="s">
-        <v>1481</v>
+        <v>1596</v>
       </c>
       <c r="H92" s="60"/>
       <c r="I92" s="60" t="s">
-        <v>1439</v>
+        <v>1554</v>
       </c>
       <c r="J92" s="60" t="s">
-        <v>1432</v>
+        <v>1547</v>
       </c>
       <c r="K92" s="60" t="s">
-        <v>1445</v>
+        <v>1560</v>
       </c>
       <c r="L92" s="60" t="s">
-        <v>1433</v>
+        <v>1548</v>
       </c>
       <c r="M92" s="60" t="s">
         <v>916</v>
@@ -11706,13 +12571,13 @@
         <v>846</v>
       </c>
       <c r="P92" s="60" t="s">
-        <v>1476</v>
+        <v>1591</v>
       </c>
       <c r="Q92" s="60" t="s">
         <v>633</v>
       </c>
       <c r="R92" s="60" t="s">
-        <v>1430</v>
+        <v>1545</v>
       </c>
       <c r="S92" s="18"/>
       <c r="V92" s="7"/>
@@ -11723,49 +12588,49 @@
         <v>23</v>
       </c>
       <c r="D93" s="61" t="s">
-        <v>1340</v>
+        <v>1455</v>
       </c>
       <c r="E93" s="61" t="s">
-        <v>1206</v>
+        <v>1321</v>
       </c>
       <c r="F93" s="61" t="s">
-        <v>1224</v>
+        <v>1339</v>
       </c>
       <c r="G93" s="61" t="s">
-        <v>1341</v>
+        <v>1456</v>
       </c>
       <c r="H93" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="I93" s="61" t="s">
-        <v>1186</v>
+        <v>1301</v>
       </c>
       <c r="J93" s="61" t="s">
-        <v>1342</v>
+        <v>1457</v>
       </c>
       <c r="K93" s="61" t="s">
-        <v>1208</v>
+        <v>1323</v>
       </c>
       <c r="L93" s="61" t="s">
-        <v>1343</v>
+        <v>1458</v>
       </c>
       <c r="M93" s="61" t="s">
-        <v>1231</v>
+        <v>1346</v>
       </c>
       <c r="N93" s="61" t="s">
-        <v>1180</v>
+        <v>1295</v>
       </c>
       <c r="O93" s="61" t="s">
-        <v>1344</v>
+        <v>1459</v>
       </c>
       <c r="P93" s="61" t="s">
-        <v>1345</v>
+        <v>1460</v>
       </c>
       <c r="Q93" s="61" t="s">
-        <v>1346</v>
+        <v>1461</v>
       </c>
       <c r="R93" s="61" t="s">
-        <v>1347</v>
+        <v>1462</v>
       </c>
       <c r="S93" s="20"/>
       <c r="V93" s="7"/>
@@ -11794,64 +12659,90 @@
       <c r="B95" s="12"/>
       <c r="C95" s="32"/>
       <c r="D95" s="54"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="54"/>
-      <c r="G95" s="54"/>
-      <c r="H95" s="54"/>
-      <c r="I95" s="54"/>
+      <c r="E95" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="F95" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="G95" s="54" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H95" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="I95" s="54" t="s">
+        <v>1281</v>
+      </c>
       <c r="J95" s="54"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="54"/>
-      <c r="M95" s="54"/>
-      <c r="N95" s="54"/>
-      <c r="O95" s="54"/>
-      <c r="P95" s="54"/>
-      <c r="Q95" s="54"/>
-      <c r="R95" s="54"/>
+      <c r="K95" s="54" t="s">
+        <v>1246</v>
+      </c>
+      <c r="L95" s="54" t="s">
+        <v>1247</v>
+      </c>
+      <c r="M95" s="54" t="s">
+        <v>469</v>
+      </c>
+      <c r="N95" s="54" t="s">
+        <v>482</v>
+      </c>
+      <c r="O95" s="54" t="s">
+        <v>1267</v>
+      </c>
+      <c r="P95" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q95" s="54" t="s">
+        <v>1210</v>
+      </c>
+      <c r="R95" s="54" t="s">
+        <v>1211</v>
+      </c>
       <c r="V95" s="34"/>
     </row>
     <row r="96" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="17"/>
       <c r="D96" s="60"/>
       <c r="E96" s="60" t="s">
-        <v>1441</v>
+        <v>1556</v>
       </c>
       <c r="F96" s="60" t="s">
         <v>647</v>
       </c>
       <c r="G96" s="60" t="s">
-        <v>1434</v>
+        <v>1549</v>
       </c>
       <c r="H96" s="60" t="s">
         <v>535</v>
       </c>
       <c r="I96" s="60" t="s">
-        <v>1435</v>
+        <v>1550</v>
       </c>
       <c r="J96" s="60"/>
       <c r="K96" s="60" t="s">
         <v>44</v>
       </c>
       <c r="L96" s="60" t="s">
-        <v>1423</v>
+        <v>1538</v>
       </c>
       <c r="M96" s="60" t="s">
         <v>882</v>
       </c>
       <c r="N96" s="60" t="s">
-        <v>1477</v>
+        <v>1592</v>
       </c>
       <c r="O96" s="60" t="s">
-        <v>1478</v>
+        <v>1593</v>
       </c>
       <c r="P96" s="60" t="s">
         <v>601</v>
       </c>
       <c r="Q96" s="60" t="s">
-        <v>1392</v>
+        <v>1507</v>
       </c>
       <c r="R96" s="60" t="s">
-        <v>1452</v>
+        <v>1567</v>
       </c>
       <c r="S96" s="18"/>
       <c r="V96" s="7"/>
@@ -11862,49 +12753,49 @@
         <v>24</v>
       </c>
       <c r="D97" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="E97" s="61" t="s">
-        <v>1191</v>
+        <v>1306</v>
       </c>
       <c r="F97" s="61" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G97" s="61" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H97" s="61" t="s">
+        <v>1465</v>
+      </c>
+      <c r="I97" s="61" t="s">
+        <v>1466</v>
+      </c>
+      <c r="J97" s="61" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K97" s="61" t="s">
+        <v>1404</v>
+      </c>
+      <c r="L97" s="61" t="s">
+        <v>1431</v>
+      </c>
+      <c r="M97" s="61" t="s">
+        <v>1357</v>
+      </c>
+      <c r="N97" s="61" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O97" s="61" t="s">
+        <v>1468</v>
+      </c>
+      <c r="P97" s="61" t="s">
         <v>1348</v>
       </c>
-      <c r="G97" s="61" t="s">
-        <v>1349</v>
-      </c>
-      <c r="H97" s="61" t="s">
-        <v>1350</v>
-      </c>
-      <c r="I97" s="61" t="s">
-        <v>1351</v>
-      </c>
-      <c r="J97" s="61" t="s">
-        <v>1180</v>
-      </c>
-      <c r="K97" s="61" t="s">
-        <v>1289</v>
-      </c>
-      <c r="L97" s="61" t="s">
-        <v>1316</v>
-      </c>
-      <c r="M97" s="61" t="s">
-        <v>1242</v>
-      </c>
-      <c r="N97" s="61" t="s">
-        <v>1352</v>
-      </c>
-      <c r="O97" s="61" t="s">
-        <v>1353</v>
-      </c>
-      <c r="P97" s="61" t="s">
-        <v>1233</v>
-      </c>
       <c r="Q97" s="61" t="s">
-        <v>1240</v>
+        <v>1355</v>
       </c>
       <c r="R97" s="61" t="s">
-        <v>1241</v>
+        <v>1356</v>
       </c>
       <c r="S97" s="20"/>
       <c r="V97" s="7"/>
@@ -11932,20 +12823,44 @@
     <row r="99" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B99" s="12"/>
       <c r="C99" s="32"/>
-      <c r="D99" s="54"/>
+      <c r="D99" s="54" t="s">
+        <v>437</v>
+      </c>
       <c r="E99" s="54"/>
-      <c r="F99" s="54"/>
-      <c r="G99" s="54"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="54"/>
-      <c r="J99" s="54"/>
+      <c r="F99" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="G99" s="54" t="s">
+        <v>455</v>
+      </c>
+      <c r="H99" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="I99" s="54" t="s">
+        <v>1252</v>
+      </c>
+      <c r="J99" s="54" t="s">
+        <v>1211</v>
+      </c>
       <c r="K99" s="54"/>
-      <c r="L99" s="54"/>
-      <c r="M99" s="54"/>
-      <c r="N99" s="54"/>
-      <c r="O99" s="54"/>
-      <c r="P99" s="54"/>
-      <c r="Q99" s="54"/>
+      <c r="L99" s="54" t="s">
+        <v>1268</v>
+      </c>
+      <c r="M99" s="54" t="s">
+        <v>1170</v>
+      </c>
+      <c r="N99" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="O99" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="P99" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q99" s="54" t="s">
+        <v>49</v>
+      </c>
       <c r="R99" s="54"/>
       <c r="V99" s="34"/>
     </row>
@@ -11965,17 +12880,17 @@
         <v>896</v>
       </c>
       <c r="I100" s="60" t="s">
-        <v>1470</v>
+        <v>1585</v>
       </c>
       <c r="J100" s="60" t="s">
-        <v>1452</v>
+        <v>1567</v>
       </c>
       <c r="K100" s="60"/>
       <c r="L100" s="60" t="s">
-        <v>1479</v>
+        <v>1594</v>
       </c>
       <c r="M100" s="60" t="s">
-        <v>1363</v>
+        <v>1478</v>
       </c>
       <c r="N100" s="60" t="s">
         <v>601</v>
@@ -11999,49 +12914,49 @@
         <v>25</v>
       </c>
       <c r="D101" s="61" t="s">
-        <v>1189</v>
+        <v>1304</v>
       </c>
       <c r="E101" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="F101" s="61" t="s">
-        <v>1189</v>
+        <v>1304</v>
       </c>
       <c r="G101" s="61" t="s">
-        <v>1354</v>
+        <v>1469</v>
       </c>
       <c r="H101" s="61" t="s">
-        <v>1175</v>
+        <v>1290</v>
       </c>
       <c r="I101" s="61" t="s">
-        <v>1322</v>
+        <v>1437</v>
       </c>
       <c r="J101" s="61" t="s">
-        <v>1241</v>
+        <v>1356</v>
       </c>
       <c r="K101" s="61" t="s">
-        <v>1180</v>
+        <v>1295</v>
       </c>
       <c r="L101" s="61" t="s">
-        <v>1355</v>
+        <v>1470</v>
       </c>
       <c r="M101" s="61" t="s">
-        <v>1170</v>
+        <v>1285</v>
       </c>
       <c r="N101" s="61" t="s">
-        <v>1233</v>
+        <v>1348</v>
       </c>
       <c r="O101" s="61" t="s">
-        <v>1356</v>
+        <v>1471</v>
       </c>
       <c r="P101" s="61" t="s">
-        <v>1219</v>
+        <v>1334</v>
       </c>
       <c r="Q101" s="61" t="s">
-        <v>1357</v>
+        <v>1472</v>
       </c>
       <c r="R101" s="61" t="s">
-        <v>1180</v>
+        <v>1295</v>
       </c>
       <c r="S101" s="20"/>
       <c r="V101" s="7"/>
@@ -12069,14 +12984,28 @@
     <row r="103" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B103" s="12"/>
       <c r="C103" s="32"/>
-      <c r="D103" s="54"/>
-      <c r="E103" s="54"/>
+      <c r="D103" s="54" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E103" s="54" t="s">
+        <v>60</v>
+      </c>
       <c r="F103" s="54"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="54"/>
-      <c r="J103" s="54"/>
-      <c r="K103" s="54"/>
+      <c r="G103" s="54" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H103" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="I103" s="54" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J103" s="54" t="s">
+        <v>1271</v>
+      </c>
+      <c r="K103" s="54" t="s">
+        <v>364</v>
+      </c>
       <c r="L103" s="54"/>
       <c r="M103" s="54"/>
       <c r="N103" s="54"/>
@@ -12096,19 +13025,19 @@
       </c>
       <c r="F104" s="60"/>
       <c r="G104" s="60" t="s">
-        <v>1436</v>
+        <v>1551</v>
       </c>
       <c r="H104" s="60" t="s">
         <v>543</v>
       </c>
       <c r="I104" s="60" t="s">
-        <v>1420</v>
+        <v>1535</v>
       </c>
       <c r="J104" s="60" t="s">
-        <v>1395</v>
+        <v>1510</v>
       </c>
       <c r="K104" s="60" t="s">
-        <v>1438</v>
+        <v>1553</v>
       </c>
       <c r="L104" s="60"/>
       <c r="M104" s="60"/>
@@ -12126,31 +13055,31 @@
         <v>26</v>
       </c>
       <c r="D105" s="61" t="s">
-        <v>1175</v>
+        <v>1290</v>
       </c>
       <c r="E105" s="61" t="s">
-        <v>1358</v>
+        <v>1473</v>
       </c>
       <c r="F105" s="61" t="s">
-        <v>1173</v>
+        <v>1288</v>
       </c>
       <c r="G105" s="61" t="s">
-        <v>1359</v>
+        <v>1474</v>
       </c>
       <c r="H105" s="61" t="s">
-        <v>1360</v>
+        <v>1475</v>
       </c>
       <c r="I105" s="61" t="s">
-        <v>1313</v>
+        <v>1428</v>
       </c>
       <c r="J105" s="61" t="s">
-        <v>1246</v>
+        <v>1361</v>
       </c>
       <c r="K105" s="61" t="s">
-        <v>1183</v>
+        <v>1298</v>
       </c>
       <c r="L105" s="61" t="s">
-        <v>1180</v>
+        <v>1295</v>
       </c>
       <c r="M105" s="61" t="str">
         <f>CHAR(10)</f>
@@ -12231,7 +13160,7 @@
         <v>27</v>
       </c>
       <c r="D109" s="61" t="s">
-        <v>1361</v>
+        <v>1476</v>
       </c>
       <c r="E109" s="61"/>
       <c r="F109" s="61"/>

--- a/output7/【河洛白話注音-閩拼調號】《None》.xlsx
+++ b/output7/【河洛白話注音-閩拼調號】《None》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A12CB45-0E95-44B1-BDB1-B122F3A5A3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{278E3DF3-26B5-475A-A980-BD316CE7CD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>

--- a/output7/【河洛白話注音-閩拼調號】《None》.xlsx
+++ b/output7/【河洛白話注音-閩拼調號】《None》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{278E3DF3-26B5-475A-A980-BD316CE7CD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D9C2E0B-4FB4-4F79-9B78-6500BDA30D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="1597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="1645">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4366,10 +4366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>僇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4386,22 +4382,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>惴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>慄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4410,22 +4390,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>隟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>也</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>則</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>而</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4434,10 +4402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>漫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>游</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4450,18 +4414,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>徒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>山</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4470,38 +4426,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>深</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>窮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>迴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>幽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>泉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4518,74 +4450,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>披</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>坐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>傾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>壺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>醉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>更</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>相</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>枕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>以</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>臥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>極</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>亦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4602,18 +4490,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>歸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>凡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>之</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4622,14 +4502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>異</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4638,10 +4510,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4662,22 +4530,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>九</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4710,122 +4566,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>過</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>湘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>緣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>染</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>溪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>榛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>援</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>箕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>踞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>壤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>席</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4834,18 +4578,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>岈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>然</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>窪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>若</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4854,42 +4590,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>穴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>千</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蹙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>累</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>積</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>莫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4898,42 +4598,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>遯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>縈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>青</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>繚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>際</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>四</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4942,10 +4610,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>後</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4958,10 +4622,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>塿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>類</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5142,22 +4802,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ziu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lak8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kiann5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>too5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>suann1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5166,22 +4814,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cim1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>king5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hue5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kuai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bo5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5190,18 +4826,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kau3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>phi1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ze7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5210,22 +4838,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zim2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bang7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>soo2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5234,22 +4846,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>khi2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>huan5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gua2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bi7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5258,18 +4858,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tik8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ni5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zap8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5286,31 +4878,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mia7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>siong1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khe1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hun5</t>
+    <t>ni2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5318,10 +4890,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>go5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>se3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5330,38 +4898,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hiat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cioh4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cun3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cing1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lui2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tit4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>liau7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>peh8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>si3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5370,19 +4914,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>au7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lui7</t>
+    <t>pue7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5402,6 +4938,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>to7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>sik4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5430,185 +4970,809 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">自余為僇人，居是州，恆惴慄。其隟也，則施施而行，漫漫而游。日與其徒上高山，入深林，窮迴谿，幽泉怪石，無遠不到。到則披草而坐，傾壺而醉，醉則更相枕以臥。臥而夢，意有所極，夢亦同趣。覺而起，起而歸，以為凡是州之山水有異態者，皆我有也，而未始知西山之怪特。
-今年九月二十八日，因坐法華西亭，望西山，始指異之。遂命僕人過湘江，緣染溪，斫榛莽，焚茅茷，窮山之高而止。攀援而登，箕踞而遨，則凡數州之土壤，皆在袵席之下。其高下之勢，岈然窪然，若垤若穴，尺寸千里。攢蹙累積，莫得遯隱。縈青繚白，外與天際，四望如一。然後知是山之特立，不與培塿為類。悠悠乎與顥氣俱，而莫得其涯，洋洋乎與造物者遊，而不知其所窮。引觴滿酌，頹然就醉，不知日之入。蒼然暮色，自遠而至，至無所見，而猶不欲歸。心凝形釋，與萬化冥合。然後知吾嚮之未始游，游於是乎始。故為之文以志。是歲，元和四年也。
+    <t>li5</t>
+  </si>
+  <si>
+    <t>gap4</t>
+  </si>
+  <si>
+    <t>siong2</t>
+  </si>
+  <si>
+    <t>m7</t>
+  </si>
+  <si>
+    <t>tang5</t>
+  </si>
+  <si>
+    <t>zui2</t>
+  </si>
+  <si>
+    <t>ke3</t>
+  </si>
+  <si>
+    <t>ti7</t>
+  </si>
+  <si>
+    <t>a2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gap4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siunn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tang5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kak4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zui2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boh8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hooonn3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mua2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tio7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiang3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kinn3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>從</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>篁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>環</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嶼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>絡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>澈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往</t>
+  </si>
+  <si>
+    <t>來</t>
+  </si>
+  <si>
+    <t>翕</t>
+  </si>
+  <si>
+    <t>忽</t>
+  </si>
+  <si>
+    <t>似</t>
+  </si>
+  <si>
+    <t>南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>記</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">從小丘西行百二十步，隔篁竹，聞水聲，如鳴珮環，心樂之。伐竹取道，下見小潭，水尤清冽。全石以為底，近岸，卷石底以出，為坻，為嶼，為嵁，為岩。青樹翠蔓，蒙絡搖綴，參差披拂。
+潭中魚可百許頭，皆若空游無所依，日光下澈，影布石上。佁然不動，俶爾遠逝，往來翕忽，似與游者相樂。
+潭西南而望，鬥折蛇行，明滅可見。其岸勢犬牙差互，不可知其源。
+坐潭上，四面竹樹環合，寂寥無人，淒神寒骨，悄愴幽邃。以其境過清，不可久居，乃記之而去。
+同游者：吳武陵，龔古，余弟宗玄。隸而從者，崔氏二小生，曰恕己，曰奉壹。
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>li5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gap4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>na5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>king3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siunn1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khun3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tang5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kak4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zui2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>geh8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sui7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ke3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiam2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bau5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phan1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thoo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cuan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boh8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gue7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thinn1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pe7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hooonn3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mua2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tio7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiang3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiang2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kinn3</t>
+    <t>ziong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pah4</t>
+  </si>
+  <si>
+    <t>poo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keh4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siann1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loh8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huah8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tham5</t>
+  </si>
+  <si>
+    <t>tham5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cinn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liat8</t>
+  </si>
+  <si>
+    <t>kin7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huann7</t>
+  </si>
+  <si>
+    <t>kuan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gam5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cui3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bong5</t>
+  </si>
+  <si>
+    <t>le1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cam4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca1</t>
+  </si>
+  <si>
+    <t>ca1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut4</t>
+  </si>
+  <si>
+    <t>hut4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ting3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi5</t>
+  </si>
+  <si>
+    <t>kho2</t>
+  </si>
+  <si>
+    <t>kho2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pah4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thau5</t>
+  </si>
+  <si>
+    <t>kng1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thiat4</t>
+  </si>
+  <si>
+    <t>iann2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tang7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se7</t>
+  </si>
+  <si>
+    <t>ong2</t>
+  </si>
+  <si>
+    <t>lai5</t>
+  </si>
+  <si>
+    <t>hap4</t>
+  </si>
+  <si>
+    <t>sai7</t>
+  </si>
+  <si>
+    <t>tau3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zua5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khian2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ga5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sioh8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ce1</t>
+  </si>
+  <si>
+    <t>kuann5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kut4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cong3</t>
+  </si>
+  <si>
+    <t>ku2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nia7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>le7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>senn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8815,8 +8979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A86" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="L103" sqref="L103"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -8926,7 +9090,7 @@
       <c r="S2" s="10"/>
       <c r="V2" s="11">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>376</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
@@ -8969,45 +9133,49 @@
       </c>
       <c r="T3" s="16"/>
       <c r="V3" s="55" t="s">
-        <v>1552</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
       <c r="D4" s="60" t="s">
-        <v>1546</v>
+        <v>1579</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>1477</v>
+        <v>1580</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>1478</v>
-      </c>
-      <c r="G4" s="60"/>
+        <v>1581</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>1212</v>
+      </c>
       <c r="H4" s="60" t="s">
-        <v>1479</v>
-      </c>
-      <c r="I4" s="60"/>
+        <v>1395</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>1582</v>
+      </c>
       <c r="J4" s="60" t="s">
-        <v>770</v>
+        <v>878</v>
       </c>
       <c r="K4" s="60" t="s">
-        <v>896</v>
+        <v>1410</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>1480</v>
+        <v>1583</v>
       </c>
       <c r="M4" s="60"/>
       <c r="N4" s="60" t="s">
-        <v>633</v>
+        <v>1584</v>
       </c>
       <c r="O4" s="60"/>
       <c r="P4" s="60" t="s">
-        <v>1481</v>
+        <v>523</v>
       </c>
       <c r="Q4" s="60"/>
       <c r="R4" s="60" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="S4" s="18"/>
       <c r="V4" s="56"/>
@@ -9017,49 +9185,49 @@
         <v>1</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>1283</v>
+        <v>1473</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>1284</v>
+        <v>1474</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>1285</v>
+        <v>1475</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>1286</v>
+        <v>1325</v>
       </c>
       <c r="H5" s="61" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>1476</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>1328</v>
+      </c>
+      <c r="K5" s="61" t="s">
+        <v>1329</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>1477</v>
+      </c>
+      <c r="M5" s="61" t="s">
         <v>1287</v>
       </c>
-      <c r="I5" s="61" t="s">
-        <v>1288</v>
-      </c>
-      <c r="J5" s="61" t="s">
-        <v>1289</v>
-      </c>
-      <c r="K5" s="61" t="s">
-        <v>1290</v>
-      </c>
-      <c r="L5" s="61" t="s">
-        <v>1291</v>
-      </c>
-      <c r="M5" s="61" t="s">
-        <v>1288</v>
-      </c>
       <c r="N5" s="61" t="s">
-        <v>1292</v>
+        <v>1478</v>
       </c>
       <c r="O5" s="61" t="s">
-        <v>1293</v>
+        <v>1479</v>
       </c>
       <c r="P5" s="61" t="s">
-        <v>1294</v>
+        <v>1480</v>
       </c>
       <c r="Q5" s="61" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="R5" s="61" t="s">
-        <v>1296</v>
+        <v>1481</v>
       </c>
       <c r="S5" s="20" t="str">
         <f>CHAR(10)</f>
@@ -9134,42 +9302,44 @@
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
-      <c r="D8" s="60"/>
+      <c r="D8" s="60" t="s">
+        <v>1442</v>
+      </c>
       <c r="E8" s="60" t="s">
-        <v>1553</v>
+        <v>1585</v>
       </c>
       <c r="F8" s="60"/>
       <c r="G8" s="60" t="s">
-        <v>653</v>
+        <v>1422</v>
       </c>
       <c r="H8" s="60" t="s">
-        <v>581</v>
+        <v>535</v>
       </c>
       <c r="I8" s="60" t="s">
-        <v>581</v>
+        <v>1424</v>
       </c>
       <c r="J8" s="60" t="s">
-        <v>1554</v>
-      </c>
-      <c r="K8" s="60" t="s">
-        <v>1482</v>
-      </c>
-      <c r="L8" s="60"/>
+        <v>1406</v>
+      </c>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60" t="s">
+        <v>452</v>
+      </c>
       <c r="M8" s="60" t="s">
-        <v>647</v>
+        <v>1586</v>
       </c>
       <c r="N8" s="60" t="s">
-        <v>647</v>
-      </c>
-      <c r="O8" s="60" t="s">
-        <v>1554</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="O8" s="60"/>
       <c r="P8" s="60" t="s">
-        <v>814</v>
-      </c>
-      <c r="Q8" s="60"/>
+        <v>1587</v>
+      </c>
+      <c r="Q8" s="60" t="s">
+        <v>307</v>
+      </c>
       <c r="R8" s="60" t="s">
-        <v>1555</v>
+        <v>651</v>
       </c>
       <c r="S8" s="18"/>
       <c r="V8" s="56"/>
@@ -9180,49 +9350,49 @@
         <v>2</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>1297</v>
+        <v>1319</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>1298</v>
+        <v>1482</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="G9" s="61" t="s">
-        <v>1299</v>
+        <v>1346</v>
       </c>
       <c r="H9" s="61" t="s">
-        <v>1300</v>
+        <v>1483</v>
       </c>
       <c r="I9" s="61" t="s">
-        <v>1300</v>
+        <v>1484</v>
       </c>
       <c r="J9" s="61" t="s">
-        <v>1301</v>
+        <v>1485</v>
       </c>
       <c r="K9" s="61" t="s">
-        <v>1302</v>
+        <v>1287</v>
       </c>
       <c r="L9" s="61" t="s">
-        <v>1288</v>
+        <v>1374</v>
       </c>
       <c r="M9" s="61" t="s">
-        <v>1303</v>
+        <v>1486</v>
       </c>
       <c r="N9" s="61" t="s">
-        <v>1303</v>
+        <v>1318</v>
       </c>
       <c r="O9" s="61" t="s">
-        <v>1301</v>
+        <v>1290</v>
       </c>
       <c r="P9" s="61" t="s">
-        <v>1304</v>
+        <v>1487</v>
       </c>
       <c r="Q9" s="61" t="s">
-        <v>1295</v>
+        <v>1480</v>
       </c>
       <c r="R9" s="61" t="s">
-        <v>1305</v>
+        <v>1488</v>
       </c>
       <c r="S9" s="20" t="str">
         <f>CHAR(10)</f>
@@ -9297,42 +9467,44 @@
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
       <c r="D12" s="60" t="s">
-        <v>1556</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>567</v>
-      </c>
+        <v>1429</v>
+      </c>
+      <c r="E12" s="60"/>
       <c r="F12" s="60" t="s">
-        <v>1483</v>
+        <v>794</v>
       </c>
       <c r="G12" s="60" t="s">
-        <v>1557</v>
+        <v>1472</v>
       </c>
       <c r="H12" s="60" t="s">
-        <v>890</v>
+        <v>1580</v>
       </c>
       <c r="I12" s="60" t="s">
-        <v>1484</v>
+        <v>1589</v>
       </c>
       <c r="J12" s="60"/>
       <c r="K12" s="60" t="s">
-        <v>1485</v>
+        <v>1455</v>
       </c>
       <c r="L12" s="60" t="s">
-        <v>1486</v>
+        <v>814</v>
       </c>
       <c r="M12" s="60" t="s">
-        <v>1558</v>
-      </c>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60" t="s">
-        <v>1487</v>
-      </c>
+        <v>1590</v>
+      </c>
+      <c r="N12" s="60" t="s">
+        <v>1591</v>
+      </c>
+      <c r="O12" s="60"/>
       <c r="P12" s="60" t="s">
-        <v>1488</v>
-      </c>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
+        <v>1450</v>
+      </c>
+      <c r="Q12" s="60" t="s">
+        <v>357</v>
+      </c>
+      <c r="R12" s="60" t="s">
+        <v>336</v>
+      </c>
       <c r="S12" s="18"/>
       <c r="V12" s="56"/>
     </row>
@@ -9342,49 +9514,49 @@
         <v>3</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>1306</v>
+        <v>1489</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="F13" s="61" t="s">
-        <v>1307</v>
+        <v>1337</v>
       </c>
       <c r="G13" s="61" t="s">
-        <v>1308</v>
+        <v>1371</v>
       </c>
       <c r="H13" s="61" t="s">
-        <v>1309</v>
+        <v>1474</v>
       </c>
       <c r="I13" s="61" t="s">
-        <v>1310</v>
+        <v>1490</v>
       </c>
       <c r="J13" s="61" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="K13" s="61" t="s">
+        <v>1319</v>
+      </c>
+      <c r="L13" s="61" t="s">
+        <v>1491</v>
+      </c>
+      <c r="M13" s="61" t="s">
+        <v>1492</v>
+      </c>
+      <c r="N13" s="61" t="s">
+        <v>1493</v>
+      </c>
+      <c r="O13" s="61" t="s">
+        <v>1290</v>
+      </c>
+      <c r="P13" s="61" t="s">
+        <v>1494</v>
+      </c>
+      <c r="Q13" s="61" t="s">
+        <v>1303</v>
+      </c>
+      <c r="R13" s="61" t="s">
         <v>1311</v>
-      </c>
-      <c r="L13" s="61" t="s">
-        <v>1312</v>
-      </c>
-      <c r="M13" s="61" t="s">
-        <v>1313</v>
-      </c>
-      <c r="N13" s="61" t="s">
-        <v>1288</v>
-      </c>
-      <c r="O13" s="61" t="s">
-        <v>1314</v>
-      </c>
-      <c r="P13" s="61" t="s">
-        <v>1315</v>
-      </c>
-      <c r="Q13" s="61" t="s">
-        <v>1316</v>
-      </c>
-      <c r="R13" s="61" t="s">
-        <v>1288</v>
       </c>
       <c r="S13" s="20" t="str">
         <f>CHAR(10)</f>
@@ -9462,46 +9634,40 @@
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
       <c r="D16" s="60" t="s">
-        <v>766</v>
+        <v>1393</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>1559</v>
-      </c>
-      <c r="F16" s="60" t="s">
-        <v>1489</v>
-      </c>
+        <v>1460</v>
+      </c>
+      <c r="F16" s="60"/>
       <c r="G16" s="60" t="s">
+        <v>1592</v>
+      </c>
+      <c r="H16" s="60" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K16" s="60" t="s">
         <v>641</v>
       </c>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60" t="s">
-        <v>1490</v>
-      </c>
-      <c r="J16" s="60" t="s">
-        <v>1491</v>
-      </c>
-      <c r="K16" s="60" t="s">
-        <v>1560</v>
-      </c>
       <c r="L16" s="60" t="s">
-        <v>1492</v>
-      </c>
-      <c r="M16" s="60"/>
+        <v>1460</v>
+      </c>
+      <c r="M16" s="60" t="s">
+        <v>336</v>
+      </c>
       <c r="N16" s="60" t="s">
-        <v>1492</v>
-      </c>
-      <c r="O16" s="60" t="s">
-        <v>653</v>
-      </c>
+        <v>1595</v>
+      </c>
+      <c r="O16" s="60"/>
       <c r="P16" s="60" t="s">
-        <v>1493</v>
-      </c>
-      <c r="Q16" s="60" t="s">
-        <v>1494</v>
-      </c>
-      <c r="R16" s="60" t="s">
-        <v>1554</v>
-      </c>
+        <v>1393</v>
+      </c>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
       <c r="S16" s="18"/>
       <c r="V16" s="56"/>
     </row>
@@ -9511,49 +9677,49 @@
         <v>4</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>1317</v>
+        <v>1285</v>
       </c>
       <c r="E17" s="61" t="s">
-        <v>1318</v>
+        <v>1495</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>1319</v>
+        <v>1287</v>
       </c>
       <c r="G17" s="61" t="s">
-        <v>1320</v>
+        <v>1496</v>
       </c>
       <c r="H17" s="61" t="s">
-        <v>1288</v>
+        <v>1497</v>
       </c>
       <c r="I17" s="61" t="s">
-        <v>1321</v>
+        <v>1287</v>
       </c>
       <c r="J17" s="61" t="s">
-        <v>1322</v>
+        <v>1498</v>
       </c>
       <c r="K17" s="61" t="s">
-        <v>1323</v>
+        <v>1303</v>
       </c>
       <c r="L17" s="61" t="s">
-        <v>1324</v>
+        <v>1495</v>
       </c>
       <c r="M17" s="61" t="s">
-        <v>1295</v>
+        <v>1311</v>
       </c>
       <c r="N17" s="61" t="s">
-        <v>1324</v>
+        <v>1499</v>
       </c>
       <c r="O17" s="61" t="s">
-        <v>1299</v>
+        <v>1287</v>
       </c>
       <c r="P17" s="61" t="s">
-        <v>1325</v>
+        <v>1285</v>
       </c>
       <c r="Q17" s="61" t="s">
-        <v>1326</v>
+        <v>1500</v>
       </c>
       <c r="R17" s="61" t="s">
-        <v>1301</v>
+        <v>1287</v>
       </c>
       <c r="S17" s="20" t="str">
         <f>CHAR(10)</f>
@@ -9629,44 +9795,40 @@
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
       <c r="D20" s="60" t="s">
-        <v>1495</v>
-      </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60" t="s">
-        <v>734</v>
-      </c>
+        <v>1393</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="60"/>
       <c r="G20" s="60" t="s">
-        <v>619</v>
-      </c>
-      <c r="H20" s="60" t="s">
-        <v>1554</v>
-      </c>
-      <c r="I20" s="60" t="s">
-        <v>1496</v>
-      </c>
-      <c r="J20" s="60"/>
+        <v>1393</v>
+      </c>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60" t="s">
+        <v>1170</v>
+      </c>
       <c r="K20" s="60" t="s">
-        <v>1496</v>
-      </c>
-      <c r="L20" s="60" t="s">
-        <v>653</v>
-      </c>
+        <v>1596</v>
+      </c>
+      <c r="L20" s="60"/>
       <c r="M20" s="60" t="s">
-        <v>1561</v>
+        <v>1419</v>
       </c>
       <c r="N20" s="60" t="s">
-        <v>1562</v>
+        <v>1597</v>
       </c>
       <c r="O20" s="60" t="s">
-        <v>1497</v>
+        <v>1598</v>
       </c>
       <c r="P20" s="60" t="s">
-        <v>597</v>
-      </c>
-      <c r="Q20" s="60" t="s">
-        <v>1563</v>
-      </c>
-      <c r="R20" s="60"/>
+        <v>647</v>
+      </c>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60" t="s">
+        <v>1599</v>
+      </c>
       <c r="S20" s="18"/>
       <c r="V20" s="56"/>
     </row>
@@ -9676,49 +9838,49 @@
         <v>5</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>1327</v>
+        <v>1285</v>
       </c>
       <c r="E21" s="61" t="s">
-        <v>1288</v>
+        <v>1501</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>1328</v>
+        <v>1287</v>
       </c>
       <c r="G21" s="61" t="s">
-        <v>1329</v>
+        <v>1285</v>
       </c>
       <c r="H21" s="61" t="s">
-        <v>1301</v>
+        <v>1502</v>
       </c>
       <c r="I21" s="61" t="s">
-        <v>1330</v>
+        <v>1287</v>
       </c>
       <c r="J21" s="61" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="K21" s="61" t="s">
-        <v>1330</v>
+        <v>1503</v>
       </c>
       <c r="L21" s="61" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="M21" s="61" t="s">
-        <v>1331</v>
+        <v>1344</v>
       </c>
       <c r="N21" s="61" t="s">
-        <v>1332</v>
+        <v>1504</v>
       </c>
       <c r="O21" s="61" t="s">
-        <v>1333</v>
+        <v>1505</v>
       </c>
       <c r="P21" s="61" t="s">
-        <v>1334</v>
+        <v>1506</v>
       </c>
       <c r="Q21" s="61" t="s">
-        <v>1335</v>
+        <v>1287</v>
       </c>
       <c r="R21" s="61" t="s">
-        <v>1295</v>
+        <v>1507</v>
       </c>
       <c r="S21" s="20" t="str">
         <f>CHAR(10)</f>
@@ -9794,43 +9956,41 @@
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
       <c r="D24" s="60" t="s">
-        <v>1563</v>
+        <v>1600</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>1554</v>
+        <v>1601</v>
       </c>
       <c r="F24" s="60" t="s">
-        <v>1498</v>
+        <v>1602</v>
       </c>
       <c r="G24" s="60"/>
       <c r="H24" s="60" t="s">
-        <v>1499</v>
+        <v>1603</v>
       </c>
       <c r="I24" s="60" t="s">
-        <v>1500</v>
+        <v>1605</v>
       </c>
       <c r="J24" s="60" t="s">
-        <v>1501</v>
+        <v>1401</v>
       </c>
       <c r="K24" s="60" t="s">
-        <v>673</v>
+        <v>1607</v>
       </c>
       <c r="L24" s="60"/>
-      <c r="M24" s="60" t="s">
-        <v>1498</v>
-      </c>
+      <c r="M24" s="60"/>
       <c r="N24" s="60" t="s">
         <v>657</v>
       </c>
       <c r="O24" s="60" t="s">
-        <v>1564</v>
+        <v>1453</v>
       </c>
       <c r="P24" s="60" t="s">
-        <v>1502</v>
+        <v>1405</v>
       </c>
       <c r="Q24" s="60"/>
       <c r="R24" s="60" t="s">
-        <v>1565</v>
+        <v>1454</v>
       </c>
       <c r="S24" s="18"/>
       <c r="V24" s="56"/>
@@ -9841,49 +10001,51 @@
         <v>6</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>1335</v>
+        <v>1508</v>
       </c>
       <c r="E25" s="61" t="s">
-        <v>1301</v>
+        <v>1509</v>
       </c>
       <c r="F25" s="61" t="s">
-        <v>1336</v>
+        <v>1510</v>
       </c>
       <c r="G25" s="61" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H25" s="61" t="s">
-        <v>1337</v>
+        <v>1511</v>
       </c>
       <c r="I25" s="61" t="s">
-        <v>1338</v>
+        <v>1512</v>
       </c>
       <c r="J25" s="61" t="s">
-        <v>1339</v>
+        <v>1307</v>
       </c>
       <c r="K25" s="61" t="s">
-        <v>1340</v>
+        <v>1513</v>
       </c>
       <c r="L25" s="61" t="s">
-        <v>1288</v>
-      </c>
-      <c r="M25" s="61" t="s">
-        <v>1336</v>
+        <v>1290</v>
+      </c>
+      <c r="M25" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="N25" s="61" t="s">
-        <v>1341</v>
+        <v>1313</v>
       </c>
       <c r="O25" s="61" t="s">
-        <v>1342</v>
+        <v>1314</v>
       </c>
       <c r="P25" s="61" t="s">
-        <v>1343</v>
+        <v>1315</v>
       </c>
       <c r="Q25" s="61" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="R25" s="61" t="s">
-        <v>1344</v>
+        <v>1316</v>
       </c>
       <c r="S25" s="20" t="str">
         <f>CHAR(10)</f>
@@ -9965,45 +10127,47 @@
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
       <c r="D28" s="60" t="s">
-        <v>1554</v>
+        <v>1589</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>1503</v>
-      </c>
-      <c r="F28" s="60"/>
+        <v>1608</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>1609</v>
+      </c>
       <c r="G28" s="60" t="s">
-        <v>1503</v>
+        <v>1611</v>
       </c>
       <c r="H28" s="60" t="s">
-        <v>1554</v>
+        <v>1612</v>
       </c>
       <c r="I28" s="60" t="s">
-        <v>916</v>
-      </c>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60" t="s">
-        <v>597</v>
-      </c>
+        <v>724</v>
+      </c>
+      <c r="J28" s="60" t="s">
+        <v>1613</v>
+      </c>
+      <c r="K28" s="60"/>
       <c r="L28" s="60" t="s">
-        <v>1478</v>
+        <v>856</v>
       </c>
       <c r="M28" s="60" t="s">
-        <v>1504</v>
+        <v>1418</v>
       </c>
       <c r="N28" s="60" t="s">
-        <v>896</v>
+        <v>718</v>
       </c>
       <c r="O28" s="60" t="s">
-        <v>1480</v>
+        <v>814</v>
       </c>
       <c r="P28" s="60" t="s">
-        <v>601</v>
+        <v>1399</v>
       </c>
       <c r="Q28" s="60" t="s">
-        <v>1484</v>
+        <v>1404</v>
       </c>
       <c r="R28" s="60" t="s">
-        <v>1566</v>
+        <v>497</v>
       </c>
       <c r="S28" s="18"/>
       <c r="U28" s="33" t="str">
@@ -10018,49 +10182,49 @@
         <v>7</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>1301</v>
+        <v>1490</v>
       </c>
       <c r="E29" s="61" t="s">
-        <v>1345</v>
+        <v>1514</v>
       </c>
       <c r="F29" s="61" t="s">
-        <v>1288</v>
+        <v>1515</v>
       </c>
       <c r="G29" s="61" t="s">
-        <v>1345</v>
+        <v>1516</v>
       </c>
       <c r="H29" s="61" t="s">
-        <v>1301</v>
+        <v>1476</v>
       </c>
       <c r="I29" s="61" t="s">
-        <v>1346</v>
+        <v>1517</v>
       </c>
       <c r="J29" s="61" t="s">
-        <v>1288</v>
+        <v>1518</v>
       </c>
       <c r="K29" s="61" t="s">
-        <v>1334</v>
+        <v>1287</v>
       </c>
       <c r="L29" s="61" t="s">
-        <v>1285</v>
+        <v>1321</v>
       </c>
       <c r="M29" s="61" t="s">
-        <v>1347</v>
+        <v>1340</v>
       </c>
       <c r="N29" s="61" t="s">
-        <v>1290</v>
+        <v>1519</v>
       </c>
       <c r="O29" s="61" t="s">
-        <v>1291</v>
+        <v>1295</v>
       </c>
       <c r="P29" s="61" t="s">
-        <v>1348</v>
+        <v>1304</v>
       </c>
       <c r="Q29" s="61" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="R29" s="61" t="s">
-        <v>1349</v>
+        <v>1520</v>
       </c>
       <c r="S29" s="20" t="str">
         <f>CHAR(10)</f>
@@ -10149,46 +10313,44 @@
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
-      <c r="D32" s="60" t="s">
-        <v>1500</v>
-      </c>
+      <c r="D32" s="60"/>
       <c r="E32" s="60" t="s">
-        <v>693</v>
+        <v>1447</v>
       </c>
       <c r="F32" s="60" t="s">
-        <v>1505</v>
+        <v>1614</v>
       </c>
       <c r="G32" s="60" t="s">
-        <v>782</v>
-      </c>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60" t="s">
-        <v>856</v>
-      </c>
+        <v>794</v>
+      </c>
+      <c r="H32" s="60" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I32" s="60"/>
       <c r="J32" s="60" t="s">
-        <v>1506</v>
+        <v>1616</v>
       </c>
       <c r="K32" s="60" t="s">
-        <v>1500</v>
+        <v>1617</v>
       </c>
       <c r="L32" s="60" t="s">
-        <v>1553</v>
-      </c>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60" t="s">
-        <v>1554</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="M32" s="60" t="s">
+        <v>1439</v>
+      </c>
+      <c r="N32" s="60"/>
       <c r="O32" s="60" t="s">
-        <v>1507</v>
+        <v>597</v>
       </c>
       <c r="P32" s="60" t="s">
-        <v>1567</v>
+        <v>44</v>
       </c>
       <c r="Q32" s="60" t="s">
-        <v>882</v>
+        <v>1451</v>
       </c>
       <c r="R32" s="60" t="s">
-        <v>1508</v>
+        <v>1618</v>
       </c>
       <c r="S32" s="18"/>
       <c r="U32" s="33" t="str">
@@ -10203,49 +10365,49 @@
         <v>8</v>
       </c>
       <c r="D33" s="61" t="s">
-        <v>1338</v>
+        <v>1287</v>
       </c>
       <c r="E33" s="61" t="s">
-        <v>1350</v>
+        <v>1296</v>
       </c>
       <c r="F33" s="61" t="s">
-        <v>1351</v>
+        <v>1521</v>
       </c>
       <c r="G33" s="61" t="s">
-        <v>1352</v>
+        <v>1337</v>
       </c>
       <c r="H33" s="61" t="s">
-        <v>1288</v>
+        <v>1522</v>
       </c>
       <c r="I33" s="61" t="s">
-        <v>1353</v>
+        <v>1287</v>
       </c>
       <c r="J33" s="61" t="s">
-        <v>1354</v>
+        <v>1523</v>
       </c>
       <c r="K33" s="61" t="s">
-        <v>1338</v>
+        <v>1524</v>
       </c>
       <c r="L33" s="61" t="s">
+        <v>1303</v>
+      </c>
+      <c r="M33" s="61" t="s">
         <v>1298</v>
       </c>
-      <c r="M33" s="61" t="s">
-        <v>1288</v>
-      </c>
       <c r="N33" s="61" t="s">
-        <v>1301</v>
+        <v>1290</v>
       </c>
       <c r="O33" s="61" t="s">
-        <v>1355</v>
+        <v>1525</v>
       </c>
       <c r="P33" s="61" t="s">
-        <v>1356</v>
+        <v>1339</v>
       </c>
       <c r="Q33" s="61" t="s">
-        <v>1357</v>
+        <v>1306</v>
       </c>
       <c r="R33" s="61" t="s">
-        <v>1358</v>
+        <v>1526</v>
       </c>
       <c r="S33" s="20" t="str">
         <f>CHAR(10)</f>
@@ -10304,29 +10466,43 @@
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
-      <c r="D36" s="60" t="s">
-        <v>1484</v>
-      </c>
-      <c r="E36" s="60" t="s">
-        <v>601</v>
-      </c>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
       <c r="F36" s="60" t="s">
-        <v>1489</v>
+        <v>1415</v>
       </c>
       <c r="G36" s="60" t="s">
-        <v>1509</v>
-      </c>
-      <c r="H36" s="60"/>
+        <v>1400</v>
+      </c>
+      <c r="H36" s="60" t="s">
+        <v>1619</v>
+      </c>
       <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
+      <c r="J36" s="60" t="s">
+        <v>1620</v>
+      </c>
+      <c r="K36" s="60" t="s">
+        <v>1621</v>
+      </c>
+      <c r="L36" s="60" t="s">
+        <v>1622</v>
+      </c>
+      <c r="M36" s="60" t="s">
+        <v>1606</v>
+      </c>
       <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60"/>
+      <c r="O36" s="60" t="s">
+        <v>1623</v>
+      </c>
+      <c r="P36" s="60" t="s">
+        <v>1438</v>
+      </c>
+      <c r="Q36" s="60" t="s">
+        <v>437</v>
+      </c>
+      <c r="R36" s="60" t="s">
+        <v>422</v>
+      </c>
       <c r="S36" s="18"/>
       <c r="V36" s="56"/>
     </row>
@@ -10336,34 +10512,50 @@
         <v>9</v>
       </c>
       <c r="D37" s="61" t="s">
-        <v>1310</v>
+        <v>1287</v>
       </c>
       <c r="E37" s="61" t="s">
-        <v>1348</v>
+        <v>1527</v>
       </c>
       <c r="F37" s="61" t="s">
-        <v>1319</v>
+        <v>1528</v>
       </c>
       <c r="G37" s="61" t="s">
-        <v>1359</v>
+        <v>1305</v>
       </c>
       <c r="H37" s="61" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I37" s="61" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="61"/>
+        <v>1529</v>
+      </c>
+      <c r="I37" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="K37" s="61" t="s">
+        <v>1531</v>
+      </c>
+      <c r="L37" s="61" t="s">
+        <v>1532</v>
+      </c>
+      <c r="M37" s="61" t="s">
+        <v>1533</v>
+      </c>
+      <c r="N37" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="O37" s="61" t="s">
+        <v>1534</v>
+      </c>
+      <c r="P37" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q37" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="R37" s="61" t="s">
+        <v>212</v>
+      </c>
       <c r="S37" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -10442,44 +10634,40 @@
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
       <c r="D40" s="64" t="s">
-        <v>1568</v>
+        <v>1452</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>1510</v>
-      </c>
-      <c r="F40" s="60" t="s">
-        <v>1511</v>
-      </c>
-      <c r="G40" s="60" t="s">
-        <v>1569</v>
-      </c>
+        <v>1586</v>
+      </c>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
       <c r="H40" s="60" t="s">
         <v>878</v>
       </c>
       <c r="I40" s="60" t="s">
-        <v>1512</v>
+        <v>1410</v>
       </c>
       <c r="J40" s="60" t="s">
-        <v>1513</v>
+        <v>1411</v>
       </c>
       <c r="K40" s="60" t="s">
-        <v>1555</v>
+        <v>1447</v>
       </c>
       <c r="L40" s="60"/>
       <c r="M40" s="60" t="s">
-        <v>1514</v>
+        <v>1412</v>
       </c>
       <c r="N40" s="60" t="s">
-        <v>1495</v>
+        <v>1402</v>
       </c>
       <c r="O40" s="60" t="s">
-        <v>1515</v>
+        <v>1413</v>
       </c>
       <c r="P40" s="60" t="s">
-        <v>1570</v>
+        <v>1457</v>
       </c>
       <c r="Q40" s="60" t="s">
-        <v>1508</v>
+        <v>1408</v>
       </c>
       <c r="R40" s="60" t="s">
         <v>517</v>
@@ -10493,49 +10681,51 @@
         <v>10</v>
       </c>
       <c r="D41" s="61" t="s">
-        <v>1360</v>
+        <v>1310</v>
       </c>
       <c r="E41" s="61" t="s">
-        <v>1361</v>
+        <v>1486</v>
       </c>
       <c r="F41" s="61" t="s">
-        <v>1362</v>
-      </c>
-      <c r="G41" s="61" t="s">
-        <v>1363</v>
+        <v>1290</v>
+      </c>
+      <c r="G41" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="H41" s="61" t="s">
-        <v>1364</v>
+        <v>1328</v>
       </c>
       <c r="I41" s="61" t="s">
-        <v>1365</v>
+        <v>1329</v>
       </c>
       <c r="J41" s="61" t="s">
-        <v>1366</v>
+        <v>1330</v>
       </c>
       <c r="K41" s="61" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
       <c r="L41" s="61" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M41" s="61" t="s">
-        <v>1367</v>
+        <v>1331</v>
       </c>
       <c r="N41" s="61" t="s">
-        <v>1327</v>
+        <v>1308</v>
       </c>
       <c r="O41" s="61" t="s">
-        <v>1368</v>
+        <v>1332</v>
       </c>
       <c r="P41" s="61" t="s">
-        <v>1369</v>
+        <v>1333</v>
       </c>
       <c r="Q41" s="61" t="s">
-        <v>1358</v>
+        <v>1325</v>
       </c>
       <c r="R41" s="61" t="s">
-        <v>1370</v>
+        <v>1334</v>
       </c>
       <c r="S41" s="20" t="str">
         <f>CHAR(10)</f>
@@ -10610,44 +10800,46 @@
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
-      <c r="D44" s="60"/>
+      <c r="D44" s="60" t="s">
+        <v>1588</v>
+      </c>
       <c r="E44" s="60" t="s">
-        <v>1498</v>
+        <v>1408</v>
       </c>
       <c r="F44" s="60" t="s">
-        <v>1508</v>
+        <v>671</v>
       </c>
       <c r="G44" s="60" t="s">
-        <v>1484</v>
-      </c>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60" t="s">
-        <v>1567</v>
-      </c>
+        <v>1446</v>
+      </c>
+      <c r="H44" s="60" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I44" s="60"/>
       <c r="J44" s="60" t="s">
-        <v>884</v>
+        <v>1624</v>
       </c>
       <c r="K44" s="60" t="s">
-        <v>693</v>
+        <v>1625</v>
       </c>
       <c r="L44" s="60" t="s">
-        <v>601</v>
-      </c>
-      <c r="M44" s="60"/>
-      <c r="N44" s="60" t="s">
-        <v>1571</v>
-      </c>
+        <v>1626</v>
+      </c>
+      <c r="M44" s="60" t="s">
+        <v>1175</v>
+      </c>
+      <c r="N44" s="60"/>
       <c r="O44" s="60" t="s">
-        <v>1516</v>
+        <v>892</v>
       </c>
       <c r="P44" s="60" t="s">
-        <v>740</v>
+        <v>1627</v>
       </c>
       <c r="Q44" s="60" t="s">
-        <v>1479</v>
+        <v>1611</v>
       </c>
       <c r="R44" s="60" t="s">
-        <v>1572</v>
+        <v>1472</v>
       </c>
       <c r="S44" s="18"/>
       <c r="V44" s="56"/>
@@ -10658,49 +10850,49 @@
         <v>11</v>
       </c>
       <c r="D45" s="61" t="s">
-        <v>1288</v>
+        <v>1490</v>
       </c>
       <c r="E45" s="61" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F45" s="61" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G45" s="61" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H45" s="61" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I45" s="61" t="s">
+        <v>1287</v>
+      </c>
+      <c r="J45" s="61" t="s">
+        <v>1536</v>
+      </c>
+      <c r="K45" s="61" t="s">
+        <v>1537</v>
+      </c>
+      <c r="L45" s="61" t="s">
+        <v>1538</v>
+      </c>
+      <c r="M45" s="61" t="s">
+        <v>1294</v>
+      </c>
+      <c r="N45" s="61" t="s">
+        <v>1287</v>
+      </c>
+      <c r="O45" s="61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="P45" s="61" t="s">
+        <v>1540</v>
+      </c>
+      <c r="Q45" s="61" t="s">
+        <v>1516</v>
+      </c>
+      <c r="R45" s="61" t="s">
         <v>1371</v>
-      </c>
-      <c r="F45" s="61" t="s">
-        <v>1358</v>
-      </c>
-      <c r="G45" s="61" t="s">
-        <v>1310</v>
-      </c>
-      <c r="H45" s="61" t="s">
-        <v>1288</v>
-      </c>
-      <c r="I45" s="61" t="s">
-        <v>1356</v>
-      </c>
-      <c r="J45" s="61" t="s">
-        <v>1372</v>
-      </c>
-      <c r="K45" s="61" t="s">
-        <v>1350</v>
-      </c>
-      <c r="L45" s="61" t="s">
-        <v>1348</v>
-      </c>
-      <c r="M45" s="61" t="s">
-        <v>1295</v>
-      </c>
-      <c r="N45" s="61" t="s">
-        <v>1373</v>
-      </c>
-      <c r="O45" s="61" t="s">
-        <v>1374</v>
-      </c>
-      <c r="P45" s="61" t="s">
-        <v>1375</v>
-      </c>
-      <c r="Q45" s="61" t="s">
-        <v>1287</v>
-      </c>
-      <c r="R45" s="61" t="s">
-        <v>1376</v>
       </c>
       <c r="S45" s="20" t="str">
         <f>CHAR(10)</f>
@@ -10769,38 +10961,44 @@
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
-      <c r="D48" s="60" t="s">
-        <v>1517</v>
-      </c>
+      <c r="D48" s="60"/>
       <c r="E48" s="60" t="s">
-        <v>629</v>
-      </c>
-      <c r="F48" s="60"/>
+        <v>567</v>
+      </c>
+      <c r="F48" s="60" t="s">
+        <v>1593</v>
+      </c>
       <c r="G48" s="60" t="s">
-        <v>1518</v>
+        <v>1417</v>
       </c>
       <c r="H48" s="60" t="s">
-        <v>1573</v>
+        <v>1628</v>
       </c>
       <c r="I48" s="60" t="s">
-        <v>1519</v>
-      </c>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60" t="s">
-        <v>1520</v>
-      </c>
+        <v>1629</v>
+      </c>
+      <c r="J48" s="60" t="s">
+        <v>1604</v>
+      </c>
+      <c r="K48" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="L48" s="60"/>
       <c r="M48" s="60" t="s">
-        <v>1521</v>
-      </c>
-      <c r="N48" s="60"/>
+        <v>1451</v>
+      </c>
+      <c r="N48" s="60" t="s">
+        <v>1610</v>
+      </c>
       <c r="O48" s="60" t="s">
-        <v>1522</v>
+        <v>882</v>
       </c>
       <c r="P48" s="60" t="s">
-        <v>1574</v>
-      </c>
-      <c r="Q48" s="60"/>
+        <v>567</v>
+      </c>
+      <c r="Q48" s="60" t="s">
+        <v>1270</v>
+      </c>
       <c r="R48" s="60"/>
       <c r="S48" s="18"/>
       <c r="V48" s="56"/>
@@ -10811,49 +11009,49 @@
         <v>12</v>
       </c>
       <c r="D49" s="61" t="s">
-        <v>1377</v>
+        <v>1290</v>
       </c>
       <c r="E49" s="61" t="s">
-        <v>1378</v>
+        <v>1291</v>
       </c>
       <c r="F49" s="61" t="s">
-        <v>1288</v>
+        <v>1497</v>
       </c>
       <c r="G49" s="61" t="s">
-        <v>1379</v>
+        <v>1338</v>
       </c>
       <c r="H49" s="61" t="s">
-        <v>1380</v>
+        <v>1541</v>
       </c>
       <c r="I49" s="61" t="s">
-        <v>1381</v>
+        <v>1542</v>
       </c>
       <c r="J49" s="61" t="s">
-        <v>1288</v>
+        <v>1512</v>
       </c>
       <c r="K49" s="61" t="s">
-        <v>1382</v>
+        <v>1543</v>
       </c>
       <c r="L49" s="61" t="s">
-        <v>1383</v>
+        <v>1287</v>
       </c>
       <c r="M49" s="61" t="s">
-        <v>1384</v>
+        <v>1306</v>
       </c>
       <c r="N49" s="61" t="s">
-        <v>1288</v>
+        <v>1516</v>
       </c>
       <c r="O49" s="61" t="s">
-        <v>1385</v>
+        <v>1324</v>
       </c>
       <c r="P49" s="61" t="s">
-        <v>1386</v>
+        <v>1291</v>
       </c>
       <c r="Q49" s="61" t="s">
-        <v>1387</v>
+        <v>1544</v>
       </c>
       <c r="R49" s="61" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="S49" s="20" t="str">
         <f>CHAR(10)</f>
@@ -10928,11 +11126,9 @@
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
-      <c r="D52" s="60" t="s">
-        <v>1487</v>
-      </c>
+      <c r="D52" s="60"/>
       <c r="E52" s="60" t="s">
-        <v>1484</v>
+        <v>1396</v>
       </c>
       <c r="F52" s="60" t="s">
         <v>601</v>
@@ -10941,20 +11137,20 @@
         <v>890</v>
       </c>
       <c r="H52" s="60" t="s">
-        <v>1554</v>
+        <v>1446</v>
       </c>
       <c r="I52" s="60" t="s">
         <v>820</v>
       </c>
       <c r="J52" s="60"/>
       <c r="K52" s="60" t="s">
-        <v>1575</v>
+        <v>1459</v>
       </c>
       <c r="L52" s="60" t="s">
-        <v>1523</v>
+        <v>1416</v>
       </c>
       <c r="M52" s="60" t="s">
-        <v>1554</v>
+        <v>1446</v>
       </c>
       <c r="N52" s="60" t="s">
         <v>752</v>
@@ -10967,7 +11163,7 @@
         <v>599</v>
       </c>
       <c r="R52" s="60" t="s">
-        <v>1554</v>
+        <v>1446</v>
       </c>
       <c r="S52" s="18"/>
       <c r="V52" s="56"/>
@@ -10978,49 +11174,49 @@
         <v>13</v>
       </c>
       <c r="D53" s="61" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="E53" s="61" t="s">
-        <v>1310</v>
+        <v>1490</v>
       </c>
       <c r="F53" s="61" t="s">
-        <v>1348</v>
+        <v>1298</v>
       </c>
       <c r="G53" s="61" t="s">
-        <v>1309</v>
+        <v>1287</v>
       </c>
       <c r="H53" s="61" t="s">
-        <v>1301</v>
+        <v>1345</v>
       </c>
       <c r="I53" s="61" t="s">
-        <v>1388</v>
+        <v>1545</v>
       </c>
       <c r="J53" s="61" t="s">
-        <v>1295</v>
+        <v>1480</v>
       </c>
       <c r="K53" s="61" t="s">
-        <v>1389</v>
+        <v>1504</v>
       </c>
       <c r="L53" s="61" t="s">
-        <v>1390</v>
+        <v>1485</v>
       </c>
       <c r="M53" s="61" t="s">
-        <v>1301</v>
+        <v>1381</v>
       </c>
       <c r="N53" s="61" t="s">
-        <v>1391</v>
+        <v>1287</v>
       </c>
       <c r="O53" s="61" t="s">
-        <v>1288</v>
+        <v>1546</v>
       </c>
       <c r="P53" s="61" t="s">
-        <v>1392</v>
+        <v>1547</v>
       </c>
       <c r="Q53" s="61" t="s">
-        <v>1393</v>
+        <v>1304</v>
       </c>
       <c r="R53" s="61" t="s">
-        <v>1301</v>
+        <v>1286</v>
       </c>
       <c r="S53" s="20" t="str">
         <f>CHAR(10)</f>
@@ -11094,43 +11290,43 @@
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
       <c r="D56" s="60" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E56" s="60"/>
+        <v>1402</v>
+      </c>
+      <c r="E56" s="60" t="s">
+        <v>1588</v>
+      </c>
       <c r="F56" s="60" t="s">
-        <v>653</v>
-      </c>
-      <c r="G56" s="60" t="s">
-        <v>1504</v>
-      </c>
+        <v>1449</v>
+      </c>
+      <c r="G56" s="60"/>
       <c r="H56" s="60" t="s">
-        <v>1576</v>
+        <v>1421</v>
       </c>
       <c r="I56" s="60" t="s">
-        <v>1480</v>
+        <v>1630</v>
       </c>
       <c r="J56" s="60" t="s">
-        <v>601</v>
+        <v>523</v>
       </c>
       <c r="K56" s="60" t="s">
-        <v>1577</v>
+        <v>1597</v>
       </c>
       <c r="L56" s="60" t="s">
-        <v>1595</v>
-      </c>
-      <c r="M56" s="60"/>
-      <c r="N56" s="60" t="s">
-        <v>856</v>
-      </c>
+        <v>1406</v>
+      </c>
+      <c r="M56" s="60" t="s">
+        <v>1281</v>
+      </c>
+      <c r="N56" s="60"/>
       <c r="O56" s="60" t="s">
-        <v>1578</v>
+        <v>1631</v>
       </c>
       <c r="P56" s="60"/>
       <c r="Q56" s="60" t="s">
-        <v>641</v>
+        <v>1399</v>
       </c>
       <c r="R56" s="60" t="s">
-        <v>601</v>
+        <v>1394</v>
       </c>
       <c r="S56" s="18"/>
       <c r="V56" s="56"/>
@@ -11141,49 +11337,49 @@
         <v>14</v>
       </c>
       <c r="D57" s="61" t="s">
-        <v>1394</v>
+        <v>1287</v>
       </c>
       <c r="E57" s="61" t="s">
-        <v>1288</v>
+        <v>1548</v>
       </c>
       <c r="F57" s="61" t="s">
-        <v>1299</v>
+        <v>1549</v>
       </c>
       <c r="G57" s="61" t="s">
-        <v>1347</v>
+        <v>1550</v>
       </c>
       <c r="H57" s="61" t="s">
-        <v>1395</v>
+        <v>1551</v>
       </c>
       <c r="I57" s="61" t="s">
+        <v>1287</v>
+      </c>
+      <c r="J57" s="61" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K57" s="61" t="s">
+        <v>1553</v>
+      </c>
+      <c r="L57" s="61" t="s">
+        <v>1302</v>
+      </c>
+      <c r="M57" s="61" t="s">
+        <v>1554</v>
+      </c>
+      <c r="N57" s="61" t="s">
+        <v>1290</v>
+      </c>
+      <c r="O57" s="61" t="s">
+        <v>1311</v>
+      </c>
+      <c r="P57" s="61" t="s">
         <v>1291</v>
       </c>
-      <c r="J57" s="61" t="s">
-        <v>1348</v>
-      </c>
-      <c r="K57" s="61" t="s">
-        <v>1396</v>
-      </c>
-      <c r="L57" s="61" t="s">
-        <v>1397</v>
-      </c>
-      <c r="M57" s="61" t="s">
-        <v>1288</v>
-      </c>
-      <c r="N57" s="61" t="s">
-        <v>1353</v>
-      </c>
-      <c r="O57" s="61" t="s">
-        <v>1398</v>
-      </c>
-      <c r="P57" s="61" t="s">
-        <v>1399</v>
-      </c>
       <c r="Q57" s="61" t="s">
-        <v>1400</v>
+        <v>1555</v>
       </c>
       <c r="R57" s="61" t="s">
-        <v>1348</v>
+        <v>1336</v>
       </c>
       <c r="S57" s="20" t="str">
         <f>CHAR(10)</f>
@@ -11252,39 +11448,45 @@
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
-      <c r="D60" s="60" t="s">
-        <v>794</v>
-      </c>
-      <c r="E60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60" t="s">
+        <v>1632</v>
+      </c>
       <c r="F60" s="60" t="s">
-        <v>567</v>
+        <v>850</v>
       </c>
       <c r="G60" s="60" t="s">
-        <v>890</v>
+        <v>1633</v>
       </c>
       <c r="H60" s="60" t="s">
-        <v>794</v>
-      </c>
-      <c r="I60" s="60" t="s">
-        <v>601</v>
-      </c>
+        <v>1634</v>
+      </c>
+      <c r="I60" s="60"/>
       <c r="J60" s="60" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K60" s="60"/>
-      <c r="L60" s="60"/>
+        <v>1635</v>
+      </c>
+      <c r="K60" s="60" t="s">
+        <v>1636</v>
+      </c>
+      <c r="L60" s="60" t="s">
+        <v>416</v>
+      </c>
       <c r="M60" s="60" t="s">
-        <v>44</v>
+        <v>1458</v>
       </c>
       <c r="N60" s="60"/>
       <c r="O60" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="P60" s="60"/>
+        <v>597</v>
+      </c>
+      <c r="P60" s="60" t="s">
+        <v>45</v>
+      </c>
       <c r="Q60" s="60" t="s">
-        <v>1526</v>
-      </c>
-      <c r="R60" s="60"/>
+        <v>786</v>
+      </c>
+      <c r="R60" s="60" t="s">
+        <v>1443</v>
+      </c>
       <c r="S60" s="18"/>
       <c r="V60" s="56"/>
     </row>
@@ -11294,49 +11496,51 @@
         <v>15</v>
       </c>
       <c r="D61" s="61" t="s">
-        <v>1401</v>
+        <v>1492</v>
       </c>
       <c r="E61" s="61" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="F61" s="61" t="s">
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="G61" s="61" t="s">
-        <v>1309</v>
+        <v>1516</v>
       </c>
       <c r="H61" s="61" t="s">
-        <v>1401</v>
+        <v>1556</v>
       </c>
       <c r="I61" s="61" t="s">
-        <v>1348</v>
+        <v>1288</v>
       </c>
       <c r="J61" s="61" t="s">
-        <v>1402</v>
+        <v>1287</v>
       </c>
       <c r="K61" s="61" t="s">
-        <v>1288</v>
+        <v>1557</v>
       </c>
       <c r="L61" s="61" t="s">
-        <v>1403</v>
+        <v>1558</v>
       </c>
       <c r="M61" s="61" t="s">
-        <v>1404</v>
+        <v>1318</v>
       </c>
       <c r="N61" s="61" t="s">
-        <v>1405</v>
+        <v>1293</v>
       </c>
       <c r="O61" s="61" t="s">
-        <v>1404</v>
+        <v>1559</v>
       </c>
       <c r="P61" s="61" t="s">
-        <v>1288</v>
-      </c>
-      <c r="Q61" s="61" t="s">
-        <v>1406</v>
+        <v>1290</v>
+      </c>
+      <c r="Q61" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="R61" s="61" t="s">
-        <v>1407</v>
+        <v>1341</v>
       </c>
       <c r="S61" s="20" t="str">
         <f>CHAR(10)</f>
@@ -11410,41 +11614,41 @@
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
       <c r="D64" s="60" t="s">
-        <v>1526</v>
-      </c>
-      <c r="E64" s="60" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F64" s="60"/>
+        <v>1590</v>
+      </c>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60" t="s">
+        <v>1440</v>
+      </c>
       <c r="G64" s="60" t="s">
-        <v>1528</v>
+        <v>1611</v>
       </c>
       <c r="H64" s="60" t="s">
-        <v>1529</v>
+        <v>1637</v>
       </c>
       <c r="I64" s="60" t="s">
-        <v>649</v>
-      </c>
-      <c r="J64" s="60" t="s">
-        <v>730</v>
-      </c>
-      <c r="K64" s="60"/>
+        <v>770</v>
+      </c>
+      <c r="J64" s="60"/>
+      <c r="K64" s="60" t="s">
+        <v>318</v>
+      </c>
       <c r="L64" s="60" t="s">
-        <v>1579</v>
-      </c>
-      <c r="M64" s="60"/>
+        <v>599</v>
+      </c>
+      <c r="M64" s="60" t="s">
+        <v>338</v>
+      </c>
       <c r="N64" s="60" t="s">
-        <v>1531</v>
+        <v>1446</v>
       </c>
       <c r="O64" s="60" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="P64" s="60"/>
-      <c r="Q64" s="60" t="s">
-        <v>1580</v>
-      </c>
+      <c r="Q64" s="60"/>
       <c r="R64" s="60" t="s">
-        <v>1532</v>
+        <v>1420</v>
       </c>
       <c r="S64" s="18"/>
       <c r="V64" s="56"/>
@@ -11455,49 +11659,49 @@
         <v>16</v>
       </c>
       <c r="D65" s="61" t="s">
-        <v>1406</v>
+        <v>1314</v>
       </c>
       <c r="E65" s="61" t="s">
-        <v>1408</v>
+        <v>1295</v>
       </c>
       <c r="F65" s="61" t="s">
-        <v>1288</v>
+        <v>1320</v>
       </c>
       <c r="G65" s="61" t="s">
-        <v>1409</v>
+        <v>1560</v>
       </c>
       <c r="H65" s="61" t="s">
-        <v>1410</v>
+        <v>1561</v>
       </c>
       <c r="I65" s="61" t="s">
-        <v>1411</v>
+        <v>1562</v>
       </c>
       <c r="J65" s="61" t="s">
-        <v>1412</v>
+        <v>1563</v>
       </c>
       <c r="K65" s="61" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="L65" s="61" t="s">
-        <v>1413</v>
+        <v>1564</v>
       </c>
       <c r="M65" s="61" t="s">
-        <v>1414</v>
+        <v>1565</v>
       </c>
       <c r="N65" s="61" t="s">
-        <v>1415</v>
+        <v>1287</v>
       </c>
       <c r="O65" s="61" t="s">
-        <v>1416</v>
+        <v>1284</v>
       </c>
       <c r="P65" s="61" t="s">
-        <v>1288</v>
+        <v>1566</v>
       </c>
       <c r="Q65" s="61" t="s">
-        <v>1417</v>
+        <v>1567</v>
       </c>
       <c r="R65" s="61" t="s">
-        <v>1418</v>
+        <v>1568</v>
       </c>
       <c r="S65" s="20" t="str">
         <f>CHAR(10)</f>
@@ -11568,42 +11772,44 @@
     </row>
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
-      <c r="D68" s="60"/>
+      <c r="D68" s="60" t="s">
+        <v>1441</v>
+      </c>
       <c r="E68" s="60" t="s">
-        <v>724</v>
-      </c>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60" t="s">
-        <v>1581</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="F68" s="60" t="s">
+        <v>422</v>
+      </c>
+      <c r="G68" s="60"/>
       <c r="H68" s="60" t="s">
-        <v>1530</v>
+        <v>1469</v>
       </c>
       <c r="I68" s="60" t="s">
-        <v>1533</v>
+        <v>1638</v>
       </c>
       <c r="J68" s="60" t="s">
-        <v>1534</v>
+        <v>1639</v>
       </c>
       <c r="K68" s="60"/>
       <c r="L68" s="60" t="s">
-        <v>1582</v>
+        <v>786</v>
       </c>
       <c r="M68" s="60" t="s">
-        <v>1556</v>
-      </c>
-      <c r="N68" s="60" t="s">
-        <v>1583</v>
-      </c>
+        <v>876</v>
+      </c>
+      <c r="N68" s="60"/>
       <c r="O68" s="60" t="s">
-        <v>571</v>
-      </c>
-      <c r="P68" s="60"/>
+        <v>1392</v>
+      </c>
+      <c r="P68" s="60" t="s">
+        <v>1444</v>
+      </c>
       <c r="Q68" s="60" t="s">
-        <v>1535</v>
+        <v>1640</v>
       </c>
       <c r="R68" s="60" t="s">
-        <v>1498</v>
+        <v>577</v>
       </c>
       <c r="S68" s="18"/>
       <c r="V68" s="56"/>
@@ -11614,49 +11820,49 @@
         <v>17</v>
       </c>
       <c r="D69" s="61" t="s">
-        <v>1419</v>
+        <v>1290</v>
       </c>
       <c r="E69" s="61" t="s">
-        <v>1420</v>
+        <v>1569</v>
       </c>
       <c r="F69" s="61" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="G69" s="61" t="s">
-        <v>1421</v>
+        <v>1473</v>
       </c>
       <c r="H69" s="61" t="s">
-        <v>1422</v>
+        <v>1320</v>
       </c>
       <c r="I69" s="61" t="s">
-        <v>1423</v>
+        <v>1287</v>
       </c>
       <c r="J69" s="61" t="s">
-        <v>1424</v>
+        <v>1570</v>
       </c>
       <c r="K69" s="61" t="s">
-        <v>1288</v>
+        <v>1571</v>
       </c>
       <c r="L69" s="61" t="s">
-        <v>1425</v>
+        <v>1328</v>
       </c>
       <c r="M69" s="61" t="s">
-        <v>1306</v>
+        <v>1474</v>
       </c>
       <c r="N69" s="61" t="s">
-        <v>1426</v>
+        <v>1572</v>
       </c>
       <c r="O69" s="61" t="s">
-        <v>1427</v>
+        <v>1287</v>
       </c>
       <c r="P69" s="61" t="s">
-        <v>1288</v>
+        <v>1573</v>
       </c>
       <c r="Q69" s="61" t="s">
-        <v>1428</v>
+        <v>1574</v>
       </c>
       <c r="R69" s="61" t="s">
-        <v>1371</v>
+        <v>1575</v>
       </c>
       <c r="S69" s="20"/>
       <c r="V69" s="56"/>
@@ -11729,46 +11935,44 @@
     </row>
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
-      <c r="D72" s="60" t="s">
-        <v>1536</v>
-      </c>
+      <c r="D72" s="60"/>
       <c r="E72" s="60" t="s">
-        <v>1537</v>
-      </c>
-      <c r="F72" s="60"/>
+        <v>1641</v>
+      </c>
+      <c r="F72" s="60" t="s">
+        <v>1437</v>
+      </c>
       <c r="G72" s="60" t="s">
-        <v>44</v>
+        <v>1579</v>
       </c>
       <c r="H72" s="60" t="s">
-        <v>1538</v>
-      </c>
-      <c r="I72" s="60" t="s">
-        <v>882</v>
-      </c>
+        <v>782</v>
+      </c>
+      <c r="I72" s="60"/>
       <c r="J72" s="60" t="s">
+        <v>738</v>
+      </c>
+      <c r="K72" s="60" t="s">
         <v>896</v>
       </c>
-      <c r="K72" s="60" t="s">
-        <v>1484</v>
-      </c>
       <c r="L72" s="60" t="s">
-        <v>601</v>
+        <v>878</v>
       </c>
       <c r="M72" s="60" t="s">
-        <v>1509</v>
+        <v>1580</v>
       </c>
       <c r="N72" s="60" t="s">
-        <v>1539</v>
+        <v>1642</v>
       </c>
       <c r="O72" s="60"/>
       <c r="P72" s="60" t="s">
-        <v>1560</v>
+        <v>533</v>
       </c>
       <c r="Q72" s="60" t="s">
-        <v>1556</v>
+        <v>512</v>
       </c>
       <c r="R72" s="60" t="s">
-        <v>1584</v>
+        <v>1643</v>
       </c>
       <c r="S72" s="18"/>
       <c r="V72" s="56"/>
@@ -11779,49 +11983,51 @@
         <v>18</v>
       </c>
       <c r="D73" s="61" t="s">
-        <v>1429</v>
+        <v>1287</v>
       </c>
       <c r="E73" s="61" t="s">
-        <v>1430</v>
+        <v>1573</v>
       </c>
       <c r="F73" s="61" t="s">
-        <v>1295</v>
+        <v>1576</v>
       </c>
       <c r="G73" s="61" t="s">
-        <v>1404</v>
+        <v>1577</v>
       </c>
       <c r="H73" s="61" t="s">
-        <v>1431</v>
-      </c>
-      <c r="I73" s="61" t="s">
-        <v>1357</v>
+        <v>1290</v>
+      </c>
+      <c r="I73" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="J73" s="61" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="K73" s="61" t="s">
-        <v>1310</v>
+        <v>1299</v>
       </c>
       <c r="L73" s="61" t="s">
+        <v>1318</v>
+      </c>
+      <c r="M73" s="61" t="s">
+        <v>1326</v>
+      </c>
+      <c r="N73" s="61" t="s">
         <v>1348</v>
       </c>
-      <c r="M73" s="61" t="s">
-        <v>1359</v>
-      </c>
-      <c r="N73" s="61" t="s">
-        <v>1432</v>
-      </c>
       <c r="O73" s="61" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="P73" s="61" t="s">
-        <v>1323</v>
+        <v>1306</v>
       </c>
       <c r="Q73" s="61" t="s">
-        <v>1306</v>
+        <v>1297</v>
       </c>
       <c r="R73" s="61" t="s">
-        <v>1433</v>
+        <v>1349</v>
       </c>
       <c r="S73" s="20"/>
       <c r="V73" s="56"/>
@@ -11892,23 +12098,21 @@
       <c r="B76" s="17"/>
       <c r="D76" s="60"/>
       <c r="E76" s="60" t="s">
-        <v>1478</v>
+        <v>533</v>
       </c>
       <c r="F76" s="60" t="s">
-        <v>1540</v>
-      </c>
-      <c r="G76" s="60"/>
-      <c r="H76" s="60" t="s">
-        <v>766</v>
-      </c>
-      <c r="I76" s="60" t="s">
-        <v>766</v>
-      </c>
+        <v>1644</v>
+      </c>
+      <c r="G76" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="H76" s="60"/>
+      <c r="I76" s="60"/>
       <c r="J76" s="60" t="s">
-        <v>1585</v>
+        <v>1462</v>
       </c>
       <c r="K76" s="60" t="s">
-        <v>1556</v>
+        <v>1448</v>
       </c>
       <c r="L76" s="60" t="s">
         <v>631</v>
@@ -11921,13 +12125,13 @@
       </c>
       <c r="O76" s="60"/>
       <c r="P76" s="60" t="s">
-        <v>1554</v>
+        <v>1446</v>
       </c>
       <c r="Q76" s="60" t="s">
-        <v>1580</v>
+        <v>1461</v>
       </c>
       <c r="R76" s="60" t="s">
-        <v>1532</v>
+        <v>1420</v>
       </c>
       <c r="S76" s="18"/>
       <c r="V76" s="56"/>
@@ -11938,49 +12142,49 @@
         <v>19</v>
       </c>
       <c r="D77" s="61" t="s">
-        <v>1434</v>
+        <v>1391</v>
       </c>
       <c r="E77" s="61" t="s">
         <v>1285</v>
       </c>
       <c r="F77" s="61" t="s">
-        <v>1435</v>
+        <v>1350</v>
       </c>
       <c r="G77" s="61" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="H77" s="61" t="s">
-        <v>1436</v>
+        <v>1351</v>
       </c>
       <c r="I77" s="61" t="s">
-        <v>1436</v>
+        <v>1351</v>
       </c>
       <c r="J77" s="61" t="s">
-        <v>1437</v>
+        <v>1352</v>
       </c>
       <c r="K77" s="61" t="s">
-        <v>1306</v>
+        <v>1297</v>
       </c>
       <c r="L77" s="61" t="s">
-        <v>1438</v>
+        <v>1353</v>
       </c>
       <c r="M77" s="61" t="s">
-        <v>1439</v>
+        <v>1354</v>
       </c>
       <c r="N77" s="61" t="s">
-        <v>1440</v>
+        <v>1355</v>
       </c>
       <c r="O77" s="61" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="P77" s="61" t="s">
-        <v>1301</v>
+        <v>1293</v>
       </c>
       <c r="Q77" s="61" t="s">
-        <v>1417</v>
+        <v>1342</v>
       </c>
       <c r="R77" s="61" t="s">
-        <v>1418</v>
+        <v>1343</v>
       </c>
       <c r="S77" s="20"/>
       <c r="V77" s="56"/>
@@ -12061,22 +12265,22 @@
       </c>
       <c r="F80" s="60"/>
       <c r="G80" s="60" t="s">
-        <v>1586</v>
+        <v>1463</v>
       </c>
       <c r="H80" s="60" t="s">
-        <v>1586</v>
+        <v>1463</v>
       </c>
       <c r="I80" s="60" t="s">
-        <v>1585</v>
+        <v>1462</v>
       </c>
       <c r="J80" s="60" t="s">
-        <v>1556</v>
+        <v>1448</v>
       </c>
       <c r="K80" s="60" t="s">
-        <v>1541</v>
+        <v>1425</v>
       </c>
       <c r="L80" s="60" t="s">
-        <v>1542</v>
+        <v>1426</v>
       </c>
       <c r="M80" s="60" t="s">
         <v>782</v>
@@ -12086,10 +12290,10 @@
       </c>
       <c r="O80" s="60"/>
       <c r="P80" s="60" t="s">
-        <v>1554</v>
+        <v>1446</v>
       </c>
       <c r="Q80" s="60" t="s">
-        <v>1560</v>
+        <v>1451</v>
       </c>
       <c r="R80" s="60" t="s">
         <v>882</v>
@@ -12103,49 +12307,49 @@
         <v>20</v>
       </c>
       <c r="D81" s="61" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="E81" s="61" t="s">
-        <v>1441</v>
+        <v>1356</v>
       </c>
       <c r="F81" s="61" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="G81" s="61" t="s">
-        <v>1442</v>
+        <v>1357</v>
       </c>
       <c r="H81" s="61" t="s">
-        <v>1442</v>
+        <v>1357</v>
       </c>
       <c r="I81" s="61" t="s">
-        <v>1437</v>
+        <v>1352</v>
       </c>
       <c r="J81" s="61" t="s">
+        <v>1297</v>
+      </c>
+      <c r="K81" s="61" t="s">
+        <v>1358</v>
+      </c>
+      <c r="L81" s="61" t="s">
+        <v>1359</v>
+      </c>
+      <c r="M81" s="61" t="s">
+        <v>1320</v>
+      </c>
+      <c r="N81" s="61" t="s">
+        <v>1360</v>
+      </c>
+      <c r="O81" s="61" t="s">
+        <v>1287</v>
+      </c>
+      <c r="P81" s="61" t="s">
+        <v>1293</v>
+      </c>
+      <c r="Q81" s="61" t="s">
         <v>1306</v>
       </c>
-      <c r="K81" s="61" t="s">
-        <v>1443</v>
-      </c>
-      <c r="L81" s="61" t="s">
-        <v>1444</v>
-      </c>
-      <c r="M81" s="61" t="s">
-        <v>1352</v>
-      </c>
-      <c r="N81" s="61" t="s">
-        <v>1445</v>
-      </c>
-      <c r="O81" s="61" t="s">
-        <v>1288</v>
-      </c>
-      <c r="P81" s="61" t="s">
-        <v>1301</v>
-      </c>
-      <c r="Q81" s="61" t="s">
-        <v>1323</v>
-      </c>
       <c r="R81" s="61" t="s">
-        <v>1357</v>
+        <v>1324</v>
       </c>
       <c r="S81" s="20"/>
       <c r="V81" s="56"/>
@@ -12218,40 +12422,40 @@
         <v>567</v>
       </c>
       <c r="E84" s="60" t="s">
-        <v>1501</v>
+        <v>1404</v>
       </c>
       <c r="F84" s="60" t="s">
-        <v>1487</v>
+        <v>1398</v>
       </c>
       <c r="G84" s="60"/>
       <c r="H84" s="60" t="s">
-        <v>1587</v>
+        <v>1464</v>
       </c>
       <c r="I84" s="60" t="s">
-        <v>1517</v>
+        <v>1414</v>
       </c>
       <c r="J84" s="60" t="s">
-        <v>1588</v>
+        <v>1465</v>
       </c>
       <c r="K84" s="60" t="s">
-        <v>1543</v>
+        <v>1427</v>
       </c>
       <c r="L84" s="60"/>
       <c r="M84" s="60" t="s">
-        <v>1544</v>
+        <v>1428</v>
       </c>
       <c r="N84" s="60" t="s">
         <v>44</v>
       </c>
       <c r="O84" s="60" t="s">
-        <v>1589</v>
+        <v>1466</v>
       </c>
       <c r="P84" s="60" t="s">
-        <v>1496</v>
+        <v>1403</v>
       </c>
       <c r="Q84" s="60"/>
       <c r="R84" s="60" t="s">
-        <v>1560</v>
+        <v>1451</v>
       </c>
       <c r="S84" s="18"/>
       <c r="V84" s="7"/>
@@ -12262,49 +12466,49 @@
         <v>21</v>
       </c>
       <c r="D85" s="61" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="E85" s="61" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F85" s="61" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G85" s="61" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H85" s="61" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I85" s="61" t="s">
+        <v>1362</v>
+      </c>
+      <c r="J85" s="61" t="s">
+        <v>1363</v>
+      </c>
+      <c r="K85" s="61" t="s">
+        <v>1364</v>
+      </c>
+      <c r="L85" s="61" t="s">
+        <v>1287</v>
+      </c>
+      <c r="M85" s="61" t="s">
+        <v>1365</v>
+      </c>
+      <c r="N85" s="61" t="s">
         <v>1339</v>
       </c>
-      <c r="F85" s="61" t="s">
-        <v>1314</v>
-      </c>
-      <c r="G85" s="61" t="s">
-        <v>1295</v>
-      </c>
-      <c r="H85" s="61" t="s">
-        <v>1446</v>
-      </c>
-      <c r="I85" s="61" t="s">
-        <v>1447</v>
-      </c>
-      <c r="J85" s="61" t="s">
-        <v>1448</v>
-      </c>
-      <c r="K85" s="61" t="s">
-        <v>1449</v>
-      </c>
-      <c r="L85" s="61" t="s">
-        <v>1288</v>
-      </c>
-      <c r="M85" s="61" t="s">
-        <v>1450</v>
-      </c>
-      <c r="N85" s="61" t="s">
-        <v>1404</v>
-      </c>
       <c r="O85" s="61" t="s">
-        <v>1451</v>
+        <v>1366</v>
       </c>
       <c r="P85" s="61" t="s">
-        <v>1330</v>
+        <v>1309</v>
       </c>
       <c r="Q85" s="61" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="R85" s="61" t="s">
-        <v>1323</v>
+        <v>1306</v>
       </c>
       <c r="S85" s="20"/>
       <c r="V85" s="7"/>
@@ -12379,17 +12583,17 @@
         <v>882</v>
       </c>
       <c r="E88" s="60" t="s">
-        <v>1555</v>
+        <v>1447</v>
       </c>
       <c r="F88" s="60" t="s">
         <v>601</v>
       </c>
       <c r="G88" s="60" t="s">
-        <v>1485</v>
+        <v>1397</v>
       </c>
       <c r="H88" s="60"/>
       <c r="I88" s="60" t="s">
-        <v>1590</v>
+        <v>1467</v>
       </c>
       <c r="J88" s="60" t="s">
         <v>44</v>
@@ -12398,17 +12602,17 @@
         <v>742</v>
       </c>
       <c r="L88" s="60" t="s">
-        <v>1545</v>
+        <v>1430</v>
       </c>
       <c r="M88" s="60"/>
       <c r="N88" s="60" t="s">
-        <v>1546</v>
+        <v>1431</v>
       </c>
       <c r="O88" s="60" t="s">
-        <v>1491</v>
+        <v>1400</v>
       </c>
       <c r="P88" s="60" t="s">
-        <v>1554</v>
+        <v>1446</v>
       </c>
       <c r="Q88" s="60" t="s">
         <v>784</v>
@@ -12423,49 +12627,49 @@
         <v>22</v>
       </c>
       <c r="D89" s="61" t="s">
-        <v>1357</v>
+        <v>1324</v>
       </c>
       <c r="E89" s="61" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
       <c r="F89" s="61" t="s">
-        <v>1348</v>
+        <v>1318</v>
       </c>
       <c r="G89" s="61" t="s">
-        <v>1311</v>
+        <v>1300</v>
       </c>
       <c r="H89" s="61" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="I89" s="61" t="s">
-        <v>1452</v>
+        <v>1367</v>
       </c>
       <c r="J89" s="61" t="s">
-        <v>1404</v>
+        <v>1339</v>
       </c>
       <c r="K89" s="61" t="s">
-        <v>1453</v>
+        <v>1368</v>
       </c>
       <c r="L89" s="61" t="s">
-        <v>1454</v>
+        <v>1369</v>
       </c>
       <c r="M89" s="61" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="N89" s="61" t="s">
         <v>1283</v>
       </c>
       <c r="O89" s="61" t="s">
-        <v>1322</v>
+        <v>1305</v>
       </c>
       <c r="P89" s="61" t="s">
-        <v>1301</v>
+        <v>1293</v>
       </c>
       <c r="Q89" s="61" t="s">
-        <v>1455</v>
+        <v>1370</v>
       </c>
       <c r="R89" s="61" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="S89" s="20"/>
       <c r="V89" s="7"/>
@@ -12542,26 +12746,26 @@
         <v>784</v>
       </c>
       <c r="E92" s="60" t="s">
-        <v>1490</v>
+        <v>1399</v>
       </c>
       <c r="F92" s="60" t="s">
-        <v>1501</v>
+        <v>1404</v>
       </c>
       <c r="G92" s="60" t="s">
-        <v>1596</v>
+        <v>1472</v>
       </c>
       <c r="H92" s="60"/>
       <c r="I92" s="60" t="s">
-        <v>1554</v>
+        <v>1446</v>
       </c>
       <c r="J92" s="60" t="s">
-        <v>1547</v>
+        <v>1432</v>
       </c>
       <c r="K92" s="60" t="s">
-        <v>1560</v>
+        <v>1451</v>
       </c>
       <c r="L92" s="60" t="s">
-        <v>1548</v>
+        <v>1433</v>
       </c>
       <c r="M92" s="60" t="s">
         <v>916</v>
@@ -12571,13 +12775,13 @@
         <v>846</v>
       </c>
       <c r="P92" s="60" t="s">
-        <v>1591</v>
+        <v>1468</v>
       </c>
       <c r="Q92" s="60" t="s">
         <v>633</v>
       </c>
       <c r="R92" s="60" t="s">
-        <v>1545</v>
+        <v>1430</v>
       </c>
       <c r="S92" s="18"/>
       <c r="V92" s="7"/>
@@ -12588,49 +12792,49 @@
         <v>23</v>
       </c>
       <c r="D93" s="61" t="s">
-        <v>1455</v>
+        <v>1370</v>
       </c>
       <c r="E93" s="61" t="s">
-        <v>1321</v>
+        <v>1304</v>
       </c>
       <c r="F93" s="61" t="s">
-        <v>1339</v>
+        <v>1312</v>
       </c>
       <c r="G93" s="61" t="s">
-        <v>1456</v>
+        <v>1371</v>
       </c>
       <c r="H93" s="61" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I93" s="61" t="s">
-        <v>1301</v>
+        <v>1293</v>
       </c>
       <c r="J93" s="61" t="s">
-        <v>1457</v>
+        <v>1372</v>
       </c>
       <c r="K93" s="61" t="s">
-        <v>1323</v>
+        <v>1306</v>
       </c>
       <c r="L93" s="61" t="s">
-        <v>1458</v>
+        <v>1373</v>
       </c>
       <c r="M93" s="61" t="s">
-        <v>1346</v>
+        <v>1317</v>
       </c>
       <c r="N93" s="61" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="O93" s="61" t="s">
-        <v>1459</v>
+        <v>1374</v>
       </c>
       <c r="P93" s="61" t="s">
-        <v>1460</v>
+        <v>1375</v>
       </c>
       <c r="Q93" s="61" t="s">
-        <v>1461</v>
+        <v>1376</v>
       </c>
       <c r="R93" s="61" t="s">
-        <v>1462</v>
+        <v>1377</v>
       </c>
       <c r="S93" s="20"/>
       <c r="V93" s="7"/>
@@ -12705,44 +12909,44 @@
       <c r="B96" s="17"/>
       <c r="D96" s="60"/>
       <c r="E96" s="60" t="s">
-        <v>1556</v>
+        <v>1448</v>
       </c>
       <c r="F96" s="60" t="s">
         <v>647</v>
       </c>
       <c r="G96" s="60" t="s">
-        <v>1549</v>
+        <v>1434</v>
       </c>
       <c r="H96" s="60" t="s">
         <v>535</v>
       </c>
       <c r="I96" s="60" t="s">
-        <v>1550</v>
+        <v>1435</v>
       </c>
       <c r="J96" s="60"/>
       <c r="K96" s="60" t="s">
         <v>44</v>
       </c>
       <c r="L96" s="60" t="s">
-        <v>1538</v>
+        <v>1423</v>
       </c>
       <c r="M96" s="60" t="s">
         <v>882</v>
       </c>
       <c r="N96" s="60" t="s">
-        <v>1592</v>
+        <v>1469</v>
       </c>
       <c r="O96" s="60" t="s">
-        <v>1593</v>
+        <v>1470</v>
       </c>
       <c r="P96" s="60" t="s">
         <v>601</v>
       </c>
       <c r="Q96" s="60" t="s">
-        <v>1507</v>
+        <v>1407</v>
       </c>
       <c r="R96" s="60" t="s">
-        <v>1567</v>
+        <v>1456</v>
       </c>
       <c r="S96" s="18"/>
       <c r="V96" s="7"/>
@@ -12753,49 +12957,49 @@
         <v>24</v>
       </c>
       <c r="D97" s="61" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E97" s="61" t="s">
-        <v>1306</v>
+        <v>1297</v>
       </c>
       <c r="F97" s="61" t="s">
-        <v>1463</v>
+        <v>1378</v>
       </c>
       <c r="G97" s="61" t="s">
-        <v>1464</v>
+        <v>1379</v>
       </c>
       <c r="H97" s="61" t="s">
-        <v>1465</v>
+        <v>1380</v>
       </c>
       <c r="I97" s="61" t="s">
-        <v>1466</v>
+        <v>1381</v>
       </c>
       <c r="J97" s="61" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="K97" s="61" t="s">
-        <v>1404</v>
+        <v>1339</v>
       </c>
       <c r="L97" s="61" t="s">
-        <v>1431</v>
+        <v>1347</v>
       </c>
       <c r="M97" s="61" t="s">
-        <v>1357</v>
+        <v>1324</v>
       </c>
       <c r="N97" s="61" t="s">
-        <v>1467</v>
+        <v>1382</v>
       </c>
       <c r="O97" s="61" t="s">
-        <v>1468</v>
+        <v>1383</v>
       </c>
       <c r="P97" s="61" t="s">
-        <v>1348</v>
+        <v>1318</v>
       </c>
       <c r="Q97" s="61" t="s">
-        <v>1355</v>
+        <v>1322</v>
       </c>
       <c r="R97" s="61" t="s">
-        <v>1356</v>
+        <v>1323</v>
       </c>
       <c r="S97" s="20"/>
       <c r="V97" s="7"/>
@@ -12880,17 +13084,17 @@
         <v>896</v>
       </c>
       <c r="I100" s="60" t="s">
-        <v>1585</v>
+        <v>1462</v>
       </c>
       <c r="J100" s="60" t="s">
-        <v>1567</v>
+        <v>1456</v>
       </c>
       <c r="K100" s="60"/>
       <c r="L100" s="60" t="s">
-        <v>1594</v>
+        <v>1471</v>
       </c>
       <c r="M100" s="60" t="s">
-        <v>1478</v>
+        <v>1393</v>
       </c>
       <c r="N100" s="60" t="s">
         <v>601</v>
@@ -12914,49 +13118,49 @@
         <v>25</v>
       </c>
       <c r="D101" s="61" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="E101" s="61" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F101" s="61" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="G101" s="61" t="s">
-        <v>1469</v>
+        <v>1384</v>
       </c>
       <c r="H101" s="61" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I101" s="61" t="s">
+        <v>1352</v>
+      </c>
+      <c r="J101" s="61" t="s">
+        <v>1323</v>
+      </c>
+      <c r="K101" s="61" t="s">
         <v>1290</v>
       </c>
-      <c r="I101" s="61" t="s">
-        <v>1437</v>
-      </c>
-      <c r="J101" s="61" t="s">
-        <v>1356</v>
-      </c>
-      <c r="K101" s="61" t="s">
-        <v>1295</v>
-      </c>
       <c r="L101" s="61" t="s">
-        <v>1470</v>
+        <v>1385</v>
       </c>
       <c r="M101" s="61" t="s">
         <v>1285</v>
       </c>
       <c r="N101" s="61" t="s">
-        <v>1348</v>
+        <v>1318</v>
       </c>
       <c r="O101" s="61" t="s">
-        <v>1471</v>
+        <v>1386</v>
       </c>
       <c r="P101" s="61" t="s">
-        <v>1334</v>
+        <v>1311</v>
       </c>
       <c r="Q101" s="61" t="s">
-        <v>1472</v>
+        <v>1387</v>
       </c>
       <c r="R101" s="61" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="S101" s="20"/>
       <c r="V101" s="7"/>
@@ -13025,19 +13229,19 @@
       </c>
       <c r="F104" s="60"/>
       <c r="G104" s="60" t="s">
-        <v>1551</v>
+        <v>1436</v>
       </c>
       <c r="H104" s="60" t="s">
         <v>543</v>
       </c>
       <c r="I104" s="60" t="s">
-        <v>1535</v>
+        <v>1421</v>
       </c>
       <c r="J104" s="60" t="s">
-        <v>1510</v>
+        <v>1409</v>
       </c>
       <c r="K104" s="60" t="s">
-        <v>1553</v>
+        <v>1445</v>
       </c>
       <c r="L104" s="60"/>
       <c r="M104" s="60"/>
@@ -13055,31 +13259,31 @@
         <v>26</v>
       </c>
       <c r="D105" s="61" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E105" s="61" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F105" s="61" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G105" s="61" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H105" s="61" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I105" s="61" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J105" s="61" t="s">
+        <v>1327</v>
+      </c>
+      <c r="K105" s="61" t="s">
+        <v>1292</v>
+      </c>
+      <c r="L105" s="61" t="s">
         <v>1290</v>
-      </c>
-      <c r="E105" s="61" t="s">
-        <v>1473</v>
-      </c>
-      <c r="F105" s="61" t="s">
-        <v>1288</v>
-      </c>
-      <c r="G105" s="61" t="s">
-        <v>1474</v>
-      </c>
-      <c r="H105" s="61" t="s">
-        <v>1475</v>
-      </c>
-      <c r="I105" s="61" t="s">
-        <v>1428</v>
-      </c>
-      <c r="J105" s="61" t="s">
-        <v>1361</v>
-      </c>
-      <c r="K105" s="61" t="s">
-        <v>1298</v>
-      </c>
-      <c r="L105" s="61" t="s">
-        <v>1295</v>
       </c>
       <c r="M105" s="61" t="str">
         <f>CHAR(10)</f>
@@ -13160,7 +13364,7 @@
         <v>27</v>
       </c>
       <c r="D109" s="61" t="s">
-        <v>1476</v>
+        <v>1391</v>
       </c>
       <c r="E109" s="61"/>
       <c r="F109" s="61"/>

--- a/output7/【河洛白話注音-閩拼調號】《None》.xlsx
+++ b/output7/【河洛白話注音-閩拼調號】《None》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D9C2E0B-4FB4-4F79-9B78-6500BDA30D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9443496D-60DF-4B4C-8B5B-D6B61D3ED1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="1645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2785" uniqueCount="1411">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4006,10 +4006,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kin1</t>
-  </si>
-  <si>
-    <t>Zu7</t>
+    <t>余</t>
+  </si>
+  <si>
+    <t>幽</t>
+  </si>
+  <si>
+    <t>石</t>
+  </si>
+  <si>
+    <t>披</t>
+  </si>
+  <si>
+    <t>坐</t>
+  </si>
+  <si>
+    <t>相</t>
+  </si>
+  <si>
+    <t>所</t>
+  </si>
+  <si>
+    <t>同</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>知</t>
+  </si>
+  <si>
+    <t>西</t>
+  </si>
+  <si>
+    <t>十</t>
+  </si>
+  <si>
+    <t>望</t>
+  </si>
+  <si>
+    <t>過</t>
+  </si>
+  <si>
+    <t>勢</t>
+  </si>
+  <si>
+    <t>如</t>
+  </si>
+  <si>
+    <t>見</t>
+  </si>
+  <si>
+    <t>合</t>
   </si>
   <si>
     <t>u5</t>
@@ -4021,45 +4069,12 @@
     <t>lang5</t>
   </si>
   <si>
-    <t>ziu1</t>
-  </si>
-  <si>
-    <t>lak8</t>
-  </si>
-  <si>
     <t>Ki5</t>
   </si>
   <si>
     <t>kiann5</t>
   </si>
   <si>
-    <t>Jit8</t>
-  </si>
-  <si>
-    <t>too5</t>
-  </si>
-  <si>
-    <t>suann1</t>
-  </si>
-  <si>
-    <t>jip8</t>
-  </si>
-  <si>
-    <t>cim1</t>
-  </si>
-  <si>
-    <t>king5</t>
-  </si>
-  <si>
-    <t>hue5</t>
-  </si>
-  <si>
-    <t>zuann5</t>
-  </si>
-  <si>
-    <t>kuai3</t>
-  </si>
-  <si>
     <t>zioh8</t>
   </si>
   <si>
@@ -4069,126 +4084,27 @@
     <t>hng7</t>
   </si>
   <si>
-    <t>kau3</t>
-  </si>
-  <si>
-    <t>Kau3</t>
-  </si>
-  <si>
     <t>phi1</t>
   </si>
   <si>
-    <t>cau2</t>
-  </si>
-  <si>
     <t>ze7</t>
   </si>
   <si>
-    <t>zui3</t>
-  </si>
-  <si>
-    <t>kenn1</t>
-  </si>
-  <si>
     <t>sio1</t>
   </si>
   <si>
-    <t>zim2</t>
-  </si>
-  <si>
-    <t>ngoo7</t>
-  </si>
-  <si>
-    <t>Ngoo7</t>
-  </si>
-  <si>
     <t>bang7</t>
   </si>
   <si>
-    <t>i3</t>
-  </si>
-  <si>
-    <t>u7</t>
-  </si>
-  <si>
     <t>soo2</t>
   </si>
   <si>
-    <t>cu3</t>
-  </si>
-  <si>
-    <t>Kak4</t>
-  </si>
-  <si>
-    <t>khi2</t>
-  </si>
-  <si>
     <t>huan5</t>
   </si>
   <si>
-    <t>sui2</t>
-  </si>
-  <si>
-    <t>thai3</t>
-  </si>
-  <si>
-    <t>gua2</t>
-  </si>
-  <si>
-    <t>bi7</t>
-  </si>
-  <si>
-    <t>si2</t>
-  </si>
-  <si>
     <t>sai1</t>
   </si>
   <si>
-    <t>tik8</t>
-  </si>
-  <si>
-    <t>huat4</t>
-  </si>
-  <si>
-    <t>hua1</t>
-  </si>
-  <si>
-    <t>zainn2</t>
-  </si>
-  <si>
-    <t>mia7</t>
-  </si>
-  <si>
-    <t>siong1</t>
-  </si>
-  <si>
-    <t>ian5</t>
-  </si>
-  <si>
-    <t>khe1</t>
-  </si>
-  <si>
-    <t>zin1</t>
-  </si>
-  <si>
-    <t>bong2</t>
-  </si>
-  <si>
-    <t>hun5</t>
-  </si>
-  <si>
-    <t>Phan1</t>
-  </si>
-  <si>
-    <t>uan7</t>
-  </si>
-  <si>
-    <t>go5</t>
-  </si>
-  <si>
-    <t>thoo2</t>
-  </si>
-  <si>
     <t>he7</t>
   </si>
   <si>
@@ -4198,1140 +4114,241 @@
     <t>na7</t>
   </si>
   <si>
-    <t>hiat8</t>
-  </si>
-  <si>
-    <t>cioh4</t>
-  </si>
-  <si>
-    <t>cun3</t>
-  </si>
-  <si>
     <t>cing1</t>
   </si>
   <si>
-    <t>Cuan5</t>
-  </si>
-  <si>
-    <t>lui2</t>
-  </si>
-  <si>
-    <t>mai3</t>
-  </si>
-  <si>
-    <t>tit4</t>
-  </si>
-  <si>
     <t>Cenn1</t>
   </si>
   <si>
-    <t>liau7</t>
-  </si>
-  <si>
-    <t>peh8</t>
-  </si>
-  <si>
-    <t>gua7</t>
-  </si>
-  <si>
     <t>si3</t>
   </si>
   <si>
     <t>ju5</t>
   </si>
   <si>
-    <t>zit8</t>
-  </si>
-  <si>
     <t>Jian5</t>
   </si>
   <si>
-    <t>au7</t>
-  </si>
-  <si>
-    <t>lip8</t>
-  </si>
-  <si>
     <t>pue7</t>
   </si>
   <si>
-    <t>lui7</t>
-  </si>
-  <si>
-    <t>Iu1</t>
-  </si>
-  <si>
-    <t>hoonnh4</t>
-  </si>
-  <si>
-    <t>zo7</t>
-  </si>
-  <si>
-    <t>mih8</t>
-  </si>
-  <si>
-    <t>In2</t>
-  </si>
-  <si>
-    <t>ziok4</t>
-  </si>
-  <si>
-    <t>tue5</t>
-  </si>
-  <si>
     <t>to7</t>
   </si>
   <si>
-    <t>Cong1</t>
-  </si>
-  <si>
-    <t>zu7</t>
-  </si>
-  <si>
     <t>kian3</t>
   </si>
   <si>
-    <t>iau2</t>
-  </si>
-  <si>
-    <t>beh4</t>
-  </si>
-  <si>
-    <t>Sim1</t>
-  </si>
-  <si>
-    <t>ging5</t>
-  </si>
-  <si>
-    <t>hua3</t>
-  </si>
-  <si>
-    <t>hiong3</t>
-  </si>
-  <si>
-    <t>Koo3</t>
-  </si>
-  <si>
-    <t>Si7</t>
-  </si>
-  <si>
     <t>guan5</t>
   </si>
   <si>
-    <t>ni5</t>
-  </si>
-  <si>
-    <t>kau2</t>
-  </si>
-  <si>
     <t>zap8</t>
   </si>
   <si>
-    <t>peh4</t>
-  </si>
-  <si>
-    <t>in1</t>
-  </si>
-  <si>
-    <t>Sui7</t>
-  </si>
-  <si>
     <t>kue3</t>
   </si>
   <si>
     <t>ni2</t>
   </si>
   <si>
-    <t>hm5</t>
-  </si>
-  <si>
-    <t>sik4</t>
-  </si>
-  <si>
     <t>hah8</t>
   </si>
   <si>
     <t>白話音</t>
   </si>
   <si>
-    <t>自</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>余</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>也</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>而</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>與</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>披</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>醉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>趣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>覺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>之</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>華</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>過</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>垤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>後</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>培</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>氣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>頹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>見</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>釋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嚮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>於</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>φ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiann5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suann1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>king5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hng7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ze7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zui3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cu3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sai1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ni5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zap8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>peh4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ni2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uan7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>na7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tit4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ju5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>au7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pue7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mih8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tue5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beh4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hua3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hah8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>li5</t>
   </si>
   <si>
+    <t>lit8</t>
+  </si>
+  <si>
     <t>gap4</t>
   </si>
   <si>
     <t>siong2</t>
   </si>
   <si>
+    <t>zuan5</t>
+  </si>
+  <si>
     <t>m7</t>
   </si>
   <si>
+    <t>siunn1</t>
+  </si>
+  <si>
     <t>tang5</t>
   </si>
   <si>
     <t>zui2</t>
   </si>
   <si>
+    <t>sui7</t>
+  </si>
+  <si>
     <t>ke3</t>
   </si>
   <si>
     <t>ti7</t>
   </si>
   <si>
-    <t>a2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>li5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gap4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siunn1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tang5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kak4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zui2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sui7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phan1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boh8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hooonn3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mua2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tio7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>goo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiang3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kinn3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>從</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>丘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>篁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>竹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>聞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>聲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>鳴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>珮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>環</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>伐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>潭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>尤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>冽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>底</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>近</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>坻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>嶼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>嵁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>岩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>樹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>翠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蔓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蒙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>絡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>搖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>綴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>參</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>魚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>許</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>頭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>依</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>澈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>佁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>動</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>俶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>爾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>逝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>往</t>
@@ -5349,176 +4366,97 @@
     <t>似</t>
   </si>
   <si>
-    <t>南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鬥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>折</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蛇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>滅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>犬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>牙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>互</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>寂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>寥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>淒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>寒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>骨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>悄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>愴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>邃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>久</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>記</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>武</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>龔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>弟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>宗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>隸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>崔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>氏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>恕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>己</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>奉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>壹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">從小丘西行百二十步，隔篁竹，聞水聲，如鳴珮環，心樂之。伐竹取道，下見小潭，水尤清冽。全石以為底，近岸，卷石底以出，為坻，為嶼，為嵁，為岩。青樹翠蔓，蒙絡搖綴，參差披拂。
@@ -5527,120 +4465,87 @@
 坐潭上，四面竹樹環合，寂寥無人，淒神寒骨，悄愴幽邃。以其境過清，不可久居，乃記之而去。
 同游者：吳武陵，龔古，余弟宗玄。隸而從者，崔氏二小生，曰恕己，曰奉壹。
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ziong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>siau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>khu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pah4</t>
   </si>
   <si>
     <t>poo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>keh4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>siann1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>loh8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>huah8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tham5</t>
   </si>
   <si>
-    <t>tham5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cinn1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>liat8</t>
   </si>
   <si>
     <t>kin7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>huann7</t>
   </si>
   <si>
     <t>kuan2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cut4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gam5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ciu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cui3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bong5</t>
   </si>
   <si>
     <t>le1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>io5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>te3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cam4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ca1</t>
   </si>
   <si>
-    <t>ca1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hut4</t>
   </si>
   <si>
-    <t>hut4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ting3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hi5</t>
@@ -5649,34 +4554,22 @@
     <t>kho2</t>
   </si>
   <si>
-    <t>kho2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pah4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>thau5</t>
   </si>
   <si>
     <t>kng1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>thiat4</t>
   </si>
   <si>
     <t>iann2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>poo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tang7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>se7</t>
@@ -5695,85 +4588,159 @@
   </si>
   <si>
     <t>tau3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>siat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zua5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>biat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>khian2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ga5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bin7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sioh8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ce1</t>
   </si>
   <si>
     <t>kuann5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kut4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ciau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cong3</t>
   </si>
   <si>
     <t>ku2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nia7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>le7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>senn1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ki7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hong7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Ziong5</t>
+  </si>
+  <si>
+    <t>sio2</t>
+  </si>
+  <si>
+    <t>khiu1</t>
+  </si>
+  <si>
+    <t>pue3</t>
+  </si>
+  <si>
+    <t>khuan5</t>
+  </si>
+  <si>
+    <t>lok8</t>
+  </si>
+  <si>
+    <t>Huah8</t>
+  </si>
+  <si>
+    <t>Zuan5</t>
+  </si>
+  <si>
+    <t>te2</t>
+  </si>
+  <si>
+    <t>kuan3</t>
+  </si>
+  <si>
+    <t>su7</t>
+  </si>
+  <si>
+    <t>mua7</t>
+  </si>
+  <si>
+    <t>tue3</t>
+  </si>
+  <si>
+    <t>cam1</t>
+  </si>
+  <si>
+    <t>Tham5</t>
+  </si>
+  <si>
+    <t>tiong3</t>
+  </si>
+  <si>
+    <t>khang1</t>
+  </si>
+  <si>
+    <t>ni7</t>
+  </si>
+  <si>
+    <t>zua7</t>
+  </si>
+  <si>
+    <t>hip4</t>
+  </si>
+  <si>
+    <t>se1</t>
+  </si>
+  <si>
+    <t>ziat4</t>
+  </si>
+  <si>
+    <t>ge5</t>
+  </si>
+  <si>
+    <t>Ze7</t>
+  </si>
+  <si>
+    <t>siok4</t>
+  </si>
+  <si>
+    <t>liau5</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>te7</t>
+  </si>
+  <si>
+    <t>Ji5</t>
   </si>
 </sst>
 </file>
@@ -8890,7 +7857,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>1282</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="30">
@@ -8979,8 +7946,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -9097,85 +8065,89 @@
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
       <c r="D3" s="54" t="s">
-        <v>1168</v>
+        <v>1382</v>
       </c>
       <c r="E3" s="54" t="s">
-        <v>1169</v>
+        <v>1383</v>
       </c>
       <c r="F3" s="54" t="s">
-        <v>1170</v>
-      </c>
-      <c r="G3" s="54"/>
+        <v>1384</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>1199</v>
+      </c>
       <c r="H3" s="54" t="s">
-        <v>1171</v>
-      </c>
-      <c r="I3" s="54"/>
+        <v>1189</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>1322</v>
+      </c>
       <c r="J3" s="54" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
       <c r="K3" s="54" t="s">
-        <v>53</v>
+        <v>1212</v>
       </c>
       <c r="L3" s="54" t="s">
-        <v>1172</v>
+        <v>1323</v>
       </c>
       <c r="M3" s="54"/>
       <c r="N3" s="54" t="s">
-        <v>353</v>
+        <v>1324</v>
       </c>
       <c r="O3" s="54"/>
       <c r="P3" s="54" t="s">
-        <v>1173</v>
+        <v>307</v>
       </c>
       <c r="Q3" s="54"/>
       <c r="R3" s="54" t="s">
-        <v>1174</v>
+        <v>39</v>
       </c>
       <c r="T3" s="16"/>
       <c r="V3" s="55" t="s">
-        <v>1578</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
       <c r="D4" s="60" t="s">
-        <v>1579</v>
+        <v>1319</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>1580</v>
+        <v>1320</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>1581</v>
+        <v>1321</v>
       </c>
       <c r="G4" s="60" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>1322</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>468</v>
+      </c>
+      <c r="K4" s="60" t="s">
         <v>1212</v>
       </c>
-      <c r="H4" s="60" t="s">
-        <v>1395</v>
-      </c>
-      <c r="I4" s="60" t="s">
-        <v>1582</v>
-      </c>
-      <c r="J4" s="60" t="s">
-        <v>878</v>
-      </c>
-      <c r="K4" s="60" t="s">
-        <v>1410</v>
-      </c>
       <c r="L4" s="60" t="s">
-        <v>1583</v>
+        <v>1323</v>
       </c>
       <c r="M4" s="60"/>
       <c r="N4" s="60" t="s">
-        <v>1584</v>
+        <v>1324</v>
       </c>
       <c r="O4" s="60"/>
       <c r="P4" s="60" t="s">
-        <v>523</v>
+        <v>307</v>
       </c>
       <c r="Q4" s="60"/>
       <c r="R4" s="60" t="s">
-        <v>595</v>
+        <v>39</v>
       </c>
       <c r="S4" s="18"/>
       <c r="V4" s="56"/>
@@ -9185,49 +8157,49 @@
         <v>1</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>1473</v>
+        <v>1231</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>1474</v>
+        <v>1232</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>1475</v>
+        <v>1233</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>1325</v>
+        <v>1177</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>1294</v>
+        <v>185</v>
       </c>
       <c r="I5" s="61" t="s">
-        <v>1476</v>
+        <v>82</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>1328</v>
+        <v>272</v>
       </c>
       <c r="K5" s="61" t="s">
-        <v>1329</v>
+        <v>1178</v>
       </c>
       <c r="L5" s="61" t="s">
-        <v>1477</v>
+        <v>1234</v>
       </c>
       <c r="M5" s="61" t="s">
-        <v>1287</v>
+        <v>23</v>
       </c>
       <c r="N5" s="61" t="s">
-        <v>1478</v>
+        <v>1235</v>
       </c>
       <c r="O5" s="61" t="s">
-        <v>1479</v>
+        <v>1236</v>
       </c>
       <c r="P5" s="61" t="s">
-        <v>1480</v>
+        <v>1237</v>
       </c>
       <c r="Q5" s="61" t="s">
-        <v>1287</v>
+        <v>23</v>
       </c>
       <c r="R5" s="61" t="s">
-        <v>1481</v>
+        <v>1238</v>
       </c>
       <c r="S5" s="20" t="str">
         <f>CHAR(10)</f>
@@ -9260,42 +8232,44 @@
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="54"/>
+      <c r="D7" s="54" t="s">
+        <v>1225</v>
+      </c>
       <c r="E7" s="54" t="s">
-        <v>364</v>
+        <v>1325</v>
       </c>
       <c r="F7" s="54"/>
       <c r="G7" s="54" t="s">
-        <v>363</v>
+        <v>1206</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="I7" s="54" t="s">
-        <v>331</v>
+        <v>1385</v>
       </c>
       <c r="J7" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="K7" s="54" t="s">
-        <v>1175</v>
-      </c>
-      <c r="L7" s="54"/>
+        <v>1386</v>
+      </c>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54" t="s">
+        <v>452</v>
+      </c>
       <c r="M7" s="54" t="s">
-        <v>360</v>
+        <v>1387</v>
       </c>
       <c r="N7" s="54" t="s">
-        <v>360</v>
-      </c>
-      <c r="O7" s="54" t="s">
-        <v>421</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="O7" s="54"/>
       <c r="P7" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q7" s="54"/>
+        <v>1388</v>
+      </c>
+      <c r="Q7" s="54" t="s">
+        <v>307</v>
+      </c>
       <c r="R7" s="54" t="s">
-        <v>1176</v>
+        <v>362</v>
       </c>
       <c r="S7" s="27"/>
       <c r="V7" s="56"/>
@@ -9303,43 +8277,43 @@
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
       <c r="D8" s="60" t="s">
-        <v>1442</v>
+        <v>1225</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>1585</v>
+        <v>1325</v>
       </c>
       <c r="F8" s="60"/>
       <c r="G8" s="60" t="s">
-        <v>1422</v>
+        <v>1206</v>
       </c>
       <c r="H8" s="60" t="s">
-        <v>535</v>
+        <v>312</v>
       </c>
       <c r="I8" s="60" t="s">
-        <v>1424</v>
+        <v>1208</v>
       </c>
       <c r="J8" s="60" t="s">
-        <v>1406</v>
+        <v>1198</v>
       </c>
       <c r="K8" s="60"/>
       <c r="L8" s="60" t="s">
         <v>452</v>
       </c>
       <c r="M8" s="60" t="s">
-        <v>1586</v>
+        <v>1326</v>
       </c>
       <c r="N8" s="60" t="s">
-        <v>601</v>
+        <v>338</v>
       </c>
       <c r="O8" s="60"/>
       <c r="P8" s="60" t="s">
-        <v>1587</v>
+        <v>1327</v>
       </c>
       <c r="Q8" s="60" t="s">
         <v>307</v>
       </c>
       <c r="R8" s="60" t="s">
-        <v>651</v>
+        <v>362</v>
       </c>
       <c r="S8" s="18"/>
       <c r="V8" s="56"/>
@@ -9350,49 +8324,49 @@
         <v>2</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>1319</v>
+        <v>1175</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>1482</v>
+        <v>1239</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>1287</v>
+        <v>23</v>
       </c>
       <c r="G9" s="61" t="s">
-        <v>1346</v>
+        <v>1182</v>
       </c>
       <c r="H9" s="61" t="s">
-        <v>1483</v>
+        <v>1240</v>
       </c>
       <c r="I9" s="61" t="s">
-        <v>1484</v>
+        <v>1241</v>
       </c>
       <c r="J9" s="61" t="s">
-        <v>1485</v>
+        <v>1242</v>
       </c>
       <c r="K9" s="61" t="s">
-        <v>1287</v>
+        <v>23</v>
       </c>
       <c r="L9" s="61" t="s">
-        <v>1374</v>
+        <v>253</v>
       </c>
       <c r="M9" s="61" t="s">
-        <v>1486</v>
+        <v>251</v>
       </c>
       <c r="N9" s="61" t="s">
-        <v>1318</v>
+        <v>108</v>
       </c>
       <c r="O9" s="61" t="s">
-        <v>1290</v>
+        <v>30</v>
       </c>
       <c r="P9" s="61" t="s">
-        <v>1487</v>
+        <v>1243</v>
       </c>
       <c r="Q9" s="61" t="s">
-        <v>1480</v>
+        <v>1237</v>
       </c>
       <c r="R9" s="61" t="s">
-        <v>1488</v>
+        <v>1244</v>
       </c>
       <c r="S9" s="20" t="str">
         <f>CHAR(10)</f>
@@ -9426,78 +8400,78 @@
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
       <c r="D11" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>45</v>
-      </c>
+        <v>1209</v>
+      </c>
+      <c r="E11" s="54"/>
       <c r="F11" s="54" t="s">
-        <v>1177</v>
+        <v>1200</v>
       </c>
       <c r="G11" s="54" t="s">
-        <v>64</v>
+        <v>1210</v>
       </c>
       <c r="H11" s="54" t="s">
-        <v>50</v>
+        <v>1383</v>
       </c>
       <c r="I11" s="54" t="s">
-        <v>1178</v>
+        <v>1328</v>
       </c>
       <c r="J11" s="54"/>
       <c r="K11" s="54" t="s">
-        <v>1179</v>
+        <v>1225</v>
       </c>
       <c r="L11" s="54" t="s">
-        <v>1180</v>
+        <v>437</v>
       </c>
       <c r="M11" s="54" t="s">
-        <v>461</v>
+        <v>1203</v>
       </c>
       <c r="N11" s="54"/>
-      <c r="O11" s="54" t="s">
-        <v>1181</v>
-      </c>
+      <c r="O11" s="54"/>
       <c r="P11" s="54" t="s">
-        <v>1182</v>
-      </c>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
+        <v>1389</v>
+      </c>
+      <c r="Q11" s="54" t="s">
+        <v>1190</v>
+      </c>
+      <c r="R11" s="54" t="s">
+        <v>336</v>
+      </c>
       <c r="V11" s="56"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
       <c r="D12" s="60" t="s">
-        <v>1429</v>
+        <v>1209</v>
       </c>
       <c r="E12" s="60"/>
       <c r="F12" s="60" t="s">
-        <v>794</v>
+        <v>427</v>
       </c>
       <c r="G12" s="60" t="s">
-        <v>1472</v>
+        <v>1230</v>
       </c>
       <c r="H12" s="60" t="s">
-        <v>1580</v>
+        <v>1320</v>
       </c>
       <c r="I12" s="60" t="s">
-        <v>1589</v>
+        <v>1328</v>
       </c>
       <c r="J12" s="60"/>
       <c r="K12" s="60" t="s">
-        <v>1455</v>
+        <v>1225</v>
       </c>
       <c r="L12" s="60" t="s">
-        <v>814</v>
+        <v>437</v>
       </c>
       <c r="M12" s="60" t="s">
-        <v>1590</v>
+        <v>1329</v>
       </c>
       <c r="N12" s="60" t="s">
-        <v>1591</v>
+        <v>1330</v>
       </c>
       <c r="O12" s="60"/>
       <c r="P12" s="60" t="s">
-        <v>1450</v>
+        <v>1221</v>
       </c>
       <c r="Q12" s="60" t="s">
         <v>357</v>
@@ -9514,49 +8488,49 @@
         <v>3</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>1489</v>
+        <v>1245</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>1287</v>
+        <v>23</v>
       </c>
       <c r="F13" s="61" t="s">
-        <v>1337</v>
+        <v>217</v>
       </c>
       <c r="G13" s="61" t="s">
-        <v>1371</v>
+        <v>1183</v>
       </c>
       <c r="H13" s="61" t="s">
-        <v>1474</v>
+        <v>1232</v>
       </c>
       <c r="I13" s="61" t="s">
-        <v>1490</v>
+        <v>1246</v>
       </c>
       <c r="J13" s="61" t="s">
-        <v>1287</v>
+        <v>23</v>
       </c>
       <c r="K13" s="61" t="s">
-        <v>1319</v>
+        <v>1175</v>
       </c>
       <c r="L13" s="61" t="s">
-        <v>1491</v>
+        <v>1247</v>
       </c>
       <c r="M13" s="61" t="s">
-        <v>1492</v>
+        <v>1248</v>
       </c>
       <c r="N13" s="61" t="s">
-        <v>1493</v>
+        <v>1249</v>
       </c>
       <c r="O13" s="61" t="s">
-        <v>1290</v>
+        <v>30</v>
       </c>
       <c r="P13" s="61" t="s">
-        <v>1494</v>
+        <v>1250</v>
       </c>
       <c r="Q13" s="61" t="s">
-        <v>1303</v>
+        <v>1169</v>
       </c>
       <c r="R13" s="61" t="s">
-        <v>1311</v>
+        <v>106</v>
       </c>
       <c r="S13" s="20" t="str">
         <f>CHAR(10)</f>
@@ -9589,82 +8563,76 @@
       <c r="B15" s="12"/>
       <c r="C15" s="32"/>
       <c r="D15" s="54" t="s">
-        <v>416</v>
+        <v>52</v>
       </c>
       <c r="E15" s="54" t="s">
-        <v>1183</v>
-      </c>
-      <c r="F15" s="54" t="s">
-        <v>1184</v>
-      </c>
+        <v>1390</v>
+      </c>
+      <c r="F15" s="54"/>
       <c r="G15" s="54" t="s">
-        <v>1185</v>
-      </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54" t="s">
+        <v>1391</v>
+      </c>
+      <c r="K15" s="54" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L15" s="54" t="s">
+        <v>1390</v>
+      </c>
+      <c r="M15" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="N15" s="54" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54" t="s">
         <v>1186</v>
       </c>
-      <c r="J15" s="54" t="s">
-        <v>1187</v>
-      </c>
-      <c r="K15" s="54" t="s">
-        <v>387</v>
-      </c>
-      <c r="L15" s="54" t="s">
-        <v>1188</v>
-      </c>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54" t="s">
-        <v>1189</v>
-      </c>
-      <c r="O15" s="54" t="s">
-        <v>363</v>
-      </c>
-      <c r="P15" s="54" t="s">
-        <v>1190</v>
-      </c>
-      <c r="Q15" s="54" t="s">
-        <v>1191</v>
-      </c>
-      <c r="R15" s="54" t="s">
-        <v>421</v>
-      </c>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
       <c r="V15" s="56"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
       <c r="D16" s="60" t="s">
-        <v>1393</v>
+        <v>1186</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>1460</v>
+        <v>1228</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="60" t="s">
-        <v>1592</v>
+        <v>1331</v>
       </c>
       <c r="H16" s="60" t="s">
-        <v>1593</v>
+        <v>1332</v>
       </c>
       <c r="I16" s="60"/>
       <c r="J16" s="60" t="s">
-        <v>1594</v>
+        <v>1333</v>
       </c>
       <c r="K16" s="60" t="s">
-        <v>641</v>
+        <v>357</v>
       </c>
       <c r="L16" s="60" t="s">
-        <v>1460</v>
+        <v>1228</v>
       </c>
       <c r="M16" s="60" t="s">
         <v>336</v>
       </c>
       <c r="N16" s="60" t="s">
-        <v>1595</v>
+        <v>1334</v>
       </c>
       <c r="O16" s="60"/>
       <c r="P16" s="60" t="s">
-        <v>1393</v>
+        <v>1186</v>
       </c>
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
@@ -9677,49 +8645,49 @@
         <v>4</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>1285</v>
+        <v>273</v>
       </c>
       <c r="E17" s="61" t="s">
-        <v>1495</v>
+        <v>1251</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>1287</v>
+        <v>23</v>
       </c>
       <c r="G17" s="61" t="s">
-        <v>1496</v>
+        <v>1252</v>
       </c>
       <c r="H17" s="61" t="s">
-        <v>1497</v>
+        <v>230</v>
       </c>
       <c r="I17" s="61" t="s">
-        <v>1287</v>
+        <v>23</v>
       </c>
       <c r="J17" s="61" t="s">
-        <v>1498</v>
+        <v>1253</v>
       </c>
       <c r="K17" s="61" t="s">
-        <v>1303</v>
+        <v>1169</v>
       </c>
       <c r="L17" s="61" t="s">
-        <v>1495</v>
+        <v>1251</v>
       </c>
       <c r="M17" s="61" t="s">
-        <v>1311</v>
+        <v>106</v>
       </c>
       <c r="N17" s="61" t="s">
-        <v>1499</v>
+        <v>1254</v>
       </c>
       <c r="O17" s="61" t="s">
-        <v>1287</v>
+        <v>23</v>
       </c>
       <c r="P17" s="61" t="s">
-        <v>1285</v>
+        <v>273</v>
       </c>
       <c r="Q17" s="61" t="s">
-        <v>1500</v>
+        <v>1255</v>
       </c>
       <c r="R17" s="61" t="s">
-        <v>1287</v>
+        <v>23</v>
       </c>
       <c r="S17" s="20" t="str">
         <f>CHAR(10)</f>
@@ -9752,82 +8720,78 @@
       <c r="B19" s="12"/>
       <c r="C19" s="32"/>
       <c r="D19" s="54" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54" t="s">
-        <v>401</v>
-      </c>
+        <v>1186</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F19" s="54"/>
       <c r="G19" s="54" t="s">
-        <v>382</v>
-      </c>
-      <c r="H19" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="I19" s="54" t="s">
-        <v>1193</v>
-      </c>
-      <c r="J19" s="54"/>
+        <v>1186</v>
+      </c>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54" t="s">
+        <v>1186</v>
+      </c>
       <c r="K19" s="54" t="s">
-        <v>1193</v>
-      </c>
-      <c r="L19" s="54" t="s">
-        <v>363</v>
-      </c>
+        <v>1335</v>
+      </c>
+      <c r="L19" s="54"/>
       <c r="M19" s="54" t="s">
-        <v>1194</v>
+        <v>1204</v>
       </c>
       <c r="N19" s="54" t="s">
-        <v>1195</v>
+        <v>1336</v>
       </c>
       <c r="O19" s="54" t="s">
-        <v>1196</v>
+        <v>1337</v>
       </c>
       <c r="P19" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q19" s="54" t="s">
-        <v>1197</v>
-      </c>
-      <c r="R19" s="54"/>
+        <v>1393</v>
+      </c>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54" t="s">
+        <v>1338</v>
+      </c>
       <c r="V19" s="56"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
       <c r="D20" s="60" t="s">
-        <v>1393</v>
+        <v>1186</v>
       </c>
       <c r="E20" s="60" t="s">
         <v>53</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="60" t="s">
-        <v>1393</v>
+        <v>1186</v>
       </c>
       <c r="H20" s="60"/>
       <c r="I20" s="60"/>
       <c r="J20" s="60" t="s">
-        <v>1170</v>
+        <v>1186</v>
       </c>
       <c r="K20" s="60" t="s">
-        <v>1596</v>
+        <v>1335</v>
       </c>
       <c r="L20" s="60"/>
       <c r="M20" s="60" t="s">
-        <v>1419</v>
+        <v>1203</v>
       </c>
       <c r="N20" s="60" t="s">
-        <v>1597</v>
+        <v>1336</v>
       </c>
       <c r="O20" s="60" t="s">
-        <v>1598</v>
+        <v>1337</v>
       </c>
       <c r="P20" s="60" t="s">
-        <v>647</v>
+        <v>360</v>
       </c>
       <c r="Q20" s="60"/>
       <c r="R20" s="60" t="s">
-        <v>1599</v>
+        <v>1338</v>
       </c>
       <c r="S20" s="18"/>
       <c r="V20" s="56"/>
@@ -9838,49 +8802,49 @@
         <v>5</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>1285</v>
+        <v>273</v>
       </c>
       <c r="E21" s="61" t="s">
-        <v>1501</v>
+        <v>1256</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>1287</v>
+        <v>23</v>
       </c>
       <c r="G21" s="61" t="s">
-        <v>1285</v>
+        <v>273</v>
       </c>
       <c r="H21" s="61" t="s">
-        <v>1502</v>
+        <v>1257</v>
       </c>
       <c r="I21" s="61" t="s">
-        <v>1287</v>
+        <v>23</v>
       </c>
       <c r="J21" s="61" t="s">
-        <v>1285</v>
+        <v>273</v>
       </c>
       <c r="K21" s="61" t="s">
-        <v>1503</v>
+        <v>1258</v>
       </c>
       <c r="L21" s="61" t="s">
-        <v>1290</v>
+        <v>30</v>
       </c>
       <c r="M21" s="61" t="s">
-        <v>1344</v>
+        <v>235</v>
       </c>
       <c r="N21" s="61" t="s">
-        <v>1504</v>
+        <v>1259</v>
       </c>
       <c r="O21" s="61" t="s">
-        <v>1505</v>
+        <v>1260</v>
       </c>
       <c r="P21" s="61" t="s">
-        <v>1506</v>
+        <v>1261</v>
       </c>
       <c r="Q21" s="61" t="s">
-        <v>1287</v>
+        <v>23</v>
       </c>
       <c r="R21" s="61" t="s">
-        <v>1507</v>
+        <v>1262</v>
       </c>
       <c r="S21" s="20" t="str">
         <f>CHAR(10)</f>
@@ -9913,85 +8877,67 @@
       <c r="B23" s="12"/>
       <c r="C23" s="32"/>
       <c r="D23" s="54" t="s">
-        <v>1198</v>
+        <v>1339</v>
       </c>
       <c r="E23" s="54" t="s">
-        <v>421</v>
+        <v>1340</v>
       </c>
       <c r="F23" s="54" t="s">
-        <v>1199</v>
+        <v>1394</v>
       </c>
       <c r="G23" s="54"/>
       <c r="H23" s="54" t="s">
-        <v>1200</v>
+        <v>1395</v>
       </c>
       <c r="I23" s="54" t="s">
-        <v>1201</v>
+        <v>1343</v>
       </c>
       <c r="J23" s="54" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="K23" s="54" t="s">
-        <v>54</v>
+        <v>1344</v>
       </c>
       <c r="L23" s="54"/>
-      <c r="M23" s="54" t="s">
-        <v>1199</v>
-      </c>
-      <c r="N23" s="54" t="s">
-        <v>475</v>
-      </c>
-      <c r="O23" s="54" t="s">
-        <v>472</v>
-      </c>
-      <c r="P23" s="54" t="s">
-        <v>1203</v>
-      </c>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
-      <c r="R23" s="54" t="s">
-        <v>1204</v>
-      </c>
+      <c r="R23" s="54"/>
       <c r="V23" s="56"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
       <c r="D24" s="60" t="s">
-        <v>1600</v>
+        <v>1339</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>1601</v>
+        <v>1340</v>
       </c>
       <c r="F24" s="60" t="s">
-        <v>1602</v>
+        <v>1341</v>
       </c>
       <c r="G24" s="60"/>
       <c r="H24" s="60" t="s">
-        <v>1603</v>
+        <v>1342</v>
       </c>
       <c r="I24" s="60" t="s">
-        <v>1605</v>
+        <v>1343</v>
       </c>
       <c r="J24" s="60" t="s">
-        <v>1401</v>
+        <v>1193</v>
       </c>
       <c r="K24" s="60" t="s">
-        <v>1607</v>
+        <v>1344</v>
       </c>
       <c r="L24" s="60"/>
       <c r="M24" s="60"/>
-      <c r="N24" s="60" t="s">
-        <v>657</v>
-      </c>
-      <c r="O24" s="60" t="s">
-        <v>1453</v>
-      </c>
-      <c r="P24" s="60" t="s">
-        <v>1405</v>
-      </c>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
       <c r="Q24" s="60"/>
-      <c r="R24" s="60" t="s">
-        <v>1454</v>
-      </c>
+      <c r="R24" s="60"/>
       <c r="S24" s="18"/>
       <c r="V24" s="56"/>
     </row>
@@ -10001,52 +8947,42 @@
         <v>6</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>1508</v>
+        <v>1263</v>
       </c>
       <c r="E25" s="61" t="s">
-        <v>1509</v>
+        <v>1264</v>
       </c>
       <c r="F25" s="61" t="s">
-        <v>1510</v>
+        <v>1265</v>
       </c>
       <c r="G25" s="61" t="s">
-        <v>1287</v>
+        <v>23</v>
       </c>
       <c r="H25" s="61" t="s">
-        <v>1511</v>
+        <v>1266</v>
       </c>
       <c r="I25" s="61" t="s">
-        <v>1512</v>
+        <v>1267</v>
       </c>
       <c r="J25" s="61" t="s">
-        <v>1307</v>
+        <v>1170</v>
       </c>
       <c r="K25" s="61" t="s">
-        <v>1513</v>
+        <v>1268</v>
       </c>
       <c r="L25" s="61" t="s">
-        <v>1290</v>
+        <v>30</v>
       </c>
       <c r="M25" s="61" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="N25" s="61" t="s">
-        <v>1313</v>
-      </c>
-      <c r="O25" s="61" t="s">
-        <v>1314</v>
-      </c>
-      <c r="P25" s="61" t="s">
-        <v>1315</v>
-      </c>
-      <c r="Q25" s="61" t="s">
-        <v>1290</v>
-      </c>
-      <c r="R25" s="61" t="s">
-        <v>1316</v>
-      </c>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
       <c r="S25" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -10078,45 +9014,47 @@
       <c r="B27" s="12"/>
       <c r="C27" s="32"/>
       <c r="D27" s="54" t="s">
-        <v>421</v>
+        <v>1396</v>
       </c>
       <c r="E27" s="54" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F27" s="54"/>
+        <v>1397</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>1346</v>
+      </c>
       <c r="G27" s="54" t="s">
-        <v>1205</v>
+        <v>1347</v>
       </c>
       <c r="H27" s="54" t="s">
-        <v>421</v>
+        <v>1322</v>
       </c>
       <c r="I27" s="54" t="s">
-        <v>483</v>
-      </c>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54" t="s">
-        <v>336</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="J27" s="54" t="s">
+        <v>1348</v>
+      </c>
+      <c r="K27" s="54"/>
       <c r="L27" s="54" t="s">
-        <v>52</v>
+        <v>457</v>
       </c>
       <c r="M27" s="54" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="N27" s="54" t="s">
-        <v>53</v>
+        <v>1398</v>
       </c>
       <c r="O27" s="54" t="s">
-        <v>1172</v>
+        <v>437</v>
       </c>
       <c r="P27" s="54" t="s">
-        <v>338</v>
+        <v>1191</v>
       </c>
       <c r="Q27" s="54" t="s">
-        <v>348</v>
+        <v>1197</v>
       </c>
       <c r="R27" s="54" t="s">
-        <v>1207</v>
+        <v>496</v>
       </c>
       <c r="U27" s="33" t="str">
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
@@ -10127,47 +9065,47 @@
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
       <c r="D28" s="60" t="s">
-        <v>1589</v>
+        <v>1328</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>1608</v>
+        <v>1345</v>
       </c>
       <c r="F28" s="60" t="s">
-        <v>1609</v>
+        <v>1346</v>
       </c>
       <c r="G28" s="60" t="s">
-        <v>1611</v>
+        <v>1347</v>
       </c>
       <c r="H28" s="60" t="s">
-        <v>1612</v>
+        <v>1322</v>
       </c>
       <c r="I28" s="60" t="s">
-        <v>724</v>
+        <v>396</v>
       </c>
       <c r="J28" s="60" t="s">
-        <v>1613</v>
+        <v>1348</v>
       </c>
       <c r="K28" s="60"/>
       <c r="L28" s="60" t="s">
-        <v>856</v>
+        <v>457</v>
       </c>
       <c r="M28" s="60" t="s">
-        <v>1418</v>
+        <v>1202</v>
       </c>
       <c r="N28" s="60" t="s">
-        <v>718</v>
+        <v>394</v>
       </c>
       <c r="O28" s="60" t="s">
-        <v>814</v>
+        <v>437</v>
       </c>
       <c r="P28" s="60" t="s">
-        <v>1399</v>
+        <v>1191</v>
       </c>
       <c r="Q28" s="60" t="s">
-        <v>1404</v>
+        <v>1197</v>
       </c>
       <c r="R28" s="60" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="S28" s="18"/>
       <c r="U28" s="33" t="str">
@@ -10182,49 +9120,49 @@
         <v>7</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>1490</v>
+        <v>1246</v>
       </c>
       <c r="E29" s="61" t="s">
-        <v>1514</v>
+        <v>1269</v>
       </c>
       <c r="F29" s="61" t="s">
-        <v>1515</v>
+        <v>1270</v>
       </c>
       <c r="G29" s="61" t="s">
-        <v>1516</v>
+        <v>1271</v>
       </c>
       <c r="H29" s="61" t="s">
-        <v>1476</v>
+        <v>82</v>
       </c>
       <c r="I29" s="61" t="s">
-        <v>1517</v>
+        <v>1272</v>
       </c>
       <c r="J29" s="61" t="s">
-        <v>1518</v>
+        <v>1273</v>
       </c>
       <c r="K29" s="61" t="s">
-        <v>1287</v>
+        <v>23</v>
       </c>
       <c r="L29" s="61" t="s">
-        <v>1321</v>
+        <v>259</v>
       </c>
       <c r="M29" s="61" t="s">
-        <v>1340</v>
+        <v>162</v>
       </c>
       <c r="N29" s="61" t="s">
-        <v>1519</v>
+        <v>176</v>
       </c>
       <c r="O29" s="61" t="s">
-        <v>1295</v>
+        <v>228</v>
       </c>
       <c r="P29" s="61" t="s">
-        <v>1304</v>
+        <v>26</v>
       </c>
       <c r="Q29" s="61" t="s">
-        <v>1312</v>
+        <v>1173</v>
       </c>
       <c r="R29" s="61" t="s">
-        <v>1520</v>
+        <v>1274</v>
       </c>
       <c r="S29" s="20" t="str">
         <f>CHAR(10)</f>
@@ -10264,46 +9202,42 @@
     <row r="31" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="12"/>
       <c r="C31" s="32"/>
-      <c r="D31" s="54" t="s">
-        <v>1201</v>
-      </c>
+      <c r="D31" s="54"/>
       <c r="E31" s="54" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="F31" s="54" t="s">
-        <v>1208</v>
+        <v>429</v>
       </c>
       <c r="G31" s="54" t="s">
-        <v>422</v>
-      </c>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54" t="s">
-        <v>457</v>
-      </c>
+        <v>1200</v>
+      </c>
+      <c r="H31" s="54" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I31" s="54"/>
       <c r="J31" s="54" t="s">
-        <v>1209</v>
+        <v>1351</v>
       </c>
       <c r="K31" s="54" t="s">
-        <v>1201</v>
+        <v>1352</v>
       </c>
       <c r="L31" s="54" t="s">
-        <v>364</v>
-      </c>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="O31" s="54" t="s">
-        <v>1210</v>
-      </c>
+        <v>1190</v>
+      </c>
+      <c r="M31" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
       <c r="P31" s="54" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="Q31" s="54" t="s">
-        <v>469</v>
+        <v>387</v>
       </c>
       <c r="R31" s="54" t="s">
-        <v>1212</v>
+        <v>1353</v>
       </c>
       <c r="U31" s="33" t="str">
         <f t="shared" si="1"/>
@@ -10315,42 +9249,42 @@
       <c r="B32" s="17"/>
       <c r="D32" s="60"/>
       <c r="E32" s="60" t="s">
-        <v>1447</v>
+        <v>1218</v>
       </c>
       <c r="F32" s="60" t="s">
-        <v>1614</v>
+        <v>1349</v>
       </c>
       <c r="G32" s="60" t="s">
-        <v>794</v>
+        <v>427</v>
       </c>
       <c r="H32" s="60" t="s">
-        <v>1615</v>
+        <v>1350</v>
       </c>
       <c r="I32" s="60"/>
       <c r="J32" s="60" t="s">
-        <v>1616</v>
+        <v>1351</v>
       </c>
       <c r="K32" s="60" t="s">
-        <v>1617</v>
+        <v>1352</v>
       </c>
       <c r="L32" s="60" t="s">
-        <v>641</v>
+        <v>357</v>
       </c>
       <c r="M32" s="60" t="s">
-        <v>1439</v>
+        <v>1220</v>
       </c>
       <c r="N32" s="60"/>
       <c r="O32" s="60" t="s">
-        <v>597</v>
+        <v>336</v>
       </c>
       <c r="P32" s="60" t="s">
-        <v>44</v>
+        <v>302</v>
       </c>
       <c r="Q32" s="60" t="s">
-        <v>1451</v>
+        <v>1222</v>
       </c>
       <c r="R32" s="60" t="s">
-        <v>1618</v>
+        <v>1353</v>
       </c>
       <c r="S32" s="18"/>
       <c r="U32" s="33" t="str">
@@ -10365,49 +9299,49 @@
         <v>8</v>
       </c>
       <c r="D33" s="61" t="s">
-        <v>1287</v>
+        <v>23</v>
       </c>
       <c r="E33" s="61" t="s">
-        <v>1296</v>
+        <v>20</v>
       </c>
       <c r="F33" s="61" t="s">
-        <v>1521</v>
+        <v>219</v>
       </c>
       <c r="G33" s="61" t="s">
-        <v>1337</v>
+        <v>217</v>
       </c>
       <c r="H33" s="61" t="s">
-        <v>1522</v>
+        <v>1275</v>
       </c>
       <c r="I33" s="61" t="s">
-        <v>1287</v>
+        <v>23</v>
       </c>
       <c r="J33" s="61" t="s">
-        <v>1523</v>
+        <v>244</v>
       </c>
       <c r="K33" s="61" t="s">
-        <v>1524</v>
+        <v>1276</v>
       </c>
       <c r="L33" s="61" t="s">
-        <v>1303</v>
+        <v>1169</v>
       </c>
       <c r="M33" s="61" t="s">
-        <v>1298</v>
+        <v>18</v>
       </c>
       <c r="N33" s="61" t="s">
-        <v>1290</v>
+        <v>30</v>
       </c>
       <c r="O33" s="61" t="s">
-        <v>1525</v>
+        <v>1277</v>
       </c>
       <c r="P33" s="61" t="s">
-        <v>1339</v>
+        <v>143</v>
       </c>
       <c r="Q33" s="61" t="s">
-        <v>1306</v>
+        <v>168</v>
       </c>
       <c r="R33" s="61" t="s">
-        <v>1526</v>
+        <v>1278</v>
       </c>
       <c r="S33" s="20" t="str">
         <f>CHAR(10)</f>
@@ -10439,29 +9373,43 @@
     <row r="35" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="12"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="54" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E35" s="54" t="s">
-        <v>338</v>
-      </c>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
       <c r="F35" s="54" t="s">
-        <v>1184</v>
+        <v>1399</v>
       </c>
       <c r="G35" s="54" t="s">
-        <v>1213</v>
-      </c>
-      <c r="H35" s="54"/>
+        <v>1192</v>
+      </c>
+      <c r="H35" s="54" t="s">
+        <v>1400</v>
+      </c>
       <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
+      <c r="J35" s="54" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K35" s="54" t="s">
+        <v>1356</v>
+      </c>
+      <c r="L35" s="54" t="s">
+        <v>1401</v>
+      </c>
+      <c r="M35" s="54" t="s">
+        <v>1344</v>
+      </c>
       <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
+      <c r="O35" s="54" t="s">
+        <v>1358</v>
+      </c>
+      <c r="P35" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q35" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="R35" s="54" t="s">
+        <v>422</v>
+      </c>
       <c r="V35" s="56"/>
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -10469,33 +9417,33 @@
       <c r="D36" s="60"/>
       <c r="E36" s="60"/>
       <c r="F36" s="60" t="s">
-        <v>1415</v>
+        <v>1214</v>
       </c>
       <c r="G36" s="60" t="s">
-        <v>1400</v>
+        <v>1192</v>
       </c>
       <c r="H36" s="60" t="s">
-        <v>1619</v>
+        <v>1354</v>
       </c>
       <c r="I36" s="60"/>
       <c r="J36" s="60" t="s">
-        <v>1620</v>
+        <v>1355</v>
       </c>
       <c r="K36" s="60" t="s">
-        <v>1621</v>
+        <v>1356</v>
       </c>
       <c r="L36" s="60" t="s">
-        <v>1622</v>
+        <v>1357</v>
       </c>
       <c r="M36" s="60" t="s">
-        <v>1606</v>
+        <v>1344</v>
       </c>
       <c r="N36" s="60"/>
       <c r="O36" s="60" t="s">
-        <v>1623</v>
+        <v>1358</v>
       </c>
       <c r="P36" s="60" t="s">
-        <v>1438</v>
+        <v>1219</v>
       </c>
       <c r="Q36" s="60" t="s">
         <v>437</v>
@@ -10512,40 +9460,40 @@
         <v>9</v>
       </c>
       <c r="D37" s="61" t="s">
-        <v>1287</v>
+        <v>23</v>
       </c>
       <c r="E37" s="61" t="s">
-        <v>1527</v>
+        <v>1279</v>
       </c>
       <c r="F37" s="61" t="s">
-        <v>1528</v>
+        <v>1280</v>
       </c>
       <c r="G37" s="61" t="s">
-        <v>1305</v>
+        <v>118</v>
       </c>
       <c r="H37" s="61" t="s">
-        <v>1529</v>
+        <v>1281</v>
       </c>
       <c r="I37" s="61" t="s">
         <v>23</v>
       </c>
       <c r="J37" s="61" t="s">
-        <v>1530</v>
+        <v>1282</v>
       </c>
       <c r="K37" s="61" t="s">
-        <v>1531</v>
+        <v>1283</v>
       </c>
       <c r="L37" s="61" t="s">
-        <v>1532</v>
+        <v>1284</v>
       </c>
       <c r="M37" s="61" t="s">
-        <v>1533</v>
+        <v>1285</v>
       </c>
       <c r="N37" s="61" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="61" t="s">
-        <v>1534</v>
+        <v>1286</v>
       </c>
       <c r="P37" s="61" t="s">
         <v>28</v>
@@ -10587,91 +9535,47 @@
       <c r="B39" s="12"/>
       <c r="C39" s="32"/>
       <c r="D39" s="54" t="s">
-        <v>1167</v>
+        <v>1195</v>
       </c>
       <c r="E39" s="54" t="s">
-        <v>1271</v>
-      </c>
-      <c r="F39" s="54" t="s">
-        <v>1272</v>
-      </c>
-      <c r="G39" s="54" t="s">
-        <v>386</v>
-      </c>
-      <c r="H39" s="54" t="s">
-        <v>468</v>
-      </c>
-      <c r="I39" s="54" t="s">
-        <v>1273</v>
-      </c>
-      <c r="J39" s="54" t="s">
-        <v>1274</v>
-      </c>
-      <c r="K39" s="54" t="s">
-        <v>395</v>
-      </c>
+        <v>1387</v>
+      </c>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
       <c r="L39" s="54"/>
-      <c r="M39" s="54" t="s">
-        <v>1275</v>
-      </c>
-      <c r="N39" s="54" t="s">
-        <v>1192</v>
-      </c>
-      <c r="O39" s="54" t="s">
-        <v>1214</v>
-      </c>
-      <c r="P39" s="54" t="s">
-        <v>1215</v>
-      </c>
-      <c r="Q39" s="54" t="s">
-        <v>1212</v>
-      </c>
-      <c r="R39" s="54" t="s">
-        <v>304</v>
-      </c>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
       <c r="V39" s="56"/>
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
       <c r="D40" s="64" t="s">
-        <v>1452</v>
+        <v>1223</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>1586</v>
+        <v>1326</v>
       </c>
       <c r="F40" s="60"/>
       <c r="G40" s="60"/>
-      <c r="H40" s="60" t="s">
-        <v>878</v>
-      </c>
-      <c r="I40" s="60" t="s">
-        <v>1410</v>
-      </c>
-      <c r="J40" s="60" t="s">
-        <v>1411</v>
-      </c>
-      <c r="K40" s="60" t="s">
-        <v>1447</v>
-      </c>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
       <c r="L40" s="60"/>
-      <c r="M40" s="60" t="s">
-        <v>1412</v>
-      </c>
-      <c r="N40" s="60" t="s">
-        <v>1402</v>
-      </c>
-      <c r="O40" s="60" t="s">
-        <v>1413</v>
-      </c>
-      <c r="P40" s="60" t="s">
-        <v>1457</v>
-      </c>
-      <c r="Q40" s="60" t="s">
-        <v>1408</v>
-      </c>
-      <c r="R40" s="60" t="s">
-        <v>517</v>
-      </c>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="60"/>
+      <c r="R40" s="60"/>
       <c r="S40" s="18"/>
       <c r="V40" s="56"/>
     </row>
@@ -10681,52 +9585,30 @@
         <v>10</v>
       </c>
       <c r="D41" s="61" t="s">
-        <v>1310</v>
+        <v>1172</v>
       </c>
       <c r="E41" s="61" t="s">
-        <v>1486</v>
+        <v>251</v>
       </c>
       <c r="F41" s="61" t="s">
-        <v>1290</v>
+        <v>30</v>
       </c>
       <c r="G41" s="61" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H41" s="61" t="s">
-        <v>1328</v>
-      </c>
-      <c r="I41" s="61" t="s">
-        <v>1329</v>
-      </c>
-      <c r="J41" s="61" t="s">
-        <v>1330</v>
-      </c>
-      <c r="K41" s="61" t="s">
-        <v>1296</v>
-      </c>
-      <c r="L41" s="61" t="s">
-        <v>1287</v>
-      </c>
-      <c r="M41" s="61" t="s">
-        <v>1331</v>
-      </c>
-      <c r="N41" s="61" t="s">
-        <v>1308</v>
-      </c>
-      <c r="O41" s="61" t="s">
-        <v>1332</v>
-      </c>
-      <c r="P41" s="61" t="s">
-        <v>1333</v>
-      </c>
-      <c r="Q41" s="61" t="s">
-        <v>1325</v>
-      </c>
-      <c r="R41" s="61" t="s">
-        <v>1334</v>
-      </c>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="61"/>
+      <c r="R41" s="61"/>
       <c r="S41" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -10757,89 +9639,91 @@
     <row r="43" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="12"/>
       <c r="C43" s="32"/>
-      <c r="D43" s="54"/>
+      <c r="D43" s="54" t="s">
+        <v>1396</v>
+      </c>
       <c r="E43" s="54" t="s">
-        <v>1199</v>
+        <v>1402</v>
       </c>
       <c r="F43" s="54" t="s">
-        <v>1212</v>
+        <v>371</v>
       </c>
       <c r="G43" s="54" t="s">
-        <v>1178</v>
-      </c>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54" t="s">
-        <v>1211</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="H43" s="54" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I43" s="54"/>
       <c r="J43" s="54" t="s">
-        <v>1216</v>
+        <v>1359</v>
       </c>
       <c r="K43" s="54" t="s">
-        <v>381</v>
+        <v>1403</v>
       </c>
       <c r="L43" s="54" t="s">
-        <v>338</v>
-      </c>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54" t="s">
-        <v>1276</v>
-      </c>
+        <v>1361</v>
+      </c>
+      <c r="M43" s="54" t="s">
+        <v>1189</v>
+      </c>
+      <c r="N43" s="54"/>
       <c r="O43" s="54" t="s">
-        <v>1217</v>
+        <v>312</v>
       </c>
       <c r="P43" s="54" t="s">
-        <v>404</v>
+        <v>1362</v>
       </c>
       <c r="Q43" s="54" t="s">
-        <v>1171</v>
+        <v>1347</v>
       </c>
       <c r="R43" s="54" t="s">
-        <v>1277</v>
+        <v>1210</v>
       </c>
       <c r="V43" s="56"/>
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
       <c r="D44" s="60" t="s">
-        <v>1588</v>
+        <v>1328</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>1408</v>
+        <v>1199</v>
       </c>
       <c r="F44" s="60" t="s">
-        <v>671</v>
+        <v>371</v>
       </c>
       <c r="G44" s="60" t="s">
-        <v>1446</v>
+        <v>1217</v>
       </c>
       <c r="H44" s="60" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="I44" s="60"/>
       <c r="J44" s="60" t="s">
-        <v>1624</v>
+        <v>1359</v>
       </c>
       <c r="K44" s="60" t="s">
-        <v>1625</v>
+        <v>1360</v>
       </c>
       <c r="L44" s="60" t="s">
-        <v>1626</v>
+        <v>1361</v>
       </c>
       <c r="M44" s="60" t="s">
-        <v>1175</v>
+        <v>1189</v>
       </c>
       <c r="N44" s="60"/>
       <c r="O44" s="60" t="s">
-        <v>892</v>
+        <v>55</v>
       </c>
       <c r="P44" s="60" t="s">
-        <v>1627</v>
+        <v>1362</v>
       </c>
       <c r="Q44" s="60" t="s">
-        <v>1611</v>
+        <v>1347</v>
       </c>
       <c r="R44" s="60" t="s">
-        <v>1472</v>
+        <v>1230</v>
       </c>
       <c r="S44" s="18"/>
       <c r="V44" s="56"/>
@@ -10850,49 +9734,49 @@
         <v>11</v>
       </c>
       <c r="D45" s="61" t="s">
-        <v>1490</v>
+        <v>1246</v>
       </c>
       <c r="E45" s="61" t="s">
-        <v>1325</v>
+        <v>1177</v>
       </c>
       <c r="F45" s="61" t="s">
-        <v>1535</v>
+        <v>147</v>
       </c>
       <c r="G45" s="61" t="s">
-        <v>1293</v>
+        <v>210</v>
       </c>
       <c r="H45" s="61" t="s">
-        <v>1335</v>
+        <v>1179</v>
       </c>
       <c r="I45" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="61" t="s">
         <v>1287</v>
       </c>
-      <c r="J45" s="61" t="s">
-        <v>1536</v>
-      </c>
       <c r="K45" s="61" t="s">
-        <v>1537</v>
+        <v>1288</v>
       </c>
       <c r="L45" s="61" t="s">
-        <v>1538</v>
+        <v>1289</v>
       </c>
       <c r="M45" s="61" t="s">
-        <v>1294</v>
+        <v>185</v>
       </c>
       <c r="N45" s="61" t="s">
-        <v>1287</v>
+        <v>23</v>
       </c>
       <c r="O45" s="61" t="s">
-        <v>1539</v>
+        <v>35</v>
       </c>
       <c r="P45" s="61" t="s">
-        <v>1540</v>
+        <v>1290</v>
       </c>
       <c r="Q45" s="61" t="s">
-        <v>1516</v>
+        <v>1271</v>
       </c>
       <c r="R45" s="61" t="s">
-        <v>1371</v>
+        <v>1183</v>
       </c>
       <c r="S45" s="20" t="str">
         <f>CHAR(10)</f>
@@ -10924,38 +9808,44 @@
     <row r="47" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="12"/>
       <c r="C47" s="32"/>
-      <c r="D47" s="54" t="s">
-        <v>1218</v>
-      </c>
+      <c r="D47" s="54"/>
       <c r="E47" s="54" t="s">
-        <v>351</v>
-      </c>
-      <c r="F47" s="54"/>
+        <v>1188</v>
+      </c>
+      <c r="F47" s="54" t="s">
+        <v>1332</v>
+      </c>
       <c r="G47" s="54" t="s">
-        <v>1219</v>
+        <v>1201</v>
       </c>
       <c r="H47" s="54" t="s">
-        <v>1278</v>
+        <v>1363</v>
       </c>
       <c r="I47" s="54" t="s">
-        <v>1220</v>
-      </c>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54" t="s">
-        <v>1221</v>
-      </c>
+        <v>1404</v>
+      </c>
+      <c r="J47" s="54" t="s">
+        <v>1343</v>
+      </c>
+      <c r="K47" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="L47" s="54"/>
       <c r="M47" s="54" t="s">
-        <v>1222</v>
-      </c>
-      <c r="N47" s="54"/>
+        <v>387</v>
+      </c>
+      <c r="N47" s="54" t="s">
+        <v>1347</v>
+      </c>
       <c r="O47" s="54" t="s">
-        <v>1223</v>
+        <v>469</v>
       </c>
       <c r="P47" s="54" t="s">
-        <v>1279</v>
-      </c>
-      <c r="Q47" s="54"/>
+        <v>45</v>
+      </c>
+      <c r="Q47" s="54" t="s">
+        <v>1211</v>
+      </c>
       <c r="R47" s="54"/>
       <c r="V47" s="56"/>
     </row>
@@ -10963,41 +9853,41 @@
       <c r="B48" s="17"/>
       <c r="D48" s="60"/>
       <c r="E48" s="60" t="s">
-        <v>567</v>
+        <v>45</v>
       </c>
       <c r="F48" s="60" t="s">
-        <v>1593</v>
+        <v>1332</v>
       </c>
       <c r="G48" s="60" t="s">
-        <v>1417</v>
+        <v>1201</v>
       </c>
       <c r="H48" s="60" t="s">
-        <v>1628</v>
+        <v>1363</v>
       </c>
       <c r="I48" s="60" t="s">
-        <v>1629</v>
+        <v>1364</v>
       </c>
       <c r="J48" s="60" t="s">
-        <v>1604</v>
+        <v>1343</v>
       </c>
       <c r="K48" s="60" t="s">
         <v>57</v>
       </c>
       <c r="L48" s="60"/>
       <c r="M48" s="60" t="s">
-        <v>1451</v>
+        <v>1222</v>
       </c>
       <c r="N48" s="60" t="s">
-        <v>1610</v>
+        <v>1347</v>
       </c>
       <c r="O48" s="60" t="s">
-        <v>882</v>
+        <v>469</v>
       </c>
       <c r="P48" s="60" t="s">
-        <v>567</v>
+        <v>45</v>
       </c>
       <c r="Q48" s="60" t="s">
-        <v>1270</v>
+        <v>1211</v>
       </c>
       <c r="R48" s="60"/>
       <c r="S48" s="18"/>
@@ -11009,49 +9899,49 @@
         <v>12</v>
       </c>
       <c r="D49" s="61" t="s">
-        <v>1290</v>
+        <v>30</v>
       </c>
       <c r="E49" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="G49" s="61" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H49" s="61" t="s">
         <v>1291</v>
       </c>
-      <c r="F49" s="61" t="s">
-        <v>1497</v>
-      </c>
-      <c r="G49" s="61" t="s">
-        <v>1338</v>
-      </c>
-      <c r="H49" s="61" t="s">
-        <v>1541</v>
-      </c>
       <c r="I49" s="61" t="s">
-        <v>1542</v>
+        <v>1292</v>
       </c>
       <c r="J49" s="61" t="s">
-        <v>1512</v>
+        <v>1267</v>
       </c>
       <c r="K49" s="61" t="s">
-        <v>1543</v>
+        <v>249</v>
       </c>
       <c r="L49" s="61" t="s">
-        <v>1287</v>
+        <v>23</v>
       </c>
       <c r="M49" s="61" t="s">
-        <v>1306</v>
+        <v>168</v>
       </c>
       <c r="N49" s="61" t="s">
-        <v>1516</v>
+        <v>1271</v>
       </c>
       <c r="O49" s="61" t="s">
-        <v>1324</v>
+        <v>1176</v>
       </c>
       <c r="P49" s="61" t="s">
-        <v>1291</v>
+        <v>93</v>
       </c>
       <c r="Q49" s="61" t="s">
-        <v>1544</v>
+        <v>1293</v>
       </c>
       <c r="R49" s="61" t="s">
-        <v>1290</v>
+        <v>30</v>
       </c>
       <c r="S49" s="20" t="str">
         <f>CHAR(10)</f>
@@ -11083,88 +9973,40 @@
     <row r="51" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
       <c r="C51" s="32"/>
-      <c r="D51" s="54" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E51" s="54" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F51" s="54" t="s">
-        <v>338</v>
-      </c>
-      <c r="G51" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="H51" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="I51" s="54" t="s">
-        <v>440</v>
-      </c>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
       <c r="J51" s="54"/>
-      <c r="K51" s="54" t="s">
-        <v>1224</v>
-      </c>
-      <c r="L51" s="54" t="s">
-        <v>1225</v>
-      </c>
-      <c r="M51" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="N51" s="54" t="s">
-        <v>410</v>
-      </c>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
       <c r="O51" s="54"/>
-      <c r="P51" s="54" t="s">
-        <v>418</v>
-      </c>
+      <c r="P51" s="54"/>
       <c r="Q51" s="54"/>
-      <c r="R51" s="54" t="s">
-        <v>421</v>
-      </c>
+      <c r="R51" s="54"/>
       <c r="V51" s="56"/>
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
       <c r="D52" s="60"/>
-      <c r="E52" s="60" t="s">
-        <v>1396</v>
-      </c>
-      <c r="F52" s="60" t="s">
-        <v>601</v>
-      </c>
-      <c r="G52" s="60" t="s">
-        <v>890</v>
-      </c>
-      <c r="H52" s="60" t="s">
-        <v>1446</v>
-      </c>
-      <c r="I52" s="60" t="s">
-        <v>820</v>
-      </c>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
       <c r="J52" s="60"/>
-      <c r="K52" s="60" t="s">
-        <v>1459</v>
-      </c>
-      <c r="L52" s="60" t="s">
-        <v>1416</v>
-      </c>
-      <c r="M52" s="60" t="s">
-        <v>1446</v>
-      </c>
-      <c r="N52" s="60" t="s">
-        <v>752</v>
-      </c>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="60"/>
       <c r="O52" s="60"/>
-      <c r="P52" s="60" t="s">
-        <v>770</v>
-      </c>
-      <c r="Q52" s="60" t="s">
-        <v>599</v>
-      </c>
-      <c r="R52" s="60" t="s">
-        <v>1446</v>
-      </c>
+      <c r="P52" s="60"/>
+      <c r="Q52" s="60"/>
+      <c r="R52" s="60"/>
       <c r="S52" s="18"/>
       <c r="V52" s="56"/>
     </row>
@@ -11173,51 +10015,25 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="61" t="s">
-        <v>1308</v>
-      </c>
-      <c r="E53" s="61" t="s">
-        <v>1490</v>
-      </c>
-      <c r="F53" s="61" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G53" s="61" t="s">
-        <v>1287</v>
-      </c>
-      <c r="H53" s="61" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I53" s="61" t="s">
-        <v>1545</v>
-      </c>
-      <c r="J53" s="61" t="s">
-        <v>1480</v>
-      </c>
-      <c r="K53" s="61" t="s">
-        <v>1504</v>
-      </c>
-      <c r="L53" s="61" t="s">
-        <v>1485</v>
-      </c>
-      <c r="M53" s="61" t="s">
-        <v>1381</v>
-      </c>
-      <c r="N53" s="61" t="s">
-        <v>1287</v>
-      </c>
-      <c r="O53" s="61" t="s">
-        <v>1546</v>
-      </c>
-      <c r="P53" s="61" t="s">
-        <v>1547</v>
-      </c>
-      <c r="Q53" s="61" t="s">
-        <v>1304</v>
-      </c>
-      <c r="R53" s="61" t="s">
-        <v>1286</v>
-      </c>
+      <c r="D53" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="61"/>
+      <c r="M53" s="61"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="61"/>
+      <c r="R53" s="61"/>
       <c r="S53" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -11249,84 +10065,88 @@
       <c r="B55" s="12"/>
       <c r="C55" s="32"/>
       <c r="D55" s="54" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E55" s="54"/>
+        <v>1405</v>
+      </c>
+      <c r="E55" s="54" t="s">
+        <v>1328</v>
+      </c>
       <c r="F55" s="54" t="s">
-        <v>363</v>
-      </c>
-      <c r="G55" s="54" t="s">
-        <v>1206</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G55" s="54"/>
       <c r="H55" s="54" t="s">
-        <v>407</v>
+        <v>1205</v>
       </c>
       <c r="I55" s="54" t="s">
-        <v>1172</v>
+        <v>1365</v>
       </c>
       <c r="J55" s="54" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="K55" s="54" t="s">
-        <v>1227</v>
-      </c>
-      <c r="L55" s="54"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="54" t="s">
-        <v>457</v>
-      </c>
+        <v>1336</v>
+      </c>
+      <c r="L55" s="54" t="s">
+        <v>1386</v>
+      </c>
+      <c r="M55" s="54" t="s">
+        <v>1215</v>
+      </c>
+      <c r="N55" s="54"/>
       <c r="O55" s="54" t="s">
-        <v>342</v>
-      </c>
-      <c r="P55" s="54"/>
+        <v>1406</v>
+      </c>
+      <c r="P55" s="54" t="s">
+        <v>1407</v>
+      </c>
       <c r="Q55" s="54" t="s">
-        <v>357</v>
+        <v>1191</v>
       </c>
       <c r="R55" s="54" t="s">
-        <v>338</v>
+        <v>1187</v>
       </c>
       <c r="V55" s="56"/>
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
       <c r="D56" s="60" t="s">
-        <v>1402</v>
+        <v>1194</v>
       </c>
       <c r="E56" s="60" t="s">
-        <v>1588</v>
+        <v>1328</v>
       </c>
       <c r="F56" s="60" t="s">
-        <v>1449</v>
+        <v>1220</v>
       </c>
       <c r="G56" s="60"/>
       <c r="H56" s="60" t="s">
-        <v>1421</v>
+        <v>1205</v>
       </c>
       <c r="I56" s="60" t="s">
-        <v>1630</v>
+        <v>1365</v>
       </c>
       <c r="J56" s="60" t="s">
-        <v>523</v>
+        <v>307</v>
       </c>
       <c r="K56" s="60" t="s">
-        <v>1597</v>
+        <v>1336</v>
       </c>
       <c r="L56" s="60" t="s">
-        <v>1406</v>
+        <v>1198</v>
       </c>
       <c r="M56" s="60" t="s">
-        <v>1281</v>
+        <v>1215</v>
       </c>
       <c r="N56" s="60"/>
       <c r="O56" s="60" t="s">
-        <v>1631</v>
+        <v>1366</v>
       </c>
       <c r="P56" s="60"/>
       <c r="Q56" s="60" t="s">
-        <v>1399</v>
+        <v>1191</v>
       </c>
       <c r="R56" s="60" t="s">
-        <v>1394</v>
+        <v>1187</v>
       </c>
       <c r="S56" s="18"/>
       <c r="V56" s="56"/>
@@ -11337,49 +10157,49 @@
         <v>14</v>
       </c>
       <c r="D57" s="61" t="s">
-        <v>1287</v>
+        <v>1171</v>
       </c>
       <c r="E57" s="61" t="s">
-        <v>1548</v>
+        <v>1246</v>
       </c>
       <c r="F57" s="61" t="s">
-        <v>1549</v>
+        <v>18</v>
       </c>
       <c r="G57" s="61" t="s">
-        <v>1550</v>
+        <v>23</v>
       </c>
       <c r="H57" s="61" t="s">
-        <v>1551</v>
+        <v>69</v>
       </c>
       <c r="I57" s="61" t="s">
-        <v>1287</v>
+        <v>1294</v>
       </c>
       <c r="J57" s="61" t="s">
-        <v>1552</v>
+        <v>1237</v>
       </c>
       <c r="K57" s="61" t="s">
-        <v>1553</v>
+        <v>1259</v>
       </c>
       <c r="L57" s="61" t="s">
-        <v>1302</v>
+        <v>1242</v>
       </c>
       <c r="M57" s="61" t="s">
-        <v>1554</v>
+        <v>1184</v>
       </c>
       <c r="N57" s="61" t="s">
-        <v>1290</v>
+        <v>23</v>
       </c>
       <c r="O57" s="61" t="s">
-        <v>1311</v>
+        <v>1295</v>
       </c>
       <c r="P57" s="61" t="s">
-        <v>1291</v>
+        <v>1296</v>
       </c>
       <c r="Q57" s="61" t="s">
-        <v>1555</v>
+        <v>26</v>
       </c>
       <c r="R57" s="61" t="s">
-        <v>1336</v>
+        <v>37</v>
       </c>
       <c r="S57" s="20" t="str">
         <f>CHAR(10)</f>
@@ -11411,81 +10231,81 @@
     <row r="59" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="12"/>
       <c r="C59" s="32"/>
-      <c r="D59" s="54" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54" t="s">
+        <v>1367</v>
+      </c>
       <c r="F59" s="54" t="s">
-        <v>1174</v>
+        <v>454</v>
       </c>
       <c r="G59" s="54" t="s">
-        <v>50</v>
+        <v>1368</v>
       </c>
       <c r="H59" s="54" t="s">
-        <v>1228</v>
-      </c>
-      <c r="I59" s="54" t="s">
-        <v>338</v>
-      </c>
-      <c r="J59" s="54" t="s">
-        <v>1229</v>
-      </c>
+        <v>1369</v>
+      </c>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
       <c r="K59" s="54"/>
       <c r="L59" s="54"/>
       <c r="M59" s="54" t="s">
-        <v>368</v>
+        <v>1381</v>
       </c>
       <c r="N59" s="54"/>
       <c r="O59" s="54" t="s">
-        <v>368</v>
-      </c>
-      <c r="P59" s="54"/>
+        <v>1188</v>
+      </c>
+      <c r="P59" s="54" t="s">
+        <v>423</v>
+      </c>
       <c r="Q59" s="54" t="s">
-        <v>1230</v>
-      </c>
-      <c r="R59" s="54"/>
+        <v>1213</v>
+      </c>
+      <c r="R59" s="54" t="s">
+        <v>1203</v>
+      </c>
       <c r="V59" s="56"/>
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
       <c r="D60" s="60"/>
       <c r="E60" s="60" t="s">
-        <v>1632</v>
+        <v>1367</v>
       </c>
       <c r="F60" s="60" t="s">
-        <v>850</v>
+        <v>454</v>
       </c>
       <c r="G60" s="60" t="s">
-        <v>1633</v>
+        <v>1368</v>
       </c>
       <c r="H60" s="60" t="s">
-        <v>1634</v>
+        <v>1369</v>
       </c>
       <c r="I60" s="60"/>
       <c r="J60" s="60" t="s">
-        <v>1635</v>
+        <v>1370</v>
       </c>
       <c r="K60" s="60" t="s">
-        <v>1636</v>
+        <v>1371</v>
       </c>
       <c r="L60" s="60" t="s">
         <v>416</v>
       </c>
       <c r="M60" s="60" t="s">
-        <v>1458</v>
+        <v>1226</v>
       </c>
       <c r="N60" s="60"/>
       <c r="O60" s="60" t="s">
-        <v>597</v>
+        <v>336</v>
       </c>
       <c r="P60" s="60" t="s">
         <v>45</v>
       </c>
       <c r="Q60" s="60" t="s">
-        <v>786</v>
+        <v>423</v>
       </c>
       <c r="R60" s="60" t="s">
-        <v>1443</v>
+        <v>1227</v>
       </c>
       <c r="S60" s="18"/>
       <c r="V60" s="56"/>
@@ -11496,51 +10316,49 @@
         <v>15</v>
       </c>
       <c r="D61" s="61" t="s">
-        <v>1492</v>
+        <v>23</v>
       </c>
       <c r="E61" s="61" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
       <c r="F61" s="61" t="s">
-        <v>1306</v>
+        <v>255</v>
       </c>
       <c r="G61" s="61" t="s">
-        <v>1516</v>
+        <v>1298</v>
       </c>
       <c r="H61" s="61" t="s">
-        <v>1556</v>
+        <v>1299</v>
       </c>
       <c r="I61" s="61" t="s">
-        <v>1288</v>
+        <v>23</v>
       </c>
       <c r="J61" s="61" t="s">
-        <v>1287</v>
+        <v>1300</v>
       </c>
       <c r="K61" s="61" t="s">
-        <v>1557</v>
+        <v>1301</v>
       </c>
       <c r="L61" s="61" t="s">
-        <v>1558</v>
+        <v>1168</v>
       </c>
       <c r="M61" s="61" t="s">
-        <v>1318</v>
+        <v>1302</v>
       </c>
       <c r="N61" s="61" t="s">
-        <v>1293</v>
+        <v>30</v>
       </c>
       <c r="O61" s="61" t="s">
-        <v>1559</v>
+        <v>106</v>
       </c>
       <c r="P61" s="61" t="s">
-        <v>1290</v>
-      </c>
-      <c r="Q61" s="61" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
+        <v>93</v>
+      </c>
+      <c r="Q61" s="61" t="s">
+        <v>1303</v>
       </c>
       <c r="R61" s="61" t="s">
-        <v>1341</v>
+        <v>1180</v>
       </c>
       <c r="S61" s="20" t="str">
         <f>CHAR(10)</f>
@@ -11573,83 +10391,79 @@
       <c r="B63" s="12"/>
       <c r="C63" s="32"/>
       <c r="D63" s="54" t="s">
-        <v>1230</v>
-      </c>
-      <c r="E63" s="54" t="s">
-        <v>1231</v>
-      </c>
-      <c r="F63" s="54"/>
+        <v>1380</v>
+      </c>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54" t="s">
+        <v>1347</v>
+      </c>
       <c r="G63" s="54" t="s">
-        <v>1232</v>
+        <v>1372</v>
       </c>
       <c r="H63" s="54" t="s">
-        <v>1233</v>
+        <v>418</v>
       </c>
       <c r="I63" s="54" t="s">
-        <v>1234</v>
-      </c>
-      <c r="J63" s="54" t="s">
-        <v>399</v>
-      </c>
-      <c r="K63" s="54"/>
+        <v>1380</v>
+      </c>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54" t="s">
+        <v>337</v>
+      </c>
       <c r="L63" s="54" t="s">
-        <v>1235</v>
-      </c>
-      <c r="M63" s="54"/>
+        <v>338</v>
+      </c>
+      <c r="M63" s="54" t="s">
+        <v>421</v>
+      </c>
       <c r="N63" s="54" t="s">
-        <v>1236</v>
+        <v>359</v>
       </c>
       <c r="O63" s="54" t="s">
-        <v>363</v>
+        <v>1381</v>
       </c>
       <c r="P63" s="54"/>
-      <c r="Q63" s="54" t="s">
-        <v>1237</v>
-      </c>
-      <c r="R63" s="54" t="s">
-        <v>1238</v>
-      </c>
+      <c r="Q63" s="54"/>
+      <c r="R63" s="54"/>
       <c r="V63" s="56"/>
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
       <c r="D64" s="60" t="s">
-        <v>1590</v>
+        <v>1329</v>
       </c>
       <c r="E64" s="60"/>
       <c r="F64" s="60" t="s">
-        <v>1440</v>
+        <v>1222</v>
       </c>
       <c r="G64" s="60" t="s">
-        <v>1611</v>
+        <v>1347</v>
       </c>
       <c r="H64" s="60" t="s">
-        <v>1637</v>
+        <v>1372</v>
       </c>
       <c r="I64" s="60" t="s">
-        <v>770</v>
+        <v>418</v>
       </c>
       <c r="J64" s="60"/>
       <c r="K64" s="60" t="s">
         <v>318</v>
       </c>
       <c r="L64" s="60" t="s">
-        <v>599</v>
+        <v>337</v>
       </c>
       <c r="M64" s="60" t="s">
         <v>338</v>
       </c>
       <c r="N64" s="60" t="s">
-        <v>1446</v>
+        <v>1217</v>
       </c>
       <c r="O64" s="60" t="s">
-        <v>645</v>
+        <v>359</v>
       </c>
       <c r="P64" s="60"/>
       <c r="Q64" s="60"/>
-      <c r="R64" s="60" t="s">
-        <v>1420</v>
-      </c>
+      <c r="R64" s="60"/>
       <c r="S64" s="18"/>
       <c r="V64" s="56"/>
     </row>
@@ -11659,50 +10473,50 @@
         <v>16</v>
       </c>
       <c r="D65" s="61" t="s">
-        <v>1314</v>
+        <v>1248</v>
       </c>
       <c r="E65" s="61" t="s">
-        <v>1295</v>
+        <v>23</v>
       </c>
       <c r="F65" s="61" t="s">
-        <v>1320</v>
+        <v>168</v>
       </c>
       <c r="G65" s="61" t="s">
-        <v>1560</v>
+        <v>1271</v>
       </c>
       <c r="H65" s="61" t="s">
-        <v>1561</v>
+        <v>1304</v>
       </c>
       <c r="I65" s="61" t="s">
-        <v>1562</v>
+        <v>276</v>
       </c>
       <c r="J65" s="61" t="s">
-        <v>1563</v>
+        <v>23</v>
       </c>
       <c r="K65" s="61" t="s">
-        <v>1287</v>
+        <v>86</v>
       </c>
       <c r="L65" s="61" t="s">
-        <v>1564</v>
+        <v>107</v>
       </c>
       <c r="M65" s="61" t="s">
-        <v>1565</v>
+        <v>108</v>
       </c>
       <c r="N65" s="61" t="s">
-        <v>1287</v>
+        <v>210</v>
       </c>
       <c r="O65" s="61" t="s">
-        <v>1284</v>
+        <v>199</v>
       </c>
       <c r="P65" s="61" t="s">
-        <v>1566</v>
-      </c>
-      <c r="Q65" s="61" t="s">
-        <v>1567</v>
-      </c>
-      <c r="R65" s="61" t="s">
-        <v>1568</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="Q65" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="R65" s="61"/>
       <c r="S65" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -11733,83 +10547,87 @@
     <row r="67" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="12"/>
       <c r="C67" s="32"/>
-      <c r="D67" s="54"/>
+      <c r="D67" s="54" t="s">
+        <v>437</v>
+      </c>
       <c r="E67" s="54" t="s">
-        <v>396</v>
-      </c>
-      <c r="F67" s="54"/>
+        <v>422</v>
+      </c>
+      <c r="F67" s="54" t="s">
+        <v>1408</v>
+      </c>
       <c r="G67" s="54"/>
       <c r="H67" s="54" t="s">
-        <v>1239</v>
+        <v>1373</v>
       </c>
       <c r="I67" s="54" t="s">
-        <v>1240</v>
+        <v>1374</v>
       </c>
       <c r="J67" s="54" t="s">
-        <v>1241</v>
+        <v>1380</v>
       </c>
       <c r="K67" s="54"/>
       <c r="L67" s="54" t="s">
-        <v>1242</v>
+        <v>467</v>
       </c>
       <c r="M67" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="N67" s="54" t="s">
-        <v>428</v>
-      </c>
+        <v>1380</v>
+      </c>
+      <c r="N67" s="54"/>
       <c r="O67" s="54" t="s">
-        <v>326</v>
-      </c>
-      <c r="P67" s="54"/>
+        <v>1409</v>
+      </c>
+      <c r="P67" s="54" t="s">
+        <v>1375</v>
+      </c>
       <c r="Q67" s="54" t="s">
-        <v>1243</v>
+        <v>329</v>
       </c>
       <c r="R67" s="54" t="s">
-        <v>1199</v>
+        <v>1381</v>
       </c>
       <c r="V67" s="56"/>
     </row>
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
       <c r="D68" s="60" t="s">
-        <v>1441</v>
+        <v>1224</v>
       </c>
       <c r="E68" s="60" t="s">
-        <v>814</v>
+        <v>437</v>
       </c>
       <c r="F68" s="60" t="s">
         <v>422</v>
       </c>
       <c r="G68" s="60"/>
       <c r="H68" s="60" t="s">
-        <v>1469</v>
+        <v>1229</v>
       </c>
       <c r="I68" s="60" t="s">
-        <v>1638</v>
+        <v>1373</v>
       </c>
       <c r="J68" s="60" t="s">
-        <v>1639</v>
+        <v>1374</v>
       </c>
       <c r="K68" s="60"/>
       <c r="L68" s="60" t="s">
-        <v>786</v>
+        <v>423</v>
       </c>
       <c r="M68" s="60" t="s">
-        <v>876</v>
+        <v>467</v>
       </c>
       <c r="N68" s="60"/>
       <c r="O68" s="60" t="s">
-        <v>1392</v>
+        <v>1185</v>
       </c>
       <c r="P68" s="60" t="s">
-        <v>1444</v>
+        <v>1228</v>
       </c>
       <c r="Q68" s="60" t="s">
-        <v>1640</v>
+        <v>1375</v>
       </c>
       <c r="R68" s="60" t="s">
-        <v>577</v>
+        <v>329</v>
       </c>
       <c r="S68" s="18"/>
       <c r="V68" s="56"/>
@@ -11820,49 +10638,49 @@
         <v>17</v>
       </c>
       <c r="D69" s="61" t="s">
-        <v>1290</v>
+        <v>1174</v>
       </c>
       <c r="E69" s="61" t="s">
-        <v>1569</v>
+        <v>228</v>
       </c>
       <c r="F69" s="61" t="s">
-        <v>1293</v>
+        <v>212</v>
       </c>
       <c r="G69" s="61" t="s">
-        <v>1473</v>
+        <v>289</v>
       </c>
       <c r="H69" s="61" t="s">
-        <v>1320</v>
+        <v>1305</v>
       </c>
       <c r="I69" s="61" t="s">
-        <v>1287</v>
+        <v>1306</v>
       </c>
       <c r="J69" s="61" t="s">
-        <v>1570</v>
+        <v>77</v>
       </c>
       <c r="K69" s="61" t="s">
-        <v>1571</v>
+        <v>23</v>
       </c>
       <c r="L69" s="61" t="s">
-        <v>1328</v>
+        <v>1307</v>
       </c>
       <c r="M69" s="61" t="s">
-        <v>1474</v>
+        <v>270</v>
       </c>
       <c r="N69" s="61" t="s">
-        <v>1572</v>
+        <v>23</v>
       </c>
       <c r="O69" s="61" t="s">
-        <v>1287</v>
+        <v>1167</v>
       </c>
       <c r="P69" s="61" t="s">
-        <v>1573</v>
+        <v>1308</v>
       </c>
       <c r="Q69" s="61" t="s">
-        <v>1574</v>
+        <v>1309</v>
       </c>
       <c r="R69" s="61" t="s">
-        <v>1575</v>
+        <v>1310</v>
       </c>
       <c r="S69" s="20"/>
       <c r="V69" s="56"/>
@@ -11890,46 +10708,44 @@
     <row r="71" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="12"/>
       <c r="C71" s="32"/>
-      <c r="D71" s="54" t="s">
-        <v>1244</v>
-      </c>
+      <c r="D71" s="54"/>
       <c r="E71" s="54" t="s">
-        <v>1245</v>
-      </c>
-      <c r="F71" s="54"/>
+        <v>1410</v>
+      </c>
+      <c r="F71" s="54" t="s">
+        <v>1319</v>
+      </c>
       <c r="G71" s="54" t="s">
-        <v>1246</v>
+        <v>422</v>
       </c>
       <c r="H71" s="54" t="s">
-        <v>1247</v>
-      </c>
-      <c r="I71" s="54" t="s">
-        <v>469</v>
-      </c>
+        <v>1380</v>
+      </c>
+      <c r="I71" s="54"/>
       <c r="J71" s="54" t="s">
         <v>53</v>
       </c>
       <c r="K71" s="54" t="s">
-        <v>1178</v>
+        <v>468</v>
       </c>
       <c r="L71" s="54" t="s">
-        <v>338</v>
+        <v>1383</v>
       </c>
       <c r="M71" s="54" t="s">
-        <v>1213</v>
+        <v>62</v>
       </c>
       <c r="N71" s="54" t="s">
-        <v>1248</v>
+        <v>1380</v>
       </c>
       <c r="O71" s="54"/>
       <c r="P71" s="54" t="s">
-        <v>387</v>
+        <v>51</v>
       </c>
       <c r="Q71" s="54" t="s">
-        <v>336</v>
+        <v>470</v>
       </c>
       <c r="R71" s="54" t="s">
-        <v>1249</v>
+        <v>1380</v>
       </c>
       <c r="V71" s="56"/>
     </row>
@@ -11937,42 +10753,42 @@
       <c r="B72" s="17"/>
       <c r="D72" s="60"/>
       <c r="E72" s="60" t="s">
-        <v>1641</v>
+        <v>1376</v>
       </c>
       <c r="F72" s="60" t="s">
-        <v>1437</v>
+        <v>1217</v>
       </c>
       <c r="G72" s="60" t="s">
-        <v>1579</v>
+        <v>1319</v>
       </c>
       <c r="H72" s="60" t="s">
-        <v>782</v>
+        <v>422</v>
       </c>
       <c r="I72" s="60"/>
       <c r="J72" s="60" t="s">
-        <v>738</v>
+        <v>403</v>
       </c>
       <c r="K72" s="60" t="s">
-        <v>896</v>
+        <v>53</v>
       </c>
       <c r="L72" s="60" t="s">
-        <v>878</v>
+        <v>468</v>
       </c>
       <c r="M72" s="60" t="s">
-        <v>1580</v>
+        <v>1320</v>
       </c>
       <c r="N72" s="60" t="s">
-        <v>1642</v>
+        <v>1377</v>
       </c>
       <c r="O72" s="60"/>
       <c r="P72" s="60" t="s">
-        <v>533</v>
+        <v>311</v>
       </c>
       <c r="Q72" s="60" t="s">
-        <v>512</v>
+        <v>51</v>
       </c>
       <c r="R72" s="60" t="s">
-        <v>1643</v>
+        <v>1378</v>
       </c>
       <c r="S72" s="18"/>
       <c r="V72" s="56"/>
@@ -11983,51 +10799,49 @@
         <v>18</v>
       </c>
       <c r="D73" s="61" t="s">
-        <v>1287</v>
+        <v>30</v>
       </c>
       <c r="E73" s="61" t="s">
-        <v>1573</v>
+        <v>1311</v>
       </c>
       <c r="F73" s="61" t="s">
-        <v>1576</v>
+        <v>210</v>
       </c>
       <c r="G73" s="61" t="s">
-        <v>1577</v>
+        <v>1231</v>
       </c>
       <c r="H73" s="61" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I73" s="61" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
+        <v>212</v>
+      </c>
+      <c r="I73" s="61" t="s">
+        <v>23</v>
       </c>
       <c r="J73" s="61" t="s">
-        <v>1289</v>
+        <v>1312</v>
       </c>
       <c r="K73" s="61" t="s">
-        <v>1299</v>
+        <v>1313</v>
       </c>
       <c r="L73" s="61" t="s">
-        <v>1318</v>
+        <v>272</v>
       </c>
       <c r="M73" s="61" t="s">
-        <v>1326</v>
+        <v>1232</v>
       </c>
       <c r="N73" s="61" t="s">
-        <v>1348</v>
+        <v>1314</v>
       </c>
       <c r="O73" s="61" t="s">
-        <v>1287</v>
+        <v>23</v>
       </c>
       <c r="P73" s="61" t="s">
-        <v>1306</v>
+        <v>288</v>
       </c>
       <c r="Q73" s="61" t="s">
-        <v>1297</v>
+        <v>1315</v>
       </c>
       <c r="R73" s="61" t="s">
-        <v>1349</v>
+        <v>275</v>
       </c>
       <c r="S73" s="20"/>
       <c r="V73" s="56"/>
@@ -12057,82 +10871,48 @@
       <c r="C75" s="32"/>
       <c r="D75" s="54"/>
       <c r="E75" s="54" t="s">
-        <v>1170</v>
-      </c>
-      <c r="F75" s="54" t="s">
-        <v>1250</v>
-      </c>
-      <c r="G75" s="54"/>
-      <c r="H75" s="54" t="s">
-        <v>1251</v>
-      </c>
-      <c r="I75" s="54" t="s">
-        <v>416</v>
-      </c>
-      <c r="J75" s="54" t="s">
-        <v>1252</v>
-      </c>
-      <c r="K75" s="54" t="s">
-        <v>336</v>
-      </c>
+        <v>1379</v>
+      </c>
+      <c r="F75" s="54"/>
+      <c r="G75" s="54" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H75" s="54"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="54"/>
+      <c r="K75" s="54"/>
       <c r="L75" s="54"/>
-      <c r="M75" s="54" t="s">
-        <v>359</v>
-      </c>
-      <c r="N75" s="54" t="s">
-        <v>316</v>
-      </c>
+      <c r="M75" s="54"/>
+      <c r="N75" s="54"/>
       <c r="O75" s="54"/>
-      <c r="P75" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q75" s="54" t="s">
-        <v>1237</v>
-      </c>
-      <c r="R75" s="54" t="s">
-        <v>1238</v>
-      </c>
+      <c r="P75" s="54"/>
+      <c r="Q75" s="54"/>
+      <c r="R75" s="54"/>
       <c r="V75" s="56"/>
     </row>
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
       <c r="D76" s="60"/>
       <c r="E76" s="60" t="s">
-        <v>533</v>
+        <v>311</v>
       </c>
       <c r="F76" s="60" t="s">
-        <v>1644</v>
+        <v>1379</v>
       </c>
       <c r="G76" s="60" t="s">
         <v>345</v>
       </c>
       <c r="H76" s="60"/>
       <c r="I76" s="60"/>
-      <c r="J76" s="60" t="s">
-        <v>1462</v>
-      </c>
-      <c r="K76" s="60" t="s">
-        <v>1448</v>
-      </c>
-      <c r="L76" s="60" t="s">
-        <v>631</v>
-      </c>
-      <c r="M76" s="60" t="s">
-        <v>645</v>
-      </c>
-      <c r="N76" s="60" t="s">
-        <v>569</v>
-      </c>
+      <c r="J76" s="60"/>
+      <c r="K76" s="60"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="60"/>
+      <c r="N76" s="60"/>
       <c r="O76" s="60"/>
-      <c r="P76" s="60" t="s">
-        <v>1446</v>
-      </c>
-      <c r="Q76" s="60" t="s">
-        <v>1461</v>
-      </c>
-      <c r="R76" s="60" t="s">
-        <v>1420</v>
-      </c>
+      <c r="P76" s="60"/>
+      <c r="Q76" s="60"/>
+      <c r="R76" s="60"/>
       <c r="S76" s="18"/>
       <c r="V76" s="56"/>
     </row>
@@ -12142,50 +10922,34 @@
         <v>19</v>
       </c>
       <c r="D77" s="61" t="s">
-        <v>1391</v>
+        <v>23</v>
       </c>
       <c r="E77" s="61" t="s">
-        <v>1285</v>
+        <v>288</v>
       </c>
       <c r="F77" s="61" t="s">
-        <v>1350</v>
+        <v>1316</v>
       </c>
       <c r="G77" s="61" t="s">
-        <v>1290</v>
+        <v>1317</v>
       </c>
       <c r="H77" s="61" t="s">
-        <v>1351</v>
-      </c>
-      <c r="I77" s="61" t="s">
-        <v>1351</v>
-      </c>
-      <c r="J77" s="61" t="s">
-        <v>1352</v>
-      </c>
-      <c r="K77" s="61" t="s">
-        <v>1297</v>
-      </c>
-      <c r="L77" s="61" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M77" s="61" t="s">
-        <v>1354</v>
-      </c>
-      <c r="N77" s="61" t="s">
-        <v>1355</v>
-      </c>
-      <c r="O77" s="61" t="s">
-        <v>1287</v>
-      </c>
-      <c r="P77" s="61" t="s">
-        <v>1293</v>
-      </c>
-      <c r="Q77" s="61" t="s">
-        <v>1342</v>
-      </c>
-      <c r="R77" s="61" t="s">
-        <v>1343</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I77" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="J77" s="61"/>
+      <c r="K77" s="61"/>
+      <c r="L77" s="61"/>
+      <c r="M77" s="61"/>
+      <c r="N77" s="61"/>
+      <c r="O77" s="61"/>
+      <c r="P77" s="61"/>
+      <c r="Q77" s="61"/>
+      <c r="R77" s="61"/>
       <c r="S77" s="20"/>
       <c r="V77" s="56"/>
     </row>
@@ -12212,92 +10976,40 @@
     <row r="79" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="12"/>
       <c r="C79" s="32"/>
-      <c r="D79" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="E79" s="54" t="s">
-        <v>355</v>
-      </c>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
       <c r="F79" s="54"/>
-      <c r="G79" s="54" t="s">
-        <v>463</v>
-      </c>
-      <c r="H79" s="54" t="s">
-        <v>463</v>
-      </c>
-      <c r="I79" s="54" t="s">
-        <v>1252</v>
-      </c>
-      <c r="J79" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="K79" s="54" t="s">
-        <v>1253</v>
-      </c>
-      <c r="L79" s="54" t="s">
-        <v>1254</v>
-      </c>
-      <c r="M79" s="54" t="s">
-        <v>422</v>
-      </c>
-      <c r="N79" s="54" t="s">
-        <v>437</v>
-      </c>
+      <c r="G79" s="54"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="54"/>
+      <c r="J79" s="54"/>
+      <c r="K79" s="54"/>
+      <c r="L79" s="54"/>
+      <c r="M79" s="54"/>
+      <c r="N79" s="54"/>
       <c r="O79" s="54"/>
-      <c r="P79" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q79" s="54" t="s">
-        <v>387</v>
-      </c>
-      <c r="R79" s="54" t="s">
-        <v>469</v>
-      </c>
+      <c r="P79" s="54"/>
+      <c r="Q79" s="54"/>
+      <c r="R79" s="54"/>
       <c r="V79" s="56"/>
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
-      <c r="D80" s="60" t="s">
-        <v>567</v>
-      </c>
-      <c r="E80" s="60" t="s">
-        <v>637</v>
-      </c>
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
       <c r="F80" s="60"/>
-      <c r="G80" s="60" t="s">
-        <v>1463</v>
-      </c>
-      <c r="H80" s="60" t="s">
-        <v>1463</v>
-      </c>
-      <c r="I80" s="60" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J80" s="60" t="s">
-        <v>1448</v>
-      </c>
-      <c r="K80" s="60" t="s">
-        <v>1425</v>
-      </c>
-      <c r="L80" s="60" t="s">
-        <v>1426</v>
-      </c>
-      <c r="M80" s="60" t="s">
-        <v>782</v>
-      </c>
-      <c r="N80" s="60" t="s">
-        <v>814</v>
-      </c>
+      <c r="G80" s="60"/>
+      <c r="H80" s="60"/>
+      <c r="I80" s="60"/>
+      <c r="J80" s="60"/>
+      <c r="K80" s="60"/>
+      <c r="L80" s="60"/>
+      <c r="M80" s="60"/>
+      <c r="N80" s="60"/>
       <c r="O80" s="60"/>
-      <c r="P80" s="60" t="s">
-        <v>1446</v>
-      </c>
-      <c r="Q80" s="60" t="s">
-        <v>1451</v>
-      </c>
-      <c r="R80" s="60" t="s">
-        <v>882</v>
-      </c>
+      <c r="P80" s="60"/>
+      <c r="Q80" s="60"/>
+      <c r="R80" s="60"/>
       <c r="S80" s="18"/>
       <c r="V80" s="56"/>
     </row>
@@ -12307,50 +11019,22 @@
         <v>20</v>
       </c>
       <c r="D81" s="61" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E81" s="61" t="s">
-        <v>1356</v>
-      </c>
-      <c r="F81" s="61" t="s">
-        <v>1287</v>
-      </c>
-      <c r="G81" s="61" t="s">
-        <v>1357</v>
-      </c>
-      <c r="H81" s="61" t="s">
-        <v>1357</v>
-      </c>
-      <c r="I81" s="61" t="s">
-        <v>1352</v>
-      </c>
-      <c r="J81" s="61" t="s">
-        <v>1297</v>
-      </c>
-      <c r="K81" s="61" t="s">
-        <v>1358</v>
-      </c>
-      <c r="L81" s="61" t="s">
-        <v>1359</v>
-      </c>
-      <c r="M81" s="61" t="s">
-        <v>1320</v>
-      </c>
-      <c r="N81" s="61" t="s">
-        <v>1360</v>
-      </c>
-      <c r="O81" s="61" t="s">
-        <v>1287</v>
-      </c>
-      <c r="P81" s="61" t="s">
-        <v>1293</v>
-      </c>
-      <c r="Q81" s="61" t="s">
-        <v>1306</v>
-      </c>
-      <c r="R81" s="61" t="s">
-        <v>1324</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E81" s="61"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="61"/>
+      <c r="K81" s="61"/>
+      <c r="L81" s="61"/>
+      <c r="M81" s="61"/>
+      <c r="N81" s="61"/>
+      <c r="O81" s="61"/>
+      <c r="P81" s="61"/>
+      <c r="Q81" s="61"/>
+      <c r="R81" s="61"/>
       <c r="S81" s="20"/>
       <c r="V81" s="56"/>
     </row>
@@ -12377,86 +11061,40 @@
     <row r="83" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="12"/>
       <c r="C83" s="32"/>
-      <c r="D83" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="E83" s="54" t="s">
-        <v>1202</v>
-      </c>
-      <c r="F83" s="54" t="s">
-        <v>1181</v>
-      </c>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="54"/>
       <c r="G83" s="54"/>
-      <c r="H83" s="54" t="s">
-        <v>1255</v>
-      </c>
+      <c r="H83" s="54"/>
       <c r="I83" s="54"/>
-      <c r="J83" s="54" t="s">
-        <v>419</v>
-      </c>
-      <c r="K83" s="54" t="s">
-        <v>1256</v>
-      </c>
+      <c r="J83" s="54"/>
+      <c r="K83" s="54"/>
       <c r="L83" s="54"/>
-      <c r="M83" s="54" t="s">
-        <v>1257</v>
-      </c>
-      <c r="N83" s="54" t="s">
-        <v>368</v>
-      </c>
-      <c r="O83" s="54" t="s">
-        <v>1258</v>
-      </c>
-      <c r="P83" s="54" t="s">
-        <v>1193</v>
-      </c>
+      <c r="M83" s="54"/>
+      <c r="N83" s="54"/>
+      <c r="O83" s="54"/>
+      <c r="P83" s="54"/>
       <c r="Q83" s="54"/>
-      <c r="R83" s="54" t="s">
-        <v>387</v>
-      </c>
+      <c r="R83" s="54"/>
       <c r="V83" s="34"/>
     </row>
     <row r="84" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="17"/>
-      <c r="D84" s="60" t="s">
-        <v>567</v>
-      </c>
-      <c r="E84" s="60" t="s">
-        <v>1404</v>
-      </c>
-      <c r="F84" s="60" t="s">
-        <v>1398</v>
-      </c>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
       <c r="G84" s="60"/>
-      <c r="H84" s="60" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I84" s="60" t="s">
-        <v>1414</v>
-      </c>
-      <c r="J84" s="60" t="s">
-        <v>1465</v>
-      </c>
-      <c r="K84" s="60" t="s">
-        <v>1427</v>
-      </c>
+      <c r="H84" s="60"/>
+      <c r="I84" s="60"/>
+      <c r="J84" s="60"/>
+      <c r="K84" s="60"/>
       <c r="L84" s="60"/>
-      <c r="M84" s="60" t="s">
-        <v>1428</v>
-      </c>
-      <c r="N84" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="O84" s="60" t="s">
-        <v>1466</v>
-      </c>
-      <c r="P84" s="60" t="s">
-        <v>1403</v>
-      </c>
+      <c r="M84" s="60"/>
+      <c r="N84" s="60"/>
+      <c r="O84" s="60"/>
+      <c r="P84" s="60"/>
       <c r="Q84" s="60"/>
-      <c r="R84" s="60" t="s">
-        <v>1451</v>
-      </c>
+      <c r="R84" s="60"/>
       <c r="S84" s="18"/>
       <c r="V84" s="7"/>
     </row>
@@ -12465,51 +11103,21 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="61" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E85" s="61" t="s">
-        <v>1312</v>
-      </c>
-      <c r="F85" s="61" t="s">
-        <v>1301</v>
-      </c>
-      <c r="G85" s="61" t="s">
-        <v>1290</v>
-      </c>
-      <c r="H85" s="61" t="s">
-        <v>1361</v>
-      </c>
-      <c r="I85" s="61" t="s">
-        <v>1362</v>
-      </c>
-      <c r="J85" s="61" t="s">
-        <v>1363</v>
-      </c>
-      <c r="K85" s="61" t="s">
-        <v>1364</v>
-      </c>
-      <c r="L85" s="61" t="s">
-        <v>1287</v>
-      </c>
-      <c r="M85" s="61" t="s">
-        <v>1365</v>
-      </c>
-      <c r="N85" s="61" t="s">
-        <v>1339</v>
-      </c>
-      <c r="O85" s="61" t="s">
-        <v>1366</v>
-      </c>
-      <c r="P85" s="61" t="s">
-        <v>1309</v>
-      </c>
-      <c r="Q85" s="61" t="s">
-        <v>1287</v>
-      </c>
-      <c r="R85" s="61" t="s">
-        <v>1306</v>
-      </c>
+      <c r="D85" s="61"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="61"/>
+      <c r="J85" s="61"/>
+      <c r="K85" s="61"/>
+      <c r="L85" s="61"/>
+      <c r="M85" s="61"/>
+      <c r="N85" s="61"/>
+      <c r="O85" s="61"/>
+      <c r="P85" s="61"/>
+      <c r="Q85" s="61"/>
+      <c r="R85" s="61"/>
       <c r="S85" s="20"/>
       <c r="V85" s="7"/>
     </row>
@@ -12536,87 +11144,39 @@
     <row r="87" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B87" s="12"/>
       <c r="C87" s="32"/>
-      <c r="D87" s="54" t="s">
-        <v>469</v>
-      </c>
-      <c r="E87" s="54" t="s">
-        <v>395</v>
-      </c>
-      <c r="F87" s="54" t="s">
-        <v>338</v>
-      </c>
-      <c r="G87" s="54" t="s">
-        <v>1179</v>
-      </c>
+      <c r="D87" s="54"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="54"/>
       <c r="H87" s="54"/>
-      <c r="I87" s="54" t="s">
-        <v>1259</v>
-      </c>
-      <c r="J87" s="54" t="s">
-        <v>368</v>
-      </c>
-      <c r="K87" s="54" t="s">
-        <v>405</v>
-      </c>
-      <c r="L87" s="54" t="s">
-        <v>1280</v>
-      </c>
+      <c r="I87" s="54"/>
+      <c r="J87" s="54"/>
+      <c r="K87" s="54"/>
+      <c r="L87" s="54"/>
       <c r="M87" s="54"/>
-      <c r="N87" s="54" t="s">
-        <v>1260</v>
-      </c>
-      <c r="O87" s="54" t="s">
-        <v>1187</v>
-      </c>
-      <c r="P87" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q87" s="54" t="s">
-        <v>49</v>
-      </c>
+      <c r="N87" s="54"/>
+      <c r="O87" s="54"/>
+      <c r="P87" s="54"/>
+      <c r="Q87" s="54"/>
       <c r="R87" s="54"/>
       <c r="V87" s="34"/>
     </row>
     <row r="88" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="17"/>
-      <c r="D88" s="60" t="s">
-        <v>882</v>
-      </c>
-      <c r="E88" s="60" t="s">
-        <v>1447</v>
-      </c>
-      <c r="F88" s="60" t="s">
-        <v>601</v>
-      </c>
-      <c r="G88" s="60" t="s">
-        <v>1397</v>
-      </c>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="60"/>
+      <c r="G88" s="60"/>
       <c r="H88" s="60"/>
-      <c r="I88" s="60" t="s">
-        <v>1467</v>
-      </c>
-      <c r="J88" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K88" s="60" t="s">
-        <v>742</v>
-      </c>
-      <c r="L88" s="60" t="s">
-        <v>1430</v>
-      </c>
+      <c r="I88" s="60"/>
+      <c r="J88" s="60"/>
+      <c r="K88" s="60"/>
+      <c r="L88" s="60"/>
       <c r="M88" s="60"/>
-      <c r="N88" s="60" t="s">
-        <v>1431</v>
-      </c>
-      <c r="O88" s="60" t="s">
-        <v>1400</v>
-      </c>
-      <c r="P88" s="60" t="s">
-        <v>1446</v>
-      </c>
-      <c r="Q88" s="60" t="s">
-        <v>784</v>
-      </c>
+      <c r="N88" s="60"/>
+      <c r="O88" s="60"/>
+      <c r="P88" s="60"/>
+      <c r="Q88" s="60"/>
       <c r="R88" s="60"/>
       <c r="S88" s="18"/>
       <c r="V88" s="7"/>
@@ -12626,51 +11186,21 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="61" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E89" s="61" t="s">
-        <v>1296</v>
-      </c>
-      <c r="F89" s="61" t="s">
-        <v>1318</v>
-      </c>
-      <c r="G89" s="61" t="s">
-        <v>1300</v>
-      </c>
-      <c r="H89" s="61" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I89" s="61" t="s">
-        <v>1367</v>
-      </c>
-      <c r="J89" s="61" t="s">
-        <v>1339</v>
-      </c>
-      <c r="K89" s="61" t="s">
-        <v>1368</v>
-      </c>
-      <c r="L89" s="61" t="s">
-        <v>1369</v>
-      </c>
-      <c r="M89" s="61" t="s">
-        <v>1287</v>
-      </c>
-      <c r="N89" s="61" t="s">
-        <v>1283</v>
-      </c>
-      <c r="O89" s="61" t="s">
-        <v>1305</v>
-      </c>
-      <c r="P89" s="61" t="s">
-        <v>1293</v>
-      </c>
-      <c r="Q89" s="61" t="s">
-        <v>1370</v>
-      </c>
-      <c r="R89" s="61" t="s">
-        <v>1287</v>
-      </c>
+      <c r="D89" s="61"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="61"/>
+      <c r="G89" s="61"/>
+      <c r="H89" s="61"/>
+      <c r="I89" s="61"/>
+      <c r="J89" s="61"/>
+      <c r="K89" s="61"/>
+      <c r="L89" s="61"/>
+      <c r="M89" s="61"/>
+      <c r="N89" s="61"/>
+      <c r="O89" s="61"/>
+      <c r="P89" s="61"/>
+      <c r="Q89" s="61"/>
+      <c r="R89" s="61"/>
       <c r="S89" s="20"/>
       <c r="V89" s="7"/>
     </row>
@@ -12697,92 +11227,40 @@
     <row r="91" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B91" s="12"/>
       <c r="C91" s="32"/>
-      <c r="D91" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="E91" s="54" t="s">
-        <v>1186</v>
-      </c>
-      <c r="F91" s="54" t="s">
-        <v>1202</v>
-      </c>
-      <c r="G91" s="54" t="s">
-        <v>1261</v>
-      </c>
+      <c r="D91" s="54"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="54"/>
       <c r="H91" s="54"/>
-      <c r="I91" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="J91" s="54" t="s">
-        <v>1262</v>
-      </c>
-      <c r="K91" s="54" t="s">
-        <v>387</v>
-      </c>
-      <c r="L91" s="54" t="s">
-        <v>1263</v>
-      </c>
-      <c r="M91" s="54" t="s">
-        <v>483</v>
-      </c>
+      <c r="I91" s="54"/>
+      <c r="J91" s="54"/>
+      <c r="K91" s="54"/>
+      <c r="L91" s="54"/>
+      <c r="M91" s="54"/>
       <c r="N91" s="54"/>
-      <c r="O91" s="54" t="s">
-        <v>1264</v>
-      </c>
-      <c r="P91" s="54" t="s">
-        <v>1265</v>
-      </c>
-      <c r="Q91" s="54" t="s">
-        <v>353</v>
-      </c>
-      <c r="R91" s="54" t="s">
-        <v>1280</v>
-      </c>
+      <c r="O91" s="54"/>
+      <c r="P91" s="54"/>
+      <c r="Q91" s="54"/>
+      <c r="R91" s="54"/>
       <c r="V91" s="34"/>
     </row>
     <row r="92" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="17"/>
-      <c r="D92" s="60" t="s">
-        <v>784</v>
-      </c>
-      <c r="E92" s="60" t="s">
-        <v>1399</v>
-      </c>
-      <c r="F92" s="60" t="s">
-        <v>1404</v>
-      </c>
-      <c r="G92" s="60" t="s">
-        <v>1472</v>
-      </c>
+      <c r="D92" s="60"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="60"/>
+      <c r="G92" s="60"/>
       <c r="H92" s="60"/>
-      <c r="I92" s="60" t="s">
-        <v>1446</v>
-      </c>
-      <c r="J92" s="60" t="s">
-        <v>1432</v>
-      </c>
-      <c r="K92" s="60" t="s">
-        <v>1451</v>
-      </c>
-      <c r="L92" s="60" t="s">
-        <v>1433</v>
-      </c>
-      <c r="M92" s="60" t="s">
-        <v>916</v>
-      </c>
+      <c r="I92" s="60"/>
+      <c r="J92" s="60"/>
+      <c r="K92" s="60"/>
+      <c r="L92" s="60"/>
+      <c r="M92" s="60"/>
       <c r="N92" s="60"/>
-      <c r="O92" s="60" t="s">
-        <v>846</v>
-      </c>
-      <c r="P92" s="60" t="s">
-        <v>1468</v>
-      </c>
-      <c r="Q92" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="R92" s="60" t="s">
-        <v>1430</v>
-      </c>
+      <c r="O92" s="60"/>
+      <c r="P92" s="60"/>
+      <c r="Q92" s="60"/>
+      <c r="R92" s="60"/>
       <c r="S92" s="18"/>
       <c r="V92" s="7"/>
     </row>
@@ -12791,51 +11269,21 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="61" t="s">
-        <v>1370</v>
-      </c>
-      <c r="E93" s="61" t="s">
-        <v>1304</v>
-      </c>
-      <c r="F93" s="61" t="s">
-        <v>1312</v>
-      </c>
-      <c r="G93" s="61" t="s">
-        <v>1371</v>
-      </c>
-      <c r="H93" s="61" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I93" s="61" t="s">
-        <v>1293</v>
-      </c>
-      <c r="J93" s="61" t="s">
-        <v>1372</v>
-      </c>
-      <c r="K93" s="61" t="s">
-        <v>1306</v>
-      </c>
-      <c r="L93" s="61" t="s">
-        <v>1373</v>
-      </c>
-      <c r="M93" s="61" t="s">
-        <v>1317</v>
-      </c>
-      <c r="N93" s="61" t="s">
-        <v>1290</v>
-      </c>
-      <c r="O93" s="61" t="s">
-        <v>1374</v>
-      </c>
-      <c r="P93" s="61" t="s">
-        <v>1375</v>
-      </c>
-      <c r="Q93" s="61" t="s">
-        <v>1376</v>
-      </c>
-      <c r="R93" s="61" t="s">
-        <v>1377</v>
-      </c>
+      <c r="D93" s="61"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="61"/>
+      <c r="G93" s="61"/>
+      <c r="H93" s="61"/>
+      <c r="I93" s="61"/>
+      <c r="J93" s="61"/>
+      <c r="K93" s="61"/>
+      <c r="L93" s="61"/>
+      <c r="M93" s="61"/>
+      <c r="N93" s="61"/>
+      <c r="O93" s="61"/>
+      <c r="P93" s="61"/>
+      <c r="Q93" s="61"/>
+      <c r="R93" s="61"/>
       <c r="S93" s="20"/>
       <c r="V93" s="7"/>
     </row>
@@ -12863,91 +11311,39 @@
       <c r="B95" s="12"/>
       <c r="C95" s="32"/>
       <c r="D95" s="54"/>
-      <c r="E95" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="F95" s="54" t="s">
-        <v>360</v>
-      </c>
-      <c r="G95" s="54" t="s">
-        <v>1266</v>
-      </c>
-      <c r="H95" s="54" t="s">
-        <v>312</v>
-      </c>
-      <c r="I95" s="54" t="s">
-        <v>1281</v>
-      </c>
+      <c r="E95" s="54"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="54"/>
       <c r="J95" s="54"/>
-      <c r="K95" s="54" t="s">
-        <v>1246</v>
-      </c>
-      <c r="L95" s="54" t="s">
-        <v>1247</v>
-      </c>
-      <c r="M95" s="54" t="s">
-        <v>469</v>
-      </c>
-      <c r="N95" s="54" t="s">
-        <v>482</v>
-      </c>
-      <c r="O95" s="54" t="s">
-        <v>1267</v>
-      </c>
-      <c r="P95" s="54" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q95" s="54" t="s">
-        <v>1210</v>
-      </c>
-      <c r="R95" s="54" t="s">
-        <v>1211</v>
-      </c>
+      <c r="K95" s="54"/>
+      <c r="L95" s="54"/>
+      <c r="M95" s="54"/>
+      <c r="N95" s="54"/>
+      <c r="O95" s="54"/>
+      <c r="P95" s="54"/>
+      <c r="Q95" s="54"/>
+      <c r="R95" s="54"/>
       <c r="V95" s="34"/>
     </row>
     <row r="96" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="17"/>
       <c r="D96" s="60"/>
-      <c r="E96" s="60" t="s">
-        <v>1448</v>
-      </c>
-      <c r="F96" s="60" t="s">
-        <v>647</v>
-      </c>
-      <c r="G96" s="60" t="s">
-        <v>1434</v>
-      </c>
-      <c r="H96" s="60" t="s">
-        <v>535</v>
-      </c>
-      <c r="I96" s="60" t="s">
-        <v>1435</v>
-      </c>
+      <c r="E96" s="60"/>
+      <c r="F96" s="60"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="60"/>
       <c r="J96" s="60"/>
-      <c r="K96" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L96" s="60" t="s">
-        <v>1423</v>
-      </c>
-      <c r="M96" s="60" t="s">
-        <v>882</v>
-      </c>
-      <c r="N96" s="60" t="s">
-        <v>1469</v>
-      </c>
-      <c r="O96" s="60" t="s">
-        <v>1470</v>
-      </c>
-      <c r="P96" s="60" t="s">
-        <v>601</v>
-      </c>
-      <c r="Q96" s="60" t="s">
-        <v>1407</v>
-      </c>
-      <c r="R96" s="60" t="s">
-        <v>1456</v>
-      </c>
+      <c r="K96" s="60"/>
+      <c r="L96" s="60"/>
+      <c r="M96" s="60"/>
+      <c r="N96" s="60"/>
+      <c r="O96" s="60"/>
+      <c r="P96" s="60"/>
+      <c r="Q96" s="60"/>
+      <c r="R96" s="60"/>
       <c r="S96" s="18"/>
       <c r="V96" s="7"/>
     </row>
@@ -12956,51 +11352,21 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="61" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E97" s="61" t="s">
-        <v>1297</v>
-      </c>
-      <c r="F97" s="61" t="s">
-        <v>1378</v>
-      </c>
-      <c r="G97" s="61" t="s">
-        <v>1379</v>
-      </c>
-      <c r="H97" s="61" t="s">
-        <v>1380</v>
-      </c>
-      <c r="I97" s="61" t="s">
-        <v>1381</v>
-      </c>
-      <c r="J97" s="61" t="s">
-        <v>1290</v>
-      </c>
-      <c r="K97" s="61" t="s">
-        <v>1339</v>
-      </c>
-      <c r="L97" s="61" t="s">
-        <v>1347</v>
-      </c>
-      <c r="M97" s="61" t="s">
-        <v>1324</v>
-      </c>
-      <c r="N97" s="61" t="s">
-        <v>1382</v>
-      </c>
-      <c r="O97" s="61" t="s">
-        <v>1383</v>
-      </c>
-      <c r="P97" s="61" t="s">
-        <v>1318</v>
-      </c>
-      <c r="Q97" s="61" t="s">
-        <v>1322</v>
-      </c>
-      <c r="R97" s="61" t="s">
-        <v>1323</v>
-      </c>
+      <c r="D97" s="61"/>
+      <c r="E97" s="61"/>
+      <c r="F97" s="61"/>
+      <c r="G97" s="61"/>
+      <c r="H97" s="61"/>
+      <c r="I97" s="61"/>
+      <c r="J97" s="61"/>
+      <c r="K97" s="61"/>
+      <c r="L97" s="61"/>
+      <c r="M97" s="61"/>
+      <c r="N97" s="61"/>
+      <c r="O97" s="61"/>
+      <c r="P97" s="61"/>
+      <c r="Q97" s="61"/>
+      <c r="R97" s="61"/>
       <c r="S97" s="20"/>
       <c r="V97" s="7"/>
     </row>
@@ -13027,87 +11393,39 @@
     <row r="99" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B99" s="12"/>
       <c r="C99" s="32"/>
-      <c r="D99" s="54" t="s">
-        <v>437</v>
-      </c>
+      <c r="D99" s="54"/>
       <c r="E99" s="54"/>
-      <c r="F99" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="G99" s="54" t="s">
-        <v>455</v>
-      </c>
-      <c r="H99" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="I99" s="54" t="s">
-        <v>1252</v>
-      </c>
-      <c r="J99" s="54" t="s">
-        <v>1211</v>
-      </c>
+      <c r="F99" s="54"/>
+      <c r="G99" s="54"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="54"/>
+      <c r="J99" s="54"/>
       <c r="K99" s="54"/>
-      <c r="L99" s="54" t="s">
-        <v>1268</v>
-      </c>
-      <c r="M99" s="54" t="s">
-        <v>1170</v>
-      </c>
-      <c r="N99" s="54" t="s">
-        <v>338</v>
-      </c>
-      <c r="O99" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="P99" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q99" s="54" t="s">
-        <v>49</v>
-      </c>
+      <c r="L99" s="54"/>
+      <c r="M99" s="54"/>
+      <c r="N99" s="54"/>
+      <c r="O99" s="54"/>
+      <c r="P99" s="54"/>
+      <c r="Q99" s="54"/>
       <c r="R99" s="54"/>
       <c r="V99" s="34"/>
     </row>
     <row r="100" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B100" s="17"/>
-      <c r="D100" s="60" t="s">
-        <v>814</v>
-      </c>
+      <c r="D100" s="60"/>
       <c r="E100" s="60"/>
-      <c r="F100" s="60" t="s">
-        <v>814</v>
-      </c>
-      <c r="G100" s="60" t="s">
-        <v>585</v>
-      </c>
-      <c r="H100" s="60" t="s">
-        <v>896</v>
-      </c>
-      <c r="I100" s="60" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J100" s="60" t="s">
-        <v>1456</v>
-      </c>
+      <c r="F100" s="60"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="60"/>
+      <c r="J100" s="60"/>
       <c r="K100" s="60"/>
-      <c r="L100" s="60" t="s">
-        <v>1471</v>
-      </c>
-      <c r="M100" s="60" t="s">
-        <v>1393</v>
-      </c>
-      <c r="N100" s="60" t="s">
-        <v>601</v>
-      </c>
-      <c r="O100" s="60" t="s">
-        <v>595</v>
-      </c>
-      <c r="P100" s="60" t="s">
-        <v>597</v>
-      </c>
-      <c r="Q100" s="60" t="s">
-        <v>784</v>
-      </c>
+      <c r="L100" s="60"/>
+      <c r="M100" s="60"/>
+      <c r="N100" s="60"/>
+      <c r="O100" s="60"/>
+      <c r="P100" s="60"/>
+      <c r="Q100" s="60"/>
       <c r="R100" s="60"/>
       <c r="S100" s="18"/>
       <c r="V100" s="7"/>
@@ -13117,51 +11435,21 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="61" t="s">
-        <v>1295</v>
-      </c>
-      <c r="E101" s="61" t="s">
-        <v>1287</v>
-      </c>
-      <c r="F101" s="61" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G101" s="61" t="s">
-        <v>1384</v>
-      </c>
-      <c r="H101" s="61" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I101" s="61" t="s">
-        <v>1352</v>
-      </c>
-      <c r="J101" s="61" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K101" s="61" t="s">
-        <v>1290</v>
-      </c>
-      <c r="L101" s="61" t="s">
-        <v>1385</v>
-      </c>
-      <c r="M101" s="61" t="s">
-        <v>1285</v>
-      </c>
-      <c r="N101" s="61" t="s">
-        <v>1318</v>
-      </c>
-      <c r="O101" s="61" t="s">
-        <v>1386</v>
-      </c>
-      <c r="P101" s="61" t="s">
-        <v>1311</v>
-      </c>
-      <c r="Q101" s="61" t="s">
-        <v>1387</v>
-      </c>
-      <c r="R101" s="61" t="s">
-        <v>1290</v>
-      </c>
+      <c r="D101" s="61"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="61"/>
+      <c r="I101" s="61"/>
+      <c r="J101" s="61"/>
+      <c r="K101" s="61"/>
+      <c r="L101" s="61"/>
+      <c r="M101" s="61"/>
+      <c r="N101" s="61"/>
+      <c r="O101" s="61"/>
+      <c r="P101" s="61"/>
+      <c r="Q101" s="61"/>
+      <c r="R101" s="61"/>
       <c r="S101" s="20"/>
       <c r="V101" s="7"/>
     </row>
@@ -13188,28 +11476,14 @@
     <row r="103" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B103" s="12"/>
       <c r="C103" s="32"/>
-      <c r="D103" s="54" t="s">
-        <v>1269</v>
-      </c>
-      <c r="E103" s="54" t="s">
-        <v>60</v>
-      </c>
+      <c r="D103" s="54"/>
+      <c r="E103" s="54"/>
       <c r="F103" s="54"/>
-      <c r="G103" s="54" t="s">
-        <v>1270</v>
-      </c>
-      <c r="H103" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="I103" s="54" t="s">
-        <v>1243</v>
-      </c>
-      <c r="J103" s="54" t="s">
-        <v>1271</v>
-      </c>
-      <c r="K103" s="54" t="s">
-        <v>364</v>
-      </c>
+      <c r="G103" s="54"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="54"/>
+      <c r="J103" s="54"/>
+      <c r="K103" s="54"/>
       <c r="L103" s="54"/>
       <c r="M103" s="54"/>
       <c r="N103" s="54"/>
@@ -13221,28 +11495,14 @@
     </row>
     <row r="104" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="17"/>
-      <c r="D104" s="60" t="s">
-        <v>896</v>
-      </c>
-      <c r="E104" s="60" t="s">
-        <v>547</v>
-      </c>
+      <c r="D104" s="60"/>
+      <c r="E104" s="60"/>
       <c r="F104" s="60"/>
-      <c r="G104" s="60" t="s">
-        <v>1436</v>
-      </c>
-      <c r="H104" s="60" t="s">
-        <v>543</v>
-      </c>
-      <c r="I104" s="60" t="s">
-        <v>1421</v>
-      </c>
-      <c r="J104" s="60" t="s">
-        <v>1409</v>
-      </c>
-      <c r="K104" s="60" t="s">
-        <v>1445</v>
-      </c>
+      <c r="G104" s="60"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="60"/>
+      <c r="J104" s="60"/>
+      <c r="K104" s="60"/>
       <c r="L104" s="60"/>
       <c r="M104" s="60"/>
       <c r="N104" s="60"/>
@@ -13258,38 +11518,16 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="61" t="s">
-        <v>1289</v>
-      </c>
-      <c r="E105" s="61" t="s">
-        <v>1388</v>
-      </c>
-      <c r="F105" s="61" t="s">
-        <v>1287</v>
-      </c>
-      <c r="G105" s="61" t="s">
-        <v>1389</v>
-      </c>
-      <c r="H105" s="61" t="s">
-        <v>1390</v>
-      </c>
-      <c r="I105" s="61" t="s">
-        <v>1345</v>
-      </c>
-      <c r="J105" s="61" t="s">
-        <v>1327</v>
-      </c>
-      <c r="K105" s="61" t="s">
-        <v>1292</v>
-      </c>
-      <c r="L105" s="61" t="s">
-        <v>1290</v>
-      </c>
-      <c r="M105" s="61" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D105" s="61"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="61"/>
+      <c r="I105" s="61"/>
+      <c r="J105" s="61"/>
+      <c r="K105" s="61"/>
+      <c r="L105" s="61"/>
+      <c r="M105" s="61"/>
       <c r="N105" s="61"/>
       <c r="O105" s="61"/>
       <c r="P105" s="61"/>
@@ -13363,9 +11601,7 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="61" t="s">
-        <v>1391</v>
-      </c>
+      <c r="D109" s="61"/>
       <c r="E109" s="61"/>
       <c r="F109" s="61"/>
       <c r="G109" s="61"/>

--- a/output7/【河洛白話注音-閩拼調號】《None》.xlsx
+++ b/output7/【河洛白話注音-閩拼調號】《None》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{552F4B71-7FDD-4242-9873-CE8395BCE689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41426DAB-A6BC-4A19-A8F1-736C4393F2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3091" uniqueCount="1431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="1616">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4506,30 +4506,167 @@
     <t>tiu5</t>
   </si>
   <si>
+    <t>pinn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zio1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khuan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uann3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Giân</t>
+  </si>
+  <si>
+    <t>buē</t>
+  </si>
+  <si>
+    <t>sim2</t>
+  </si>
+  <si>
+    <t>sim2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tháu</t>
+  </si>
+  <si>
+    <t>Hi̍k</t>
+  </si>
+  <si>
+    <t>lim1</t>
+  </si>
+  <si>
+    <t>lim1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tiap</t>
+  </si>
+  <si>
+    <t>Hat</t>
+  </si>
+  <si>
+    <t>Tan</t>
+  </si>
+  <si>
+    <t>luí</t>
+  </si>
+  <si>
+    <t>Tù</t>
+  </si>
+  <si>
+    <t>tsiunn</t>
+  </si>
+  <si>
+    <t>khâm</t>
+  </si>
+  <si>
+    <t>î</t>
+  </si>
+  <si>
+    <t>hòonn</t>
+  </si>
+  <si>
+    <t>honnh</t>
+  </si>
+  <si>
+    <t>ia6</t>
+  </si>
+  <si>
+    <t>siong2</t>
+  </si>
+  <si>
+    <t>pinn1</t>
+  </si>
+  <si>
+    <t>gian5</t>
+  </si>
+  <si>
+    <t>bue7</t>
+  </si>
+  <si>
+    <t>bue7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pin5</t>
+  </si>
+  <si>
+    <t>siong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bni1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ggian2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbue6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tao3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>(37, 5)</t>
   </si>
   <si>
-    <t>(5, 6); (5, 14); (13, 8); (13, 17); (21, 9); (29, 14); (33, 10); (49, 15); (53, 7)</t>
-  </si>
-  <si>
     <t>(5, 7); (21, 16)</t>
   </si>
   <si>
     <t>(5, 8)</t>
   </si>
   <si>
-    <t>(5, 9)</t>
-  </si>
-  <si>
     <t>(5, 10); (57, 4)</t>
   </si>
   <si>
     <t>(5, 11); (37, 12)</t>
   </si>
   <si>
-    <t>(5, 15)</t>
-  </si>
-  <si>
     <t>(5, 16); (21, 17); (53, 15); (57, 16)</t>
   </si>
   <si>
@@ -4539,9 +4676,6 @@
     <t>(9, 5)</t>
   </si>
   <si>
-    <t>(9, 6)</t>
-  </si>
-  <si>
     <t>(9, 7); (17, 8); (49, 11)</t>
   </si>
   <si>
@@ -4557,9 +4691,6 @@
     <t>(9, 13); (41, 16); (57, 14)</t>
   </si>
   <si>
-    <t>(13, 6); (49, 12); (53, 16)</t>
-  </si>
-  <si>
     <t>(13, 9)</t>
   </si>
   <si>
@@ -4569,9 +4700,6 @@
     <t>(13, 14)</t>
   </si>
   <si>
-    <t>(17, 4)</t>
-  </si>
-  <si>
     <t>(17, 7)</t>
   </si>
   <si>
@@ -4602,9 +4730,6 @@
     <t>(21, 7)</t>
   </si>
   <si>
-    <t>(21, 8); (53, 4)</t>
-  </si>
-  <si>
     <t>(21, 10)</t>
   </si>
   <si>
@@ -4617,39 +4742,24 @@
     <t>(21, 14)</t>
   </si>
   <si>
-    <t>(21, 15)</t>
-  </si>
-  <si>
     <t>(21, 18); (37, 11)</t>
   </si>
   <si>
     <t>(25, 4); (41, 17)</t>
   </si>
   <si>
-    <t>(25, 6)</t>
-  </si>
-  <si>
     <t>(25, 7)</t>
   </si>
   <si>
     <t>(25, 9); (29, 10)</t>
   </si>
   <si>
-    <t>(25, 10)</t>
-  </si>
-  <si>
     <t>(25, 11); (49, 9); (57, 5); (61, 7); (61, 14)</t>
   </si>
   <si>
     <t>(25, 13)</t>
   </si>
   <si>
-    <t>(25, 14)</t>
-  </si>
-  <si>
-    <t>(25, 15)</t>
-  </si>
-  <si>
     <t>(25, 16)</t>
   </si>
   <si>
@@ -4668,9 +4778,6 @@
     <t>(29, 8)</t>
   </si>
   <si>
-    <t>(29, 11)</t>
-  </si>
-  <si>
     <t>(29, 15)</t>
   </si>
   <si>
@@ -4680,9 +4787,6 @@
     <t>(29, 17)</t>
   </si>
   <si>
-    <t>(33, 5)</t>
-  </si>
-  <si>
     <t>(33, 6)</t>
   </si>
   <si>
@@ -4701,24 +4805,12 @@
     <t>(33, 17)</t>
   </si>
   <si>
-    <t>(37, 10)</t>
-  </si>
-  <si>
-    <t>(37, 15)</t>
-  </si>
-  <si>
     <t>(37, 16)</t>
   </si>
   <si>
-    <t>(37, 17)</t>
-  </si>
-  <si>
     <t>(37, 18); (41, 18)</t>
   </si>
   <si>
-    <t>(41, 4)</t>
-  </si>
-  <si>
     <t>(41, 6)</t>
   </si>
   <si>
@@ -4737,18 +4829,9 @@
     <t>(49, 4)</t>
   </si>
   <si>
-    <t>(49, 7)</t>
-  </si>
-  <si>
-    <t>(49, 8)</t>
-  </si>
-  <si>
     <t>(49, 16); (49, 17)</t>
   </si>
   <si>
-    <t>(49, 18); (53, 10)</t>
-  </si>
-  <si>
     <t>(53, 5)</t>
   </si>
   <si>
@@ -4770,9 +4853,6 @@
     <t>(57, 6)</t>
   </si>
   <si>
-    <t>(57, 7)</t>
-  </si>
-  <si>
     <t>(57, 9)</t>
   </si>
   <si>
@@ -4797,17 +4877,537 @@
     <t>(61, 8); (61, 15)</t>
   </si>
   <si>
-    <t>(61, 9); (61, 16)</t>
-  </si>
-  <si>
     <t>(61, 12)</t>
+  </si>
+  <si>
+    <t>hat4</t>
+  </si>
+  <si>
+    <t>hat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hat7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tan1</t>
+  </si>
+  <si>
+    <t>tan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khua2</t>
+  </si>
+  <si>
+    <t>khua2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zio1</t>
+  </si>
+  <si>
+    <t>the3</t>
+  </si>
+  <si>
+    <t>khuan5</t>
+  </si>
+  <si>
+    <t>khang1</t>
+  </si>
+  <si>
+    <t>uann3</t>
+  </si>
+  <si>
+    <t>loo5</t>
+  </si>
+  <si>
+    <t>tiap4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lui2</t>
+  </si>
+  <si>
+    <t>lui2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tu3</t>
+  </si>
+  <si>
+    <t>tu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziunn1</t>
+  </si>
+  <si>
+    <t>ziunn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kham5</t>
+  </si>
+  <si>
+    <t>kham5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoonn3</t>
+  </si>
+  <si>
+    <t>hoonn3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>honnh4</t>
+  </si>
+  <si>
+    <t>honnh4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kua3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gu6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diap7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lui3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nua5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>du5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zniu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ggnoo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hnoo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hnoh7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5, 5); (5, 5); (5, 5)</t>
+  </si>
+  <si>
+    <t>(5, 9); (5, 9); (5, 9)</t>
+  </si>
+  <si>
+    <t>(5, 15); (5, 15); (5, 15)</t>
+  </si>
+  <si>
+    <t>(9, 6); (9, 6); (9, 6)</t>
+  </si>
+  <si>
+    <t>(13, 6); (49, 12); (53, 16); (13, 6); (49, 12); (53, 16); (13, 6); (49, 12); (53, 16)</t>
+  </si>
+  <si>
+    <t>(17, 4); (17, 4); (17, 4)</t>
+  </si>
+  <si>
+    <t>(17, 5); (17, 5); (17, 5)</t>
+  </si>
+  <si>
+    <t>(21, 8); (53, 4); (21, 8); (53, 4); (21, 8); (53, 4)</t>
+  </si>
+  <si>
+    <t>(21, 15); (21, 15); (21, 15)</t>
+  </si>
+  <si>
+    <t>(25, 6); (25, 6); (25, 6)</t>
+  </si>
+  <si>
+    <t>(25, 10); (25, 10); (25, 10)</t>
+  </si>
+  <si>
+    <t>(25, 14); (25, 14); (25, 14)</t>
+  </si>
+  <si>
+    <t>(25, 15); (25, 15); (25, 15)</t>
+  </si>
+  <si>
+    <t>(29, 11); (29, 11); (29, 11)</t>
+  </si>
+  <si>
+    <t>(33, 5); (33, 5); (33, 5)</t>
+  </si>
+  <si>
+    <t>(37, 7); (37, 7); (37, 7)</t>
+  </si>
+  <si>
+    <t>(37, 8); (37, 8); (37, 8)</t>
+  </si>
+  <si>
+    <t>(37, 10); (37, 10); (37, 10)</t>
+  </si>
+  <si>
+    <t>(37, 15); (37, 15); (37, 15)</t>
+  </si>
+  <si>
+    <t>(37, 17); (37, 17); (37, 17)</t>
+  </si>
+  <si>
+    <t>(41, 4); (41, 4); (41, 4)</t>
+  </si>
+  <si>
+    <t>(49, 7); (49, 7); (49, 7)</t>
+  </si>
+  <si>
+    <t>(49, 8); (49, 8); (49, 8)</t>
+  </si>
+  <si>
+    <t>(49, 18); (53, 10); (49, 18); (53, 10); (49, 18); (53, 10)</t>
+  </si>
+  <si>
+    <t>(57, 7); (57, 7); (57, 7)</t>
+  </si>
+  <si>
+    <t>(61, 9); (61, 16); (61, 9); (61, 16); (61, 9); (61, 16)</t>
+  </si>
+  <si>
+    <t>(33, 16); (33, 16); (33, 16); (33, 16); (33, 16)</t>
+  </si>
+  <si>
+    <t>(37, 5); (37, 5); (37, 5); (37, 5); (37, 5)</t>
+  </si>
+  <si>
+    <t>(5, 5); (5, 5); (5, 5); (5, 5)</t>
+  </si>
+  <si>
+    <t>(5, 6); (5, 14); (13, 8); (13, 17); (21, 9); (29, 14); (33, 10); (49, 15); (53, 7); (13, 17); (21, 9); (29, 14); (33, 10); (49, 15); (53, 7); (13, 17); (21, 9); (29, 14); (33, 10); (49, 15); (53, 7); (13, 17); (21, 9); (29, 14); (33, 10); (49, 15); (53, 7)</t>
+  </si>
+  <si>
+    <t>(5, 9); (5, 9); (5, 9); (5, 9)</t>
+  </si>
+  <si>
+    <t>(5, 15); (5, 15); (5, 15); (5, 15)</t>
+  </si>
+  <si>
+    <t>(9, 6); (9, 6); (9, 6); (9, 6)</t>
+  </si>
+  <si>
+    <t>(13, 6); (49, 12); (53, 16); (13, 6); (49, 12); (53, 16); (13, 6); (49, 12); (53, 16); (13, 6); (49, 12); (53, 16)</t>
+  </si>
+  <si>
+    <t>(17, 4); (17, 4); (17, 4); (17, 4)</t>
+  </si>
+  <si>
+    <t>(17, 5); (17, 5); (17, 5); (17, 5)</t>
+  </si>
+  <si>
+    <t>(21, 8); (53, 4); (21, 8); (53, 4); (21, 8); (53, 4); (21, 8); (53, 4)</t>
+  </si>
+  <si>
+    <t>(21, 15); (21, 15); (21, 15); (21, 15)</t>
+  </si>
+  <si>
+    <t>(25, 6); (25, 6); (25, 6); (25, 6)</t>
+  </si>
+  <si>
+    <t>(25, 10); (25, 10); (25, 10); (25, 10)</t>
+  </si>
+  <si>
+    <t>(25, 14); (25, 14); (25, 14); (25, 14)</t>
+  </si>
+  <si>
+    <t>(25, 15); (25, 15); (25, 15); (25, 15)</t>
+  </si>
+  <si>
+    <t>(29, 11); (29, 11); (29, 11); (29, 11)</t>
+  </si>
+  <si>
+    <t>(33, 5); (33, 5); (33, 5); (33, 5)</t>
+  </si>
+  <si>
+    <t>(37, 7); (37, 7); (37, 7); (37, 7)</t>
+  </si>
+  <si>
+    <t>(37, 8); (37, 8); (37, 8); (37, 8)</t>
+  </si>
+  <si>
+    <t>(37, 10); (37, 10); (37, 10); (37, 10)</t>
+  </si>
+  <si>
+    <t>(37, 15); (37, 15); (37, 15); (37, 15)</t>
+  </si>
+  <si>
+    <t>(37, 17); (37, 17); (37, 17); (37, 17)</t>
+  </si>
+  <si>
+    <t>(41, 4); (41, 4); (41, 4); (41, 4)</t>
+  </si>
+  <si>
+    <t>(49, 7); (49, 7); (49, 7); (49, 7)</t>
+  </si>
+  <si>
+    <t>(49, 8); (49, 8); (49, 8); (49, 8)</t>
+  </si>
+  <si>
+    <t>(49, 18); (53, 10); (49, 18); (53, 10); (49, 18); (53, 10); (49, 18); (53, 10)</t>
+  </si>
+  <si>
+    <t>(57, 7); (57, 7); (57, 7); (57, 7)</t>
+  </si>
+  <si>
+    <t>(61, 9); (61, 16); (61, 9); (61, 16); (61, 9); (61, 16); (61, 9); (61, 16)</t>
+  </si>
+  <si>
+    <t>(33, 16); (33, 16); (33, 16); (33, 16); (33, 16); (33, 16)</t>
+  </si>
+  <si>
+    <t>(37, 5); (37, 5); (37, 5); (37, 5); (37, 5); (37, 5)</t>
+  </si>
+  <si>
+    <t>(13, 17); (21, 9); (29, 14); (33, 10); (49, 15); (53, 7); (13, 17); (21, 9); (29, 14); (33, 10); (49, 15); (53, 7); (13, 17); (21, 9); (29, 14); (33, 10); (49, 15); (53, 7)</t>
+  </si>
+  <si>
+    <t>lang2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>gi2</t>
+  </si>
+  <si>
+    <t>sne5</t>
+  </si>
+  <si>
+    <t>zzi6</t>
+  </si>
+  <si>
+    <t>teh8</t>
+  </si>
+  <si>
+    <t>u6</t>
+  </si>
+  <si>
+    <t>ggoo6</t>
+  </si>
+  <si>
+    <t>liu3</t>
+  </si>
+  <si>
+    <t>ciu6</t>
+  </si>
+  <si>
+    <t>ui6</t>
+  </si>
+  <si>
+    <t>ho6</t>
+  </si>
+  <si>
+    <t>han2</t>
+  </si>
+  <si>
+    <t>zing6</t>
+  </si>
+  <si>
+    <t>zio3</t>
+  </si>
+  <si>
+    <t>bboo6</t>
+  </si>
+  <si>
+    <t>li6</t>
+  </si>
+  <si>
+    <t>ho3</t>
+  </si>
+  <si>
+    <t>giu2</t>
+  </si>
+  <si>
+    <t>bbnui3</t>
+  </si>
+  <si>
+    <t>e6</t>
+  </si>
+  <si>
+    <t>bian6</t>
+  </si>
+  <si>
+    <t>lian2</t>
+  </si>
+  <si>
+    <t>bbong6</t>
+  </si>
+  <si>
+    <t>sing5</t>
+  </si>
+  <si>
+    <t>si6</t>
+  </si>
+  <si>
+    <t>ziu3</t>
+  </si>
+  <si>
+    <t>ga1</t>
+  </si>
+  <si>
+    <t>ling2</t>
+  </si>
+  <si>
+    <t>dit7</t>
+  </si>
+  <si>
+    <t>zzu2</t>
+  </si>
+  <si>
+    <t>cu3</t>
+  </si>
+  <si>
+    <t>di5</t>
+  </si>
+  <si>
+    <t>zo6</t>
+  </si>
+  <si>
+    <t>zin6</t>
+  </si>
+  <si>
+    <t>di6</t>
+  </si>
+  <si>
+    <t>bit7</t>
+  </si>
+  <si>
+    <t>zui5</t>
+  </si>
+  <si>
+    <t>gi5</t>
+  </si>
+  <si>
+    <t>bbat7</t>
+  </si>
+  <si>
+    <t>lin6</t>
+  </si>
+  <si>
+    <t>zing2</t>
+  </si>
+  <si>
+    <t>lao2</t>
+  </si>
+  <si>
+    <t>doo3</t>
+  </si>
+  <si>
+    <t>be5</t>
+  </si>
+  <si>
+    <t>de3</t>
+  </si>
+  <si>
+    <t>cng5</t>
+  </si>
+  <si>
+    <t>gat7</t>
+  </si>
+  <si>
+    <t>pio2</t>
+  </si>
+  <si>
+    <t>bbun2</t>
+  </si>
+  <si>
+    <t>zu6</t>
+  </si>
+  <si>
+    <t>poo3</t>
+  </si>
+  <si>
+    <t>gi6</t>
+  </si>
+  <si>
+    <t>zi5</t>
+  </si>
+  <si>
+    <t>huai2</t>
+  </si>
+  <si>
+    <t>sit7</t>
+  </si>
+  <si>
+    <t>zan5</t>
+  </si>
+  <si>
+    <t>cik7</t>
+  </si>
+  <si>
+    <t>zian6</t>
+  </si>
+  <si>
+    <t>gip7</t>
+  </si>
+  <si>
+    <t>hu5</t>
+  </si>
+  <si>
+    <t>gui5</t>
+  </si>
+  <si>
+    <t>lna6</t>
+  </si>
+  <si>
+    <t>diu2</t>
+  </si>
+  <si>
+    <t>ham2</t>
+  </si>
+  <si>
+    <t>bbo2</t>
+  </si>
+  <si>
+    <t>bbin2</t>
+  </si>
+  <si>
+    <t>tni1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5099,13 +5699,21 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="吳守禮細明台語注音"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
       <sz val="24"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5133,6 +5741,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5214,7 +5828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5401,7 +6015,7 @@
     <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -5420,6 +6034,9 @@
     <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -5428,7 +6045,55 @@
     <cellStyle name="超連結" xfId="4" builtinId="8"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{35CF4CF4-6C05-4C83-A404-416353358D27}"/>
   </cellStyles>
-  <dxfs count="184">
+  <dxfs count="188">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -8170,9 +8835,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B488D2-974A-4258-A65A-BFA5ADEC87E9}">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
@@ -8215,16 +8880,16 @@
         <v>1205</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>1209</v>
       </c>
       <c r="D3" t="s">
-        <v>499</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>919</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8232,16 +8897,16 @@
         <v>168</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>1196</v>
       </c>
       <c r="D4" t="s">
-        <v>499</v>
+        <v>1363</v>
       </c>
       <c r="E4" t="s">
-        <v>1333</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8258,7 +8923,7 @@
         <v>499</v>
       </c>
       <c r="E5" t="s">
-        <v>1334</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8275,7 +8940,7 @@
         <v>499</v>
       </c>
       <c r="E6" t="s">
-        <v>1335</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8283,16 +8948,16 @@
         <v>1203</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>396</v>
       </c>
       <c r="D7" t="s">
-        <v>499</v>
+        <v>1456</v>
       </c>
       <c r="E7" t="s">
-        <v>1336</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -8309,7 +8974,7 @@
         <v>499</v>
       </c>
       <c r="E8" t="s">
-        <v>1337</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8326,7 +8991,7 @@
         <v>499</v>
       </c>
       <c r="E9" t="s">
-        <v>1338</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8351,16 +9016,16 @@
         <v>1212</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>434</v>
       </c>
       <c r="D11" t="s">
-        <v>499</v>
+        <v>465</v>
       </c>
       <c r="E11" t="s">
-        <v>1339</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8377,7 +9042,7 @@
         <v>499</v>
       </c>
       <c r="E12" t="s">
-        <v>1340</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -8411,7 +9076,7 @@
         <v>499</v>
       </c>
       <c r="E14" t="s">
-        <v>1341</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8428,7 +9093,7 @@
         <v>499</v>
       </c>
       <c r="E15" t="s">
-        <v>1342</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8436,16 +9101,16 @@
         <v>1216</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
         <v>1284</v>
       </c>
       <c r="D16" t="s">
-        <v>499</v>
+        <v>1361</v>
       </c>
       <c r="E16" t="s">
-        <v>1343</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8462,7 +9127,7 @@
         <v>499</v>
       </c>
       <c r="E17" t="s">
-        <v>1344</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8496,7 +9161,7 @@
         <v>499</v>
       </c>
       <c r="E19" t="s">
-        <v>1345</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8513,7 +9178,7 @@
         <v>499</v>
       </c>
       <c r="E20" t="s">
-        <v>1346</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8530,7 +9195,7 @@
         <v>499</v>
       </c>
       <c r="E21" t="s">
-        <v>1347</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -8547,7 +9212,7 @@
         <v>499</v>
       </c>
       <c r="E22" t="s">
-        <v>1348</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -8657,16 +9322,16 @@
         <v>1222</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
         <v>1200</v>
       </c>
       <c r="D29" t="s">
-        <v>499</v>
+        <v>1362</v>
       </c>
       <c r="E29" t="s">
-        <v>1349</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -8683,7 +9348,7 @@
         <v>499</v>
       </c>
       <c r="E30" t="s">
-        <v>1350</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -8717,7 +9382,7 @@
         <v>499</v>
       </c>
       <c r="E32" t="s">
-        <v>1351</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -8751,7 +9416,7 @@
         <v>499</v>
       </c>
       <c r="E34" t="s">
-        <v>1352</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -8793,16 +9458,16 @@
         <v>1229</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
         <v>1294</v>
       </c>
       <c r="D37" t="s">
-        <v>499</v>
+        <v>1343</v>
       </c>
       <c r="E37" t="s">
-        <v>1353</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -8810,16 +9475,16 @@
         <v>1230</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
         <v>1295</v>
       </c>
       <c r="D38" t="s">
-        <v>499</v>
+        <v>1295</v>
       </c>
       <c r="E38" t="s">
-        <v>955</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -8836,7 +9501,7 @@
         <v>499</v>
       </c>
       <c r="E39" t="s">
-        <v>1354</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -8853,7 +9518,7 @@
         <v>499</v>
       </c>
       <c r="E40" t="s">
-        <v>1355</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -8870,7 +9535,7 @@
         <v>499</v>
       </c>
       <c r="E41" t="s">
-        <v>1356</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -8887,7 +9552,7 @@
         <v>499</v>
       </c>
       <c r="E42" t="s">
-        <v>1357</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -8921,7 +9586,7 @@
         <v>499</v>
       </c>
       <c r="E44" t="s">
-        <v>1358</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -8938,7 +9603,7 @@
         <v>499</v>
       </c>
       <c r="E45" t="s">
-        <v>1359</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -8972,7 +9637,7 @@
         <v>499</v>
       </c>
       <c r="E47" t="s">
-        <v>1360</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -8989,7 +9654,7 @@
         <v>499</v>
       </c>
       <c r="E48" t="s">
-        <v>1361</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -9006,7 +9671,7 @@
         <v>499</v>
       </c>
       <c r="E49" t="s">
-        <v>1362</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -9023,7 +9688,7 @@
         <v>499</v>
       </c>
       <c r="E50" t="s">
-        <v>1363</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -9031,16 +9696,16 @@
         <v>1238</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>1302</v>
       </c>
       <c r="D51" t="s">
-        <v>499</v>
+        <v>1366</v>
       </c>
       <c r="E51" t="s">
-        <v>1364</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -9057,7 +9722,7 @@
         <v>499</v>
       </c>
       <c r="E52" t="s">
-        <v>1365</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -9074,7 +9739,7 @@
         <v>499</v>
       </c>
       <c r="E53" t="s">
-        <v>1366</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -9091,7 +9756,7 @@
         <v>499</v>
       </c>
       <c r="E54" t="s">
-        <v>1367</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -9108,7 +9773,7 @@
         <v>499</v>
       </c>
       <c r="E55" t="s">
-        <v>1368</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -9116,16 +9781,16 @@
         <v>94</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
         <v>1304</v>
       </c>
       <c r="D56" t="s">
-        <v>499</v>
+        <v>325</v>
       </c>
       <c r="E56" t="s">
-        <v>1369</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -9142,7 +9807,7 @@
         <v>499</v>
       </c>
       <c r="E57" t="s">
-        <v>1370</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -9159,7 +9824,7 @@
         <v>499</v>
       </c>
       <c r="E58" t="s">
-        <v>1371</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -9167,16 +9832,16 @@
         <v>236</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C59" t="s">
         <v>1305</v>
       </c>
       <c r="D59" t="s">
-        <v>499</v>
+        <v>442</v>
       </c>
       <c r="E59" t="s">
-        <v>1372</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -9193,7 +9858,7 @@
         <v>499</v>
       </c>
       <c r="E60" t="s">
-        <v>1373</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -9210,7 +9875,7 @@
         <v>499</v>
       </c>
       <c r="E61" t="s">
-        <v>1374</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -9218,16 +9883,16 @@
         <v>1243</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
         <v>1307</v>
       </c>
       <c r="D62" t="s">
-        <v>499</v>
+        <v>1458</v>
       </c>
       <c r="E62" t="s">
-        <v>1375</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -9244,7 +9909,7 @@
         <v>499</v>
       </c>
       <c r="E63" t="s">
-        <v>1376</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -9261,7 +9926,7 @@
         <v>499</v>
       </c>
       <c r="E64" t="s">
-        <v>1377</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -9269,16 +9934,16 @@
         <v>1244</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
         <v>1308</v>
       </c>
       <c r="D65" t="s">
-        <v>499</v>
+        <v>1347</v>
       </c>
       <c r="E65" t="s">
-        <v>1378</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -9286,16 +9951,16 @@
         <v>1245</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
         <v>1309</v>
       </c>
       <c r="D66" t="s">
-        <v>499</v>
+        <v>1309</v>
       </c>
       <c r="E66" t="s">
-        <v>1379</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -9312,7 +9977,7 @@
         <v>499</v>
       </c>
       <c r="E67" t="s">
-        <v>1380</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -9329,7 +9994,7 @@
         <v>499</v>
       </c>
       <c r="E68" t="s">
-        <v>1381</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -9346,7 +10011,7 @@
         <v>499</v>
       </c>
       <c r="E69" t="s">
-        <v>1382</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -9363,7 +10028,7 @@
         <v>499</v>
       </c>
       <c r="E70" t="s">
-        <v>1383</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -9380,7 +10045,7 @@
         <v>499</v>
       </c>
       <c r="E71" t="s">
-        <v>1384</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -9397,7 +10062,7 @@
         <v>499</v>
       </c>
       <c r="E72" t="s">
-        <v>1385</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -9405,16 +10070,16 @@
         <v>284</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
         <v>476</v>
       </c>
       <c r="D73" t="s">
-        <v>499</v>
+        <v>1459</v>
       </c>
       <c r="E73" t="s">
-        <v>1386</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -9448,7 +10113,7 @@
         <v>499</v>
       </c>
       <c r="E75" t="s">
-        <v>1387</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -9465,7 +10130,7 @@
         <v>499</v>
       </c>
       <c r="E76" t="s">
-        <v>1388</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -9482,7 +10147,7 @@
         <v>499</v>
       </c>
       <c r="E77" t="s">
-        <v>1389</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -9507,16 +10172,16 @@
         <v>1201</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C79" t="s">
         <v>1184</v>
       </c>
       <c r="D79" t="s">
-        <v>499</v>
+        <v>1460</v>
       </c>
       <c r="E79" t="s">
-        <v>1390</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -9533,7 +10198,7 @@
         <v>499</v>
       </c>
       <c r="E80" t="s">
-        <v>1391</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -9567,7 +10232,7 @@
         <v>499</v>
       </c>
       <c r="E82" t="s">
-        <v>1392</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -9584,7 +10249,7 @@
         <v>499</v>
       </c>
       <c r="E83" t="s">
-        <v>1393</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -9601,7 +10266,7 @@
         <v>499</v>
       </c>
       <c r="E84" t="s">
-        <v>1394</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -9618,7 +10283,7 @@
         <v>499</v>
       </c>
       <c r="E85" t="s">
-        <v>1395</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -9635,7 +10300,7 @@
         <v>499</v>
       </c>
       <c r="E86" t="s">
-        <v>1396</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -9677,16 +10342,16 @@
         <v>1260</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C89" t="s">
         <v>1318</v>
       </c>
       <c r="D89" t="s">
-        <v>499</v>
+        <v>1465</v>
       </c>
       <c r="E89" t="s">
-        <v>501</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -9694,16 +10359,16 @@
         <v>176</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C90" t="s">
         <v>394</v>
       </c>
       <c r="D90" t="s">
-        <v>499</v>
+        <v>1461</v>
       </c>
       <c r="E90" t="s">
-        <v>987</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -9711,16 +10376,16 @@
         <v>1261</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C91" t="s">
         <v>439</v>
       </c>
       <c r="D91" t="s">
-        <v>499</v>
+        <v>1462</v>
       </c>
       <c r="E91" t="s">
-        <v>1397</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -9728,16 +10393,16 @@
         <v>1262</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C92" t="s">
         <v>1319</v>
       </c>
       <c r="D92" t="s">
-        <v>499</v>
+        <v>1467</v>
       </c>
       <c r="E92" t="s">
-        <v>1398</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -9754,7 +10419,7 @@
         <v>499</v>
       </c>
       <c r="E93" t="s">
-        <v>1399</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -9762,16 +10427,16 @@
         <v>1263</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C94" t="s">
         <v>1320</v>
       </c>
       <c r="D94" t="s">
-        <v>499</v>
+        <v>1469</v>
       </c>
       <c r="E94" t="s">
-        <v>1400</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -9788,7 +10453,7 @@
         <v>499</v>
       </c>
       <c r="E95" t="s">
-        <v>1401</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -9796,16 +10461,16 @@
         <v>1264</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C96" t="s">
         <v>448</v>
       </c>
       <c r="D96" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="E96" t="s">
-        <v>1402</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -9822,7 +10487,7 @@
         <v>499</v>
       </c>
       <c r="E97" t="s">
-        <v>1403</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -9856,7 +10521,7 @@
         <v>499</v>
       </c>
       <c r="E99" t="s">
-        <v>1404</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -9873,7 +10538,7 @@
         <v>499</v>
       </c>
       <c r="E100" t="s">
-        <v>1405</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -9890,7 +10555,7 @@
         <v>499</v>
       </c>
       <c r="E101" t="s">
-        <v>1406</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -9924,7 +10589,7 @@
         <v>499</v>
       </c>
       <c r="E103" t="s">
-        <v>1407</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -9941,7 +10606,7 @@
         <v>499</v>
       </c>
       <c r="E104" t="s">
-        <v>1408</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -9966,16 +10631,16 @@
         <v>1270</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C106" t="s">
         <v>1325</v>
       </c>
       <c r="D106" t="s">
-        <v>499</v>
+        <v>1471</v>
       </c>
       <c r="E106" t="s">
-        <v>1409</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -9983,16 +10648,16 @@
         <v>1271</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C107" t="s">
         <v>1326</v>
       </c>
       <c r="D107" t="s">
-        <v>499</v>
+        <v>1463</v>
       </c>
       <c r="E107" t="s">
-        <v>1410</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -10026,7 +10691,7 @@
         <v>499</v>
       </c>
       <c r="E109" t="s">
-        <v>1411</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -10034,16 +10699,16 @@
         <v>102</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>333</v>
       </c>
       <c r="D110" t="s">
-        <v>499</v>
+        <v>455</v>
       </c>
       <c r="E110" t="s">
-        <v>1412</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -10060,7 +10725,7 @@
         <v>499</v>
       </c>
       <c r="E111" t="s">
-        <v>1413</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -10077,7 +10742,7 @@
         <v>499</v>
       </c>
       <c r="E112" t="s">
-        <v>1414</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -10094,7 +10759,7 @@
         <v>499</v>
       </c>
       <c r="E113" t="s">
-        <v>1415</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -10111,7 +10776,7 @@
         <v>499</v>
       </c>
       <c r="E114" t="s">
-        <v>1416</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -10128,7 +10793,7 @@
         <v>499</v>
       </c>
       <c r="E115" t="s">
-        <v>1417</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -10145,7 +10810,7 @@
         <v>499</v>
       </c>
       <c r="E116" t="s">
-        <v>1418</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -10162,7 +10827,7 @@
         <v>499</v>
       </c>
       <c r="E117" t="s">
-        <v>1419</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -10170,16 +10835,16 @@
         <v>160</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C118" t="s">
         <v>1199</v>
       </c>
       <c r="D118" t="s">
-        <v>499</v>
+        <v>1473</v>
       </c>
       <c r="E118" t="s">
-        <v>1420</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -10196,7 +10861,7 @@
         <v>499</v>
       </c>
       <c r="E119" t="s">
-        <v>1421</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -10213,7 +10878,7 @@
         <v>499</v>
       </c>
       <c r="E120" t="s">
-        <v>1422</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -10230,7 +10895,7 @@
         <v>499</v>
       </c>
       <c r="E121" t="s">
-        <v>1423</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -10247,7 +10912,7 @@
         <v>499</v>
       </c>
       <c r="E122" t="s">
-        <v>1424</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -10264,7 +10929,7 @@
         <v>499</v>
       </c>
       <c r="E123" t="s">
-        <v>1425</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -10281,7 +10946,7 @@
         <v>499</v>
       </c>
       <c r="E124" t="s">
-        <v>1426</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -10298,7 +10963,7 @@
         <v>499</v>
       </c>
       <c r="E125" t="s">
-        <v>1427</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -10315,7 +10980,7 @@
         <v>499</v>
       </c>
       <c r="E126" t="s">
-        <v>1428</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -10323,16 +10988,16 @@
         <v>294</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>1176</v>
       </c>
       <c r="D127" t="s">
-        <v>499</v>
+        <v>1475</v>
       </c>
       <c r="E127" t="s">
-        <v>1429</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -10366,7 +11031,41 @@
         <v>499</v>
       </c>
       <c r="E129" t="s">
-        <v>1430</v>
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B130">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>499</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B131">
+        <v>6</v>
+      </c>
+      <c r="C131" t="s">
+        <v>499</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1546</v>
       </c>
     </row>
   </sheetData>
@@ -10379,7 +11078,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56676CEA-1331-4CD7-9489-B1C03C6F786B}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
@@ -10411,7 +11112,7 @@
         <v>499</v>
       </c>
       <c r="D2" t="s">
-        <v>499</v>
+        <v>1450</v>
       </c>
       <c r="E2" t="s">
         <v>982</v>
@@ -10428,10 +11129,10 @@
         <v>499</v>
       </c>
       <c r="D3" t="s">
-        <v>499</v>
+        <v>1453</v>
       </c>
       <c r="E3" t="s">
-        <v>1332</v>
+        <v>1374</v>
       </c>
     </row>
   </sheetData>
@@ -10442,7 +11143,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{380DB306-B1A9-4E7A-B5D9-23879CCBCBF7}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10463,6 +11164,499 @@
       </c>
       <c r="E1" t="s">
         <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D6" t="s">
+        <v>465</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D13" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D14" t="s">
+        <v>442</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>476</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>394</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>439</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>448</v>
+      </c>
+      <c r="D25" t="s">
+        <v>482</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>333</v>
+      </c>
+      <c r="D28" t="s">
+        <v>455</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>294</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1515</v>
       </c>
     </row>
   </sheetData>
@@ -10594,17 +11788,23 @@
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
       <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="E3" s="62" t="s">
+        <v>722</v>
+      </c>
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
       <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="I3" s="62" t="s">
+        <v>1457</v>
+      </c>
       <c r="J3" s="62"/>
       <c r="K3" s="62"/>
       <c r="L3" s="62"/>
       <c r="M3" s="62"/>
       <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
+      <c r="O3" s="62" t="s">
+        <v>872</v>
+      </c>
       <c r="P3" s="62"/>
       <c r="Q3" s="62"/>
       <c r="R3" s="62"/>
@@ -10619,10 +11819,10 @@
         <v>62</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>1209</v>
+        <v>722</v>
       </c>
       <c r="F4" s="61" t="s">
-        <v>1196</v>
+        <v>1364</v>
       </c>
       <c r="G4" s="61" t="s">
         <v>469</v>
@@ -10631,7 +11831,7 @@
         <v>40</v>
       </c>
       <c r="I4" s="61" t="s">
-        <v>396</v>
+        <v>1457</v>
       </c>
       <c r="J4" s="61" t="s">
         <v>1178</v>
@@ -10644,10 +11844,10 @@
         <v>364</v>
       </c>
       <c r="N4" s="61" t="s">
-        <v>1196</v>
+        <v>1364</v>
       </c>
       <c r="O4" s="61" t="s">
-        <v>434</v>
+        <v>872</v>
       </c>
       <c r="P4" s="61" t="s">
         <v>45</v>
@@ -10668,10 +11868,10 @@
       <c r="D5" s="60" t="s">
         <v>291</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="68" t="s">
         <v>1205</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="68" t="s">
         <v>168</v>
       </c>
       <c r="G5" s="60" t="s">
@@ -10680,7 +11880,7 @@
       <c r="H5" s="60" t="s">
         <v>252</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="68" t="s">
         <v>1203</v>
       </c>
       <c r="J5" s="60" t="s">
@@ -10695,10 +11895,10 @@
       <c r="M5" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="N5" s="60" t="s">
+      <c r="N5" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="O5" s="60" t="s">
+      <c r="O5" s="68" t="s">
         <v>1212</v>
       </c>
       <c r="P5" s="60" t="s">
@@ -10720,21 +11920,49 @@
     <row r="6" spans="1:22" s="24" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="21"/>
       <c r="C6" s="22"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
+      <c r="D6" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>722</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>469</v>
+      </c>
+      <c r="H6" s="65" t="s">
+        <v>1291</v>
+      </c>
+      <c r="I6" s="65" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J6" s="65" t="s">
+        <v>1548</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>1549</v>
+      </c>
       <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
+      <c r="M6" s="65" t="s">
+        <v>1359</v>
+      </c>
+      <c r="N6" s="65" t="s">
+        <v>1370</v>
+      </c>
+      <c r="O6" s="65" t="s">
+        <v>1367</v>
+      </c>
+      <c r="P6" s="65" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Q6" s="65" t="s">
+        <v>1551</v>
+      </c>
+      <c r="R6" s="65" t="s">
+        <v>1552</v>
+      </c>
       <c r="S6" s="23"/>
       <c r="V6" s="56"/>
     </row>
@@ -10743,7 +11971,9 @@
       <c r="C7" s="26"/>
       <c r="D7" s="62"/>
       <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="F7" s="62" t="s">
+        <v>1332</v>
+      </c>
       <c r="G7" s="62"/>
       <c r="H7" s="62"/>
       <c r="I7" s="62"/>
@@ -10766,7 +11996,7 @@
         <v>1283</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>1284</v>
+        <v>1332</v>
       </c>
       <c r="G8" s="61" t="s">
         <v>1183</v>
@@ -10814,7 +12044,7 @@
       <c r="E9" s="60" t="s">
         <v>1215</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="68" t="s">
         <v>1216</v>
       </c>
       <c r="G9" s="60" t="s">
@@ -10864,20 +12094,44 @@
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="21"/>
       <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
+      <c r="E10" s="65" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F10" s="65" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>1554</v>
+      </c>
+      <c r="H10" s="65" t="s">
+        <v>1555</v>
+      </c>
+      <c r="I10" s="65" t="s">
+        <v>1556</v>
+      </c>
+      <c r="J10" s="65" t="s">
+        <v>1557</v>
+      </c>
       <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
+      <c r="L10" s="65" t="s">
+        <v>1191</v>
+      </c>
+      <c r="M10" s="65" t="s">
+        <v>1182</v>
+      </c>
+      <c r="N10" s="65" t="s">
+        <v>1558</v>
+      </c>
+      <c r="O10" s="65" t="s">
+        <v>1559</v>
+      </c>
+      <c r="P10" s="65" t="s">
+        <v>443</v>
+      </c>
       <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
+      <c r="R10" s="65" t="s">
+        <v>1560</v>
+      </c>
       <c r="S10" s="29"/>
       <c r="V10" s="56"/>
     </row>
@@ -10886,7 +12140,9 @@
       <c r="C11" s="31"/>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="F11" s="62" t="s">
+        <v>1341</v>
+      </c>
       <c r="G11" s="62"/>
       <c r="H11" s="62"/>
       <c r="I11" s="62"/>
@@ -10897,7 +12153,9 @@
       <c r="N11" s="62"/>
       <c r="O11" s="62"/>
       <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
+      <c r="Q11" s="62" t="s">
+        <v>1342</v>
+      </c>
       <c r="R11" s="62"/>
       <c r="V11" s="56"/>
     </row>
@@ -10910,11 +12168,11 @@
         <v>1288</v>
       </c>
       <c r="F12" s="61" t="s">
-        <v>1200</v>
+        <v>1333</v>
       </c>
       <c r="G12" s="61"/>
       <c r="H12" s="61" t="s">
-        <v>1196</v>
+        <v>1364</v>
       </c>
       <c r="I12" s="61" t="s">
         <v>405</v>
@@ -10937,7 +12195,7 @@
       </c>
       <c r="P12" s="61"/>
       <c r="Q12" s="61" t="s">
-        <v>1196</v>
+        <v>1364</v>
       </c>
       <c r="R12" s="61" t="s">
         <v>466</v>
@@ -10956,13 +12214,13 @@
       <c r="E13" s="60" t="s">
         <v>1221</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="68" t="s">
         <v>1222</v>
       </c>
       <c r="G13" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="60" t="s">
+      <c r="H13" s="68" t="s">
         <v>168</v>
       </c>
       <c r="I13" s="60" t="s">
@@ -10989,7 +12247,7 @@
       <c r="P13" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="Q13" s="60" t="s">
+      <c r="Q13" s="68" t="s">
         <v>168</v>
       </c>
       <c r="R13" s="60" t="s">
@@ -11004,29 +12262,57 @@
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="21"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
+      <c r="D14" s="65" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>1369</v>
+      </c>
       <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
+      <c r="H14" s="65" t="s">
+        <v>1370</v>
+      </c>
+      <c r="I14" s="65" t="s">
+        <v>1563</v>
+      </c>
+      <c r="J14" s="65" t="s">
+        <v>438</v>
+      </c>
+      <c r="K14" s="65" t="s">
+        <v>1564</v>
+      </c>
       <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
+      <c r="M14" s="65" t="s">
+        <v>1565</v>
+      </c>
+      <c r="N14" s="65" t="s">
+        <v>391</v>
+      </c>
+      <c r="O14" s="65" t="s">
+        <v>1293</v>
+      </c>
       <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
+      <c r="Q14" s="65" t="s">
+        <v>1370</v>
+      </c>
+      <c r="R14" s="65" t="s">
+        <v>1566</v>
+      </c>
       <c r="S14" s="29"/>
       <c r="V14" s="56"/>
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
+      <c r="D15" s="62" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>1345</v>
+      </c>
       <c r="F15" s="62"/>
       <c r="G15" s="62"/>
       <c r="H15" s="62"/>
@@ -11045,10 +12331,10 @@
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
       <c r="D16" s="61" t="s">
-        <v>1294</v>
+        <v>1344</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>1295</v>
+        <v>1365</v>
       </c>
       <c r="F16" s="61"/>
       <c r="G16" s="61" t="s">
@@ -11091,10 +12377,10 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="68" t="s">
         <v>1229</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="68" t="s">
         <v>1230</v>
       </c>
       <c r="F17" s="60" t="s">
@@ -11145,21 +12431,45 @@
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="21"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
+      <c r="D18" s="65" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>1372</v>
+      </c>
       <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
+      <c r="G18" s="65" t="s">
+        <v>1567</v>
+      </c>
+      <c r="H18" s="65" t="s">
+        <v>1554</v>
+      </c>
+      <c r="I18" s="65" t="s">
+        <v>1568</v>
+      </c>
+      <c r="J18" s="65" t="s">
+        <v>455</v>
+      </c>
       <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
+      <c r="L18" s="65" t="s">
+        <v>1569</v>
+      </c>
+      <c r="M18" s="65" t="s">
+        <v>1299</v>
+      </c>
+      <c r="N18" s="65" t="s">
+        <v>1570</v>
+      </c>
+      <c r="O18" s="65" t="s">
+        <v>1571</v>
+      </c>
+      <c r="P18" s="65" t="s">
+        <v>1300</v>
+      </c>
       <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
+      <c r="R18" s="65" t="s">
+        <v>1572</v>
+      </c>
       <c r="S18" s="29"/>
       <c r="V18" s="56"/>
     </row>
@@ -11170,14 +12480,20 @@
       <c r="E19" s="62"/>
       <c r="F19" s="62"/>
       <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
+      <c r="H19" s="62" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I19" s="62" t="s">
+        <v>1342</v>
+      </c>
       <c r="J19" s="62"/>
       <c r="K19" s="62"/>
       <c r="L19" s="62"/>
       <c r="M19" s="62"/>
       <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
+      <c r="O19" s="62" t="s">
+        <v>325</v>
+      </c>
       <c r="P19" s="62"/>
       <c r="Q19" s="62"/>
       <c r="R19" s="62"/>
@@ -11196,10 +12512,10 @@
         <v>1301</v>
       </c>
       <c r="H20" s="61" t="s">
-        <v>1302</v>
+        <v>1334</v>
       </c>
       <c r="I20" s="61" t="s">
-        <v>1196</v>
+        <v>1364</v>
       </c>
       <c r="J20" s="61" t="s">
         <v>48</v>
@@ -11215,7 +12531,7 @@
         <v>1303</v>
       </c>
       <c r="O20" s="61" t="s">
-        <v>1304</v>
+        <v>569</v>
       </c>
       <c r="P20" s="61" t="s">
         <v>469</v>
@@ -11246,10 +12562,10 @@
       <c r="G21" s="60" t="s">
         <v>1237</v>
       </c>
-      <c r="H21" s="60" t="s">
+      <c r="H21" s="68" t="s">
         <v>1238</v>
       </c>
-      <c r="I21" s="60" t="s">
+      <c r="I21" s="68" t="s">
         <v>168</v>
       </c>
       <c r="J21" s="60" t="s">
@@ -11267,7 +12583,7 @@
       <c r="N21" s="60" t="s">
         <v>1241</v>
       </c>
-      <c r="O21" s="60" t="s">
+      <c r="O21" s="68" t="s">
         <v>94</v>
       </c>
       <c r="P21" s="60" t="s">
@@ -11288,21 +12604,47 @@
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="21"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
+      <c r="D22" s="65" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>1574</v>
+      </c>
       <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
+      <c r="G22" s="65" t="s">
+        <v>1575</v>
+      </c>
+      <c r="H22" s="65" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I22" s="65" t="s">
+        <v>1370</v>
+      </c>
+      <c r="J22" s="65" t="s">
+        <v>1576</v>
+      </c>
+      <c r="K22" s="65" t="s">
+        <v>1360</v>
+      </c>
+      <c r="L22" s="65" t="s">
+        <v>1577</v>
+      </c>
       <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
+      <c r="N22" s="65" t="s">
+        <v>1303</v>
+      </c>
+      <c r="O22" s="65" t="s">
+        <v>1478</v>
+      </c>
+      <c r="P22" s="65" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q22" s="65" t="s">
+        <v>1550</v>
+      </c>
+      <c r="R22" s="65" t="s">
+        <v>1578</v>
+      </c>
       <c r="S22" s="29"/>
       <c r="V22" s="56"/>
     </row>
@@ -11311,16 +12653,24 @@
       <c r="C23" s="32"/>
       <c r="D23" s="62"/>
       <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
+      <c r="F23" s="62" t="s">
+        <v>1346</v>
+      </c>
       <c r="G23" s="62"/>
       <c r="H23" s="62"/>
       <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
+      <c r="J23" s="62" t="s">
+        <v>1458</v>
+      </c>
       <c r="K23" s="62"/>
       <c r="L23" s="62"/>
       <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
+      <c r="N23" s="62" t="s">
+        <v>1347</v>
+      </c>
+      <c r="O23" s="62" t="s">
+        <v>1349</v>
+      </c>
       <c r="P23" s="62"/>
       <c r="Q23" s="62"/>
       <c r="R23" s="62"/>
@@ -11333,7 +12683,7 @@
       </c>
       <c r="E24" s="61"/>
       <c r="F24" s="61" t="s">
-        <v>1305</v>
+        <v>824</v>
       </c>
       <c r="G24" s="61" t="s">
         <v>1306</v>
@@ -11345,7 +12695,7 @@
         <v>1194</v>
       </c>
       <c r="J24" s="61" t="s">
-        <v>1307</v>
+        <v>1335</v>
       </c>
       <c r="K24" s="61" t="s">
         <v>338</v>
@@ -11355,10 +12705,10 @@
         <v>1189</v>
       </c>
       <c r="N24" s="61" t="s">
-        <v>1308</v>
+        <v>1348</v>
       </c>
       <c r="O24" s="61" t="s">
-        <v>1309</v>
+        <v>1464</v>
       </c>
       <c r="P24" s="61" t="s">
         <v>1310</v>
@@ -11381,7 +12731,7 @@
       <c r="E25" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="60" t="s">
+      <c r="F25" s="68" t="s">
         <v>236</v>
       </c>
       <c r="G25" s="60" t="s">
@@ -11393,7 +12743,7 @@
       <c r="I25" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="J25" s="60" t="s">
+      <c r="J25" s="68" t="s">
         <v>1243</v>
       </c>
       <c r="K25" s="60" t="s">
@@ -11405,10 +12755,10 @@
       <c r="M25" s="60" t="s">
         <v>1173</v>
       </c>
-      <c r="N25" s="60" t="s">
+      <c r="N25" s="68" t="s">
         <v>1244</v>
       </c>
-      <c r="O25" s="60" t="s">
+      <c r="O25" s="68" t="s">
         <v>1245</v>
       </c>
       <c r="P25" s="60" t="s">
@@ -11429,21 +12779,45 @@
     </row>
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="21"/>
-      <c r="D26" s="65"/>
+      <c r="D26" s="65" t="s">
+        <v>1579</v>
+      </c>
       <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
+      <c r="F26" s="65" t="s">
+        <v>824</v>
+      </c>
+      <c r="G26" s="65" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H26" s="65" t="s">
+        <v>1574</v>
+      </c>
+      <c r="I26" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="J26" s="65" t="s">
+        <v>1335</v>
+      </c>
+      <c r="K26" s="65" t="s">
+        <v>338</v>
+      </c>
       <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
+      <c r="M26" s="65" t="s">
+        <v>1581</v>
+      </c>
+      <c r="N26" s="65" t="s">
+        <v>1348</v>
+      </c>
+      <c r="O26" s="65" t="s">
+        <v>1479</v>
+      </c>
+      <c r="P26" s="65" t="s">
+        <v>1582</v>
+      </c>
       <c r="Q26" s="65"/>
-      <c r="R26" s="65"/>
+      <c r="R26" s="65" t="s">
+        <v>1550</v>
+      </c>
       <c r="S26" s="29"/>
       <c r="V26" s="56"/>
     </row>
@@ -11457,17 +12831,21 @@
       <c r="H27" s="62"/>
       <c r="I27" s="62"/>
       <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
+      <c r="K27" s="62" t="s">
+        <v>1459</v>
+      </c>
       <c r="L27" s="62"/>
       <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
+      <c r="N27" s="62" t="s">
+        <v>1342</v>
+      </c>
       <c r="O27" s="62"/>
       <c r="P27" s="62"/>
       <c r="Q27" s="62"/>
       <c r="R27" s="62"/>
       <c r="U27" s="33" t="str">
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="V27" s="56"/>
     </row>
@@ -11493,14 +12871,14 @@
         <v>1194</v>
       </c>
       <c r="K28" s="61" t="s">
-        <v>476</v>
+        <v>1336</v>
       </c>
       <c r="L28" s="61"/>
       <c r="M28" s="61" t="s">
         <v>1311</v>
       </c>
       <c r="N28" s="61" t="s">
-        <v>1196</v>
+        <v>1364</v>
       </c>
       <c r="O28" s="61" t="s">
         <v>1312</v>
@@ -11517,7 +12895,7 @@
       <c r="S28" s="18"/>
       <c r="U28" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="V28" s="56"/>
     </row>
@@ -11547,7 +12925,7 @@
       <c r="J29" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="K29" s="60" t="s">
+      <c r="K29" s="68" t="s">
         <v>284</v>
       </c>
       <c r="L29" s="60" t="s">
@@ -11556,7 +12934,7 @@
       <c r="M29" s="60" t="s">
         <v>1249</v>
       </c>
-      <c r="N29" s="60" t="s">
+      <c r="N29" s="68" t="s">
         <v>168</v>
       </c>
       <c r="O29" s="60" t="s">
@@ -11578,31 +12956,57 @@
       </c>
       <c r="U29" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="V29" s="56"/>
     </row>
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="21"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
+      <c r="D30" s="65" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E30" s="65" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F30" s="65" t="s">
+        <v>1585</v>
+      </c>
       <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
+      <c r="H30" s="65" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I30" s="65" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J30" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="K30" s="65" t="s">
+        <v>1480</v>
+      </c>
       <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="65"/>
+      <c r="M30" s="65" t="s">
+        <v>1587</v>
+      </c>
+      <c r="N30" s="65" t="s">
+        <v>1370</v>
+      </c>
+      <c r="O30" s="65" t="s">
+        <v>1588</v>
+      </c>
+      <c r="P30" s="65" t="s">
+        <v>1589</v>
+      </c>
+      <c r="Q30" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="R30" s="65" t="s">
+        <v>1590</v>
+      </c>
       <c r="S30" s="29"/>
       <c r="U30" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="V30" s="56"/>
     </row>
@@ -11610,23 +13014,29 @@
       <c r="B31" s="12"/>
       <c r="C31" s="32"/>
       <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
+      <c r="E31" s="62" t="s">
+        <v>1460</v>
+      </c>
       <c r="F31" s="62"/>
       <c r="G31" s="62"/>
       <c r="H31" s="62"/>
       <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
+      <c r="J31" s="62" t="s">
+        <v>1342</v>
+      </c>
       <c r="K31" s="62"/>
       <c r="L31" s="62"/>
       <c r="M31" s="62"/>
       <c r="N31" s="62"/>
       <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
+      <c r="P31" s="62" t="s">
+        <v>1350</v>
+      </c>
       <c r="Q31" s="62"/>
       <c r="R31" s="62"/>
       <c r="U31" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="V31" s="56"/>
     </row>
@@ -11634,7 +13044,7 @@
       <c r="B32" s="17"/>
       <c r="D32" s="61"/>
       <c r="E32" s="61" t="s">
-        <v>1184</v>
+        <v>1337</v>
       </c>
       <c r="F32" s="61" t="s">
         <v>1313</v>
@@ -11647,7 +13057,7 @@
       </c>
       <c r="I32" s="61"/>
       <c r="J32" s="61" t="s">
-        <v>1196</v>
+        <v>1364</v>
       </c>
       <c r="K32" s="61" t="s">
         <v>1314</v>
@@ -11662,7 +13072,9 @@
       <c r="O32" s="61" t="s">
         <v>1211</v>
       </c>
-      <c r="P32" s="61"/>
+      <c r="P32" s="61" t="s">
+        <v>1451</v>
+      </c>
       <c r="Q32" s="61" t="s">
         <v>1315</v>
       </c>
@@ -11672,7 +13084,7 @@
       <c r="S32" s="18"/>
       <c r="U32" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="V32" s="56"/>
     </row>
@@ -11684,7 +13096,7 @@
       <c r="D33" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="60" t="s">
+      <c r="E33" s="68" t="s">
         <v>1201</v>
       </c>
       <c r="F33" s="60" t="s">
@@ -11699,7 +13111,7 @@
       <c r="I33" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="J33" s="60" t="s">
+      <c r="J33" s="68" t="s">
         <v>168</v>
       </c>
       <c r="K33" s="60" t="s">
@@ -11717,7 +13129,7 @@
       <c r="O33" s="60" t="s">
         <v>1254</v>
       </c>
-      <c r="P33" s="60" t="s">
+      <c r="P33" s="68" t="s">
         <v>1255</v>
       </c>
       <c r="Q33" s="60" t="s">
@@ -11736,20 +13148,44 @@
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="21"/>
       <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
+      <c r="E34" s="65" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F34" s="65" t="s">
+        <v>1591</v>
+      </c>
+      <c r="G34" s="65" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H34" s="65" t="s">
+        <v>1570</v>
+      </c>
       <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
+      <c r="J34" s="65" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K34" s="65" t="s">
+        <v>1592</v>
+      </c>
+      <c r="L34" s="65" t="s">
+        <v>389</v>
+      </c>
+      <c r="M34" s="65" t="s">
+        <v>1195</v>
+      </c>
       <c r="N34" s="65"/>
-      <c r="O34" s="65"/>
-      <c r="P34" s="65"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="65"/>
+      <c r="O34" s="65" t="s">
+        <v>1593</v>
+      </c>
+      <c r="P34" s="65" t="s">
+        <v>1452</v>
+      </c>
+      <c r="Q34" s="65" t="s">
+        <v>1594</v>
+      </c>
+      <c r="R34" s="65" t="s">
+        <v>1595</v>
+      </c>
       <c r="S34" s="29"/>
       <c r="V34" s="56"/>
     </row>
@@ -11757,38 +13193,52 @@
       <c r="B35" s="12"/>
       <c r="C35" s="32"/>
       <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
+      <c r="E35" s="62" t="s">
+        <v>1351</v>
+      </c>
       <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
+      <c r="G35" s="62" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H35" s="62" t="s">
+        <v>1461</v>
+      </c>
       <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
+      <c r="J35" s="62" t="s">
+        <v>1462</v>
+      </c>
       <c r="K35" s="62"/>
       <c r="L35" s="62"/>
       <c r="M35" s="62"/>
       <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
+      <c r="O35" s="62" t="s">
+        <v>1353</v>
+      </c>
       <c r="P35" s="62"/>
-      <c r="Q35" s="62"/>
+      <c r="Q35" s="62" t="s">
+        <v>1354</v>
+      </c>
       <c r="R35" s="62"/>
       <c r="V35" s="56"/>
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
       <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
+      <c r="E36" s="61" t="s">
+        <v>1454</v>
+      </c>
       <c r="F36" s="61" t="s">
         <v>1317</v>
       </c>
       <c r="G36" s="61" t="s">
-        <v>1318</v>
+        <v>1466</v>
       </c>
       <c r="H36" s="61" t="s">
-        <v>394</v>
+        <v>1338</v>
       </c>
       <c r="I36" s="61"/>
       <c r="J36" s="61" t="s">
-        <v>439</v>
+        <v>1339</v>
       </c>
       <c r="K36" s="61" t="s">
         <v>1188</v>
@@ -11801,13 +13251,13 @@
         <v>465</v>
       </c>
       <c r="O36" s="61" t="s">
-        <v>1319</v>
+        <v>1468</v>
       </c>
       <c r="P36" s="61" t="s">
         <v>39</v>
       </c>
       <c r="Q36" s="61" t="s">
-        <v>1320</v>
+        <v>1470</v>
       </c>
       <c r="R36" s="61" t="s">
         <v>1190</v>
@@ -11823,22 +13273,22 @@
       <c r="D37" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="60" t="s">
+      <c r="E37" s="68" t="s">
         <v>1258</v>
       </c>
       <c r="F37" s="60" t="s">
         <v>1259</v>
       </c>
-      <c r="G37" s="60" t="s">
+      <c r="G37" s="68" t="s">
         <v>1260</v>
       </c>
-      <c r="H37" s="60" t="s">
+      <c r="H37" s="68" t="s">
         <v>176</v>
       </c>
       <c r="I37" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="J37" s="60" t="s">
+      <c r="J37" s="68" t="s">
         <v>1261</v>
       </c>
       <c r="K37" s="60" t="s">
@@ -11853,13 +13303,13 @@
       <c r="N37" s="60" t="s">
         <v>1240</v>
       </c>
-      <c r="O37" s="60" t="s">
+      <c r="O37" s="68" t="s">
         <v>1262</v>
       </c>
       <c r="P37" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="Q37" s="60" t="s">
+      <c r="Q37" s="68" t="s">
         <v>1263</v>
       </c>
       <c r="R37" s="60" t="s">
@@ -11875,27 +13325,53 @@
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="21"/>
       <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
+      <c r="E38" s="65" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F38" s="65" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G38" s="65" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H38" s="65" t="s">
+        <v>629</v>
+      </c>
       <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
+      <c r="J38" s="65" t="s">
+        <v>1483</v>
+      </c>
+      <c r="K38" s="65" t="s">
+        <v>1578</v>
+      </c>
+      <c r="L38" s="65" t="s">
+        <v>1549</v>
+      </c>
       <c r="M38" s="65"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="65"/>
-      <c r="R38" s="65"/>
+      <c r="N38" s="65" t="s">
+        <v>1360</v>
+      </c>
+      <c r="O38" s="65" t="s">
+        <v>1484</v>
+      </c>
+      <c r="P38" s="65" t="s">
+        <v>1597</v>
+      </c>
+      <c r="Q38" s="65" t="s">
+        <v>1485</v>
+      </c>
+      <c r="R38" s="65" t="s">
+        <v>1598</v>
+      </c>
       <c r="S38" s="29"/>
       <c r="V38" s="56"/>
     </row>
     <row r="39" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="12"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="62"/>
+      <c r="D39" s="62" t="s">
+        <v>482</v>
+      </c>
       <c r="E39" s="62"/>
       <c r="F39" s="62"/>
       <c r="G39" s="62"/>
@@ -11915,7 +13391,7 @@
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
       <c r="D40" s="67" t="s">
-        <v>448</v>
+        <v>914</v>
       </c>
       <c r="E40" s="61"/>
       <c r="F40" s="61" t="s">
@@ -11961,7 +13437,7 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="60" t="s">
+      <c r="D41" s="68" t="s">
         <v>1264</v>
       </c>
       <c r="E41" s="60" t="s">
@@ -12015,21 +13491,45 @@
     </row>
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="21"/>
-      <c r="D42" s="65"/>
+      <c r="D42" s="65" t="s">
+        <v>1486</v>
+      </c>
       <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
+      <c r="F42" s="65" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G42" s="65" t="s">
+        <v>1573</v>
+      </c>
+      <c r="H42" s="65" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I42" s="65" t="s">
+        <v>1601</v>
+      </c>
       <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="65"/>
-      <c r="M42" s="65"/>
-      <c r="N42" s="65"/>
+      <c r="K42" s="65" t="s">
+        <v>1571</v>
+      </c>
+      <c r="L42" s="65" t="s">
+        <v>1602</v>
+      </c>
+      <c r="M42" s="65" t="s">
+        <v>1577</v>
+      </c>
+      <c r="N42" s="65" t="s">
+        <v>1603</v>
+      </c>
       <c r="O42" s="65"/>
-      <c r="P42" s="65"/>
-      <c r="Q42" s="65"/>
-      <c r="R42" s="65"/>
+      <c r="P42" s="65" t="s">
+        <v>1182</v>
+      </c>
+      <c r="Q42" s="65" t="s">
+        <v>1579</v>
+      </c>
+      <c r="R42" s="65" t="s">
+        <v>1598</v>
+      </c>
       <c r="S42" s="29"/>
       <c r="V42" s="56"/>
     </row>
@@ -12112,7 +13612,9 @@
     </row>
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="21"/>
-      <c r="D46" s="65"/>
+      <c r="D46" s="65" t="s">
+        <v>1323</v>
+      </c>
       <c r="E46" s="65"/>
       <c r="F46" s="65"/>
       <c r="G46" s="65"/>
@@ -12136,18 +13638,28 @@
       <c r="D47" s="62"/>
       <c r="E47" s="62"/>
       <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
+      <c r="G47" s="62" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H47" s="62" t="s">
+        <v>1463</v>
+      </c>
       <c r="I47" s="62"/>
       <c r="J47" s="62"/>
       <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
+      <c r="L47" s="62" t="s">
+        <v>1362</v>
+      </c>
       <c r="M47" s="62"/>
       <c r="N47" s="62"/>
-      <c r="O47" s="62"/>
+      <c r="O47" s="62" t="s">
+        <v>1342</v>
+      </c>
       <c r="P47" s="62"/>
       <c r="Q47" s="62"/>
-      <c r="R47" s="62"/>
+      <c r="R47" s="62" t="s">
+        <v>1356</v>
+      </c>
       <c r="V47" s="56"/>
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -12160,10 +13672,10 @@
       </c>
       <c r="F48" s="61"/>
       <c r="G48" s="61" t="s">
-        <v>1325</v>
+        <v>1472</v>
       </c>
       <c r="H48" s="61" t="s">
-        <v>1326</v>
+        <v>1340</v>
       </c>
       <c r="I48" s="61" t="s">
         <v>338</v>
@@ -12175,12 +13687,12 @@
         <v>1183</v>
       </c>
       <c r="L48" s="61" t="s">
-        <v>1200</v>
+        <v>1333</v>
       </c>
       <c r="M48" s="61"/>
       <c r="N48" s="61"/>
       <c r="O48" s="61" t="s">
-        <v>1196</v>
+        <v>1364</v>
       </c>
       <c r="P48" s="61" t="s">
         <v>1327</v>
@@ -12189,7 +13701,7 @@
         <v>1327</v>
       </c>
       <c r="R48" s="61" t="s">
-        <v>333</v>
+        <v>852</v>
       </c>
       <c r="S48" s="18"/>
       <c r="V48" s="56"/>
@@ -12208,10 +13720,10 @@
       <c r="F49" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="G49" s="60" t="s">
+      <c r="G49" s="68" t="s">
         <v>1270</v>
       </c>
-      <c r="H49" s="60" t="s">
+      <c r="H49" s="68" t="s">
         <v>1271</v>
       </c>
       <c r="I49" s="60" t="s">
@@ -12223,7 +13735,7 @@
       <c r="K49" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="L49" s="60" t="s">
+      <c r="L49" s="68" t="s">
         <v>1222</v>
       </c>
       <c r="M49" s="60" t="s">
@@ -12232,7 +13744,7 @@
       <c r="N49" s="60" t="s">
         <v>290</v>
       </c>
-      <c r="O49" s="60" t="s">
+      <c r="O49" s="68" t="s">
         <v>168</v>
       </c>
       <c r="P49" s="60" t="s">
@@ -12241,7 +13753,7 @@
       <c r="Q49" s="60" t="s">
         <v>1273</v>
       </c>
-      <c r="R49" s="60" t="s">
+      <c r="R49" s="68" t="s">
         <v>102</v>
       </c>
       <c r="S49" s="20" t="str">
@@ -12253,40 +13765,72 @@
     </row>
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="21"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
+      <c r="D50" s="65" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E50" s="65" t="s">
+        <v>311</v>
+      </c>
       <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="65"/>
+      <c r="G50" s="65" t="s">
+        <v>776</v>
+      </c>
+      <c r="H50" s="65" t="s">
+        <v>1487</v>
+      </c>
+      <c r="I50" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="J50" s="65" t="s">
+        <v>1208</v>
+      </c>
+      <c r="K50" s="65" t="s">
+        <v>1554</v>
+      </c>
+      <c r="L50" s="65" t="s">
+        <v>1369</v>
+      </c>
       <c r="M50" s="65"/>
       <c r="N50" s="65"/>
-      <c r="O50" s="65"/>
-      <c r="P50" s="65"/>
-      <c r="Q50" s="65"/>
-      <c r="R50" s="65"/>
+      <c r="O50" s="65" t="s">
+        <v>1370</v>
+      </c>
+      <c r="P50" s="65" t="s">
+        <v>1605</v>
+      </c>
+      <c r="Q50" s="65" t="s">
+        <v>1605</v>
+      </c>
+      <c r="R50" s="65" t="s">
+        <v>597</v>
+      </c>
       <c r="S50" s="29"/>
       <c r="V50" s="56"/>
     </row>
     <row r="51" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
       <c r="C51" s="32"/>
-      <c r="D51" s="62"/>
+      <c r="D51" s="62" t="s">
+        <v>1366</v>
+      </c>
       <c r="E51" s="62"/>
       <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
+      <c r="G51" s="62" t="s">
+        <v>1342</v>
+      </c>
       <c r="H51" s="62"/>
       <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
+      <c r="J51" s="62" t="s">
+        <v>1356</v>
+      </c>
       <c r="K51" s="62"/>
       <c r="L51" s="62"/>
       <c r="M51" s="62"/>
       <c r="N51" s="62"/>
       <c r="O51" s="62"/>
-      <c r="P51" s="62"/>
+      <c r="P51" s="62" t="s">
+        <v>1362</v>
+      </c>
       <c r="Q51" s="62"/>
       <c r="R51" s="62"/>
       <c r="V51" s="56"/>
@@ -12294,14 +13838,14 @@
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
       <c r="D52" s="61" t="s">
-        <v>1302</v>
+        <v>1334</v>
       </c>
       <c r="E52" s="61" t="s">
         <v>1328</v>
       </c>
       <c r="F52" s="61"/>
       <c r="G52" s="61" t="s">
-        <v>1196</v>
+        <v>1364</v>
       </c>
       <c r="H52" s="61" t="s">
         <v>1329</v>
@@ -12310,7 +13854,7 @@
         <v>1329</v>
       </c>
       <c r="J52" s="61" t="s">
-        <v>333</v>
+        <v>852</v>
       </c>
       <c r="K52" s="61" t="s">
         <v>332</v>
@@ -12324,7 +13868,7 @@
         <v>45</v>
       </c>
       <c r="P52" s="61" t="s">
-        <v>1200</v>
+        <v>1333</v>
       </c>
       <c r="Q52" s="61" t="s">
         <v>1293</v>
@@ -12340,7 +13884,7 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="60" t="s">
+      <c r="D53" s="68" t="s">
         <v>1238</v>
       </c>
       <c r="E53" s="60" t="s">
@@ -12349,7 +13893,7 @@
       <c r="F53" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="G53" s="60" t="s">
+      <c r="G53" s="68" t="s">
         <v>168</v>
       </c>
       <c r="H53" s="60" t="s">
@@ -12358,7 +13902,7 @@
       <c r="I53" s="60" t="s">
         <v>1275</v>
       </c>
-      <c r="J53" s="60" t="s">
+      <c r="J53" s="68" t="s">
         <v>102</v>
       </c>
       <c r="K53" s="60" t="s">
@@ -12376,7 +13920,7 @@
       <c r="O53" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="P53" s="60" t="s">
+      <c r="P53" s="68" t="s">
         <v>1222</v>
       </c>
       <c r="Q53" s="60" t="s">
@@ -12394,21 +13938,45 @@
     </row>
     <row r="54" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="21"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
+      <c r="D54" s="65" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E54" s="65" t="s">
+        <v>1606</v>
+      </c>
       <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="65"/>
+      <c r="G54" s="65" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H54" s="65" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I54" s="65" t="s">
+        <v>1607</v>
+      </c>
+      <c r="J54" s="65" t="s">
+        <v>597</v>
+      </c>
+      <c r="K54" s="65" t="s">
+        <v>1608</v>
+      </c>
+      <c r="L54" s="65" t="s">
+        <v>1609</v>
+      </c>
       <c r="M54" s="65"/>
       <c r="N54" s="65"/>
-      <c r="O54" s="65"/>
-      <c r="P54" s="65"/>
-      <c r="Q54" s="65"/>
-      <c r="R54" s="65"/>
+      <c r="O54" s="65" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P54" s="65" t="s">
+        <v>1369</v>
+      </c>
+      <c r="Q54" s="65" t="s">
+        <v>1293</v>
+      </c>
+      <c r="R54" s="65" t="s">
+        <v>1610</v>
+      </c>
       <c r="S54" s="29"/>
       <c r="V54" s="56"/>
     </row>
@@ -12418,7 +13986,9 @@
       <c r="D55" s="62"/>
       <c r="E55" s="62"/>
       <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
+      <c r="G55" s="62" t="s">
+        <v>1357</v>
+      </c>
       <c r="H55" s="62"/>
       <c r="I55" s="62"/>
       <c r="J55" s="62"/>
@@ -12444,7 +14014,7 @@
         <v>1331</v>
       </c>
       <c r="G56" s="61" t="s">
-        <v>1199</v>
+        <v>1474</v>
       </c>
       <c r="H56" s="61"/>
       <c r="I56" s="61" t="s">
@@ -12490,7 +14060,7 @@
       <c r="F57" s="60" t="s">
         <v>1279</v>
       </c>
-      <c r="G57" s="60" t="s">
+      <c r="G57" s="68" t="s">
         <v>160</v>
       </c>
       <c r="H57" s="60" t="s">
@@ -12535,20 +14105,44 @@
     </row>
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="21"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
+      <c r="D58" s="65" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E58" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="F58" s="65" t="s">
+        <v>1611</v>
+      </c>
+      <c r="G58" s="65" t="s">
+        <v>1488</v>
+      </c>
       <c r="H58" s="65"/>
-      <c r="I58" s="65"/>
-      <c r="J58" s="65"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="65"/>
+      <c r="I58" s="65" t="s">
+        <v>1612</v>
+      </c>
+      <c r="J58" s="65" t="s">
+        <v>1185</v>
+      </c>
+      <c r="K58" s="65" t="s">
+        <v>1608</v>
+      </c>
+      <c r="L58" s="65" t="s">
+        <v>331</v>
+      </c>
       <c r="M58" s="65"/>
-      <c r="N58" s="65"/>
-      <c r="O58" s="65"/>
-      <c r="P58" s="65"/>
-      <c r="Q58" s="65"/>
+      <c r="N58" s="65" t="s">
+        <v>1182</v>
+      </c>
+      <c r="O58" s="65" t="s">
+        <v>1206</v>
+      </c>
+      <c r="P58" s="65" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Q58" s="65" t="s">
+        <v>1601</v>
+      </c>
       <c r="R58" s="65"/>
       <c r="S58" s="29"/>
       <c r="V58" s="56"/>
@@ -12561,14 +14155,18 @@
       <c r="F59" s="62"/>
       <c r="G59" s="62"/>
       <c r="H59" s="62"/>
-      <c r="I59" s="62"/>
+      <c r="I59" s="62" t="s">
+        <v>1358</v>
+      </c>
       <c r="J59" s="62"/>
       <c r="K59" s="62"/>
       <c r="L59" s="62"/>
       <c r="M59" s="62"/>
       <c r="N59" s="62"/>
       <c r="O59" s="62"/>
-      <c r="P59" s="62"/>
+      <c r="P59" s="62" t="s">
+        <v>1358</v>
+      </c>
       <c r="Q59" s="62"/>
       <c r="R59" s="62"/>
       <c r="V59" s="56"/>
@@ -12591,7 +14189,7 @@
         <v>55</v>
       </c>
       <c r="I60" s="61" t="s">
-        <v>1176</v>
+        <v>1476</v>
       </c>
       <c r="J60" s="61"/>
       <c r="K60" s="61" t="s">
@@ -12610,7 +14208,7 @@
         <v>55</v>
       </c>
       <c r="P60" s="61" t="s">
-        <v>1176</v>
+        <v>1476</v>
       </c>
       <c r="Q60" s="61"/>
       <c r="R60" s="61"/>
@@ -12637,7 +14235,7 @@
       <c r="H61" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="I61" s="60" t="s">
+      <c r="I61" s="68" t="s">
         <v>294</v>
       </c>
       <c r="J61" s="60" t="s">
@@ -12658,7 +14256,7 @@
       <c r="O61" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="P61" s="60" t="s">
+      <c r="P61" s="68" t="s">
         <v>294</v>
       </c>
       <c r="Q61" s="60" t="s">
@@ -12678,19 +14276,43 @@
     </row>
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="21"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="65"/>
+      <c r="D62" s="65" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E62" s="65" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F62" s="65" t="s">
+        <v>1573</v>
+      </c>
+      <c r="G62" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="H62" s="65" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I62" s="65" t="s">
+        <v>1489</v>
+      </c>
       <c r="J62" s="65"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="65"/>
-      <c r="M62" s="65"/>
-      <c r="N62" s="65"/>
-      <c r="O62" s="65"/>
-      <c r="P62" s="65"/>
+      <c r="K62" s="65" t="s">
+        <v>1595</v>
+      </c>
+      <c r="L62" s="65" t="s">
+        <v>1615</v>
+      </c>
+      <c r="M62" s="65" t="s">
+        <v>1573</v>
+      </c>
+      <c r="N62" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="O62" s="65" t="s">
+        <v>1614</v>
+      </c>
+      <c r="P62" s="65" t="s">
+        <v>1489</v>
+      </c>
       <c r="Q62" s="65"/>
       <c r="R62" s="65"/>
       <c r="S62" s="29"/>
@@ -21106,15 +22728,23 @@
     <mergeCell ref="V3:V82"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="183" priority="110">
+  <conditionalFormatting sqref="D3:N3 P3:R3">
+    <cfRule type="expression" dxfId="187" priority="114">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="109">
+    <cfRule type="expression" dxfId="186" priority="113">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:R7">
+  <conditionalFormatting sqref="D11:R11">
+    <cfRule type="expression" dxfId="183" priority="71">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="72">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:R15">
     <cfRule type="expression" dxfId="181" priority="70">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
@@ -21122,7 +22752,7 @@
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:R11">
+  <conditionalFormatting sqref="D19:H19 J19:R19">
     <cfRule type="expression" dxfId="179" priority="67">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -21130,15 +22760,15 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="177" priority="66">
+  <conditionalFormatting sqref="D23:R23">
+    <cfRule type="expression" dxfId="177" priority="65">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="176" priority="66">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="65">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:H19 J19:R19">
+  <conditionalFormatting sqref="D27:M27 O27:R27">
     <cfRule type="expression" dxfId="175" priority="63">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -21146,23 +22776,23 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23:R23">
-    <cfRule type="expression" dxfId="173" priority="61">
+  <conditionalFormatting sqref="D31:I31 K31:R31">
+    <cfRule type="expression" dxfId="173" priority="62">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="61">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="62">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:R35">
+    <cfRule type="expression" dxfId="171" priority="60">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:M27 O27:R27">
-    <cfRule type="expression" dxfId="171" priority="59">
+    <cfRule type="expression" dxfId="170" priority="59">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="60">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:I31 K31:R31">
+  <conditionalFormatting sqref="D39:R39">
     <cfRule type="expression" dxfId="169" priority="58">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
@@ -21170,7 +22800,7 @@
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35:R35">
+  <conditionalFormatting sqref="D43:R43">
     <cfRule type="expression" dxfId="167" priority="56">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
@@ -21178,23 +22808,23 @@
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="165" priority="54">
+  <conditionalFormatting sqref="D47:N47 P47:R47">
+    <cfRule type="expression" dxfId="165" priority="53">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="54">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="53">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51:F51 H51:I51 K51:R51">
+    <cfRule type="expression" dxfId="163" priority="51">
       <formula>顯示注音輸入</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="163" priority="52">
+    <cfRule type="expression" dxfId="162" priority="52">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="51">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:N47 P47:R47">
+  <conditionalFormatting sqref="D55:R55">
     <cfRule type="expression" dxfId="161" priority="49">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -21202,7 +22832,7 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:F51 H51:I51 K51:R51">
+  <conditionalFormatting sqref="D59:R59">
     <cfRule type="expression" dxfId="159" priority="47">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -21210,15 +22840,15 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="157" priority="45">
+  <conditionalFormatting sqref="D63:R63">
+    <cfRule type="expression" dxfId="157" priority="46">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="45">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="46">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59:R59">
+  <conditionalFormatting sqref="D67:R67">
     <cfRule type="expression" dxfId="155" priority="43">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -21226,47 +22856,47 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="153" priority="42">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="41">
+  <conditionalFormatting sqref="D71:R71">
+    <cfRule type="expression" dxfId="153" priority="41">
       <formula>顯示注音輸入</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="151" priority="39">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="40">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="149" priority="37">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="38">
+    <cfRule type="expression" dxfId="152" priority="42">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="147" priority="36">
+    <cfRule type="expression" dxfId="151" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="35">
+    <cfRule type="expression" dxfId="150" priority="39">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="145" priority="34">
+    <cfRule type="expression" dxfId="149" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="33">
+    <cfRule type="expression" dxfId="148" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
+    <cfRule type="expression" dxfId="147" priority="35">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="36">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:R87">
+    <cfRule type="expression" dxfId="145" priority="33">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="34">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D91:R91">
     <cfRule type="expression" dxfId="143" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -21274,15 +22904,15 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D87:R87">
-    <cfRule type="expression" dxfId="141" priority="29">
+  <conditionalFormatting sqref="D95:R95">
+    <cfRule type="expression" dxfId="141" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="29">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="30">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D91:R91">
+  <conditionalFormatting sqref="D99:R99">
     <cfRule type="expression" dxfId="139" priority="27">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -21290,7 +22920,7 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D95:R95">
+  <conditionalFormatting sqref="D103:R103">
     <cfRule type="expression" dxfId="137" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
@@ -21298,31 +22928,31 @@
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D99:R99">
-    <cfRule type="expression" dxfId="135" priority="23">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="24">
+  <conditionalFormatting sqref="D107:R107">
+    <cfRule type="expression" dxfId="135" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D103:R103">
-    <cfRule type="expression" dxfId="133" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="21">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="131" priority="20">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="19">
+    <cfRule type="expression" dxfId="134" priority="23">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:R111">
+    <cfRule type="expression" dxfId="133" priority="21">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115:R115">
+    <cfRule type="expression" dxfId="131" priority="19">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="20">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D119:R119">
     <cfRule type="expression" dxfId="129" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -21330,23 +22960,23 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D115:R115">
-    <cfRule type="expression" dxfId="127" priority="15">
+  <conditionalFormatting sqref="D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
+    <cfRule type="expression" dxfId="127" priority="160">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="159">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="16">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
+    <cfRule type="expression" dxfId="125" priority="158">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D119:R119">
-    <cfRule type="expression" dxfId="125" priority="13">
+    <cfRule type="expression" dxfId="124" priority="157">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="14">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
+  <conditionalFormatting sqref="D203:R203">
     <cfRule type="expression" dxfId="123" priority="156">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
@@ -21354,7 +22984,7 @@
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
+  <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
     <cfRule type="expression" dxfId="121" priority="154">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
@@ -21362,31 +22992,31 @@
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="119" priority="152">
+  <conditionalFormatting sqref="D243:R243">
+    <cfRule type="expression" dxfId="119" priority="110">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="151">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="117" priority="150">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="149">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D243:R243">
-    <cfRule type="expression" dxfId="115" priority="106">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="105">
+    <cfRule type="expression" dxfId="118" priority="109">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D247:R247 D251:R251 D255:R255 D259:R259 D263:R263 D267:R267 D271:R271 D275:R275 D279:R279">
+    <cfRule type="expression" dxfId="117" priority="107">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="108">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D283:R283">
+    <cfRule type="expression" dxfId="115" priority="105">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="106">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D287:R287">
     <cfRule type="expression" dxfId="113" priority="103">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -21394,7 +23024,7 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D283:R283">
+  <conditionalFormatting sqref="D291:R291 D295:R295 D299:R299 D303:R303 D307:R307 D311:R311 D315:R315 D319:R319 D323:R323">
     <cfRule type="expression" dxfId="111" priority="101">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -21402,7 +23032,7 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D287:R287">
+  <conditionalFormatting sqref="D327:R327">
     <cfRule type="expression" dxfId="109" priority="99">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -21410,7 +23040,7 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D291:R291 D295:R295 D299:R299 D303:R303 D307:R307 D311:R311 D315:R315 D319:R319 D323:R323">
+  <conditionalFormatting sqref="D331:R331">
     <cfRule type="expression" dxfId="107" priority="97">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -21418,7 +23048,7 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D327:R327">
+  <conditionalFormatting sqref="D335:R335 D339:R339 D343:R343 D347:R347 D351:R351 D355:R355 D359:R359 D363:R363 D367:R367">
     <cfRule type="expression" dxfId="105" priority="95">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -21426,7 +23056,7 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D331:R331">
+  <conditionalFormatting sqref="D371:R371">
     <cfRule type="expression" dxfId="103" priority="93">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -21434,23 +23064,23 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D335:R335 D339:R339 D343:R343 D347:R347 D351:R351 D355:R355 D359:R359 D363:R363 D367:R367">
-    <cfRule type="expression" dxfId="101" priority="91">
+  <conditionalFormatting sqref="D375:R375">
+    <cfRule type="expression" dxfId="101" priority="92">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="91">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="92">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D379:R379 D383:R383 D387:R387 D391:R391 D395:R395 D399:R399 D403:R403 D407:R407 D411:R411">
+    <cfRule type="expression" dxfId="99" priority="90">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D371:R371">
-    <cfRule type="expression" dxfId="99" priority="89">
+    <cfRule type="expression" dxfId="98" priority="89">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="90">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D375:R375">
+  <conditionalFormatting sqref="D415:R415">
     <cfRule type="expression" dxfId="97" priority="88">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
@@ -21458,7 +23088,7 @@
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D379:R379 D383:R383 D387:R387 D391:R391 D395:R395 D399:R399 D403:R403 D407:R407 D411:R411">
+  <conditionalFormatting sqref="D419:R419">
     <cfRule type="expression" dxfId="95" priority="86">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
@@ -21466,7 +23096,7 @@
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D415:R415">
+  <conditionalFormatting sqref="D423:R423 D427:R427 D431:R431 D435:R435 D439:R439 D443:R443 D447:R447 D451:R451 D455:R455">
     <cfRule type="expression" dxfId="93" priority="84">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
@@ -21474,23 +23104,23 @@
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D419:R419">
-    <cfRule type="expression" dxfId="91" priority="82">
+  <conditionalFormatting sqref="D459:R459">
+    <cfRule type="expression" dxfId="91" priority="79">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="80">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="81">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D463:R463 D467:R467 D471:R471 D475:R475">
+    <cfRule type="expression" dxfId="89" priority="77">
       <formula>顯示注音輸入</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D423:R423 D427:R427 D431:R431 D435:R435 D439:R439 D443:R443 D447:R447 D451:R451 D455:R455">
-    <cfRule type="expression" dxfId="89" priority="80">
+    <cfRule type="expression" dxfId="88" priority="78">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="79">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D459:R459">
+  <conditionalFormatting sqref="D479:R479">
     <cfRule type="expression" dxfId="87" priority="75">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -21498,23 +23128,23 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D463:R463 D467:R467 D471:R471 D475:R475">
-    <cfRule type="expression" dxfId="85" priority="73">
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="74">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D479:R479">
-    <cfRule type="expression" dxfId="83" priority="71">
+  <conditionalFormatting sqref="N27">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="72">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
+  <conditionalFormatting sqref="J31">
     <cfRule type="expression" dxfId="11" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -21522,7 +23152,7 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N27">
+  <conditionalFormatting sqref="O47">
     <cfRule type="expression" dxfId="9" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -21530,7 +23160,7 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
+  <conditionalFormatting sqref="G51">
     <cfRule type="expression" dxfId="7" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -21538,7 +23168,7 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O47">
+  <conditionalFormatting sqref="J51">
     <cfRule type="expression" dxfId="5" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -21546,15 +23176,15 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="3" priority="3">
+  <conditionalFormatting sqref="O3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
+  <conditionalFormatting sqref="D7:R7">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -33194,282 +34824,282 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="81" priority="60">
+    <cfRule type="expression" dxfId="85" priority="60">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="59">
+    <cfRule type="expression" dxfId="84" priority="59">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="79" priority="57">
+    <cfRule type="expression" dxfId="83" priority="57">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="58">
+    <cfRule type="expression" dxfId="82" priority="58">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="77" priority="55">
+    <cfRule type="expression" dxfId="81" priority="55">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="56">
+    <cfRule type="expression" dxfId="80" priority="56">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="75" priority="54">
+    <cfRule type="expression" dxfId="79" priority="54">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="53">
+    <cfRule type="expression" dxfId="78" priority="53">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="73" priority="52">
+    <cfRule type="expression" dxfId="77" priority="52">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="51">
+    <cfRule type="expression" dxfId="76" priority="51">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23">
-    <cfRule type="expression" dxfId="71" priority="49">
+    <cfRule type="expression" dxfId="75" priority="49">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="50">
+    <cfRule type="expression" dxfId="74" priority="50">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="69" priority="48">
+    <cfRule type="expression" dxfId="73" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="47">
+    <cfRule type="expression" dxfId="72" priority="47">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="67" priority="46">
+    <cfRule type="expression" dxfId="71" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="45">
+    <cfRule type="expression" dxfId="70" priority="45">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="65" priority="43">
+    <cfRule type="expression" dxfId="69" priority="43">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="44">
+    <cfRule type="expression" dxfId="68" priority="44">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="63" priority="42">
+    <cfRule type="expression" dxfId="67" priority="42">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="41">
+    <cfRule type="expression" dxfId="66" priority="41">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="61" priority="40">
+    <cfRule type="expression" dxfId="65" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="39">
+    <cfRule type="expression" dxfId="64" priority="39">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="59" priority="37">
+    <cfRule type="expression" dxfId="63" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="38">
+    <cfRule type="expression" dxfId="62" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="57" priority="35">
+    <cfRule type="expression" dxfId="61" priority="35">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="36">
+    <cfRule type="expression" dxfId="60" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="55" priority="34">
+    <cfRule type="expression" dxfId="59" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="33">
+    <cfRule type="expression" dxfId="58" priority="33">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="53" priority="31">
+    <cfRule type="expression" dxfId="57" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="32">
+    <cfRule type="expression" dxfId="56" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="51" priority="30">
+    <cfRule type="expression" dxfId="55" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="29">
+    <cfRule type="expression" dxfId="54" priority="29">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="49" priority="27">
+    <cfRule type="expression" dxfId="53" priority="27">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="28">
+    <cfRule type="expression" dxfId="52" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="47" priority="25">
+    <cfRule type="expression" dxfId="51" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="26">
+    <cfRule type="expression" dxfId="50" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="45" priority="24">
+    <cfRule type="expression" dxfId="49" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="23">
+    <cfRule type="expression" dxfId="48" priority="23">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="43" priority="22">
+    <cfRule type="expression" dxfId="47" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="21">
+    <cfRule type="expression" dxfId="46" priority="21">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="41" priority="19">
+    <cfRule type="expression" dxfId="45" priority="19">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="20">
+    <cfRule type="expression" dxfId="44" priority="20">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:R87">
-    <cfRule type="expression" dxfId="39" priority="17">
+    <cfRule type="expression" dxfId="43" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="18">
+    <cfRule type="expression" dxfId="42" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:R91">
-    <cfRule type="expression" dxfId="37" priority="16">
+    <cfRule type="expression" dxfId="41" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="15">
+    <cfRule type="expression" dxfId="40" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:R95">
-    <cfRule type="expression" dxfId="35" priority="13">
+    <cfRule type="expression" dxfId="39" priority="13">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="14">
+    <cfRule type="expression" dxfId="38" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:R99">
-    <cfRule type="expression" dxfId="33" priority="12">
+    <cfRule type="expression" dxfId="37" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="11">
+    <cfRule type="expression" dxfId="36" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103:R103">
-    <cfRule type="expression" dxfId="31" priority="10">
+    <cfRule type="expression" dxfId="35" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="9">
+    <cfRule type="expression" dxfId="34" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="29" priority="8">
+    <cfRule type="expression" dxfId="33" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="7">
+    <cfRule type="expression" dxfId="32" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:R111">
-    <cfRule type="expression" dxfId="27" priority="6">
+    <cfRule type="expression" dxfId="31" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="5">
+    <cfRule type="expression" dxfId="30" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115:R115">
-    <cfRule type="expression" dxfId="25" priority="4">
+    <cfRule type="expression" dxfId="29" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119:R119">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="27" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143">
-    <cfRule type="expression" dxfId="21" priority="61">
+    <cfRule type="expression" dxfId="25" priority="61">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="62">
+    <cfRule type="expression" dxfId="24" priority="62">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="19" priority="109">
+    <cfRule type="expression" dxfId="23" priority="109">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="110">
+    <cfRule type="expression" dxfId="22" priority="110">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="17" priority="107">
+    <cfRule type="expression" dxfId="21" priority="107">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="108">
+    <cfRule type="expression" dxfId="20" priority="108">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="15" priority="105">
+    <cfRule type="expression" dxfId="19" priority="105">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="106">
+    <cfRule type="expression" dxfId="18" priority="106">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="13" priority="103">
+    <cfRule type="expression" dxfId="17" priority="103">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="104">
+    <cfRule type="expression" dxfId="16" priority="104">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
